--- a/datasets/train.xlsx
+++ b/datasets/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>degron_seq</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>E3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,325 +458,325 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q86YC2</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEETGE</t>
+          <t>P00748</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q14145</t>
+          <t>LAPAAGDTIISLDF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+          <t>MRALLLLGFLLVSLESTLSIPPWEAPKEHKYKAEEHTVVLTVTGEPCHFPFQYHRQLYHKCTHKGRPGPQPWCATTPNFDQDQRWGYCLEPKKVKDHCSKHSPCQKGGTCVNMPSGPHCLCPQHLTGNHCQKEKCFEPQLLRFFHKNEIWYRTEQAAVARCQCKGPDAHCQRLASQACRTNPCLHGGRCLEVEGHRLCHCPVGYTGAFCDVDTKASCYDGRGLSYRGLARTTLSGAPCQPWASEATYRNVTAEQARNWGLGGHAFCRNPDNDIRPWCFVLNRDRLSWEYCDLAQCQTPTQAAPPTPVSPRLHVPLMPAQPAPPKPQPTTRTPPQSQTPGALPAKREQPPSLTRNGPLSCGQRLRKSLSSMTRVVGGLVALRGAHPYIAALYWGHSFCAGSLIAPCWVLTAAHCLQDRPAPEDLTVVLGQERRNHSCEPCQTLAVRSYRLHEAFSPVSYQHDLALLRLQEDADGSCALLSPYVQPVCLPSGAARPSETTLCQVAGWGHQFEGAEEYASFLQEAQVPFLSLERCSAPDVHGSSILPGMLCAGFLEGGTDACQGDSGGPLVCEDQAAERRLTLQGIISWGSGCGDRNKPGVYTDVAYYLAWIREHTVS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P00533</t>
+          <t>P17181</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSFLQRYSSDP</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P22681;Q96J02;Q13191;Q9Y4L5;Q9BV68;P46934;Q9ULV8;Q99675;P50876;Q9HAU4;O75159;Q9H0M0;Q8ND25</t>
+          <t>DSGNYS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MANSMNGRNPGGRGGNPRKGRILGIIDAIQDAVGPPKQAAADRRTVEKTWKLMDKVVRLCQNPKLQLKNSPPYILDILPDTYQHLRLILSKYDDNQKLAQLSENEYFKIYIDSLMKKSKRAIRLFKEGKERMYEEQSQDRRNLTKLSLIFSHMLAEIKAIFPNGQFQGDNFRITKADAAEFWRKFFGDKTIVPWKVFRQCLHEVHQISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWGSILRNWNFLAVTHPGYMAFLTYDEVKARLQKYSTKPGSYIFRLSCTRLGQWAIGYVTGDGNILQTIPHNKPLFQALIDGSREGFYLYPDGRSYNPDLTGLCEPTPHDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTAWQESDGQGCPFCRCEIKGTEPIIVDPFDPRDEGSRCCSIIDPFGMPMLDLDDDDDREESLMMNRLANVRKCTDRQNSPVTSPGSSPLAQRRKPQPDPLQIPHLSLPPVPPRLDLIQKGIVRSPCGSPTGSPKSSPCMVRKQDKPLPAPPPPLRDPPPPPPERPPPIPPDNRLSRHIHHVESVPSRDPPMPLEAWCPRDVFGTNQLVGCRLLGEGSPKPGITASSNVNGRHSRVGSDPVLMRKHRRHDLPLEGAKVFSNGHLGSEEYDVPPRLSPPPPVTTLLPSIKCTGPLANSLSEKTRDPVEEDDDEYKIPSSHPVSLNSQPSHCHNVKPPVRSCDNGHCMLNGTHGPSSEKKSNIPDLSIYLKGDVFDSASDPVPLPPARPPTRDNPKHGSSLNRTPSDYDLLIPPLGEDAFDALPPSLPPPPPPARHSLIEHSKPPGSSSRPSSGQDLFLLPSDPFVDLASGQVPLPPARRLPGENVKTNRTSQDYDQLPSCSDGSQAPARPPKPRPRRTAPEIHHRKPHGPEAALENVDAKIAKLMGEGYAFEEVKRALEIAQNNVEVARSILREFAFPPPVSPRLNL;MAEASAAGADSGAAVAAHRFFCHFCKGEVSPKLPEYICPRCESGFIEEVTDDSSFLGGGGSRIDNTTTTHFAELWGHLDHTMFFQDFRPFLSSSPLDQDNRANERGHQTHTDFWGARPPRLPLGRRYRSRGSSRPDRSPAIEGILQHIFAGFFANSAIPGSPHPFSWSGMLHSNPGDYAWGQTGLDAIVTQLLGQLENTGPPPADKEKITSLPTVTVTQEQVDMGLECPVCKEDYTVEEEVRQLPCNHFFHSSCIVPWLELHDTCPVCRKSLNGEDSTRQSQSTEASASNRFSNDSQLHDRWTF;MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MALAVAPWGRQWEEARALGRAVRMLQRLEEQCVDPRLSVSPPSLRDLLPRTAQLLREVAHSRRAAGGGGPGGPGGSGDFLLIYLANLEAKSRQVAALLPPRGRRSANDELFRAGSRLRRQLAKLAIIFSHMHAELHALFPGGKYCGHMYQLTKAPAHTFWRESCGARCVLPWAEFESLLGTCHPVEPGCTALALRTTIDLTCSGHVSIFEFDVFTRLFQPWPTLLKNWQLLAVNHPGYMAFLTYDEVQERLQACRDKPGSYIFRPSCTRLGQWAIGYVSSDGSILQTIPANKPLSQVLLEGQKDGFYLYPDGKTHNPDLTELGQAEPQQRIHVSEEQLQLYWAMDSTFELCKICAESNKDVKIEPCGHLLCSCCLAAWQHSDSQTCPFCRCEIKGWEAVSIYQFHGQATAEDSGNSSDQEGRELELGQVPLSAPPLPPRPDLPPRKPRNAQPKVRLLKGNSPPAALGPQDPAPA;MAAVFLVTLYEYSPLFYIAVVFTCFIVTTGLVLGWFGWDVPVILRNSEETQFSTRVFKKQMRQVKNPFGLEITNPSSASITTGITLTTDCLEDSLLTCYWGCSVQKLYEALQKHVYCFRISTPQALEDALYSEYLYQEQYFIKKDSKEEIYCQLPRDTKIEDFGTVPRSRYPLVALLTLADEDDREIYDIISMVSVIHIPDRTYKLSCRILYQYLLLAQGQFHDLKQLFMSANNNFTPSNNSSSEEKNTDRSLLEKVGLSESEVEPSEENSKDCVVCQNGTVNWVLLPCRHTCLCDGCVKYFQQCPMCRQFVQESFALCSQKEQDKDKPKTL;MTTTRYRPTWDLALDPLVSCKLCLGEYPVEQMTTIAQCQCIFCTLCLKQYVELLIKEGLETAISCPDAACPKQGHLQENEIECMVAAEIMQRYKKLQFEREVLFDPCRTWCPASTCQAVCQLQDVGLQTPQPVQCKACRMEFCSTCKASWHPGQGCPETMPITFLPGETSAAFKMEEDDAPIKRCPKCKVYIERDEGCAQMMCKNCKHAFCWYCLESLDDDFLLIHYDKGPCRNKLGHSRASVIWHRTQVVGIFAGFGLLLLVASPFLLLATPFVLCCKCKCSKGDDDPLPT;MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE;MDKVGKMWNNFKYRCQNLFGHEGGSRSENVDMNSNRCLSVKEKNISIGDSTPQQQSSPLRENIALQLGLSPSKNSSRRNQNCATEIPQIVEISIEKDNDSCVTPGTRLARRDSYSRHAPWGGKKKHSCSTKTQSSLDADKKFGRTRSGLQRRERRYGVSSVHDMDSVSSRTVGSRSLRQRLQDTVGLCFPMRTYSKQSKPLFSNKRKIHLSELMLEKCPFPAGSDLAQKWHLIKQHTAPVSPHSTFFDTFDPSLVSTEDEEDRLRERRRLSIEEGVDPPPNAQIHTFEATAQVNPLYKLGPKLAPGMTEISGDSSAIPQANCDSEEDTTTLCLQSRRQKQRQISGDSHTHVSRQGAWKVHTQIDYIHCLVPDLLQITGNPCYWGVMDRYEAEALLEGKPEGTFLLRDSAQEDYLFSVSFRRYNRSLHARIEQWNHNFSFDAHDPCVFHSSTVTGLLEHYKDPSSCMFFEPLLTISLNRTFPFSLQYICRAVICRCTTYDGIDGLPLPSMLQDFLKEYHYKQKVRVRWLEREPVKAK;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MGGKQSTAARSRGPFPGVSTDDSAVPPPGGAPHFGHYRTGGGAMGLRSRSVSSVAGMGMDPSTAGGVPFGLYTPASRGTGDSERAPGGGGSASDSTYAHGNGYQETGGGHHRDGMLYLGSRASLADALPLHIAPRWFSSHSGFKCPICSKSVASDEMEMHFIMCLSKPRLSYNDDVLTKDAGECVICLEELLQGDTIARLPCLCIYHKSCIDSWFEVNRSCPEHPAD</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P03372</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AGSTS</t>
+          <t>P10523</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q9UNE7;Q13309;P38398;O43791;P62877;Q05086;Q14258;P35869;Q99728;Q9P0P0;Q96F44;Q9BZR9</t>
+          <t>LAPAAGDTIISLDF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MAAAMDVDTPSGTNSGAGKKRFEVKKWNAVALWAWDIVVDNCAICRNHIMDLCIECQANQASATSEECTVAWGVCNHAFHFHCISRWLKTRQVCPLDNREWEFQKYGH;MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML;MAELCPLAEELSCSICLEPFKEPVTTPCGHNFCGSCLNETWAVQGSPYLCPQCRAVYQARPQLHKNTVLCNVVEQFLQADLAREPPADVWTPPARASAPSPNAQVACDHCLKEAAVKTCLVCMASFCQEHLQPHFDSPAFQDHPLQPPVRDLLRRKCSQHNRLREFFCPEHSECICHICLVEHKTCSPASLSQASADLEATLRHKLTVMYSQINGASRALDDVRNRQQDVRMTANRKVEQLQQEYTEMKALLDASETTSTRKIKEEEKRVNSKFDTIYQILLKKKSEIQTLKEEIEQSLTKRDEFEFLEKASKLRGISTKPVYIPEVELNHKLIKGIHQSTIDLKNELKQCIGRLQEPTPSSGDPGEHDPASTHKSTRPVKKVSKEEKKSKKPPPVPALPSKLPTFGAPEQLVDLKQAGLEAAAKATSSHPNSTSLKAKVLETFLAKSRPELLEYYIKVILDYNTAHNKVALSECYTVASVAEMPQNYRPHPQRFTYCSQVLGLHCYKKGIHYWEVELQKNNFCGVGICYGSMNRQGPESRLGRNSASWCVEWFNTKISAWHNNVEKTLPSTKATRVGVLLNCDHGFVIFFAVADKVHLMYKFRVDFTEALYPAFWVFSAGATLSICSPK;MNSSSANITYASRKRRKPVQKTVKPIPAEGIKSNPSKRHRDRLNTELDRLASLLPFPQDVINKLDKLSVLRLSVSYLRAKSFFDVALKSSPTERNGGQDNCRAANFREGLNLQEGEFLLQALNGFVLVVTTDALVFYASSTIQDYLGFQQSDVIHQSVYELIHTEDRAEFQRQLHWALNPSQCTESGQGIEEATGLPQTVVCYNPDQIPPENSPLMERCFICRLRCLLDNSSGFLAMNFQGKLKYLHGQKKKGKDGSILPPQLALFAIATPLQPPSILEIRTKNFIFRTKHKLDFTPIGCDAKGRIVLGYTEAELCTRGSGYQFIHAADMLYCAESHIRMIKTGESGMIVFRLLTKNNRWTWVQSNARLLYKNGRPDYIIVTQRPLTDEEGTEHLRKRNTKLPFMFTTGEAVLYEATNPFPAIMDPLPLRTKNGTSGKDSATTSTLSKDSLNPSSLLAAMMQQDESIYLYPASSTSSTAPFENNFFNESMNECRNWQDNTAPMGNDTILKHEQIDQPQDVNSFAGGHPGLFQDSKNSDLYSIMKNLGIDFEDIRHMQNEKFFRNDFSGEVDFRDIDLTDEILTYVQDSLSKSPFIPSDYQQQQSLALNSSCMVQEHLHLEQQQQHHQKQVVVEPQQQLCQKMKHMQVNGMFENWNSNQFVPFNCPQQDPQQYNVFTDLHGISQEFPYKSEMDSMPYTQNFISCNQPVLPQHSKCTELDYPMGSFEPSPYPTTSSLEDFVTCLQLPENQKHGLNPQSAIITPQTCYAGAVSMYQCQPEPQHTHVGQMQYNPVLPGQQAFLNKFQNGVLNETYPAELNNINNTQTTTHLQPLHHPSEARPFPDLTSSGFL;MPDNRQPRNRQPRIRSGNEPRSAPAMEPDGRGAWAHSRAALDRLEKLLRCSRCTNILREPVCLGGCEHIFCSNCVSDCIGTGCPVCYTPAWIQDLKINRQLDSMIQLCSKLRNLLHDNELSDLKEDKPRKSLFNDAGNKKNSIKMWFSPRSKKVRYVVSKASVQTQPAIKKDASAQQDSYEFVSPSPPADVSERAKKASARSGKKQKKKTLAEINQKWNLEAEKEDGEFDSKEESKQKLVSFCSQPSVISSPQINGEIDLLASGSLTESECFGSLTEVSLPLAEQIESPDTKSRNEVVTPEKVCKNYLTSKKSLPLENNGKRGHHNRLSSPISKRCRTSILSTSGDFVKQTVPSENIPLPECSSPPSCKRKVGGTSGRKNSNMSDEFISLSPGTPPSTLSSSSYRRVMSSPSAMKLLPNMAVKRNHRGETLLHIASIKGDIPSVEYLLQNGSDPNVKDHAGWTPLHEACNHGHLKVVELLLQHKALVNTTGYQNDSPLHDAAKNGHVDIVKLLLSYGASRNAVNIFGLRPVDYTDDESMKSLLLLPEKNESSSASHCSVMNTGQRRDGPLVLIGSGLSSEQQKMLSELAVILKAKKYTEFDSTVTHVVVPGDAVQSTLKCMLGILNGCWILKFEWVKACLRRKVCEQEEKYEIPEGPRRSRLNREQLLPKLFDGCYFYLWGTFKHHPKDNLIKLVTAGGGQILSRKPKPDSDVTQTINTVAYHARPDSDQRFCTQYIIYEDLCNYHPERVRQGKVWKAPSSWFIDCVMSFELLPLDS;MASYFDEHDCEPSDPEQETRTNMLLELARSLFNRMDFEDLGLVVDWDHHLPPPAAKTVVENLPRTVIRGSQAELKCPVCLLEFEEEETAIEMPCHHLFHSSCILPWLSKTNSCPLCRYELPTDDDTYEEHRRDKARKQQQQHRLENLHGAMYT;MAAPDLSTNLQEEATCAICLDYFTDPVMTDCGHNFCRECIRRCWGQPEGPYACPECRELSPQRNLRPNRPLAKMAEMARRLHPPSPVPQGVCPAHREPLAAFCGDELRLLCAACERSGEHWAHRVRPLQDAAEDLKAKLEKSLEHLRKQMQDALLFQAQADETCVLWQKMVESQRQNVLGEFERLRRLLAEEEQQLLQRLEEEELEVLPRLREGAAHLGQQSAHLAELIAELEGRCQLPALGLLQDIKDALRRVQDVKLQPPEVVPMELRTVCRVPGLVETLRRFRGDVTLDPDTANPELILSEDRRSVQRGDLRQALPDSPERFDPGPCVLGQERFTSGRHYWEVEVGDRTSWALGVCRENVNRKEKGELSAGNGFWILVFLGSYYNSSERALAPLRDPPRRVGIFLDYEAGHLSFYSATDGSLLFIFPEIPFSGTLRPLFSPLSSSPTPMTICRPKGGSGDTLAPQ;MAENWKNCFEEELICPICLHVFVEPVQLPCKHNFCRGCIGEAWAKDSGLVRCPECNQAYNQKPGLEKNLKLTNIVEKFNALHVEKPPAALHCVFCRRGPPLPAQKVCLRCEAPCCQSHVQTHLQQPSTARGHLLVEADDVRAWSCPQHNAYRLYHCEAEQVAVCQYCCYYSGAHQGHSVCDVEIRRNEIRKMLMKQQDRLEEREQDIEDQLYKLESDKRLVEEKVNQLKEEVRLQYEKLHQLLDEDLRQTVEVLDKAQAKFCSENAAQALHLGERMQEAKKLLGSLQLLFDKTEDVSFMKNTKSVKILMDRTQTCTSSSLSPTKIGHLNSKLFLNEVAKKEKQLRKMLEGPFSTPVPFLQSVPLYPCGVSSSGAEKRKHSTAFPEASFLETSSGPVGGQYGAAGTASGEGQSGQPLGPCSSTQHLVALPGGAQPVHSSPVFPPSQYPNGSAAQQPMLPQYGGRKILVCSVDNCYCSSVANHGGHQPYPRSGHFPWTVPSQEYSHPLPPTPSVPQSLPSLAVRDWLDASQQPGHQDFYRVYGQPSTKHYVTS</t>
+          <t>MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O75367</t>
+          <t>P35659</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ADSTT</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O43791;Q8IWR1;Q8IYW5</t>
+          <t>ADSST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MHNFEEELTCPICYSIFEDPRVLPCSHTFCRNCLENILQASGNFYIWRPLRIPLKCPNCRSITEIAPTGIESLPVNFALRAIIEKYQQEDHPDIVTCPEHYRQPLNVYCLLDKKLVCGHCLTIGQHHGHPIDDLQSAYLKEKDTPQKLLEQLTDTHWTDLTHLIEKLKEQKSHSEKMIQGDKEAVLQYFKELNDTLEQKKKSFLTALCDVGNLINQEYTPQIERMKEIREQQLELMALTISLQEESPLKFLEKVDDVRQHVQILKQRPLPEVQPVEIYPRVSKILKEEWSRTEIGQIKNVLIPKMKISPKRMSCSWPGKDEKEVEFLKILNIVVVTLISVILMSILFFNQHIITFLSEITLIWFSEASLSVYQSLSNSLHKVKNILCHIFYLLKEFVWKIVSH;MALPKDAIPSLSECQCGICMEILVEPVTLPCNHTLCKPCFQSTVEKASLCCPFCRRRVSSWTRYHTRRNSLVNVELWTIIQKHYPRECKLRASGQESEEVADDYQPVRLLSKPGELRREYEEEISKVAAERRASEEEENKASEEYIQRLLAEEEEEEKRQAEKRRRAMEEQLKSDEELARKLSIDINNFCEGSISASPLNSRKSDPVTPKSEKKSKNKQRNTGDIQKYLTPKSQFGSASHSEAVQEVRKDSVSKDIDSSDRKSPTGQDTEIEDMPTLSPQISLGVGEQGADSSIESPMPWLCACGAEWYHEGNVKTRPSNHGKELCVLSHERPKTRVPYSKETAVMPCGRTESGCAPTSGVTQTNGNNTGETENEESCLLISKEISKRKNQESSFEAVKDPCFSAKRRKVSPESSPDQEETEINFTQKLIDLEHLLFERHKQEEQDRLLALQLQKEVDKEQMVPNRQKGSPDEYHLRATSSPPDKVLNGQRKNPKDGNFKRQTHTKHPTPERGSRDKNRQVSLKMQLKQSVNRRKMPNSTRDHCKVSKSAHSLQPSISQKSVFQMFQRCTK</t>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P14921</t>
+          <t>Q13002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SFNSLQRVPSY</t>
+          <t>Q6TDP4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q8N2W9</t>
+          <t>APVIV</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MAAELVEAKNMVMSFRVSDLQMLLGFVGRSKSGLKHELVTRALQLVQFDCSPELFKKIKELYETRYAKKNSEPAPQPHRPLDPLTMHSTYDRAGAVPRTPLAGPNIDYPVLYGKYLNGLGRLPAKTLKPEVRLVKLPFFNMLDELLKPTELVPQNNEKLQESPCIFALTPRQVELIRNSRELQPGVKAVQVVLRICYSDTSCPQEDQYPPNIAVKVNHSYCSVPGYYPSNKPGVEPKRPCRPINLTHLMYLSSATNRITVTWGNYGKSYSVALYLVRQLTSSELLQRLKTIGVKHPELCKALVKEKLRLDPDSEIATTGVRVSLICPLVKMRLSVPCRAETCAHLQCFDAVFYLQMNEKKPTWMCPVCDKPAPYDQLIIDGLLSKILSECEDADEIEYLVDGSWCPIRAEKERSCSPQGAILVLGPSDANGLLPAPSVNGSGALGSTGGGGPVGSMENGKPGADVVDLTLDSSSSSEDEEEEEEEEEDEDEEGPRPKRRCPFQKGLVPAC</t>
+          <t>MQPRSERPAGRTQSPEHGSPGPGPEAPPPPPPQPPAPEAERTRPRQARPAAPMEGAVQLLSREGHSVAHNSKRHYHDAFVAMSRMRQRGLLCDIVLHVAAKEIRAHKVVLASCSPYFHAMFTNEMSESRQTHVTLHDIDPQALDQLVQFAYTAEIVVGEGNVQTLLPAASLLQLNGVRDACCKFLLSQLDPSNCLGIRGFADAHSCSDLLKAAHRYVLQHFVDVAKTEEFMLLPLKQVLELVSSDSLNVPSEEEVYRAVLSWVKHDVDARRQHVPRLMKCVRLPLLSRDFLLGHVDAESLVRHHPDCKDLLIEALKFHLLPEQRGVLGTSRTRPRRCEGAGPVLFAVGGGSLFAIHGDCEAYDTRTDRWHVVASMSTRRARVGVAAVGNRLYAVGGYDGTSDLATVESYDPVTNTWQPEVSMGTRRSCLGVAALHGLLYSAGGYDGASCLNSAERYDPLTGTWTSVAAMSTRRRYVRVATLDGNLYAVGGYDSSSHLATVEKYEPQVNVWSPVASMLSRRSSAGVAVLEGALYVAGGNDGTSCLNSVERYSPKAGAWESVAPMNIRRSTHDLVAMDGWLYAVGGNDGSSSLNSIEKYNPRTNKWVAASCMFTRRSSVGVAVLELLNFPPPSSPTLSVSSTSL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P36956</t>
+          <t>Q7Z6J0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LTPPPS</t>
+          <t>Q7Z6J0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q969H0</t>
+          <t>RPTAAVTPI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+          <t>MDESALLDLLECPVCLERLDASAKVLPCQHTFCKRCLLGIVGSRNELRCPECRTLVGSGVEELPSNILLVRLLDGIKQRPWKPGPGGGSGTNCTNALRSQSSTVANCSSKDLQSSQGGQQPRVQSWSPPVRGIPQLPCAKALYNYEGKEPGDLKFSKGDIIILRRQVDENWYHGEVNGIHGFFPTNFVQIIKPLPQPPPQCKALYDFEVKDKEADKDCLPFAKDDVLTVIRRVDENWAEGMLADKIGIFPISYVEFNSAAKQLIEWDKPPVPGVDAGECSSAAAQSSTAPKHSDTKKNTKKRHSFTSLTMANKSSQASQNRHSMEISPPVLISSSNPTAAARISELSGLSCSAPSQVHISTTGLIVTPPPSSPVTTGPSFTFPSDVPYQAALGTLNPPLPPPPLLAATVLASTPPGATAAAAAAGMGPRPMAGSTDQIAHLRPQTRPSVYVAIYPYTPRKEDELELRKGEMFLVFERCQDGWFKGTSMHTSKIGVFPGNYVAPVTRAVTNASQAKVPMSTAGQTSRGVTMVSPSTAGGPAQKLQGNGVAGSPSVVPAAVVSAAHIQTSPQAKVLLHMTGQMTVNQARNAVRTVAAHNQERPTAAVTPIQVQNAAGLSPASVGLSHHSLASPQPAPLMPGSATHTAAISISRASAPLACAAAAPLTSPSITSASLEAEPSGRIVTVLPGLPTSPDSASSACGNSSATKPDKDSKKEKKGLLKLLSGASTKRKPRVSPPASPTLEVELGSAELPLQGAVGPELPPGGGHGRAGSCPVDGDGPVTTAVAGAALAQDAFHRKASSLDSAVPIAPPPRQACSSLGPVLNESRPVVCERHRVVVSYPPQSEAELELKEGDIVFVHKKREDGWFKGTLQRNGKTGLFPGSFVENI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P43403</t>
+          <t>Q9Y2N7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TLNSDGYTPEPA</t>
+          <t>P40337</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P22681;Q9H4P4</t>
+          <t>LAPYISMDDDFQL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI</t>
+          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q86WB0</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RLPLVPE</t>
+          <t>Q9HCM9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MAETSLLEAGASAASTAAALENLQVEASCSVCLEYLKEPVIIECGHNFCKACITRWWEDLERDFPCPVCRKTSRYRSLRPNRQLGSMVEIAKQLQAVKRKIRDESLCPQHHEALSLFCYEDQEAVCLICAISHTHRAHTVVPLDDATQEYKEKLQKCLEPLEQKLQEITRCKSSEEKKPGELKRLVESRRQQILREFEELHRRLDEEQQVLLSRLEEEEQDILQRLRENAAHLGDKRRDLAHLAAEVEGKCLQSGFEMLKDVKSTLEKNIPRKFGGSLSTICPRDHKALLGLVKEINRCEKVKTMEVTSVSIELEKNFSNFPRQYFALRKILKQLIADVTLDPETAHPNLVLSEDRKSVKFVETRLRDLPDTPRRFTFYPCVLATEGFTSGRHYWEVEVGDKTHWAVGVCRDSVSRKGELTPLPETGYWRVRLWNGDKYAATTTPFTPLHIKVKPKRVGIFLDYEAGTLSFYNVTDRSHIYTFTDTFTEKLWPLFYPGIRAGRKNAAPLTIRPPTDWE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q13309</t>
+          <t>O75553</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HRKHLQEIP</t>
+          <t>Q8WXH5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q13309;Q9UM11;P40337</t>
+          <t>PPVAQVMPG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
+          <t>MAENNENISKNVDVRPKTSRSRSADRKDGYVWSGKKLSWSKKSESYSDAETVNGIEKTEVSLRNQERKHSCSSIELDLDHSCGHRFLGRSLKQKLQDAVGQCFPIKNCSSRHSSGLPSKRKIHISELMLDKCPFPPRSDLAFRWHFIKRHTAPINSKSDEWVSTDLSQTELRDGQLKRRNMEENINCFSHTNVQPCVITTDNALCREGPMTGSVMNLVSNNSIEDSDMDSDDEILTLCTSSRKRNKPKWDLDDEILQLETPPKYHTQIDYVHCLVPDLLQINNNPCYWGVMDKYAAEALLEGKPEGTFLLRDSAQEDYLFSVSFRRYSRSLHARIEQWNHNFSFDAHDPCVFHSPDITGLLEHYKDPSACMFFEPLLSTPLIRTFPFSLQHICRTVICNCTTYDGIDALPIPSSMKLYLKEYHYKSKVRVLRIDAPEQQC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q53EL6</t>
+          <t>Q14247</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSGRGDS</t>
+          <t>Q9HCE7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q9Y297;Q13309;Q9NZJ0;Q9UKB1</t>
+          <t>ADYRE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P98174</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DSGIDS</t>
+          <t>Q7Z6Z7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q9Y297;Q13309</t>
+          <t>LLPTPPLS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+          <t>MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>O00221</t>
+          <t>O00429</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DSGIES</t>
+          <t>O60260</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q9Y297;Q13309</t>
+          <t>RKRLPVT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P38936</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RDELGGG</t>
+          <t>Q8IX12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q9BV68;P46934;Q00987;Q13309;Q12834;Q99618;Q9NZJ0;Q8NEZ5;O15151;Q9UHC7;Q7Z419;P19474;P14373;Q96PU4</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR;MGSAKSVPVTPARPPPHNKHLARVADPRSPSAGILRTPIQVESSPQPGLPAGEQLEGLKHAQDSDPRSPTLGIARTPMKTSSGDPPSPLVKQLSEVFETEDSKSNLPPEPVLPPEAPLSSELDLPLGTQLSVEEQMPPWNQTEFPSKQVFSKEEARQPTETPVASQSSDKPSRDPETPRSSGSMRNRWKPNSSKVLGRSPLTILQDDNSPGTLTLRQGKRPSPLSENVSELKEGAILGTGRLLKTGGRAWEQGQDHDKENQHFPLVES;MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK;MTSFSTSAQCSTSDSACRISPGQINQVRPKLPLLKILHAAGAQGEMFTVKEVMHYLGQYIMVKQLYDQQEQHMVYCGGDLLGELLGRQSFSVKDPSPLYDMLRKNLVTLATATTDAAQTLALAQDHSMDIPSQDQLKQSAEESSTSRKRTTEDDIPTLPTSEHKCIHSREDEDLIENLAQDETSRLDLGFEEWDVAGLPWWFLGNLRSNYTPRSNGSTDLQTNQDVGTAIVSDTTDDLWFLNESVSEQLGVGIKVEAADTEQTSEEVGKVSDKKVIEVGKNDDLEDSKSLSDDTDVEVTSEDEWQCTECKKFNSPSKRYCFRCWALRKDWYSDCSKLTHSLSTSDITAIPEKENEGNDVPDCRRTISAPVVRPKDAYIKKENSKLFDPCNSVEFLDLAHSSESQETISSMGEQLDNLSEQRTDTENMEDCQNLLKPCSLCEKRPRDGNIIHGRTGHLVTCFHCARRLKKAGASCPICKKEIQLVIKVFIA;MAEAATPGTTATTSGAGAAAATAAAASPTPIPTVTAPSLGAGGGGGGSDGSGGGWTKQVTCRYFMHGVCKEGDNCRYSHDLSDSPYSVVCKYFQRGYCIYGDRCRYEHSKPLKQEEATATELTTKSSLAASSSLSSIVGPLVEMNTGEAESRNSNFATVGAGSEDWVNAIEFVPGQPYCGRTAPSCTEAPLQGSVTKEESEKEQTAVETKKQLCPYAAVGECRYGENCVYLHGDSCDMCGLQVLHPMDAAQRSQHIKSCIEAHEKDMELSFAVQRSKDMVCGICMEVVYEKANPSERRFGILSNCNHTYCLKCIRKWRSAKQFESKIIKSCPECRITSNFVIPSEYWVEEKEEKQKLILKYKEAMSNKACRYFDEGRGSCPFGGNCFYKHAYPDGRREEPQRQKVGTSSRYRAQRRNHFWELIEERENSNPFDNDEEEVVTFELGEMLLMLLAAGGDDELTDSEDEWDLFHDELEDFYDLDL;MGSAGRLHYLAMTAENPTPGDLAPAPLITCKLCLCEQSLDKMTTLQECQCIFCTACLKQYMQLAIREGCGSPITCPDMVCLNHGTLQEAEIACLVPVDQFQLYQRLKFEREVHLDPYRTWCPVADCQTVCPVASSDPGQPVLVECPSCHLKFCSCCKDAWHAEVSCRDSQPIVLPTEHRALFGTDAEAPIKQCPVCRVYIERNEGCAQMMCKNCKHTFCWYCLQNLDNDIFLRHYDKGPCRNKLGHSRASVMWNRTQVVGILVGLGIIALVTSPLLLLASPCIICCVCKSCRGKKKKHDPSTT;MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY;MASGSVAECLQQETTCPVCLQYFAEPMMLDCGHNICCACLARCWGTAETNVSCPQCRETFPQRHMRPNRHLANVTQLVKQLRTERPSGPGGEMGVCEKHREPLKLYCEEDQMPICVVCDRSREHRGHSVLPLEEAVEGFKEQIQNQLDHLKRVKDLKKRRRAQGEQARAELLSLTQMEREKIVWEFEQLYHSLKEHEYRLLARLEELDLAIYNSINGAITQFSCNISHLSSLIAQLEEKQQQPTRELLQDIGDTLSRAERIRIPEPWITPPDLQEKIHIFAQKCLFLTESLKQFTEKMQSDMEKIQELREAQLYSVDVTLDPDTAYPSLILSDNLRQVRYSYLQQDLPDNPERFNLFPCVLGSPCFIAGRHYWEVEVGDKAKWTIGVCEDSVCRKGGVTSAPQNGFWAVSLWYGKEYWALTSPMTALPLRTPLQRVGIFLDYDAGEVSFYNVTERCHTFTFSHATFCGPVRPYFSLSYSGGKSAAPLIICPMSGIDGFSGHVGNHGHSMETSP;MWIQVRTIDGSKTCTIEDVSRKATIEELRERVWALFDVRPECQRLFYRGKQLENGYTLFDYDVGLNDIIQLLVRPDPDHLPGTSTQIEAKPCSNSPPKVKKAPRVGPSNQPSTSARARLIDPGFGIYKVNELVDARDVGLGAWFEAHIHSVTRASDGQSRGKTPLKNGSSCKRTNGNIKHKSKENTNKLDSVPSTSNSDCVAADEDVIYHIQYDEYPESGTLEMNVKDLRPRARTILKWNELNVGDVVMVNYNVESPGQRGFWFDAEITTLKTISRTKKELRVKIFLGGSEGTLNDCKIISVDEIFKIERPGAHPLSFADGKFLRRNDPECDLCGGDPEKKCHSCSCRVCGGKHEPNMQLLCDECNVAYHIYCLNPPLDKVPEEEYWYCPSCKTDSSEVVKAGERLKMSKKKAKMPSASTESRRDWGRGMACVGRTRECTIVPSNHYGPIPGIPVGSTWRFRVQVSEAGVHRPHVGGIHGRSNDGAYSLVLAGGFADEVDRGDEFTYTGSGGKNLAGNKRIGAPSADQTLTNMNRALALNCDAPLDDKIGAESRNWRAGKPVRVIRSFKGRKISKYAPEEGNRYDGIYKVVKYWPEISSSHGFLVWRYLLRRDDVEPAPWTSEGIERSRRLCLRLQYPAGYPSDKEGKKPKGQSKKQPSGTTKRPISDDDCPSASKVYKASDSAEAIEAFQLTPQQQHLIREDCQNQKLWDEVLSHLVEGPNFLKKLEQSFMCVCCQELVYQPVTTECFHNVCKDCLQRSFKAQVFSCPACRHDLGQNYIMIPNEILQTLLDLFFPGYSKGR</t>
+          <t>MAQFGGQKNPPWATQFTATAVSQPAALGVQQPSLLGASPTIYTQQTALAAAGLTTQTPANYQLTQTAALQQQAAAAAAALQQQYSQPQQALYSVQQQLQQPQQTLLTQPAVALPTSLSLSTPQPTAQITVSYPTPRSSQQQTQPQKQRVFTGVVTKLHDTFGFVDEDVFFQLSAVKGKTPQVGDRVLVEATYNPNMPFKWNAQRIQTLPNQNQSQTQPLLKTPPAVLQPIAPQTTFGVQTQPQPQSLLQAQISAASITPLLQTQPQPLLQQPQQKAGLLQPPVRIVSQPQPARRLDPPSRFSGRNDRGDQVPNRKDDRSRERERERRRSRERSPQRKRSRERSPRRERERSPRRVRRVVPRYTVQFSKFSLDCPSCDMMELRRRYQNLYIPSDFFDAQFTWVDAFPLSRPFQLGNYCNFYVMHREVESLEKNMAILDPPDADHLYSAKVMLMASPSMEDLYHKSCALAEDPQELRDGFQHPARLVKFLVGMKGKDEAMAIGGHWSPSLDGPDPEKDPSVLIKTAIRCCKALTGIDLSVCTQWYRFAEIRYHRPEETHKGRTVPAHVETVVLFFPDVWHCLPTRSEWETLSRGYKQQLVEKLQGERKEADGEQDEEEKDDGEAKEISTPTHWSKLDPKTMKVNDLRKELESRALSSKGLKSQLIARLTKQLKVEEQKEEQKELEKSEKEEDEDDDRKSEDDKEEEERKRQEEIERQRRERRYILPDEPAIIVHPNWAAKSGKFDCSIMSLSVLLDYRLEDNKEHSFEVSLFAELFNEMLQRDFGVRIYKSLLSLPEKEDKKEKDKKSKKDERKDKKEERDDETDEPKPKRRKSGDDKDKKEDRDERKKEDKRKDDSKDDDETEEDNNQDEYDPMEAEEAEDEEDDRDEEEMTKRDDKRDINRYCKERPSKDKEKEKTQMITINRDLLMAFVYFDQSHCGYLLEKDLEEILYTLGLHLSRAQVKKLLNKVVLRESCFYRKLTDTSKDEENHEESESLQEDMLGNRLLLPTPTVKQESKDVEENVGLIVYNGAMVDVGSLLQKLEKSEKVRAEVEQKLQLLEEKTDEDEKTILNLENSNKSLSGELREVKKDLSQLQENLKISENMNLQFENQMNKTIRNLSTVMDEIHTVLKKDNVKNEDKDQKSKENGASV</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P10071</t>
+          <t>Q86WB0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALSSS</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q9Y297;O43791</t>
+          <t>RLPLVPE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P18848</t>
+          <t>P12830</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DSGICMS</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q9Y297</t>
+          <t>RDNVYYYDEEG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,479 +788,479 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P07333</t>
+          <t>P25963</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LLQPNNYQFC</t>
+          <t>P10523</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P22681</t>
+          <t>DSGLDS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+          <t>MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P08138</t>
+          <t>Q24306</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KGDGGLYSSLPP</t>
+          <t>Q24306</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>P22681;Q9Y4K3</t>
+          <t>VDNNTN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV</t>
+          <t>MASVVADLPSYGPIAFDQVDNNTNATQLFKNNINKTRMNDLNREETRLKTFTDWPLDWLDKRQLAQTGMYFTHAGDKVKCFFCGVEIGCWEQEDQPVPEHQRWSPNCPLLRRRTTNNVPINAEALDRILPPISYDICGANDSTLEMREHAYAEGVIPMSQLIQSIGMNAVNAAGSVTGTAAPQPRVTVATHASTATQATGDVQPETCRPSAASGNYFPQYPEYAIETARLRTFEAWPRNLKQKPHQLAEAGFFYTGVGDRVRCFSCGGGLMDWNDNDEPWEQHALWLSQCRFVKLMKGQLYIDTVAAKPVLAEEKEESSSIGGVAVASTQASEEEQQTSLSSEEAVSGDVAPSVAPTAATRIFNKIVEATAVATPSTNSSGSTSIPEEKLCKICYGAEYNTAFLPCGHVVACAKCASSVTKCPLCRKPFTDVMRVYFS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q9HAW4</t>
+          <t>Q96GD4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DSGQGS</t>
+          <t>Q9P2J3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UM11;P38398;Q9UKB1</t>
+          <t>RLPLAQV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q07820</t>
+          <t>P35222</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RKALETL</t>
+          <t>Q9BR09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9NX47;Q12834;Q9UKT5;Q969H0;Q7Z6Z7;Q9Y577</t>
+          <t>DSGIHS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MPDQALQQMLDRSCWVCFATDEDDRTAEWVRPCRCRGSTKWVHQACLQRWVDEKQRGNSTARVACPQCNAEYLIVFPKLGPVVYVLDLADRLISKACPFAAAGIMVGSIYWTAVTYGAVTVMQVVGHKEGLDVMERADPLFLLIGLPTIPVMLILGKMIRWEDYVLRLWRKYSNKLQILNSIFPGIGCPVPRIPAEANPLADHVSATRILCGALVFPTIATIVGKLMFSSVNSNLQRTILGGIAFVAIKGAFKVYFKQQQYLRQAHRKILNYPEQEEA;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR;MAGSEPRSGTNSPPPPFSDWGRLEAAILSGWKTFWQSVSKERVARTTSREEVDEAASTLTRLPIDVQLYILSFLSPHDLCQLGSTNHYWNETVRDPILWRYFLLRDLPSWSSVDWKSLPDLEILKKPISEVTDGAFFDYMAVYRMCCPYTRRASKSSRPMYGAVTSFLHSLIIQNEPRFAMFGPGLEELNTSLVLSLMSSEELCPTAGLPQRQIDGIGSGVNFQLNNQHKFNILILYSTTRKERDRAREEHTSAVNKMFSRHNEGDDQQGSRYSVIPQIQKVCEVVDGFIYVANAEAHKRHEWQDEFSHIMAMTDPAFGSSGRPLLVLSCISQGDVKRMPCFYLAHELHLNLLNHPWLVQDTEAETLTGFLNGIEWILEEVESKRAR;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA;MEAVELARKLQEEATCSICLDYFTDPVMTTCGHNFCRACIQLSWEKARGKKGRRKRKGSFPCPECREMSPQRNLLPNRLLTKVAEMAQQHPGLQKQDLCQEHHEPLKLFCQKDQSPICVVCRESREHRLHRVLPAEEAVQGYKLKLEEDMEYLREQITRTGNLQAREEQSLAEWQGKVKERRERIVLEFEKMNLYLVEEEQRLLQALETEEEETASRLRESVACLDRQGHSLELLLLQLEERSTQGPLQMLQDMKEPLSRKNNVSVQCPEVAPPTRPRTVCRVPGQIEVLRGFLEDVVPDATSAYPYLLLYESRQRRYLGSSPEGSGFCSKDRFVAYPCAVGQTAFSSGRHYWEVGMNITGDALWALGVCRDNVSRKDRVPKCPENGFWVVQLSKGTKYLSTFSALTPVMLMEPPSHMGIFLDFEAGEVSFYSVSDGSHLHTYSQATFPGPLQPFFCLGAPKSGQMVISTVTMWVKG</t>
+          <t>MAAASEPVDSGALWGLERPEPPPTRFHRVHGANIRVDPSGTRATRVESFAHGVCFSREPLAPGQVFLVEIEEKELGWCGHLRLGLTALDPASLAPVPEFSLPDLVNLGHTWVFAITRHHNRVPREGRPEAEAAAPSRPPTLLVEPYLRIEQFRIPRDRLVGRSRPGLYSHLLDQLYELNVLPPTARRSRLGVLFCPRPDGTADMHIIINGEDMGPSARGLPAAQPLYAVVDVFASTKSVRLVQLEYGLPSLQTLCRLVIQRSMVHRLAIDGLHLPKELKDFCKYE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P46527</t>
+          <t>Q6PGQ7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SVEQTPKK</t>
+          <t>Q9P2J3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O43255;Q9H0M0;Q13309;O60260;Q12834;P19474;Q8NHY2;P10523;Q96PM5;Q05086;P49427;Q5XPI4</t>
+          <t>DSGYNT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR;MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY;MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE;MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ;MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML;MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES;MASKGAGMSFSRKSYRLTSDAEKSRVTGIVQEKLLNDYLNRIFSSSEHAPPAATSRKPLNFQNLPEHLDQLLQVDNEEEESQGQVEGRLGPSTVVLDHTGGFEGLLLVDDDLLGVIGHSNFGTIRSTTCVYKGKWLYEVLISSQGLMQIGWCTISCRFNQEEGVGDTHNSYAYDGNRVRKWNVTTTNYGKAWAAGDIVSCLIDLDDGTLSFCLNGVSLGTAFENLSRGLGMAYFPAISLSFKESVAFNFGSRPLRYPVAGYRPLQDPPSADLVRAQRLLGCFRAVLSVELDPVEGRLLDKESSKWRLRGQPTVLLTLAHIFHHFAPLLRKVYLVEAVLMSFLLGIVEKGTPTQAQSVVHQVLDLLWLFMEDYEVQDCLKQLMMSLLRLYRFSPIVPDLGLQIHYLRLTIAILRHEKSRKFLLSNVLFDVLRSVVFFYIKSPLRVEEAGLQELIPTTWWPHCSSREGKESTEMKEETAEERLRRRAYERGCQRLRKRIEVVEELQVQILKLLLDNKDDNGGEASRYIFLTKFRKFLQENASGRGNMPMLCPPEYMVCFLHRLISALRYYWDEYKASNPHASFSEEAYIPPQVFYNGKVDYFDLQRLGGLLSHLRKTLKDDLASKANIVIDPLELQSTAMDDLDEDEEPAPAMAQRPMQALAVGGPLPLPRPGWLSSPTLGRANRFLSTAAVSLMTPRRPLSTSEKVKVRTLSVEQRTREDIEGSHWNEGLLLGRPPEEPEQPLTENSLLEVLDGAVMMYNLSVHQQLGKMVGVSDDVNEYAMALRDTEDKLRRCPKRRKDILAELTKSQKVFSEKLDHLSRRLAWVHATVYSQEKMLDIYWLLRVCLRTIEHGDRTGSLFAFMPEFYLSVAINSYSALKNYFGPVHSMEELPGYEETLTRLAAILAKHFADARIVGTDIRDSLMQALASYVCYPHSLRAVERIPEEQRIAMVRNLLAPYEQRPWAQTNWILVRLWRGCGFGYRYTRLPHLLKTKLEDANLPSLQKPCPSTLLQQHMADLLQQGPDVAPSFLNSVLNQLNWAFSEFIGMIQEIQQAAERLERNFVDSRQLKVCATCFDLSVSLLRVLEMTITLVPEIFLDWTRPTSEMLLRRLAQLLNQVLNRVTAERNLFDRVVTLRLPGLESVDHYPILVAVTGILVQLLVRGPASEREQATSVLLADPCFQLRSICYLLGQPEPPAPGTALPAPDRKRFSLQSYADYISADELAQVEQMLAHLTSASAQAAAASLPTSEEDLCPICYAHPISAVFQPCGHKSCKACINQHLMNNKDCFFCKTTIVSVEDWEKGANTSTTSSAA</t>
+          <t>MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P24864</t>
+          <t>O95863</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LLTPPQS</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q9Y297;Q00987;Q13309;O60260;Q969H0;Q96PU4;O43791;Q9UKT8;O94955</t>
+          <t>DSGKGS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MWIQVRTIDGSKTCTIEDVSRKATIEELRERVWALFDVRPECQRLFYRGKQLENGYTLFDYDVGLNDIIQLLVRPDPDHLPGTSTQIEAKPCSNSPPKVKKAPRVGPSNQPSTSARARLIDPGFGIYKVNELVDARDVGLGAWFEAHIHSVTRASDGQSRGKTPLKNGSSCKRTNGNIKHKSKENTNKLDSVPSTSNSDCVAADEDVIYHIQYDEYPESGTLEMNVKDLRPRARTILKWNELNVGDVVMVNYNVESPGQRGFWFDAEITTLKTISRTKKELRVKIFLGGSEGTLNDCKIISVDEIFKIERPGAHPLSFADGKFLRRNDPECDLCGGDPEKKCHSCSCRVCGGKHEPNMQLLCDECNVAYHIYCLNPPLDKVPEEEYWYCPSCKTDSSEVVKAGERLKMSKKKAKMPSASTESRRDWGRGMACVGRTRECTIVPSNHYGPIPGIPVGSTWRFRVQVSEAGVHRPHVGGIHGRSNDGAYSLVLAGGFADEVDRGDEFTYTGSGGKNLAGNKRIGAPSADQTLTNMNRALALNCDAPLDDKIGAESRNWRAGKPVRVIRSFKGRKISKYAPEEGNRYDGIYKVVKYWPEISSSHGFLVWRYLLRRDDVEPAPWTSEGIERSRRLCLRLQYPAGYPSDKEGKKPKGQSKKQPSGTTKRPISDDDCPSASKVYKASDSAEAIEAFQLTPQQQHLIREDCQNQKLWDEVLSHLVEGPNFLKKLEQSFMCVCCQELVYQPVTTECFHNVCKDCLQRSFKAQVFSCPACRHDLGQNYIMIPNEILQTLLDLFFPGYSKGR;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MERKDFETWLDNISVTFLSLTDLQKNETLDHLISLSGAVQLRHLSNNLETLLKRDFLKLLPLELSFYLLKWLDPQTLLTCCLVSKQWNKVISACTEVWQTACKNLGWQIDDSVQDALHWKKVYLKAILRMKQLEDHEAFETSSLIGHSARVYALYYKDGLLCTGSDDLSAKLWDVSTGQCVYGIQTHTCAAVKFDEQKLVTGSFDNTVACWEWSSGARTQHFRGHTGAVFSVDYNDELDILVSGSADFTVKVWALSAGTCLNTLTGHTEWVTKVVLQKCKVKSLLHSPGDYILLSADKYEIKIWPIGREINCKCLKTLSVSEDRSICLQPRLHFDGKYIVCSSALGLYQWDFASYDILRVIKTPEIANLALLGFGDIFALLFDNRYLYIMDLRTESLISRWPLPEYRKSKRGSSFLAGEASWLNGLDGHNDTGLVFATSMPDHSIHLVLWKEHG;MSIHIVALGNEGDTFHQDNRPSGLIRTYLGRSPLVSGDESSLLLNAASTVARPVFTEYQASAFGNVKLVVHDCPVWDIFDSDWYTSRNLIGGADIIVIKYNVNDKFSFHEVKDNYIPVIKRALNSVPVIIAAVGTRQNEELPCTCPLCTSDRGSCVSTTEGIQLAKELGATYLELHSLDDFYIGKYFGGVLEYFMIQALNQKTSEKMKKRKMSNSFHGIRPPQLEQPEKMPVLKAEASHYNSDLNNLLFCCQCVDVVFYNPNLKKVVEAHKIVLCAVSHVFMLLFNVKSPTDIQDSSIIRTTQDLFAINRDTAFPGASHESSGNPPLRVIVKDALFCSCLSDILRFIYSGAFQWEELEEDIRKKLKDSGDVSNVIEKVKCILKTPGKINCLRNCKTYQARKPLWFYNTSLKFFLNKPMLADVVFEIQGTTVPAHRAILVARCEVMAAMFNGNYMEAKSVLIPVYGVSKETFLSFLEYLYTDSCCPAGIFQAMCLLICAEMYQVSRLQHICELFIITQLQSMPSRELASMNLDIVDLLKKAKFHHSDCLSTWLLHFIATNYLIFSQKPEFQDLSVEERSFVEKHRWPSNMYLKQLAEYRKYIHSRKCRCLVM</t>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O97143</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DSGIIT</t>
+          <t>Q9NS56</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O44382</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MMKMETDKIMDETNSNAQAFTTTMLYDPVRKKDSSPTYQTERELCFQYFTQWSESGQVDFVEHLLSRMCHYQHGQINAYLKPMLQRDFITLLPIKGLDHIGENILSYLDAESLKSSELVCKEWLRVISEGMLWKKLIERKVRTDSLWRGLAERRNWMQYLFKPRPGQTQRPHSFHRELFPKIMNDIDSIENNWRTGRHMLRRINCRSENSKGVYCLQYDDGKIVSGLRDNTIKIWDRTDLQCVKTLMGHTGSVLCLQYDDKVIISGSSDSTVRVWDVNTGEMVNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMTSPSEITLRRVLVGHRAAVNVVDFDEKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNSIRLWDIECGACLRVLEGHEELVRCIRFDTKRIVSGAYDGKIKVWDLVAALDPRAASNTLCLNTLVEHTGRVFRLQFDEFQIVSSSHDDTILIWDFLNFTPNENKTGRTPSPALMEH</t>
+          <t>MGSQPPLGSPLSREEGEAPPPAPASEGRRRSRRVRLRGSCRHRPSFLGCRELAASAPARPAPASSEIMASAAKEFKMDNFSPKAGTSKLQQTVPADASPDSKCPICLDRFDNVSYLDRCLHKFCFRCVQEWSKNKAECPLCKQPFDSIFHSVRAEDDFKEYVLRPSYNGSFVTPDRRFRYRTTLTRERNASVYSPSGPVNRRTTTPPDSGVLFEGLGISTRPRDVEIPQFMRQIAVRRPTTADERSLRKIQEQDIINFRRTLYRAGARVRNIEDGGRYRDISAEFFRRNPACLHRLVPWLKRELTVLFGAHGSLVNIVQHIIMSNVTRYDLESQAFVSDLRPFLLNRTEHFIHEFISFARSPFNMAAFDQHANYDCPAPSYEEGSHSDSSVITISPDEAETQELDINVATVSQAPWDDETPGPSYSSSEQVHVTMSSLLNTSDSSDEELVTGGATSQIQGVQTNDDLNNDSDDSSDNCVIVGFVKPLAERTPELVELSSDSEDLGSYEKMETVKTQEQEQSYSSGDSDVSRCSSPHSVLGKDEQINKGHCDSSTRIKSKKEEKRSTSLSSPRNLNSSVRGDRVYSPYNHRHRKRGRSRSSDSRSQSRSGHDQKNHRKHHGKKRMKSKRSRSRESSRPRGRRDKKRSRTRDSSWSRRSQTLSLSSESTSRSRSRSSDHGKRRSRSRNRDRYYLRNNYGSRYKWEYTYYSRNKDRDGYESSYRRRTLSRAHYSRQSSSPEFRVQSFSERTNARKKNNHSERKYYYYERHRSRSLSSNRSRTASTGTDRVRNEKPGGKRKYKTRHLEGTNEVAQPSREFASKAKDSHYQKSSSKLDGNYKNESDTFSDSRSSDRETKHKRRKRKTRSLSVEIVYEGKATDTTKHHKKKKKKHKKKHKKHHGDNASRSPVVITIDSDSDKDSEVKEDTECDNSGPQDPLQNEFLAPSLEPFETKDVVTIEAEFGVLDKECDIATLSNNLNNANKTVDNIPPLAASVEQTLDVREESTFVSDLENQPSNIVSLQTEPSRQLPSPRTSLMSVCLGRDCDMS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q7Z6J0</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RPTAAVTPI</t>
+          <t>Q6PCD5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q7Z6J0</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MDESALLDLLECPVCLERLDASAKVLPCQHTFCKRCLLGIVGSRNELRCPECRTLVGSGVEELPSNILLVRLLDGIKQRPWKPGPGGGSGTNCTNALRSQSSTVANCSSKDLQSSQGGQQPRVQSWSPPVRGIPQLPCAKALYNYEGKEPGDLKFSKGDIIILRRQVDENWYHGEVNGIHGFFPTNFVQIIKPLPQPPPQCKALYDFEVKDKEADKDCLPFAKDDVLTVIRRVDENWAEGMLADKIGIFPISYVEFNSAAKQLIEWDKPPVPGVDAGECSSAAAQSSTAPKHSDTKKNTKKRHSFTSLTMANKSSQASQNRHSMEISPPVLISSSNPTAAARISELSGLSCSAPSQVHISTTGLIVTPPPSSPVTTGPSFTFPSDVPYQAALGTLNPPLPPPPLLAATVLASTPPGATAAAAAAGMGPRPMAGSTDQIAHLRPQTRPSVYVAIYPYTPRKEDELELRKGEMFLVFERCQDGWFKGTSMHTSKIGVFPGNYVAPVTRAVTNASQAKVPMSTAGQTSRGVTMVSPSTAGGPAQKLQGNGVAGSPSVVPAAVVSAAHIQTSPQAKVLLHMTGQMTVNQARNAVRTVAAHNQERPTAAVTPIQVQNAAGLSPASVGLSHHSLASPQPAPLMPGSATHTAAISISRASAPLACAAAAPLTSPSITSASLEAEPSGRIVTVLPGLPTSPDSASSACGNSSATKPDKDSKKEKKGLLKLLSGASTKRKPRVSPPASPTLEVELGSAELPLQGAVGPELPPGGGHGRAGSCPVDGDGPVTTAVAGAALAQDAFHRKASSLDSAVPIAPPPRQACSSLGPVLNESRPVVCERHRVVVSYPPQSEAELELKEGDIVFVHKKREDGWFKGTLQRNGKTGLFPGSFVENI</t>
+          <t>MAHEAMEYDVQVQLNHAEQQPAPAGMASSQGGPALLQPVPADVVSSQGVPSILQPAPAEVISSQATPPLLQPAPQLSVDLTEVEVLGEDTVENINPRTSEQHRQGSDGNHTIPASSLHSMTNFISGLQRLHGMLEFLRPSSSNHSVGPMRTRRRVSASRRARAGGSQRTDSARLRAPLDAYFQVSRTQPDLPATTYDSETRNPVSEELQVSSSSDSDSDSSAEYGGVVDQAEESGAVILEEQLAGVSAEQEVTCIDGGKTLPKQPSPQKSEPLLPSASMDEEEGDTCTICLEQWTNAGDHRLSALRCGHLFGYRCISTWLKGQVRKCPQCNKKARHSDIVVLYARTLRALDTSEQERMKSSLLKEQMLRKQAELESAQCRLQLQVLTDKCTRLQRRVQDLQKLTSHQSQNLQQPRGSQAWVLSCSPSSQGQHKHKYHFQKTFTVSQAGNCRIMAYCDALSCLVISQPSPQASFLPGFGVKMLSTANMKSSQYIPMHGKQIRGLAFSSYLRGLLLSASLDNTIKLTSLETNTVVQTYNAGRPVWSCCWCLDEANYIYAGLANGSILVYDVRNTSSHVQELVAQKARCPLVSLSYMPRAASAAFPYGGVLAGTLEDASFWEQKMDFSHWPHVLPLEPGGCIDFQTENSSRHCLVTYRPDKNHTTIRSVLMEMSYRLDDTGNPICSCQPVHTFFGGPTCKLLTKNAIFQSPENDGNILVCTGDEAANSALLWDAASGSLLQDLQTDQPVLDICPFEVNRNSYLATLTEKMVHIYKWE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P17181</t>
+          <t>P34244</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DSGNYS</t>
+          <t>P26309</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1</t>
+          <t>NKENE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P05412</t>
+          <t>P16234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EEPQTVPEM</t>
+          <t>Q13191</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q96J02;Q969H0;Q8NHY2;O43791;Q7L5Y6;Q13233;P10523</t>
+          <t>SIFDNLYTTLSD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MDHHVSTIKPRRIQNQNVIHRLERRRISSGKAGTHWHQVRVFHQNVFPNFTVVNVEKPPCFLRKFSPDGRYFIAFSSDQTSLEIYEYQGCQAAEDLLQGYEGEILSNGNDQRSVNIRGRLFERFFVLLHITNVAANGEHLNRECSLFTDDCRCVIVGSAAYLPDEPHPPFFEVYRNSESVTPNPRSPLEDYSLHIIDLHTGRLCDTRTFKCDKVVLSHNQGLYLYKNILAILSVQQQTIHVFQVTPEGTFIDVRTIGRFCYEDDLLTVSAVFPEVQRDSQTGMANPFRDPFINSLKHRLLVYLWRRAEQDGSAMAKRRFFQYFDQLRQLRMWKMQLLDENHLFIKYTSEDVVTLRVTDPSQASFFVVYNMVTTEVIAVFENTSDELLELFENFCDLFRNATLHSEVQFPCSASSNNFARQIQRRFKDTIINAKYGGHTEAVRRLLGQLPISAQSYSGSPYLDLSLFSYDDKWVSVMERPKTCGDHPIRFYARDSGLLKFEIQAGLLGRPINHTVRRLVAFTFHPFEPFAISVQRTNAEYVVNFHMRHCCT;MAAAAGNRASSSGFPGARATSPEAGGGGGALKASSAPAAAAGLLREAGSGGRERADWRRRQLRKVRSVELDQLPEQPLFLAASPPASSTSPSPEPADAAGSGTGFQPVAVPPPHGAASRGGAHLTESVAAPDSGASSPAAAEPGEKRAPAAEPSPAAAPAGREMENKETLKGLHKMDDRPEERMIREKLKATCMPAWKHEWLERRNRRGPVVVKPIPVKGDGSEMNHLAAESPGEVQASAASPASKGRRSPSPGNSPSGRTVKSESPGVRRKRVSPVPFQSGRITPPRRAPSPDGFSPYSPEETNRRVNKVMRARLYLLQQIGPNSFLIGGDSPDNKYRVFIGPQNCSCARGTFCIHLLFVMLRVFQLEPSDPMLWRKTLKNFEVESLFQKYHSRRSSRIKAPSRNTIQKFVSRMSNSHTLSSSSTSTSSSENSIKDEEEQMCPICLLGMLDEESLTVCEDGCRNKLHHHCMSIWAEECRRNREPLICPLCRSKWRSHDFYSHELSSPVDSPSSLRAAQQQTVQQQPLAGSRRNQESNFNLTHYGTQQIPPAYKDLAEPWIQVFGMELVGCLFSRNWNVREMALRRLSHDVSGALLLANGESTGNSGGSSGSSPSGGATSGSSQTSISGDVVEACCSVLSMVCADPVYKVYVAALKTLRAMLVYTPCHSLAERIKLQRLLQPVVDTILVKCADANSRTSQLSISTLLELCKGQAGELAVGREILKAGSIGIGGVDYVLNCILGNQTESNNWQELLGRLCLIDRLLLEFPAEFYPHIVSTDVSQAEPVEIRYKKLLSLLTFALQSIDNSHSMVGKLSRRIYLSSARMVTTVPHVFSKLLEMLSVSSSTHFTRMRRRLMAIADEVEIAEAIQLGVEDTLDGQQDSFLQASVPNNYLETTENSSPECTVHLEKTGKGLCATKLSASSEDISERLASISVGPSSSTTTTTTTTEQPKPMVQTKGRPHSQCLNSSPLSHHSQLMFPALSTPSSSTPSVPAGTATDVSKHRLQGFIPCRIPSASPQTQRKFSLQFHRNCPENKDSDKLSPVFTQSRPLPSSNIHRPKPSRPTPGNTSKQGDPSKNSMTLDLNSSSKCDDSFGCSSNSSNAVIPSDETVFTPVEEKCRLDVNTELNSSIEDLLEASMPSSDTTVTFKSEVAVLSPEKAENDDTYKDDVNHNQKCKEKMEAEEEEALAIAMAMSASQDALPIVPQLQVENGEDIIIIQQDTPETLPGHTKAKQPYREDTEWLKGQQIGLGAFSSCYQAQDVGTGTLMAVKQVTYVRNTSSEQEEVVEALREEIRMMSHLNHPNIIRMLGATCEKSNYNLFIEWMAGGSVAHLLSKYGAFKESVVINYTEQLLRGLSYLHENQIIHRDVKGANLLIDSTGQRLRIADFGAAARLASKGTGAGEFQGQLLGTIAFMAPEVLRGQQYGRSCDVWSVGCAIIEMACAKPPWNAEKHSNHLALIFKIASATTAPSIPSHLSPGLRDVALRCLELQPQDRPPSRELLKHPVFRTTW;MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE</t>
+          <t>MANSMNGRNPGGRGGNPRKGRILGIIDAIQDAVGPPKQAAADRRTVEKTWKLMDKVVRLCQNPKLQLKNSPPYILDILPDTYQHLRLILSKYDDNQKLAQLSENEYFKIYIDSLMKKSKRAIRLFKEGKERMYEEQSQDRRNLTKLSLIFSHMLAEIKAIFPNGQFQGDNFRITKADAAEFWRKFFGDKTIVPWKVFRQCLHEVHQISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWGSILRNWNFLAVTHPGYMAFLTYDEVKARLQKYSTKPGSYIFRLSCTRLGQWAIGYVTGDGNILQTIPHNKPLFQALIDGSREGFYLYPDGRSYNPDLTGLCEPTPHDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTAWQESDGQGCPFCRCEIKGTEPIIVDPFDPRDEGSRCCSIIDPFGMPMLDLDDDDDREESLMMNRLANVRKCTDRQNSPVTSPGSSPLAQRRKPQPDPLQIPHLSLPPVPPRLDLIQKGIVRSPCGSPTGSPKSSPCMVRKQDKPLPAPPPPLRDPPPPPPERPPPIPPDNRLSRHIHHVESVPSRDPPMPLEAWCPRDVFGTNQLVGCRLLGEGSPKPGITASSNVNGRHSRVGSDPVLMRKHRRHDLPLEGAKVFSNGHLGSEEYDVPPRLSPPPPVTTLLPSIKCTGPLANSLSEKTRDPVEEDDDEYKIPSSHPVSLNSQPSHCHNVKPPVRSCDNGHCMLNGTHGPSSEKKSNIPDLSIYLKGDVFDSASDPVPLPPARPPTRDNPKHGSSLNRTPSDYDLLIPPLGEDAFDALPPSLPPPPPPARHSLIEHSKPPGSSSRPSSGQDLFLLPSDPFVDLASGQVPLPPARRLPGENVKTNRTSQDYDQLPSCSDGSQAPARPPKPRPRRTAPEIHHRKPHGPEAALENVDAKIAKLMGEGYAFEEVKRALEIAQNNVEVARSILREFAFPPPVSPRLNL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q13002</t>
+          <t>Q08981</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>APVIV</t>
+          <t>P26309</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q6TDP4</t>
+          <t>VKENL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MQPRSERPAGRTQSPEHGSPGPGPEAPPPPPPQPPAPEAERTRPRQARPAAPMEGAVQLLSREGHSVAHNSKRHYHDAFVAMSRMRQRGLLCDIVLHVAAKEIRAHKVVLASCSPYFHAMFTNEMSESRQTHVTLHDIDPQALDQLVQFAYTAEIVVGEGNVQTLLPAASLLQLNGVRDACCKFLLSQLDPSNCLGIRGFADAHSCSDLLKAAHRYVLQHFVDVAKTEEFMLLPLKQVLELVSSDSLNVPSEEEVYRAVLSWVKHDVDARRQHVPRLMKCVRLPLLSRDFLLGHVDAESLVRHHPDCKDLLIEALKFHLLPEQRGVLGTSRTRPRRCEGAGPVLFAVGGGSLFAIHGDCEAYDTRTDRWHVVASMSTRRARVGVAAVGNRLYAVGGYDGTSDLATVESYDPVTNTWQPEVSMGTRRSCLGVAALHGLLYSAGGYDGASCLNSAERYDPLTGTWTSVAAMSTRRRYVRVATLDGNLYAVGGYDSSSHLATVEKYEPQVNVWSPVASMLSRRSSAGVAVLEGALYVAGGNDGTSCLNSVERYSPKAGAWESVAPMNIRRSTHDLVAMDGWLYAVGGNDGSSSLNSIEKYNPRTNKWVAASCMFTRRSSVGVAVLELLNFPPPSSPTLSVSSTSL</t>
+          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q08981</t>
+          <t>Q9UKT4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VKENL</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>P26309;P53197</t>
+          <t>RTPLASV</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR;MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q38822</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QIVGWPPVRSYRK</t>
+          <t>Q9BV68</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q570C0</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MQKRIALSFPEEVLEHVFSFIQLDKDRNSVSLVCKSWYEIERWCRRKVFIGNCYAVSPATVIRRFPKVRSVELKGKPHFADFNLVPDGWGGYVYPWIEAMSSSYTWLEEIRLKRMVVTDDCLELIAKSFKNFKVLVLSSCEGFSTDGLAAIAATCRNLKELDLRESDVDDVSGHWLSHFPDTYTSLVSLNISCLASEVSFSALERLVTRCPNLKSLKLNRAVPLEKLATLLQRAPQLEELGTGGYTAEVRPDVYSGLSVALSGCKELRCLSGFWDAVPAYLPAVYSVCSRLTTLNLSYATVQSYDLVKLLCQCPKLQRLWVLDYIEDAGLEVLASTCKDLRELRVFPSEPFVMEPNVALTEQGLVSVSMGCPKLESVLYFCRQMTNAALITIARNRPNMTRFRLCIIEPKAPDYLTLEPLDIGFGAIVEHCKDLRRLSLSGLLTDKVFEYIGTYAKKMEMLSVAFAGDSDLGMHHVLSGCDSLRKLEIRDCPFGDKALLANASKLETMRSLWMSSCSVSFGACKLLGQKMPKLNVEVIDERGAPDSRPESCPVERVFIYRTVAGPRFDMPGFVWNMDQDSTMRFSRQIITTNGL</t>
+          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P26309</t>
+          <t>Q15303</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QYLIR</t>
+          <t>Q9H4P4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>P53197</t>
+          <t>RMKLPSP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+          <t>MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P10721</t>
+          <t>P05412</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INGNNYVYIDP</t>
+          <t>O43791</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P22681;O14544</t>
+          <t>EEPQTVPEM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MKKISLKTLRKSFNLNKSKEETDFMVVQQPSLASDFGKDDSLFGSCYGKDMASCDINGEDEKGGKNRSKSESLMGTLKRRLSAKQKSKGKAGTPSGSSADEDTFSSSSAPIVFKDVRAQRPIRSTSLRSHHYSPAPWPLRPTNSEETCIKMEVRVKALVHSSSPSPALNGVRKDFHDLQSETTCQEQANSLKSSASHNGDLHLHLDEHVPVVIGLMPQDYIQYTVPLDEGMYPLEGSRSYCLDSSSPMEVSAVPPQVGGRAFPEDESQVDQDLVVAPEIFVDQSVNGLLIGTTGVMLQSPRAGHDDVPPLSPLLPPMQNNQIQRNFSGLTGTEAHVAESMRCHLNFDPNSAPGVARVYDSVQSSGPMVVTSLTEELKKLAKQGWYWGPITRWEAEGKLANVPDGSFLVRDSSDDRYLLSLSFRSHGKTLHTRIEHSNGRFSFYEQPDVEGHTSIVDLIEHSIRDSENGAFCYSRSRLPGSATYPVRLTNPVSRFMQVRSLQYLCRFVIRQYTRIDLIQKLPLPNKMKDYLQEKHY</t>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q13501</t>
+          <t>P14635</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DPSTGE</t>
+          <t>Q6JEL2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>P46934;O60260;Q14145;Q8TDB6;Q9BY78;Q13049</t>
+          <t>PRTALGDIG</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC;MASHLRPPSPLLVRVYKSGPRVRRKLESYFQSSKSSGGGECTVSTQEHEAPGTFRVEFSERAAKERVLKKGEHQILVDEKPVPIFLVPTENSIKKNTRPQISSLTQSQAETPSGDMHQHEGHIPNAVDSCLQKIFLTVTADLNCNLFSKEQRAYITTLCPSIRKMEGHDGIEKVCGDFQDIERIHQFLSEQFLESEQKQQFSPSMTERKPLSQQERDSCISPSEPETKAEQKSNYFEVPLPYFEYFKYICPDKINSIEKRFGVNIEIQESSPNMVCLDFTSSRSGDLEAARESFASEFQKNTEPLKQECVSLADSKQANKFKQELNHQFTKLLIKEKGGELTLLGTQDDISAAKQKISEAFVKIPVKLFAANYMMNVIEVDSAHYKLLETELLQEISEIEKRYDICSKVSEKGQKTCILFESKDRQVDLSVHAYASFIDAFQHASCQLMREVLLLKSLGKERKHLHQTKFADDFRKRHPNVHFVLNQESMTLTGLPNHLAKAKQYVLKGGGMSSLAGKKLKEGHETPMDIDSDDSKAASPPLKGSVSSEASELDKKEKGICVICMDTISNKKVLPKCKHEFCAPCINKAMSYKPICPTCQTSYGIQKGNQPEGSMVFTVSRDSLPGYESFGTIVITYSMKAGIQTEEHPNPGKRYPGIQRTAYLPDNKEGRKVLKLLYRAFDQKLIFTVGYSRVLGVSDVITWNDIHHKTSRFGGPEMYGYPDPSYLKRVKEELKAKGIE;MEAVYLVVNGLGLVLDVLTLVLDLNFLLVSSLLASLAWLLAFVYNLPHTVLTSLLHLGRGVLLSLLALIEAVVRFTCGGLQALCTLLYSCCSGLESLKLLGHLASHGALRSREILHRGVLNVVSSGHALLRQACDICAIAMSLVAYVINSLVNICLIGTQNLFSLVLALWDAVTGPLWRMTDVVAAFLAHISSSAVAMAILLWTPCQLALELLASAARLLASFVLVNLTGLVLLACVLAVTVTVLHPDFTLRLATQALSQLHARPSYHRLREDVMRLSRLALGSEAWRRVWSRSLQLASWPNRGGAPGAPQGDPMRVFSVRTRRQDTLPEAGRRSEAEEEEARTIRVTPVRGRERLNEEEPPGGQDPWKLLKEQEERKKCVICQDQSKTVLLLPCRHLCLCQACTEILMRHPVYHRNCPLCRRGILQTLNVYL;MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP</t>
+          <t>MEMESAAASTRFHQPHMERKMSAMACEIFNELRLEGKLCDVVIKVNGFEFSAHKNILCSCSSYFRALFTSGWNNTEKKVYNIPGISPDMMKLIIEYAYTRTVPITPDNVEKLLAAADQFNIMGIVRGCCEFLKSELCLDNCIGICKFTDYYYCPELRQKAYMFILHNFEEMVKVSAEFLELSVTELKDIIEKDELNVKQEDAVFEAILKWISHDPQNRKQHISILLPKVRLALMHAEYFMNNVKMNDYVKDSEECKPVIINALKAMYDLNMNGPSNSDFTNPLTRPRLPYAILFAIGGWSGGSPTNAIEAYDARADRWVNVTCEEESPRAYHGAAYLKGYVYIIGGFDSVDYFNSVKRFDPVKKTWHQVAPMHSRRCYVSVTVLGNFIYAMGGFDGYVRLNTAERYEPETNQWTLIAPMHEQRSDASATTLYGKVYICGGFNGNECLFTAEVYNTESNQWTVIAPMRSRRSGIGVIAYGEHVYAVGGFDGANRLRSAEAYSPVANTWRTIPTMFNPRSNFGIEVVDDLLFVVGGFNGFTTTFNVECYDEKTDEWYDAHDMSIYRSALSCCVVPGLANVEEYAARRDNFPGLALRDEVKYSASTSTLPV</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q9NQW6</t>
+          <t>P14635</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RENLQRK</t>
+          <t>A6NLU0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q9UM11;Q9NYG5</t>
+          <t>PRTALGDIG</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE</t>
+          <t>MAEHFKQIIRCPVCLKDLEEAVQLKCGYACCLQCLNSLQKEPDGEGLLCRFCSVVSQKDDIKPKYKLRALVSIIKELEPKLKSVLTMNPRMRKFQVDMTFDVDTANNYLIISEDLRSFRSGDLSQNRKEQAERFDTALCVLGTPRFTSGRHYWEVDVGTSQVWDVGVCKESVNRQGKIVLSSEHGFLTVGCREGKVFAASTVPMTPLWVSPQLHRVGIFLDVGMRSIAFYNVSDGCHIYTFIEIPVCEPWRPFFAHKRGSQDDQSILSICSVINPSAASAPVSSEGK</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q16665</t>
+          <t>P18848</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAPAAGDTIISLDF</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q9UNE7;O43255;Q00987;O60260;Q969H0;Q8IUQ4;P40337;P10523;P00748;P63244</t>
+          <t>DSGICMS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC;MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD;MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE;MRALLLLGFLLVSLESTLSIPPWEAPKEHKYKAEEHTVVLTVTGEPCHFPFQYHRQLYHKCTHKGRPGPQPWCATTPNFDQDQRWGYCLEPKKVKDHCSKHSPCQKGGTCVNMPSGPHCLCPQHLTGNHCQKEKCFEPQLLRFFHKNEIWYRTEQAAVARCQCKGPDAHCQRLASQACRTNPCLHGGRCLEVEGHRLCHCPVGYTGAFCDVDTKASCYDGRGLSYRGLARTTLSGAPCQPWASEATYRNVTAEQARNWGLGGHAFCRNPDNDIRPWCFVLNRDRLSWEYCDLAQCQTPTQAAPPTPVSPRLHVPLMPAQPAPPKPQPTTRTPPQSQTPGALPAKREQPPSLTRNGPLSCGQRLRKSLSSMTRVVGGLVALRGAHPYIAALYWGHSFCAGSLIAPCWVLTAAHCLQDRPAPEDLTVVLGQERRNHSCEPCQTLAVRSYRLHEAFSPVSYQHDLALLRLQEDADGSCALLSPYVQPVCLPSGAARPSETTLCQVAGWGHQFEGAEEYASFLQEAQVPFLSLERCSAPDVHGSSILPGMLCAGFLEGGTDACQGDSGGPLVCEDQAAERRLTLQGIISWGSGCGDRNKPGVYTDVAYYLAWIREHTVS;MTEQMTLRGTLKGHNGWVTQIATTPQFPDMILSASRDKTIIMWKLTRDETNYGIPQRALRGHSHFVSDVVISSDGQFALSGSWDGTLRLWDLTTGTTTRRFVGHTKDVLSVAFSSDNRQIVSGSRDKTIKLWNTLGVCKYTVQDESHSEWVSCVRFSPNSSNPIIVSCGWDKLVKVWNLANCKLKTNHIGHTGYLNTVTVSPDGSLCASGGKDGQAMLWDLNEGKHLYTLDGGDIINALCFSPNRYWLCAATGPSIKIWDLEGKIIVDELKQEVISTSSKAEPPQCTSLAWSADGQTLFAGYTDNLVRVWQVTIGTR</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>O60566</t>
+          <t>P38936</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RSTLAEL</t>
+          <t>P14373</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q9UM11;Q12834</t>
+          <t>RDELGGG</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+          <t>MASGSVAECLQQETTCPVCLQYFAEPMMLDCGHNICCACLARCWGTAETNVSCPQCRETFPQRHMRPNRHLANVTQLVKQLRTERPSGPGGEMGVCEKHREPLKLYCEEDQMPICVVCDRSREHRGHSVLPLEEAVEGFKEQIQNQLDHLKRVKDLKKRRRAQGEQARAELLSLTQMEREKIVWEFEQLYHSLKEHEYRLLARLEELDLAIYNSINGAITQFSCNISHLSSLIAQLEEKQQQPTRELLQDIGDTLSRAERIRIPEPWITPPDLQEKIHIFAQKCLFLTESLKQFTEKMQSDMEKIQELREAQLYSVDVTLDPDTAYPSLILSDNLRQVRYSYLQQDLPDNPERFNLFPCVLGSPCFIAGRHYWEVEVGDKAKWTIGVCEDSVCRKGGVTSAPQNGFWAVSLWYGKEYWALTSPMTALPLRTPLQRVGIFLDYDAGEVSFYNVTERCHTFTFSHATFCGPVRPYFSLSYSGGKSAAPLIICPMSGIDGFSGHVGNHGHSMETSP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P12830</t>
+          <t>P16234</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RDNVYYYDEEG</t>
+          <t>Q9HCE7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q9Y297;Q75N03;Q5T0T0;Q00987;Q13309</t>
+          <t>SIFDNLYTTLSD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDHTDNELQGTNSSGSLGGLDVRRRIPIKLISKQANKAKPAPRTQRTINRMPAKAPPGDEEGFDYNEEERYDCKGGELFANQRRFPGHLFWDFQINILGEKDDTPVHFCDKCGLPIKIYGRMIPCKHVFCYDCAILHEKKGDKMCPGCSDPVQRIEQCTRGSLFMCSIVQGCKRTYLSQRDLQAHINHRHMRAGKPVTRASLENVHPPIAPPPTEIPERFIMPPDKHHMSHIPPKQHIMMPPPPLQHVPHEHYNQPHEDIRAPPAELSMAPPPPRSVSQETFRISTRKHSNLITVPIQDDSNSGAREPPPPAPAPAHHHPEYQGQPVVSHPHHIMPPQQHYAPPPPPPPPISHPMPHPPQAAGTPHLVYSQAPPPPMTSAPPPITPPPGHIIAQMPPYMNHPPPGPPPPQHGGPPVTAPPPHHYNPNSLPQFTEDQGTLSPPFTQPGGMSPGIWPAPRGPPPPPRLQGPPSQTPLPGPHHPDQTRYRPYYQ;MSMPLHQISAIPSQDAISARVYRSKTKEKEREEQNEKTLGHFMSHSSNISKAGSPPSASAPAPVSSFSRTSITPSSQDICRICHCEGDDESPLITPCHCTGSLHFVHQACLQQWIKSSDTRCCELCKYEFIMETKLKPLRKWEKLQMTSSERRKIMCSVTFHVIAITCVVWSLYVLIDRTAEEIKQGQATGILEWPFWTKLVVVAIGFTGGLLFMYVQCKVYVQLWKRLKAYNRVIYVQNCPETSKKNIFEKSPLTEPNFENKHGYGICHSDTNSSCCTEPEDTGAEIIHV;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+          <t>MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q12834</t>
+          <t>P05412</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SKENQ</t>
+          <t>Q96J02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q9UM11;O43791</t>
+          <t>EEPQTVPEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q9BXS6</t>
+          <t>Q6UVJ0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RRGLILA</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>DKENG</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,1650 +1272,7876 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P43146</t>
+          <t>Q6PGQ7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>IPTACVRPT</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O43255;Q8IUQ4</t>
+          <t>DSGYNT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P49919</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AVEQTPRK</t>
+          <t>Q8WZ73</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q9EPX5;Q9Z0Z3</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MATLFDLPDLVLLEIFSYLPVRDRIRISRVCHRWKRLVDDRWLWRHVDLTLYTMRPKVMWHLLRRYMASRLYSLRMGGYLFSGSQAPQLSPALMRALGQKCPNLKRLCLHVADLSMVPITSLPSTLRTLELHSCEISMIWLQKEQDPTVLPLLECIVLDRVPAFRDEHLQGLTRFRALRSLVLGGTYRVTETGLDASLQELSYLQRLEVLGCTLSADSTLLAISRHLRDVRKIRLTVGGLSAQGLVFLEGMPVLESLCFQGPLITPDMPTPTQIVSSCLTMPKLRVLEVQGLGWEGQEAEKILCKGLPHCIVIVRACPKESMDWWM;MHRKHLQEIPDQSGNVTTSFTWGWDSSKTSELLSGMGVSALEKEEVDSENIPHGLLSNLGHPQSPPRKRVKGKGSDKDFVIIRRPKLSRENFPGVSWDSLPDELLLGIFSCLCLPELLRVSGVCKRWYRLSLDESLWQSLDLAGKNLHPDVTVRLLSRGVVAFRCPRSFMEQPLGESFSSFRVQHMDLSNSVINVSNLHKILSECSKLQNLSLEGLQLSDPIVKTLAQNENLVRLNLCGCSGFSESAVATLLSSCSRLDELNLSWCFDFTEKHVQAAVAHLPNTITQLNLSGYRKNLQKTDLCTIIKRCPNLIRLDLSDSIMLKNDCFPEFFQLNYLQHLSLSRCYDIIPDTLLELGEIPTLKTLQVFGIVPEGTLQLLREALPRLQINCAYFTTIARPTMDSKKNLEIWGIKCRLTLQKPSCL</t>
+          <t>MWATCCNWFCLDGQPEEVPPPQGARMQAYSNPGYSSFPSPTGLEPSCKSCGAHFANTARKQTCLDCKKNFCMTCSSQVGNGPRLCLLCQRFRATAFQREELMKMKVKDLRDYLSLHDISTEMCREKEELVLLVLGQQPVISQEDRTRASTLSPDFPEQQAFLTQPHSSMVPPTSPNLPSSSAQATSVPPAQVQENQQANGHVSQDQEEPVYLESVARVPAEDETQSIDSEDSFVPGRRASLSDLTDLEDIEGLTVRQLKEILARNFVNYKGCCEKWELMERVTRLYKDQKGLQHLVSGAEDQNGGAVPSGLEENLCKICMDSPIDCVLLECGHMVTCTKCGKRMNECPICRQYVIRAVHVFRS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q15004</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EKENQ</t>
+          <t>Q969K3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MKAGATSMWASCCGLLNEVMGTGAVRGQQSAFAGATGPFRFTPNPEFSTYPPAATEGPNIVCKACGLSFSVFRKKHVCCDCKKDFCSVCSVLQENLRRCSTCHLLQETAFQRPQLMRLKVKDLRQYLILRNIPIDTCREKEDLVDLVLCHHGLGSEDDMDTSSLNSSRSQTSSFFTRSFFSNYTAPSATMSSFQGELMDGDQTSRSGVPAQVQSEITSANTEDDDDDDDEDDDDEEENAEDRNPGLSKERVRASLSDLSSLDDVEGMSVRQLKEILARNFVNYSGCCEKWELVEKVNRLYKENEENQKSYGERLQLQDEEDDSLCRICMDAVIDCVLLECGHMVTCTKCGKRMSECPICRQYVVRAVHVFKS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P35222</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DSGIHS</t>
+          <t>Q99675</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>P22681;Q9Y297;Q9HAU4;Q9Y4K3;Q13309;Q8IUQ4;Q9UKB1;Q8NHY2;O76064;P49427;Q9NW38;Q9BR09;O60907;Q9UPN9</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE;MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR;MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MGEPGFFVTGDRAGGRSWCLRRVGMSAGWLLLEDGCEVTVGRGFGVTYQLVSKICPLMISRNHCVLKQNPEGQWTIMDNKSLNGVWLNRARLEPLRVYSIHQGDYIQLGVPLENKENAEYEYEVTEEDWETIYPCLSPKNDQMIEKNKELRTKRKFSLDELAGPGAEGPSNLKSKINKVSCESGQPVKSQGKGEVASTPSDNLDPKLTALEPSKTTGAPIYPGFPKVTEVHHEQKASNSSASQRSLQMFKVTMSRILRLKIQMQEKHEAVMNVKKQTQKGNSKKVVQMEQELQDLQSQLCAEQAQQQARVEQLEKTFQEEEQHLQGLEIAQGEKDLKQQLAQALQEHWALMEELNRSKKDFEAIIQAKNKELEQTKEEKEKMQAQKEEVLSHMNDVLENELQCIICSEYFIEAVTLNCAHSFCSYCINEWMKRKIECPICRKDIKSKTYSLVLDNCINKMVNNLSSEVKERRIVLIRERKAKRLF;MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES;MAVTEASLLRQCPLLLPQNRSKTVYEGFISAQGRDFHLRIVLPEDLQLKNARLLCSWQLRTILSGYHRIVQQRMQHSPDLMSFMMELKMLLEVALKNRQELYALPPPPQFYSSLIEEIGTLGWDKLVYADTCFSTIKLKAEDASGREHLITLKLKAKYPAESPDYFVDFPVPFCASWTPQSSLISIYSQFLAAIESLKAFWDVMDEIDEKTWVLEPEKPPRSATARRIALGNNVSINIEVDPRHPTMLPECFFLGADHVVKPLGIKLSRNIHLWDPENSVLQNLKDVLEIDFPARAILEKSDFTMDCGICYAYQLDGTIPDQVCDNSQCGQPFHQICLYEWLRGLLTSRQSFNIIFGECPYCSKPITLKMSGRKH;MAAASEPVDSGALWGLERPEPPPTRFHRVHGANIRVDPSGTRATRVESFAHGVCFSREPLAPGQVFLVEIEEKELGWCGHLRLGLTALDPASLAPVPEFSLPDLVNLGHTWVFAITRHHNRVPREGRPEAEAAAPSRPPTLLVEPYLRIEQFRIPRDRLVGRSRPGLYSHLLDQLYELNVLPPTARRSRLGVLFCPRPDGTADMHIIINGEDMGPSARGLPAAQPLYAVVDVFASTKSVRLVQLEYGLPSLQTLCRLVIQRSMVHRLAIDGLHLPKELKDFCKYE;MTELAGASSSCCHRPAGRGAMQSVLHHFQRLRGREGGSHFINTSSPRGEAKMSITSDEVNFLVYRYLQESGFSHSAFTFGIESHISQSNINGTLVPPAALISILQKGLQYVEAEISINEDGTVFDGRPIESLSLIDAVMPDVVQTRQQAFREKLAQQQASAAAAAAAATAAATAATTTSAGVSHQNPSKNREATVNGEENRAHSVNNHAKPMEIDGEVEIPSSKATVLRGHESEVFICAWNPVSDLLASGSGDSTARIWNLNENSNGGSTQLVLRHCIREGGHDVPSNKDVTSLDWNTNGTLLATGSYDGFARIWTEDGNLASTLGQHKGPIFALKWNRKGNYILSAGVDKTTIIWDAHTGEAKQQFPFHSAPALDVDWQNNTTFASCSTDMCIHVCRLGCDRPVKTFQGHTNEVNAIKWDPSGMLLASCSDDMTLKIWSMKQEVCIHDLQAHNKEIYTIKWSPTGPATSNPNSNIMLASASFDSTVRLWDIERGVCTHTLTKHQEPVYSVAFSPDGKYLASGSFDKCVHIWNTQSGNLVHSYRGTGGIFEVCWNARGDKVGASASDGSVCVLDLRK;MAENKGGGEAESGGGGSGSAPVTAGAAGPAAQEAEPPLTAVLVEEEEEEGGRAGAEGGAAGPDDGGVAAASSGSAQAASSPAASVGTGVAGGAVSTPAPAPASAPAPGPSAGPPPGPPASLLDTCAVCQQSLQSRREAEPKLLPCLHSFCLRCLPEPERQLSVPIPGGSNGDIQQVGVIRCPVCRQECRQIDLVDNYFVKDTSEAPSSSDEKSEQVCTSCEDNASAVGFCVECGEWLCKTCIEAHQRVKFTKDHLIRKKEDVSESVGASGQRPVFCPVHKQEQLKLFCETCDRLTCRDCQLLEHKEHRYQFLEEAFQNQKGAIENLLAKLLEKKNYVHFAATQVQNRIKEVNETNKRVEQEIKVAIFTLINEINKKGKSLLQQLENVTKERQMKLLQQQNDITGLSRQVKHVMNFTNWAIASGSSTALLYSKRLITFQLRHILKARCDPVPAANGAIRFHCDPTFWAKNVVNLGNLVIESKPAPGYTPNVVVGQVPPGTNHISKTPGQINLAQLRLQHMQQQVYAQKHQQLQQMRMQQPPAPVPTTTTTTQQHPRQAAPQMLQQQPPRLISVQTMQRGNMNCGAFQAHQMRLAQNAARIPGIPRHSGPQYSMMQPHLQRQHSNPGHAGPFPVVSVHNTTINPTSPTTATMANANRGPTSPSVTAIELIPSVTNPENLPSLPDIPPIQLEDAGSSSLDNLLSRYISGSHLPPQPTSTMNPSPGPSALSPGSSGLSNSHTPVRPPSTSSTGSRGSCGSSGRTAEKTSLSFKSDQVKVKQEPGTEDEICSFSGGVKQEKTEDGRRSACMLSSPESSLTPPLSTNLHLESELDALASLENHVKIEPADMNESCKQSGLSSLVNGKSPIRSLMHRSARIGGDGNNKDDDPNEDWCAVCQNGGDLLCCEKCPKVFHLTCHVPTLLSFPSGDWICTFCRDIGKPEVEYDCDNLQHSKKGKTAQGLSPVDQRKCERLLLYLYCHELSIEFQEPVPASIPNYYKIIKKPMDLSTVKKKLQKKHSQHYQIPDDFVADVRLIFKNCERFNEMMKVVQVYADTQEINLKADSEVAQAGKAVALYFEDKLTEIYSDRTFAPLPEFEQEEDDGEVTEDSDEDFIQPRRKRLKSDERPVHIK</t>
+          <t>MAAVFLVTLYEYSPLFYIAVVFTCFIVTTGLVLGWFGWDVPVILRNSEETQFSTRVFKKQMRQVKNPFGLEITNPSSASITTGITLTTDCLEDSLLTCYWGCSVQKLYEALQKHVYCFRISTPQALEDALYSEYLYQEQYFIKKDSKEEIYCQLPRDTKIEDFGTVPRSRYPLVALLTLADEDDREIYDIISMVSVIHIPDRTYKLSCRILYQYLLLAQGQFHDLKQLFMSANNNFTPSNNSSSEEKNTDRSLLEKVGLSESEVEPSEENSKDCVVCQNGTVNWVLLPCRHTCLCDGCVKYFQQCPMCRQFVQESFALCSQKEQDKDKPKTL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>O24646</t>
+          <t>O95997</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EEIRRVPEF</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q9SPL2;P43254</t>
+          <t>RKALGTV</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MSDAPSSSPDATASHWCYHCNKRVVVETLDDFVVCCECNKGFVESIQPTPAAYSSPAPPQPLSPDLNVEDSSIGSHFLQMLRLLAHAPSQRSPPRHLDVLSYEDDFFRLELNSRNEIDDDEDEDEDDGDEEEEDEEENLTVNDEEDEEDDLRRRNRFPLTTTQSRTGRNRILDWAEILMGIEDNSIEFRMESDRYAGNPADYIDDAAGYEALLQNLAEGDGGGGGGRRGAPPAAKSAIEALETFEVSSSEGEMVMVCAVCKDGMVMGETGKKLPCGHCYHGDCIVPWLGTRNSCPVCRFQLETDDAEYEEERKKRTSTVSDSAAASSSSSTSRY;MEEISTDPVVPAVKPDPRTSSVGEGANRHENDDGGSGGSEIGAPDLDKDLLCPICMQIIKDAFLTACGHSFCYMCIITHLRNKSDCPCCSQHLTNNQLYPNFLLDKLLKKTSARHVSKTASPLDQFREALQRGCDVSIKEVDNLLTLLAERKRKMEQEEAERNMQILLDFLHCLRKQKVDELNEVQTDLQYIKEDINAVERHRIDLYRARDRYSVKLRMLGDDPSTRNAWPHEKNQIGFNSNSLSIRGGNFVGNYQNKKVEGKAQGSSHGLPKKDALSGSDSQSLNQSTVSMARKKRIHAQFNDLQECYLQKRRQLADQPNSKQENDKSVVRREGYSNGLADFQSVLTTFTRYSRLRVIAEIRHGDIFHSANIVSSIEFDRDDELFATAGVSRCIKVFDFSSVVNEPADMQCPIVEMSTRSKLSCLSWNKHEKNHIASSDYEGIVTVWDVTTRQSLMEYEEHEKRAWSVDFSRTEPSMLVSGSDDCKVKVWCTRQEASVINIDMKANICCVKYNPGSSNYIAVGSADHHIHYYDLRNISQPLHVFSGHKKAVSYVKFLSNNELASASTDSTLRLWDVKDNLPVRTFRGHTNEKNFVGLTVNSEYLACGSETNEVYVYHKEITRPVTSHRFGSPDMDDAEEEAGSYFISAVCWKSDSPTMLTANSQGTIKVLVLAA</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q13118</t>
+          <t>P03372</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IPCAAVSPN</t>
+          <t>Q9P0P0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q96J02;Q969H0;Q8IUQ4</t>
+          <t>AGSTS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+          <t>MASYFDEHDCEPSDPEQETRTNMLLELARSLFNRMDFEDLGLVVDWDHHLPPPAAKTVVENLPRTVIRGSQAELKCPVCLLEFEEEETAIEMPCHHLFHSSCILPWLSKTNSCPLCRYELPTDDDTYEEHRRDKARKQQQQHRLENLHGAMYT</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q14247</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ADYRE</t>
+          <t>Q13191</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q9HCE7;Q9Y297;Q75N03;P09936</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE;MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDHTDNELQGTNSSGSLGGLDVRRRIPIKLISKQANKAKPAPRTQRTINRMPAKAPPGDEEGFDYNEEERYDCKGGELFANQRRFPGHLFWDFQINILGEKDDTPVHFCDKCGLPIKIYGRMIPCKHVFCYDCAILHEKKGDKMCPGCSDPVQRIEQCTRGSLFMCSIVQGCKRTYLSQRDLQAHINHRHMRAGKPVTRASLENVHPPIAPPPTEIPERFIMPPDKHHMSHIPPKQHIMMPPPPLQHVPHEHYNQPHEDIRAPPAELSMAPPPPRSVSQETFRISTRKHSNLITVPIQDDSNSGAREPPPPAPAPAHHHPEYQGQPVVSHPHHIMPPQQHYAPPPPPPPPISHPMPHPPQAAGTPHLVYSQAPPPPMTSAPPPITPPPGHIIAQMPPYMNHPPPGPPPPQHGGPPVTAPPPHHYNPNSLPQFTEDQGTLSPPFTQPGGMSPGIWPAPRGPPPPPRLQGPPSQTPLPGPHHPDQTRYRPYYQ;MQLKPMEINPEMLNKVLSRLGVAGQWRFVDVLGLEEESLGSVPAPACALLLLFPLTAQHENFRKKQIEELKGQEVSPKVYFMKQTIGNSCGTIGLIHAVANNQDKLGFEDGSVLKQFLSETEKMSPEDRAKCFEKNEAIQAAHDAVAQEGQCRVDDKVNFHFILFNNVDGHLYELDGRMPFPVNHGASSEDTLLKDAAKVCREFTEREQGEVRFSAVALCKAA</t>
+          <t>MANSMNGRNPGGRGGNPRKGRILGIIDAIQDAVGPPKQAAADRRTVEKTWKLMDKVVRLCQNPKLQLKNSPPYILDILPDTYQHLRLILSKYDDNQKLAQLSENEYFKIYIDSLMKKSKRAIRLFKEGKERMYEEQSQDRRNLTKLSLIFSHMLAEIKAIFPNGQFQGDNFRITKADAAEFWRKFFGDKTIVPWKVFRQCLHEVHQISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWGSILRNWNFLAVTHPGYMAFLTYDEVKARLQKYSTKPGSYIFRLSCTRLGQWAIGYVTGDGNILQTIPHNKPLFQALIDGSREGFYLYPDGRSYNPDLTGLCEPTPHDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTAWQESDGQGCPFCRCEIKGTEPIIVDPFDPRDEGSRCCSIIDPFGMPMLDLDDDDDREESLMMNRLANVRKCTDRQNSPVTSPGSSPLAQRRKPQPDPLQIPHLSLPPVPPRLDLIQKGIVRSPCGSPTGSPKSSPCMVRKQDKPLPAPPPPLRDPPPPPPERPPPIPPDNRLSRHIHHVESVPSRDPPMPLEAWCPRDVFGTNQLVGCRLLGEGSPKPGITASSNVNGRHSRVGSDPVLMRKHRRHDLPLEGAKVFSNGHLGSEEYDVPPRLSPPPPVTTLLPSIKCTGPLANSLSEKTRDPVEEDDDEYKIPSSHPVSLNSQPSHCHNVKPPVRSCDNGHCMLNGTHGPSSEKKSNIPDLSIYLKGDVFDSASDPVPLPPARPPTRDNPKHGSSLNRTPSDYDLLIPPLGEDAFDALPPSLPPPPPPARHSLIEHSKPPGSSSRPSSGQDLFLLPSDPFVDLASGQVPLPPARRLPGENVKTNRTSQDYDQLPSCSDGSQAPARPPKPRPRRTAPEIHHRKPHGPEAALENVDAKIAKLMGEGYAFEEVKRALEIAQNNVEVARSILREFAFPPPVSPRLNL</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P30281</t>
+          <t>P35222</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PTDVTAIHL</t>
+          <t>O76064</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q9UKC9</t>
+          <t>DSGIHS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MVFSNNDEGLINKKLPKELLLRIFSFLDIVTLCRCAQISKAWNILALDGSNWQRIDLFNFQTDVEGRVVENISKRCGGFLRKLSLRGCIGVGDSSLKTFAQNCRNIEHLNLNGCTKITDSTCYSLSRFCSKLKHLDLTSCVSITNSSLKGISEGCRNLEYLNLSWCDQITKDGIEALVRGCRGLKALLLRGCTQLEDEALKHIQNYCHELVSLNLQSCSRITDEGVVQICRGCHRLQALCLSGCSNLTDASLTALGLNCPRLQILEAARCSHLTDAGFTLLARNCHELEKMDLEECILITDSTLIQLSIHCPKLQALSLSHCELITDDGILHLSNSTCGHERLRVLELDNCLLITDVALEHLENCRGLERLELYDCQQVTRAGIKRMRAQLPHVKVHAYFAPVTPPTAVAGSGQRLCRCCVIL</t>
+          <t>MGEPGFFVTGDRAGGRSWCLRRVGMSAGWLLLEDGCEVTVGRGFGVTYQLVSKICPLMISRNHCVLKQNPEGQWTIMDNKSLNGVWLNRARLEPLRVYSIHQGDYIQLGVPLENKENAEYEYEVTEEDWETIYPCLSPKNDQMIEKNKELRTKRKFSLDELAGPGAEGPSNLKSKINKVSCESGQPVKSQGKGEVASTPSDNLDPKLTALEPSKTTGAPIYPGFPKVTEVHHEQKASNSSASQRSLQMFKVTMSRILRLKIQMQEKHEAVMNVKKQTQKGNSKKVVQMEQELQDLQSQLCAEQAQQQARVEQLEKTFQEEEQHLQGLEIAQGEKDLKQQLAQALQEHWALMEELNRSKKDFEAIIQAKNKELEQTKEEKEKMQAQKEEVLSHMNDVLENELQCIICSEYFIEAVTLNCAHSFCSYCINEWMKRKIECPICRKDIKSKTYSLVLDNCINKMVNNLSSEVKERRIVLIRERKAKRLF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P14635</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PRTALGDIG</t>
+          <t>Q9NV58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q9UM11;O60260;Q9NYG5;Q12834;Q9P2N7;Q9P2J3;P38398;Q9NPC3;Q6JEL2;Q9NVR0;Q53G59;A6NLU0;Q8NHY2;Q86WB0</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR;MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP;MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS;MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY;MSLCEDMLLCNYRKCRIKLSGYAWVTACSHIFCDQHGSGEFSRSPAICPACNSTLSGKLDIVRTELSPSEEYKAMVLAGLRPEIVLDISSRALAFWTYQVHQERLYQEYNFSKAEGHLKQMEKIYTQQIQSKDVELTSMKGEVTSMKKVLEEYKKKFSDISEKLMERNRQYQKLQGLYDSLRLRNITIANHEGTLEPSMIAQSGVLGFPLGNNSKFPLDNTPVRNRGDGDGDFQFRPFFAGSPTAPEPSNSFFSFVSPSRELEQQQVSSRAFKVKRI;MEMESAAASTRFHQPHMERKMSAMACEIFNELRLEGKLCDVVIKVNGFEFSAHKNILCSCSSYFRALFTSGWNNTEKKVYNIPGISPDMMKLIIEYAYTRTVPITPDNVEKLLAAADQFNIMGIVRGCCEFLKSELCLDNCIGICKFTDYYYCPELRQKAYMFILHNFEEMVKVSAEFLELSVTELKDIIEKDELNVKQEDAVFEAILKWISHDPQNRKQHISILLPKVRLALMHAEYFMNNVKMNDYVKDSEECKPVIINALKAMYDLNMNGPSNSDFTNPLTRPRLPYAILFAIGGWSGGSPTNAIEAYDARADRWVNVTCEEESPRAYHGAAYLKGYVYIIGGFDSVDYFNSVKRFDPVKKTWHQVAPMHSRRCYVSVTVLGNFIYAMGGFDGYVRLNTAERYEPETNQWTLIAPMHEQRSDASATTLYGKVYICGGFNGNECLFTAEVYNTESNQWTVIAPMRSRRSGIGVIAYGEHVYAVGGFDGANRLRSAEAYSPVANTWRTIPTMFNPRSNFGIEVVDDLLFVVGGFNGFTTTFNVECYDEKTDEWYDAHDMSIYRSALSCCVVPGLANVEEYAARRDNFPGLALRDEVKYSASTSTLPV;MAAAAVAAAAAAAAAASLQVLEMESMETAAAGSAGLAAEVRGSGTVDFGPGPGISAMEASGGDPGPEAEDFECSSHCSELSWRQNEQRRQGLFCDITLCFGGAGGREFRAHRSVLAAATEYFTPLLSGQFSESRSGRVEMRKWSSEPGPEPDTVEAVIEYMYTGRIRVSTGSVHEVLELADRFLLIRLKEFCGEFLKKKLHLSNCVAIHSLAHMYTLSQLALKAADMIRRNFHKVIQDEEFYTLPFHLIRDWLSDLEITVDSEEVLFETVLKWVQRNAEERERYFEELFKLLRLSQMKPTYLTRHVKPERLVANNEVCVKLVADAVERHALRAENIQSGTCQHPTSHVSLLPRYGQNMDVIMVIGGVSEGGDYLSECVGYFVDEDRWVNLPHIHNHLDGHAVAVTESYVYVAGSMEPGFAKTVERYNPNLNTWEHVCSLMTRKHSFGLTEVKGKLYSIGGHGNFSPGFKDVTVYNPELDKWHNLESAPKILRDVKALAIEDRFVYIAARTPVDRDTEDGLKAVITCYDTETRQWQDVESLPLIDNYCFFQMSVVNSNFYQTASCCPKSYCLENEEAVRKIASQVSDEILESLPPEVLSIEGAAICYYKDDVFIIGGWKNSDDIDKQYRKEAYRYCAERKRWMLLPPMPQPRCRATACHVRIPYRYLHGTQRYPMPQNLMWQKDRIRQMQEIHRHALNMRRVPSSQIEC;MGGIMAPKDIMTNTHAKSILNSMNSLRKSNTLCDVTLRVEQKDFPAHRIVLAACSDYFCAMFTSELSEKGKPYVDIQGLTASTMEILLDFVYTETVHVTVENVQELLPAACLLQLKGVKQACCEFLESQLDPSNCLGIRDFAETHNCVDLMQAAEVFSQKHFPEVVQHEEFILLSQGEVEKLIKCDEIQVDSEEPVFEAVINWVKHAKKEREESLPNLLQYVRMPLLTPRYITDVIDAEPFIRCSLQCRDLVDEAKKFHLRPELRSQMQGPRTRARLGANEVLLVVGGFGSQQSPIDVVEKYDPKTQEWSFLPSITRKRRYVASVSLHDRIYVIGGYDGRSRLSSVECLDYTADEDGVWYSVAPMNVRRGLAGATTLGDMIYVSGGFDGSRRHTSMERYDPNIDQWSMLGDMQTAREGAGLVVASGVIYCLGGYDGLNILNSVEKYDPHTGHWTNVTPMATKRSGAGVALLNDHIYVVGGFDGTAHLSSVEAYNIRTDSWTTVTSMTTPRCYVGATVLRGRLYAIAGYDGNSLLSSIECYDPIIDSWEVVTSMGTQRCDAGVCVLREK;MAEHFKQIIRCPVCLKDLEEAVQLKCGYACCLQCLNSLQKEPDGEGLLCRFCSVVSQKDDIKPKYKLRALVSIIKELEPKLKSVLTMNPRMRKFQVDMTFDVDTANNYLIISEDLRSFRSGDLSQNRKEQAERFDTALCVLGTPRFTSGRHYWEVDVGTSQVWDVGVCKESVNRQGKIVLSSEHGFLTVGCREGKVFAASTVPMTPLWVSPQLHRVGIFLDVGMRSIAFYNVSDGCHIYTFIEIPVCEPWRPFFAHKRGSQDDQSILSICSVINPSAASAPVSSEGK;MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MAAPCEGQAFAVGVEKNWGAVVRSPEGTPQKIRQLIDEGIAPEEGGVDAKDTSATSQSVNGSPQAEQPSLESTSKEAFFSRVETFSSLKWAGKPFELSPLVCAKYGWVTVECDMLKCSSCQAFLCASLQPAFDFDRYKQRCAELKKALCTAHEKFCFWPDSPSPDRFGMLPLDEPAILVSEFLDRFQSLCHLDLQLPSLRPEDLKTMCLTEDKISLLLHLLEDELDHRTDERKTTIKLGSDIQVHVTACILSVCGWACSSSLESMQLSLITCSQCMRKVGLWGFQQIESSMTDLDASFGLTSSPIPGLEGRPERLPLVPESPRRMMTRSQDATFSPGSEQAEKSPGPIVSRTRSWDSSSPVDRPEPEAASPTTRTRPVTRSMGTGDTPGLEVPSSPLRKAKRARLCSSSSSDTSSRSFFDPTSQHRDWCPWVNITLGKESRENGGTEPDASAPAEPGWKAVLTILLAHKQSSQPAETDSMSLSEKSRKVFRIFRQWESLCSC</t>
+          <t>MQEQEIGFISKYNEGLCVNTDPVSILTSILDMSLHRQMGSDRDLQSSASSVSLPSVKKAPKKRRISIGSLFRRKKDNKRKSRELNGGVDGIASIESIHSEMCTDKNSIFSTNTSSDNGLTSISKQIGDFIECPLCLLRHSKDRFPDIMTCHHRSCVDCLRQYLRIEISESRVNISCPECTERFNPHDIRLILSDDVLMEKYEEFMLRRWLVADPDCRWCPAPDCGYAVIAFGCASCPKLTCGREGCGTEFCYHCKQIWHPNQTCDAARQERAQSLRLRTIRSSSISYSQESGAAADDIKPCPRCAAYIIKMNDGSCNHMTCAVCGCEFCWLCMKEISDLHYLSPSGCTFWGKKPWSRKKKILWQLGTLVGAPVGIALIAGIAIPAMIIGIPVYVGRKIHNRYEGKDVSKHKRNLAIAGGVTLSVIVSPVVAAVTVGIGVPIMLAYVYGVVPISLCRSGGCGVSAGNGKGVRIEFDDENDINVGGTNTAVDTTSVAEARHNPSIGEGSVGGLTGSLSASGSHMDRIGAIRDNLSETASTMALAGASITGSLSGSAMVNCFNRLEVQADVQKERYSLSGESGTVSLGTVSDNASTKAMAGSILNSYIPLDKEGNSMEVQVDIESKPSKFRHNSGSSSVDDGSATRSHAGGSSSGLPEGKSSATKWSKEATAGKKSKSGKLRKKGNMKINETREDMDAQLLEQQSTNSSEFEAPSLSDSMPSVADSHSSHFSEFSCSDLESMKTSCSHGSSDYHTRFATVNILPEVENDRLENSPHQCSISVVTQTASCSEVSQLNHIAEEHGNNGIKPNVDLYFGDALKETNNNHSHQTMELKVAIQTEI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P13051</t>
+          <t>O75496</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PGTPPSS</t>
+          <t>Q99496</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q9Y4B6</t>
+          <t>RRTLKMI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MTTVVVHVDSKAELTTLLEQWEKEHGSGQDMVPILTRMSQLIEKETEEYRKGDPDPFDDRHPGRADPECMLGHLLRILFKNDDFMNALVNAYVMTSREPPLNTAACRLLLDIMPGLETAVVFQEKEGIVENLFKWAREADQPLRTYSTGLLGGAMENQDIAANYRDENSQLVAIVLRRLRELQLQEVALRQENKRPSPRKLSSEPLLPLDEEAVDMDYGDMAVDVVDGDQEEASGDMEISFHLDSGHKTSSRVNSTTKPEDGGLKKNKSAKQGDRENFRKAKQKLGFSSSDPDRMFVELSNSSWSEMSPWVIGTNYTLYPMTPAIEQRLILQYLTPLGEYQELLPIFMQLGSRELMMFYIDLKQTNDVLLTFEALKHLASLLLHNKFATEFVAHGGVQKLLEIPRPSMAATGVSMCLYYLSYNQDAMERVCMHPHNVLSDVVNYTLWLMECSHASGCCHATMFFSICFSFRAVLELFDRYDGLRRLVNLISTLEILNLEDQGALLSDDEIFASRQTGKHTCMALRKYFEAHLAIKLEQVKQSLQRTEGGILVHPQPPYKACSYTHEQIVEMMEFLIEYGPAQLYWEPAEVFLKLSCVQLLLQLISIACNWKTYYARNDTVRFALDVLAILTVVPKIQLQLAESVDVLDEAGSTVSTVGISIILGVAEGEFFIHDAEIQKSALQIIINCVCGPDNRISSIGKFISGTPRRKLPQNPKSSEHTLAKMWNVVQSNNGIKVLLSLLSIKMPITDADQIRALACKALVGLSRSSTVRQIISKLPLFSSCQIQQLMKEPVLQDKRSDHVKFCKYAAELIERVSGKPLLIGTDVSLARLQKADVVAQSRISFPEKELLLLIRNHLISKGLGETATVLTKEADLPMTAASHSSAFTPVTAAASPVSLPRTPRIANGIATRLGSHAAVGASAPSAPTAHPQPRPPQGPLALPGPSYAGNSPLIGRISFIRERPSPCNGRKIRVLRQKSDHGAYSQSPAIKKQLDRHLPSPPTLDSIITEYLREQHARCKNPVATCPPFSLFTPHQCPEPKQRRQAPINFTSRLNRRASFPKYGGVDGGCFDRHLIFSRFRPISVFREANEDESGFTCCAFSARERFLMLGTCTGQLKLYNVFSGQEEASYNCHNSAITHLEPSRDGSLLLTSATWSQPLSALWGMKSVFDMKHSFTEDHYVEFSKHSQDRVIGTKGDIAHIYDIQTGNKLLTLFNPDLANNYKRNCATFNPTDDLVLNDGVLWDVRSAQAIHKFDKFNMNISGVFHPNGLEVIINTEIWDLRTFHLLHTVPALDQCRVVFNHTGTVMYGAMLQADDEDDLMEERMKSPFGSSFRTFNATDYKPIATIDVKRNIFDLCTDTKDCYLAVIENQGSMDALNMDTVCRLYEVGRQRLAEDEDEEEDQEEEEQEEEDDDEDDDDTDDLDELDTDQLLEAELEEDDNNENAGEDGDNDFSPSDEELANLLEEGEDGEDEDSDADEEVELILGDTDSSDNSDLEDDIILSLNE</t>
+          <t>MSQAVQTNGTQPLSKTWELSLYELQRTPQEAITDGLEIVVSPRSLHSELMCPICLDMLKNTMTTKECLHRFCADCIITALRSGNKECPTCRKKLVSKRSLRPDPNFDALISKIYPSRDEYEAHQERVLARINKHNNQQALSHSIEEGLKIQAMNRLQRGKKQQIENGSGAEDNGDSSHCSNASTHSNQEAGPSNKRTKTSDDSGLELDNNNAAMAIDPVMDGASEIELVFRPHPTLMEKDDSAQTRYIKTSGNATVDHLSKYLAVRLALEELRSKGESNQMNLDTASEKQYTIYIATASGQFTVLNGSFSLELVSEKYWKVNKPMELYYAPTKEHK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q16875</t>
+          <t>P08581</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AKEND</t>
+          <t>P22681</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UM11;Q9Y2K7</t>
+          <t>NESVDYRATFP</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MEPEEERIRYSQRLRGTMRRRYEDDGISDDEIEGKRTFDLEEKLHTNKYNANFVTFMEGKDFNVEYIQRGGLRDPLIFKNSDGLGIKMPDPDFTVNDVKMCVGSRRMVDVMDVNTQKGIEMTMAQWTRYYETPEEEREKLYNVISLEFSHTRLENMVQRPSTVDFIDWVDNMWPRHLKESQTESTNAILEMQYPKVQKYCLMSVRGCYTDFHVDFGGTSVWYHIHQGGKVFWLIPPTAHNLELYENWLLSGKQGDIFLGDRVSDCQRIELKQGYTFVIPSGWIHAVYTPTDTLVFGGNFLHSFNIPMQLKIYNIEDRTRVPNKFRYPFYYEMCWYVLERYVYCITNRSHLTKEFQKESLSMDLELNGLESGNGDEEAVDREPRRLSSRRSVLTSPVANGVNLDYDGLGKTCRSLPSLKKTLAGDSSSDCSRGSHNGQVWDPQCAPRKDRQVHLTHFELEGLRCLVDKLESLPLHKKCVPTGIEDEDALIADVKILLEELANSDPKLALTGVPIVQWPKRDKLKFPTRPKVRVPTIPITKPHTMKPAPRLTPVRPAAASPIVSGARRRRVRCRKCKACVQGECGVCHYCRDMKKFGGPGRMKQSCVLRQCLAPRLPHSVTCSLCGEVDQNEETQDFEKKLMECCICNEIVHPGCLQMDGEGLLNEELPNCWECPKCYQEDSSEKAQKRKMEESDEEAVQAKVLRPLRSCDEPLTPPPHSPTSMLQLIHDPVSPRGMVTRSSPGAGPSDHHSASRDERFKRRQLLRLQATERTMVREKENNPSGKKELSEVEKAKIRGSYLTVTLQRPTKELHGTSIVPKLQAITASSANLRHSPRVLVQHCPARTPQRGDEEGLGGEEEEEEEEEEEDDSAEEGGAARLNGRGSWAQDGDESWMQREVWMSVFRYLSRRELCECMRVCKTWYKWCCDKRLWTKIDLSRCKAIVPQALSGIIKRQPVSLDLSWTNISKKQLTWLVNRLPGLKDLLLAGCSWSAVSALSTSSCPLLRTLDLRWAVGIKDPQIRDLLTPPADKPGQDNRSKLRNMTDFRLAGLDITDATLRLIIRHMPLLSRLDLSHCSHLTDQSSNLLTAVGSSTRYSLTELNMAGCNKLTDQTLIYLRRIANVTLIDLRGCKQITRKACEHFISDLSINSLYCLSDEKLIQKIS</t>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>O43597</t>
+          <t>P12830</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IRNTNEYTEGPT</t>
+          <t>Q00987</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>P22681;P46934;O43255</t>
+          <t>RDNVYYYDEEG</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P20248</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RAALAVL</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q13309;Q9UM11;Q12834</t>
+          <t>RSPLFIF</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P50549</t>
+          <t>Q15303</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DEQFVPDY</t>
+          <t>Q96J02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q8NHY2</t>
+          <t>RMKLPSP</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q13887</t>
+          <t>P19838</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FPPSPPSS</t>
+          <t>Q5XPI4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q9HAU4;Q9H0M0;Q969H0;Q14258</t>
+          <t>DSGVETS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MAELCPLAEELSCSICLEPFKEPVTTPCGHNFCGSCLNETWAVQGSPYLCPQCRAVYQARPQLHKNTVLCNVVEQFLQADLAREPPADVWTPPARASAPSPNAQVACDHCLKEAAVKTCLVCMASFCQEHLQPHFDSPAFQDHPLQPPVRDLLRRKCSQHNRLREFFCPEHSECICHICLVEHKTCSPASLSQASADLEATLRHKLTVMYSQINGASRALDDVRNRQQDVRMTANRKVEQLQQEYTEMKALLDASETTSTRKIKEEEKRVNSKFDTIYQILLKKKSEIQTLKEEIEQSLTKRDEFEFLEKASKLRGISTKPVYIPEVELNHKLIKGIHQSTIDLKNELKQCIGRLQEPTPSSGDPGEHDPASTHKSTRPVKKVSKEEKKSKKPPPVPALPSKLPTFGAPEQLVDLKQAGLEAAAKATSSHPNSTSLKAKVLETFLAKSRPELLEYYIKVILDYNTAHNKVALSECYTVASVAEMPQNYRPHPQRFTYCSQVLGLHCYKKGIHYWEVELQKNNFCGVGICYGSMNRQGPESRLGRNSASWCVEWFNTKISAWHNNVEKTLPSTKATRVGVLLNCDHGFVIFFAVADKVHLMYKFRVDFTEALYPAFWVFSAGATLSICSPK</t>
+          <t>MASKGAGMSFSRKSYRLTSDAEKSRVTGIVQEKLLNDYLNRIFSSSEHAPPAATSRKPLNFQNLPEHLDQLLQVDNEEEESQGQVEGRLGPSTVVLDHTGGFEGLLLVDDDLLGVIGHSNFGTIRSTTCVYKGKWLYEVLISSQGLMQIGWCTISCRFNQEEGVGDTHNSYAYDGNRVRKWNVTTTNYGKAWAAGDIVSCLIDLDDGTLSFCLNGVSLGTAFENLSRGLGMAYFPAISLSFKESVAFNFGSRPLRYPVAGYRPLQDPPSADLVRAQRLLGCFRAVLSVELDPVEGRLLDKESSKWRLRGQPTVLLTLAHIFHHFAPLLRKVYLVEAVLMSFLLGIVEKGTPTQAQSVVHQVLDLLWLFMEDYEVQDCLKQLMMSLLRLYRFSPIVPDLGLQIHYLRLTIAILRHEKSRKFLLSNVLFDVLRSVVFFYIKSPLRVEEAGLQELIPTTWWPHCSSREGKESTEMKEETAEERLRRRAYERGCQRLRKRIEVVEELQVQILKLLLDNKDDNGGEASRYIFLTKFRKFLQENASGRGNMPMLCPPEYMVCFLHRLISALRYYWDEYKASNPHASFSEEAYIPPQVFYNGKVDYFDLQRLGGLLSHLRKTLKDDLASKANIVIDPLELQSTAMDDLDEDEEPAPAMAQRPMQALAVGGPLPLPRPGWLSSPTLGRANRFLSTAAVSLMTPRRPLSTSEKVKVRTLSVEQRTREDIEGSHWNEGLLLGRPPEEPEQPLTENSLLEVLDGAVMMYNLSVHQQLGKMVGVSDDVNEYAMALRDTEDKLRRCPKRRKDILAELTKSQKVFSEKLDHLSRRLAWVHATVYSQEKMLDIYWLLRVCLRTIEHGDRTGSLFAFMPEFYLSVAINSYSALKNYFGPVHSMEELPGYEETLTRLAAILAKHFADARIVGTDIRDSLMQALASYVCYPHSLRAVERIPEEQRIAMVRNLLAPYEQRPWAQTNWILVRLWRGCGFGYRYTRLPHLLKTKLEDANLPSLQKPCPSTLLQQHMADLLQQGPDVAPSFLNSVLNQLNWAFSEFIGMIQEIQQAAERLERNFVDSRQLKVCATCFDLSVSLLRVLEMTITLVPEIFLDWTRPTSEMLLRRLAQLLNQVLNRVTAERNLFDRVVTLRLPGLESVDHYPILVAVTGILVQLLVRGPASEREQATSVLLADPCFQLRSICYLLGQPEPPAPGTALPAPDRKRFSLQSYADYISADELAQVEQMLAHLTSASAQAAAASLPTSEEDLCPICYAHPISAVFQPCGHKSCKACINQHLMNNKDCFFCKTTIVSVEDWEKGANTSTTSSAA</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q96RU7</t>
+          <t>P46527</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RKKLVLE</t>
+          <t>P10523</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q8IUQ4</t>
+          <t>SVEQTPKK</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+          <t>MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q9H211</t>
+          <t>P07333</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RRVTDFFARRRP</t>
+          <t>P22681</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q13309;Q9NZJ0;P19474;Q5XUX0</t>
+          <t>LLQPNNYQFC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY;MAVCARLCGVGPSRGCRRRQQRRGPAETAAADSEPDTDPEEERIEASAGVGGGLCAGPSPPPPRCSLLELPPELLVEIFASLPGTDLPSLAQVCTKFRRILHTDTIWRRRCREEYGVCENLRKLEITGVSCRDVYAKLLHRYRHILGLWQPDIGPYGGLLNVVVDGLFIIGWMYLPPHDPHVDDPMRFKPLFRIHLMERKAATVECMYGHKGPHHGHIQIVKKDEFSTKCNQTDHHRMSGGRQEEFRTWLREEWGRTLEDIFHEHMQELILMKFIYTSQYDNCLTYRRIYLPPSRPDDLIKPGLFKGTYGSHGLEIVMLSFHGRRARGTKITGDPNIPAGQQTVEIDLRHRIQLPDLENQRNFNELSRIVLEVRERVRQEQQEGGHEAGEGRGRQGPRESQPSPAQPRAEAPSKGPDGTPGEDGGEPGDAVAAAEQPAQCGQGQPFVLPVGVSSRNEDYPRTCRMCFYGTGLIAGHGFTSPERTPGVFILFDEDRFGFVWLELKSFSLYSRVQATFRNADAPSPQAFDEMLKNIQSLTS</t>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>O43683</t>
+          <t>Q9H3D4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DKENV</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>FQHIWDFL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>O95863</t>
+          <t>Q9Y6Q9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DSGKGS</t>
+          <t>O43791</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q9Y297;Q00987;Q969H0;Q8NEZ5;P19474;Q5XUX0;P0C2W1;Q86XK2;Q8N1E6;Q9UKA1;Q9UJT9;Q9ULT8;Q13356;Q6PJ21</t>
+          <t>ADVSST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK;MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY;MAVCARLCGVGPSRGCRRRQQRRGPAETAAADSEPDTDPEEERIEASAGVGGGLCAGPSPPPPRCSLLELPPELLVEIFASLPGTDLPSLAQVCTKFRRILHTDTIWRRRCREEYGVCENLRKLEITGVSCRDVYAKLLHRYRHILGLWQPDIGPYGGLLNVVVDGLFIIGWMYLPPHDPHVDDPMRFKPLFRIHLMERKAATVECMYGHKGPHHGHIQIVKKDEFSTKCNQTDHHRMSGGRQEEFRTWLREEWGRTLEDIFHEHMQELILMKFIYTSQYDNCLTYRRIYLPPSRPDDLIKPGLFKGTYGSHGLEIVMLSFHGRRARGTKITGDPNIPAGQQTVEIDLRHRIQLPDLENQRNFNELSRIVLEVRERVRQEQQEGGHEAGEGRGRQGPRESQPSPAQPRAEAPSKGPDGTPGEDGGEPGDAVAAAEQPAQCGQGQPFVLPVGVSSRNEDYPRTCRMCFYGTGLIAGHGFTSPERTPGVFILFDEDRFGFVWLELKSFSLYSRVQATFRNADAPSPQAFDEMLKNIQSLTS;MAAPAPGAGAASGGAGCSGGGAGAGAGSGSGAAGAGGRLPSRVLELVFSYLELSELRSCALVCKHWYRCLHGDENSEVWRSLCARSLAEEALRTDILCNLPSYKAKIRAFQHAFSTNDCSRNVYIKKNGFTLHRNPIAQSTDGARTKIGFSEGRHAWEVWWEGPLGTVAVIGIATKRAPMQCQGYVALLGSDDQSWGWNLVDNNLLHNGEVNGSFPQCNNAPKYQIGERIRVILDMEDKTLAFERGYEFLGVAFRGLPKVCLYPAVSAVYGNTEVTLVYLGKPLDG;MNSVRAANRRPRRVSRPRPVQQQQQQPPQQPPPQPPQQQPPQQQPPPPPQQQQQQQPPPPPPPPPPLPQERNNVGERDDDVPADMVAEESGPGAQNSPYQLRRKTLLPKRTACPTKNSMEGASTSTTENFGHRAKRARVSGKSQDLSAAPAEQYLQEKLPDEVVLKIFSYLLEQDLCRAACVCKRFSELANDPILWKRLYMEVFEYTRPMMHPEPGKFYQINPEEYEHPNPWKESFQQLYKGAHVKPGFAEHFYSNPARYKGRENMLYYDTIEDALGGVQEAHFDGLIFVHSGIYTDEWIYIESPITMIGAAPGKVADKVIIENTRDSTFVFMEGSEDAYVGYMTIRFNPDDKSAQHHNAHHCLEITVNCSPIIDHCIIRSTCTVGSAVCVSGQGACPTIKHCNISDCENVGLYITDHAQGIYEDNEISNNALAGIWVKNHGNPIIRRNHIHHGRDVGVFTFDHGMGYFESCNIHRNRIAGFEVKAYANPTVVRCEIHHGQTGGIYVHEKGRGQFIENKIYANNFAGVWITSNSDPTIRGNSIFNGNQGGVYIFGDGRGLIEGNDIYGNALAGIQIRTNSCPIVRHNKIHDGQHGGIYVHEKGQGVIEENEVYSNTLAGVWVTTGSTPVLRRNRIHSGKQVGVYFYDNGHGVLEDNDIYNHMYSGVQIRTGSNPKIRRNKIWGGQNGGILVYNSGLGCIEDNEIFDNAMAGVWIKTDSNPTLRRNKIHDGRDGGICIFNGGRGLLEENDIFRNAQAGVLISTNSHPILRKNRIFDGFAAGIEITNHATATLEGNQIFNNRFGGLFLASGVNVTMKDNKIMNNQDAIEKAVSRGQCLYKISSYTSYPMHDFYRCHTCNTTDRNAICVNCIKKCHQGHDVEFIRHDRFFCDCGAGTLSNPCTLAGEPTHDTDTLYDSAPPIESNTLQHN;METHISCLFPELLAMIFGYLDVRDKGRAAQVCTAWRDAAYHKSVWRGVEAKLHLRRANPSLFPSLQARGIRRVQILSLRRSLSYVIQGMANIESLNLSGCYNLTDNGLGHAFVQEIGSLRALNLSLCKQITDSSLGRIAQYLKGLEVLELGGCSNITNTGLLLIAWGLQRLKSLNLRSCRHLSDVGIGHLAGMTRSAAEGCLGLEQLTLQDCQKLTDLSLKHISRGLTGLRLLNLSFCGGISDAGLLHLSHMGSLRSLNLRSCDNISDTGIMHLAMGSLRLSGLDVSFCDKVGDQSLAYIAQGLDGLKSLSLCSCHISDDGINRMVRQMHGLRTLNIGQCVRITDKGLELIAEHLSQLTGIDLYGCTRITKRGLERITQLPCLKVLNLGLWQMTDSEKEARGDFSPLFTVRTRGSSRR;MAPFPEEVDVFTAPHWRMKQLVGLYCDKLSKTNFSNNNDFRALLQSLYATFKEFKMHEQIENEYIIGLLQQRSQTIYNVHSDNKLSEMLSLFEKGLKNVKNEYEQLNYAKQLKERLEAFTRDFLPHMKEEEEVFQPMLMEYFTYEELKDIKKKVIAQHCSQKDTAELLRGLSLWNHAEERQKFFKYSVDEKSDKEAEVSEHSTGITHLPPEVMLSIFSYLNPQELCRCSQVSMKWSQLTKTGSLWKHLYPVHWARGDWYSGPATELDTEPDDEWVKNRKDESRAFHEWDEDADIDESEESAEESIAISIAQMEKRLLHGLIHNVLPYVGTSVKTLVLAYSSAVSSKMVRQILELCPNLEHLDLTQTDISDSAFDSWSWLGCCQSLRHLDLSGCEKITDVALEKISRALGILTSHQSGFLKTSTSKITSTAWKNKDITMQSTKQYACLHDLTNKGIGEEIDNEHPWTKPVSSENFTSPYVWMLDAEDLADIEDTVEWRHRNVESLCVMETASNFSCSTSGCFSKDIVGLRTSVCWQQHCASPAFAYCGHSFCCTGTALRTMSSLPESSAMCRKAARTRLPRGKDLIYFGSEKSDQETGRVLLFLSLSGCYQITDHGLRVLTLGGGLPYLEHLNLSGCLTITGAGLQDLVSACPSLNDEYFYYCDNINGPHADTASGCQNLQCGFRACCRSGE;MGANNGKQYGSEGKGSSSISSDVSSSTDHTPTKAQKNVATSEDSDLSMRTLSTPSPALICPPNLPGFQNGRGSSTSSSSITGETVAMVHSPPPTRLTHPLIRLASRPQKEQASIDRLPDHSMVQIFSFLPTNQLCRCARVCRRWYNLAWDPRLWRTIRLTGETINVDRALKVLTRRLCQDTPNVCLMLETVTVSGCRRLTDRGLYTIAQCCPELRRLEVSGCYNISNEAVFDVVSLCPNLEHLDVSGCSKVTCISLTREASIKLSPLHGKQISIRYLDMTDCFVLEDEGLHTIAAHCTQLTHLYLRRCVRLTDEGLRYLVIYCASIKELSVSDCRFVSDFGLREIAKLESRLRYLSIAHCGRVTDVGIRYVAKYCSKLRYLNARGCEGITDHGVEYLAKNCTKLKSLDIGKCPLVSDTGLECLALNCFNLKRLSLKSCESITGQGLQIVAANCFDLQTLNVQDCEVSVEALRFVKRHCKRCVIEHTNPAFF;MADVDPDTLLEWLQMGQGDERDMQLIALEQLCMLLLMSDNVDRCFETCPPRTFLPALCKIFLDESAPDNVLEVTARAITYYLDVSAECTRRIVGVDGAIKALCNRLVVVELNNRTSRDLAEQCVKVLELICTRESGAVFEAGGLNCVLTFIRDSGHLVHKDTLHSAMAVVSRLCGKMEPQDSSLEICVESLSSLLKHEDHQVSDGALRCFASLADRFTRRGVDPAPLAKHGLTEELLSRMAAAGGTVSGPSSACKPGRSTTGAPSTTADSKLSNQVSTIVSLLSTLCRGSPVVTHDLLRSELPDSIESALQGDERCVLDTMRLVDLLLVLLFEGRKALPKSSAGSTGRIPGLRRLDSSGERSHRQLIDCIRSKDTDALIDAIDTGAFEVNFMDDVGQTLLNWASAFGTQEMVEFLCERGADVNRGQRSSSLHYAACFGRPQVAKTLLRHGANPDLRDEDGKTPLDKARERGHSEVVAILQSPGDWMCPVNKGDDKKKKDTNKDEEECNEPKGDPEMAPIYLKRLLPVFAQTFQQTMLPSIRKASLALIRKMIHFCSEALLKEVCDSDVGHNLPTILVEITATVLDQEDDDDGHLLALQIIRDLVDKGGDIFLDQLARLGVISKVSTLAGPSSDDENEEESKPEKEDEPQEDAKELQQGKPYHWRDWSIIRGRDCLYIWSDAAALELSNGSNGWFRFILDGKLATMYSSGSPEGGSDSSESRSEFLEKLQRARGQVKPSTSSQPILSAPGPTKLTVGNWSLTCLKEGEIAIHNSDGQQATILKEDLPGFVFESNRGTKHSFTAETSLGSEFVTGWTGKRGRKLKSKLEKTKQKVRTMARDLYDDHFKAVESMPRGVVVTLRNIATQLESSWELHTNRQCIESENTWRDLMKTALENLIVLLKDENTISPYEMCSSGLVQALLTVLNNSMDLDMKQDCSQLVERINVFKTAFSENEDDESRPAVALIRKLIAVLESIERLPLHLYDTPGSTYNLQILTRRLRFRLERAPGETALIDRTGRMLKMEPLATVESLEQYLLKMVAKQWYDFDRSSFVFVRKLREGQNFIFRHQHDFDENGIIYWIGTNAKTAYEWVNPAAYGLVVVTSSEGRNLPYGRLEDILSRDNSALNCHSNDDKNAWFAIDLGLWVIPSAYTLRHARGYGRSALRNWVFQVSKDGQNWTSLYTHVDDCSLNEPGSTATWPLDPPKDEKQGWRHVRIKQMGKNASGQTHYLSLSGFELYGTVNGVCEDQLGKAAKEAEANLRRQRRLVRSQVLKYMVPGARVIRGLDWKWRDQDGSPQGEGTVTGELHNGWIDVTWDAGGSNSYRMGAEGKFDLKLAPGYDPDTVASPKPVSSTVSGTTQSWSSLVKNNCPDKTSAAAGSSSRKGSSSSVCSVASSSDISLGSTKTERRSEIVMEHSIVSGADVHEPIVVLSSAENVPQTEVGSSSSASTSTLTAETGSENAERKLGPDSSVRTPGESSAISMGIVSVSSPDVSSVSELTNKEAASQRPLSSSASNRLSVSSLLAAGAPMSSSASVPNLSSRETSSLESFVRRVANIARTNATNNMNLSRSSSDNNTNTLGRNVMSTATSPLMGAQSFPNLTTPGTTSTVTMSTSSVTSSSNVATATTVLSVGQSLSNTLTTSLTSTSSESDTGQEAEYSLYDFLDSCRASTLLAELDDDEDLPEPDEEDDENEDDNQEDQEYEEVMILRRPSLQRRAGSRSDVTHHAVTSQLPQVPAGAGSRPIGEQEEEEYETKGGRRRTWDDDYVLKRQFSALVPAFDPRPGRTNVQQTTDLEIPPPGTPHSELLEEVECTPSPRLALTLKVTGLGTTREVELPLTNFRSTIFYYVQKLLQLSCNGNVKSDKLRRIWEPTYTIMYREMKDSDKEKENGKMGCWSIEHVEQYLGTDELPKNDLITYLQKNADAAFLRHWKLTGTNKSIRKNRNCSQLIAAYKDFCEHGTKSGLNQGAISTLQSSDILNLTKEQPQAKAGNGQNSCGVEDVLQLLRILYIVASDPYSRISQEDGDEQPQFTFPPDEFTSKKITTKILQQIEEPLALASGALPDWCEQLTSKCPFLIPFETRQLYFTCTAFGASRAIVWLQNRREATVERTRTTSSVRRDDPGEFRVGRLKHERVKVPRGESLMEWAENVMQIHADRKSVLEVEFLGEEGTGLGPTLEFYALVAAEFQRTDLGAWLCDDNFPDDESRHVDLGGGLKPPGYYVQRSCGLFTAPFPQDSDELERITKLFHFLGIFLAKCIQDNRLVDLPISKPFFKLMCMGDIKSNMSKLIYESRGDRDLHCTESQSEASTEEGHDSLSVGSFEEDSKSEFILDPPKPKPPAWFNGILTWEDFELVNPHRARFLKEIKDLAIKRRQILSNKGLSEDEKNTKLQELVLKNPSGSGPPLSIEDLGLNFQFCPSSRIYGFTAVDLKPSGEDEMITMDNAEEYVDLMFDFCMHTGIQKQMEAFRDGFNKVFPMEKLSSFSHEEVQMILCGNQSPSWAAEDIINYTEPKLGYTRDSPGFLRFVRVLCGMSSDERKAFLQFTTGCSTLPPGGLANLHPRLTVVRKVDATDASYPSVNTCVHYLKLPEYSSEEIMRERLLAATMEKGFHLN;MGKRQHQKDKMYITCAEYTHFYGGKKPDLPQTNFRRLPFDHCSLSLQPFVYPVCTPDGIVFDLLNIVPWLKKYGTNPSNGEKLDGRSLIKLNFSKNSEGKYHCPVLFTVFTNNTHIVAVRTTGNVYAYEAVEQLNIKAKNFRDLLTDEPFSRQDIITLQDPTNLDKFNVSNFYHVKNNMKIIDPDEEKAKQDPSYYLKNTNAETRETLQELYKEFKGDEILAATMKAPEKKKVDKLNAAHYSTGKVSASFTSTAMVPETTHEAAAIDEDVLRYQFVKKKGYVRLHTNKGDLNLELHCDLTPKTCENFIRLCKKHYYDGTIFHRSIRNFVIQGGDPTGTGTGGESYWGKPFKDEFRPNLSHTGRGILSMANSGPNSNRSQFFITFRSCAYLDKKHTIFGRVVGGFDVLTAMENVESDPKTDRPKEEIRIDATTVFVDPYEEADAQIAQERKTQLKVAPETKVKSSQPQAGSQGPQTFRQGVGKYINPAATKRAAEEEPSTSATVPMSKKKPSRGFGDFSSW;MARRPRNSRAWHFVLSAARRDADARAVALAGSTNWGYDSDGQHSDSDSDPEYSTLPPSIPSAVPVTGESFCDCAGQSEASFCSSLHSAHRGRDCRCGEEDEYFDWVWDDLNKSSATLLSCDNRKVSFHMEYSCGTAAIRGTKELGEGQHFWEIKMTSPVYGTDMMVGIGTSDVDLDKYRHTFCSLLGRDEDSWGLSYTGLLHHKGDKTSFSSRFGQGSIIGVHLDTWHGTLTFFKNRKCIGVAATKLQNKRFYPMVCSTAARSSMKVTRSCASATSLQYLCCHRLRQLRPDSGDTLEGLPLPPGLKQVLHNKLGWVLSMSCSRRKAPVSDPQAATSAHPSSREPRPCQRKRCRRT</t>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q9HB71</t>
+          <t>P35222</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KPAAVVAPI</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q9H4P4;Q8IUQ4</t>
+          <t>DSGIHS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>O14965</t>
+          <t>P42345</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AQRVLC</t>
+          <t>Q9Y4K3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q9UM11;Q969H0;Q96EP1;P40337;Q9UJT9;P12830;O94889</t>
+          <t>ITPFTS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN;MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD;MGANNGKQYGSEGKGSSSISSDVSSSTDHTPTKAQKNVATSEDSDLSMRTLSTPSPALICPPNLPGFQNGRGSSTSSSSITGETVAMVHSPPPTRLTHPLIRLASRPQKEQASIDRLPDHSMVQIFSFLPTNQLCRCARVCRRWYNLAWDPRLWRTIRLTGETINVDRALKVLTRRLCQDTPNVCLMLETVTVSGCRRLTDRGLYTIAQCCPELRRLEVSGCYNISNEAVFDVVSLCPNLEHLDVSGCSKVTCISLTREASIKLSPLHGKQISIRYLDMTDCFVLEDEGLHTIAAHCTQLTHLYLRRCVRLTDEGLRYLVIYCASIKELSVSDCRFVSDFGLREIAKLESRLRYLSIAHCGRVTDVGIRYVAKYCSKLRYLNARGCEGITDHGVEYLAKNCTKLKSLDIGKCPLVSDTGLECLALNCFNLKRLSLKSCESITGQGLQIVAANCFDLQTLNVQDCEVSVEALRFVKRHCKRCVIEHTNPAFF;MGPWSRSLSALLLLLQVSSWLCQEPEPCHPGFDAESYTFTVPRRHLERGRVLGRVNFEDCTGRQRTAYFSLDTRFKVGTDGVITVKRPLRFHNPQIHFLVYAWDSTYRKFSTKVTLNTVGHHHRPPPHQASVSGIQAELLTFPNSSPGLRRQKRDWVIPPISCPENEKGPFPKNLVQIKSNKDKEGKVFYSITGQGADTPPVGVFIIERETGWLKVTEPLDRERIATYTLFSHAVSSNGNAVEDPMEILITVTDQNDNKPEFTQEVFKGSVMEGALPGTSVMEVTATDADDDVNTYNAAIAYTILSQDPELPDKNMFTINRNTGVISVVTTGLDRESFPTYTLVVQAADLQGEGLSTTATAVITVTDTNDNPPIFNPTTYKGQVPENEANVVITTLKVTDADAPNTPAWEAVYTILNDDGGQFVVTTNPVNNDGILKTAKGLDFEAKQQYILHVAVTNVVPFEVSLTTSTATVTVDVLDVNEAPIFVPPEKRVEVSEDFGVGQEITSYTAQEPDTFMEQKITYRIWRDTANWLEINPDTGAISTRAELDREDFEHVKNSTYTALIIATDNGSPVATGTGTLLLILSDVNDNAPIPEPRTIFFCERNPKPQVINIIDADLPPNTSPFTAELTHGASANWTIQYNDPTQESIILKPKMALEVGDYKINLKLMDNQNKDQVTTLEVSVCDCEGAAGVCRKAQPVEAGLQIPAILGILGGILALLILILLLLLFLRRRAVVKEPLLPPEDDTRDNVYYYDEEGGGEEDQDFDLSQLHRGLDARPEVTRNDVAPTLMSVPRYLPRPANPDEIGNFIDENLKAADTDPTAPPYDSLLVFDYEGSGSEAASLSSLNSSESDKDQDYDYLNEWGNRFKKLADMYGGGEDD;MVEDGAEELEDLVHFSVSELPSRGYGVMEEIRRQGKLCDVTLKIGDHKFSAHRIVLAASIPYFHAMFTNDMMECKQDEIVMQGMDPSALEALINFAYNGNLAIDQQNVQSLLMGASFLQLQSIKDACCTFLRERLHPKNCLGVRQFAETMMCAVLYDAANSFIHQHFVEVSMSEEFLALPLEDVLELVSRDELNVKSEEQVFEAALAWVRYDREQRGPYLPELLSNIRLPLCRPQFLSDRVQQDDLVRCCHKCRDLVDEAKDYHLMPERRPHLPAFRTRPRCCTSIAGLIYAVGGLNSAGDSLNVVEVFDPIANCWERCRPMTTARSRVGVAVVNGLLYAIGGYDGQLRLSTVEAYNPETDTWTRVGSMNSKRSAMGTVVLDGQIYVCGGYDGNSSLSSVETYSPETDKWTVVTSMSSNRSAAGVTVFEGRIYVSGGHDGLQIFSSVEHYNHHTATWHPAAGMLNKRCRHGAASLGSKMFVCGGYDGSGFLSIAEMYSSVADQWCLIVPMHTRRSRVSLVASCGRLYAVGGYDGQSNLSSVEMYDPETDCWTFMAPMACHEGGVGVGCIPLLTI</t>
+          <t>MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P01106</t>
+          <t>P49757</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LLPTPPLS</t>
+          <t>Q8TBB1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q9UNE7;Q9Y297;P46934;Q13309;Q969H0;Q7Z6Z7;Q13049;Q969P5;Q9NRD0;Q8TEL6;O95071</t>
+          <t>FEAQWAAL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA;MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP;MPFLGQDWRSPGQNWVKTADGWKRFLDEKSGSFVSDLSSYCNKEVYNKENLFNSLNYDVAAKKRKKDMLNSKTKTQYFHQEKWIYVHKGSTKERHGYCTLGEAFNRLDFSTAILDSRRFNYVVRLLELIAKSQLTSLSGIAQKNFMNILEKVVLKVLEDQQNIRLIRELLQTLYTSLCTLVQRVGKSVLVGNINMWVYRMETILHWQQQLNNIQITRPAFKGLTFTDLPLCLQLNIMQRLSDGRDLVSLGQAAPDLHVLSEDRLLWKKLCQYHFSERQIRKRLILSDKGQLDWKKMYFKLVRCYPRKEQYGDTLQLCKHCHILSWKGTDHPCTANNPESCSVSLSPQDFINLFKF;MGQGLWRVVRNQQLQQEGYSEQGYLTREQSRRMAASNISNTNHRKQVQGGIDIYHLLKARKSKEQEGFINLEMLPPELSFTILSYLNATDLCLASCVWQDLANDELLWQGLCKSTWGHCSIYNKNPPLGFSFRKLYMQLDEGSLTFNANPDEGVNYFMSKGILDDSPKEIAKFIFCTRTLNWKKLRIYLDERRDVLDDLVTLHNFRNQFLPNALREFFRHIHAPEERGEYLETLITKFSHRFCACNPDLMRELGLSPDAVYVLCYSLILLSIDLTSPHVKNKMSKREFIRNTRRAAQNISEDFVGHLYDNIYLIGHVAA;MAAAPVAAGSGAGRGRRSAATVAAWGGWGGRPRPGNILLQLRQGQLTGRGLVRAVQFTETFLTERDKQSKWSGIPQLLLKLHTTSHLHSDFVECQNILKEISPLLSMEAMAFVTEERKLTQETTYPNTYIFDLFGGVDLLVEILMRPTISIRGQKLKISDEMSKDCLSILYNTCVCTEGVTKRLAEKNDFVIFLFTLMTSKKTFLQTATLIEDILGVKKEMIRLDEVPNLSSLVSNFDQQQLANFCRILAVTISEMDTGNDDKHTLLAKNAQQKKSLSLGPSAAEINQAALLSIPGFVERLCKLATRKVSESTGTASFLQELEEWYTWLDNALVLDALMRVANEESEHNQASIVFPPPGASEENGLPHTSARTQLPQSMKIMHEIMYKLEVLYVLCVLLMGRQRNQVHRMIAEFKLIPGLNNLFDKLIWRKHSASALVLHGHNQNCDCSPDITLKIQFLRLLQSFSDHHENKYLLLNNQELNELSAISLKANIPEVEAVLNTDRSLVCDGKRGLLTRLLQVMKKEPAESSFRFWQARAVESFLRGTTSYADQMFLLKRGLLEHILYCIVDSECKSRDVLQSYFDLLGELMKFNVDAFKRFNKYINTDAKFQVFLKQINSSLVDSNMLVRCVTLSLDRFENQVDMKVAEVLSECRLLAYISQVPTQMSFLFRLINIIHVQTLTQENVSCLNTSLVILMLARRKERLPLYLRLLQRMEHSKKYPGFLLNNFHNLLRFWQQHYLHKDKDSTCLENSSCISFSYWKETVSILLNPDRQSPSALVSYIEEPYMDIDRDFTEE;MTSIHFVVHPLPGTEDQLNDRLREVSEKLNKYNLNSHPPLNVLEQATIKQCVVGPNHAAFLLEDGRVCRIGFSVQPDRLELGKPDNNDGSKLNSNSGAGRTSRPGRTSDSPWFLSGSETLGRLAGNTLGSRWSSGVGGSGGGSSGRSSAGARDSRRQTRVIRTGRDRGSGLLGSQPQPVIPASVIPEELISQAQVVLQGKSRSVIIRELQRTNLDVNLAVNNLLSRDDEDGDDGDDTASESYLPGEDLMSLLDADIHSAHPSVIIDADAMFSEDISYFGYPSFRRSSLSRLGSSRVLLLPLERDSELLRERESVLRLRERRWLDGASFDNERGSTSKEGEPNLDKKNTPVQSPVSLGEDLQWWPDKDGTKFICIGALYSELLAVSSKGELYQWKWSESEPYRNAQNPSLHHPRATFLGLTNEKIVLLSANSIRATVATENNKVATWVDETLSSVASKLEHTAQTYSELQGERIVSLHCCALYTCAQLENSLYWWGVVPFSQRKKMLEKARAKNKKPKSSAGISSMPNITVGTQVCLRNNPLYHAGAVAFSISAGIPKVGVLMESVWNMNDSCRFQLRSPESLKNMEKASKTTEAKPESKQEPVKTEMGPPPSPASTCSDASSIASSASMPYKRRRSTPAPKEEEKVNEEQWSLREVVFVEDVKNVPVGKVLKVDGAYVAVKFPGTSSNTNCQNSSGPDADPSSLLQDCRLLRIDELQVVKTGGTPKVPDCFQRTPKKLCIPEKTEILAVNVDSKGVHAVLKTGNWVRYCIFDLATGKAEQENNFPTSSIAFLGQNERNVAIFTAGQESPIILRDGNGTIYPMAKDCMGGIRDPDWLDLPPISSLGMGVHSLINLPANSTIKKKAAVIIMAVEKQTLMQHILRCDYEACRQYLMNLEQAVVLEQNLQMLQTFISHRCDGNRNILHACVSVCFPTSNKETKEEEEAERSERNTFAERLSAVEAIANAISVVSSNGPGNRAGSSSSRSLRLREMMRRSLRAAGLGRHEAGASSSDHQDPVSPPIAPPSWVPDPPAMDPDGDIDFILAPAVGSLTTAATGTGQGPSTSTIPGPSTEPSVVESKDRKANAHFILKLLCDSVVLQPYLRELLSAKDARGMTPFMSAVSGRAYPAAITILETAQKIAKAEISSSEKEEDVFMGMVCPSGTNPDDSPLYVLCCNDTCSFTWTGAEHINQDIFECRTCGLLESLCCCTECARVCHKGHDCKLKRTSPTAYCDCWEKCKCKTLIAGQKSARLDLLYRLLTATNLVTLPNSRGEHLLLFLVQTVARQTVEHCQYRPPRIREDRNRKTASPEDSDMPDHDLEPPRFAQLALERVLQDWNALKSMIMFGSQENKDPLSASSRIGHLLPEEQVYLNQQSGTIRLDCFTHCLIVKCTADILLLDTLLGTLVKELQNKYTPGRREEAIAVTMRFLRSVARVFVILSVEMASSKKKNNFIPQPIGKCKRVFQALLPYAVEELCNVAESLIVPVRMGIARPTAPFTLASTSIDAMQGSEELFSVEPLPPRPSSDQSSSSSQSQSSYIIRNPQQRRISQSQPVRGRDEEQDDIVSADVEEVEVVEGVAGEEDHHDEQEEHGEENAEAEGQHDEHDEDGSDMELDLLAAAETESDSESNHSNQDNASGRRSVVTAATAGSEAGASSVPAFFSEDDSQSNDSSDSDSSSSQSDDIEQETFMLDEPLERTTNSSHANGAAQAPRSMQWAVRNTQHQRAASTAPSSTSTPAASSAGLIYIDPSNLRRSGTISTSAAAAAAALEASNASSYLTSASSLARAYSIVIRQISDLMGLIPKYNHLVYSQIPAAVKLTYQDAVNLQNYVEEKLIPTWNWMVSIMDSTEAQLRYGSALASAGDPGHPNHPLHASQNSARRERMTAREEASLRTLEGRRRATLLSARQGMMSARGDFLNYALSLMRSHNDEHSDVLPVLDVCSLKHVAYVFQALIYWIKAMNQQTTLDTPQLERKRTRELLELGIDNEDSEHENDDDTNQSATLNDKDDDSLPAETGQNHPFFRRSDSMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNARKEDLFGRPSQGLYSSSASSGKCLMEVTVDRNCLEVLPTKMSYAANLKNVMNMQNRQKKEGEEQPVLPEETESSKPGPSAHDLAAQLKSSLLAEIGLTESEGPPLTSFRPQCSFMGMVISHDMLLGRWRLSLELFGRVFMEDVGAEPGSILTELGGFEVKESKFRREMEKLRNQQSRDLSLEVDRDRDLLIQQTMRQLNNHFGRRCATTPMAVHRVKVTFKDEPGEGSGVARSFYTAIAQAFLSNEKLPNLECIQNANKGTHTSLMQRLRNRGERDREREREREMRRSSGLRAGSRRDRDRDFRRQLSIDTRPFRPASEGNPSDDPEPLPAHRQALGERLYPRVQAMQPAFASKITGMLLELSPAQLLLLLASEDSLRARVDEAMELIIAHGRENGADSILDLGLVDSSEKVQQENRKRHGSSRSVVDMDLDDTDDGDDNAPLFYQPGKRGFYTPRPGKNTEARLNCFRNIGRILGLCLLQNELCPITLNRHVIKVLLGRKVNWHDFAFFDPVMYESLRQLILASQSSDADAVFSAMDLAFAIDLCKEEGGGQVELIPNGVNIPVTPQNVYEYVRKYAEHRMLVVAEQPLHAMRKGLLDVLPKNSLEDLTAEDFRLLVNGCGEVNVQMLISFTSFNDESGENAEKLLQFKRWFWSIVEKMSMTERQDLVYFWTSSPSLPASEEGFQPMPSITIRPPDDQHLPTANTCISRLYVPLYSSKQILKQKLLLAIKTKNFGFV</t>
+          <t>MNQPESANDPEPLCAVCGQAHSLEENHFYSYPEEVDDDLICHICLQALLDPLDTPCGHTYCTLCLTNFLVEKDFCPMDRKPLVLQHCKKSSILVNKLLNKLLVTCPFREHCTQVLQRCDLEHHFQTSCKGASHYGLTKDRKRRSQDGCPDGCASLTATAPSPEVSAAATISLMTDEPGLDNPAYVSSAEDGQPAISPVDSGRSNRTRARPFERSTIRSRSFKKINRALSVLRRTKSGSAVANHADQGRENSENTTAPEVFPRLYHLIPDGEITSIKINRVDPSESLSIRLVGGSETPLVHIIIQHIYRDGVIARDGRLLPGDIILKVNGMDISNVPHNYAVRLLRQPCQVLWLTVMREQKFRSRNNGQAPDAYRPRDDSFHVILNKSSPEEQLGIKLVRKVDEPGVFIFNVLDGGVAYRHGQLEENDRVLAINGHDLRYGSPESAAHLIQASERRVHLVVSRQVRQRSPDIFQEAGWNSNGSWSPGPGERSNTPKPLHPTITCHEKVVNIQKDPGESLGMTVAGGASHREWDLPIYVISVEPGGVISRDGRIKTGDILLNVDGVELTEVSRSEAVALLKRTSSSIVLKALEVKEYEPQEDCSSPAALDSNHNMAPPSDWSPSWVMWLELPRCLYNCKDIVLRRNTAGSLGFCIVGGYEEYNGNKPFFIKSIVEGTPAYNDGRIRCGDILLAVNGRSTSGMIHACLARLLKELKGRITLTIVSWPGTFL</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P16471</t>
+          <t>Q13501</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DSGRGS</t>
+          <t>Q9BY78</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1</t>
+          <t>DPSTGE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MEAVYLVVNGLGLVLDVLTLVLDLNFLLVSSLLASLAWLLAFVYNLPHTVLTSLLHLGRGVLLSLLALIEAVVRFTCGGLQALCTLLYSCCSGLESLKLLGHLASHGALRSREILHRGVLNVVSSGHALLRQACDICAIAMSLVAYVINSLVNICLIGTQNLFSLVLALWDAVTGPLWRMTDVVAAFLAHISSSAVAMAILLWTPCQLALELLASAARLLASFVLVNLTGLVLLACVLAVTVTVLHPDFTLRLATQALSQLHARPSYHRLREDVMRLSRLALGSEAWRRVWSRSLQLASWPNRGGAPGAPQGDPMRVFSVRTRRQDTLPEAGRRSEAEEEEARTIRVTPVRGRERLNEEEPPGGQDPWKLLKEQEERKKCVICQDQSKTVLLLPCRHLCLCQACTEILMRHPVYHRNCPLCRRGILQTLNVYL</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>P53350</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NRKPLTVLN</t>
+          <t>Q9Y4L5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q9UM11;Q96EP1;Q53GT1</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN;MAEEQEFTQLCKLPAQPSHPHCVNNTYRSAQHSQALLRGLLALRDSGILFDVVLVVEGRHIEAHRILLAASCDYFRGMFAGGLKEMEQEEVLIHGVSYNAMCQILHFIYTSELELSLSNVQETLVAACQLQIPEIIHFCCDFLMSWVDEENILDVYRLAELFDLSRLTEQLDTYILKNFVAFSRTDKYRQLPLEKVYSLLSSNRLEVSCETEVYEGALLYHYSLEQVQADQISLHEPPKLLETVRFPLMEAEVLQRLHDKLDPSPLRDTVASALMYHRNESLQPSLQSPQTELRSDFQCVVGFGGIHSTPSTVLSDQAKYLNPLLGEWKHFTASLAPRMSNQGIAVLNNFVYLIGGDNNVQGFRAESRCWRYDPRHNRWFQIQSLQQEHADLSVCVVGRYIYAVAGRDYHNDLNAVERYDPATNSWAYVAPLKREVYAHAGATLEGKMYITCGRRGEDYLKETHCYDPGSNTWHTLADGPVRRAWHGMATLLNKLYVIGGSNNDAGYRRDVHQVACYSCTSGQWSSVCPLPAGHGEPGIAVLDNRIYVLGGRSHNRGSRTGYVHIYDVEKDCWEEGPQLDNSISGLAACVLTLPRSLLLEPPRGTPDRSQADPDFASEVMSVSDWEEFDNSSED</t>
+          <t>MAEASAAGADSGAAVAAHRFFCHFCKGEVSPKLPEYICPRCESGFIEEVTDDSSFLGGGGSRIDNTTTTHFAELWGHLDHTMFFQDFRPFLSSSPLDQDNRANERGHQTHTDFWGARPPRLPLGRRYRSRGSSRPDRSPAIEGILQHIFAGFFANSAIPGSPHPFSWSGMLHSNPGDYAWGQTGLDAIVTQLLGQLENTGPPPADKEKITSLPTVTVTQEQVDMGLECPVCKEDYTVEEEVRQLPCNHFFHSSCIVPWLELHDTCPVCRKSLNGEDSTRQSQSTEASASNRFSNDSQLHDRWTF</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q8WWK9</t>
+          <t>Q9NQR1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DKENM</t>
+          <t>O76064</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>RKLTDFYPVRRS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MGEPGFFVTGDRAGGRSWCLRRVGMSAGWLLLEDGCEVTVGRGFGVTYQLVSKICPLMISRNHCVLKQNPEGQWTIMDNKSLNGVWLNRARLEPLRVYSIHQGDYIQLGVPLENKENAEYEYEVTEEDWETIYPCLSPKNDQMIEKNKELRTKRKFSLDELAGPGAEGPSNLKSKINKVSCESGQPVKSQGKGEVASTPSDNLDPKLTALEPSKTTGAPIYPGFPKVTEVHHEQKASNSSASQRSLQMFKVTMSRILRLKIQMQEKHEAVMNVKKQTQKGNSKKVVQMEQELQDLQSQLCAEQAQQQARVEQLEKTFQEEEQHLQGLEIAQGEKDLKQQLAQALQEHWALMEELNRSKKDFEAIIQAKNKELEQTKEEKEKMQAQKEEVLSHMNDVLENELQCIICSEYFIEAVTLNCAHSFCSYCINEWMKRKIECPICRKDIKSKTYSLVLDNCINKMVNNLSSEVKERRIVLIRERKAKRLF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RSPLFIF</t>
+          <t>O60260</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>P22681;Q9Y297;Q9NSE2;Q9C040</t>
+          <t>LAPAAGDTIISLDF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MVLCVQGPRPLLAVERTGQRPLWAPSLELPKPVMQPLPAGAFLEEVAEGTPAQTESEPKVLDPEEDLLCIAKTFSYLRESGWYWGSITASEARQHLQKMPEGTFLVRDSTHPSYLFTLSVKTTRGPTNVRIEYADSSFRLDSNCLSRPRILAFPDVVSLVQHYVASCTADTRSDSPDPAPTPALPMPKEDAPSDPALPAPPPATAVHLKLVQPFVRRSSARSLQHLCRLVINRLVADVDCLPLPRRMADYLRQYPFQL;MASEGTNIPSPVVRQIDKQFLICSICLERYKNPKVLPCLHTFCERCLQNYIPAHSLTLSCPVCRQTSILPEKGVAALQNNFFITNLMDVLQRTPGSNAEESSILETVTAVAAGKPLSCPNHDGNVMEFYCQSCETAMCRECTEGEHAEHPTVPLKDVVEQHKASLQVQLDAVNKRLPEIDSALQFISEIIHQLTNQKASIVDDIHSTFDELQKTLNVRKSVLLMELEVNYGLKHKVLQSQLDTLLQGQESIKSCSNFTAQALNHGTETEVLLVKKQMSEKLNELADQDFPLHPRENDQLDFIVETEGLKKSIHNLGTILTTNAVASETVATGEGLRQTIIGQPMSVTITTKDKDGELCKTGNAYLTAELSTPDGSVADGEILDNKNGTYEFLYTVQKEGDFTLSLRLYDQHIRGSPFKLKVIRSADVSPTTEGVKRRVKSPGSGHVKQKAVKRPASMYSTGKRKENPIEDDLIFRVGTKGRNKGEFTNLQGVAASTNGKILIADSNNQCVQIFSNDGQFKSRFGIRGRSPGQLQRPTGVAVHPSGDIIIADYDNKWVSIFSSDGKFKTKIGSGKLMGPKGVSVDRNGHIIVVDNKACCVFIFQPNGKIVTRFGSRGNGDRQFAGPHFAAVNSNNEIIITDFHNHSVKVFNQEGEFMLKFGSNGEGNGQFNAPTGVAVDSNGNIIVADWGNSRIQVFDGSGSFLSYINTSADPLYGPQGLALTSDGHVVVADSGNHCFKVYRYLQ</t>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q16633</t>
+          <t>P51955</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>APTAVVLPH</t>
+          <t>Q9HCE7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>O43255;Q8IUQ4</t>
+          <t>RKFLSLA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+          <t>MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q9H4A3</t>
+          <t>O43597</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EPEEPEADQH</t>
+          <t>P22681</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>O95198;Q9UH77</t>
+          <t>IRNTNEYTEGPT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL;MEGESVKLSSQTLIQAGDDEKNQRTITVNPAHMGKAFKVMNELRSKQLLCDVMIVAEDVEIEAHRVVLAACSPYFCAMFTGDMSESKAKKIEIKDVDGQTLSKLIDYIYTAEIEVTEENVQVLLPAASLLQLMDVRQNCCDFLQSQLHPTNCLGIRAFADVHTCTDLLQQANAYAEQHFPEVMLGEEFLSLSLDQVCSLISSDKLTVSSEEKVFEAVISWINYEKETRLEHMAKLMEHVRLPLLPRDYLVQTVEEEALIKNNNTCKDFLIEAMKYHLLPLDQRLLIKNPRTKPRTPVSLPKVMIVVGGQAPKAIRSVECYDFEEDRWDQIAELPSRRCRAGVVFMAGHVYAVGGFNGSLRVRTVDVYDGVKDQWTSIASMQERRSTLGAAVLNDLLYAVGGFDGSTGLASVEAYSYKTNEWFFVAPMNTRRSSVGVGVVEGKLYAVGGYDGASRQCLSTVEQYNPATNEWIYVADMSTRRSGAGVGVLSGQLYATGGHDGPLVRKSVEVYDPGTNTWKQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPVTDKWTLLPTNMSTGRSYAGVAVIHKSL</t>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q96J92</t>
+          <t>P13051</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EPEEPEADQH</t>
+          <t>Q9Y4B6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>O95198;Q9UH77</t>
+          <t>PGTPPSS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL;MEGESVKLSSQTLIQAGDDEKNQRTITVNPAHMGKAFKVMNELRSKQLLCDVMIVAEDVEIEAHRVVLAACSPYFCAMFTGDMSESKAKKIEIKDVDGQTLSKLIDYIYTAEIEVTEENVQVLLPAASLLQLMDVRQNCCDFLQSQLHPTNCLGIRAFADVHTCTDLLQQANAYAEQHFPEVMLGEEFLSLSLDQVCSLISSDKLTVSSEEKVFEAVISWINYEKETRLEHMAKLMEHVRLPLLPRDYLVQTVEEEALIKNNNTCKDFLIEAMKYHLLPLDQRLLIKNPRTKPRTPVSLPKVMIVVGGQAPKAIRSVECYDFEEDRWDQIAELPSRRCRAGVVFMAGHVYAVGGFNGSLRVRTVDVYDGVKDQWTSIASMQERRSTLGAAVLNDLLYAVGGFDGSTGLASVEAYSYKTNEWFFVAPMNTRRSSVGVGVVEGKLYAVGGYDGASRQCLSTVEQYNPATNEWIYVADMSTRRSGAGVGVLSGQLYATGGHDGPLVRKSVEVYDPGTNTWKQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPVTDKWTLLPTNMSTGRSYAGVAVIHKSL</t>
+          <t>MTTVVVHVDSKAELTTLLEQWEKEHGSGQDMVPILTRMSQLIEKETEEYRKGDPDPFDDRHPGRADPECMLGHLLRILFKNDDFMNALVNAYVMTSREPPLNTAACRLLLDIMPGLETAVVFQEKEGIVENLFKWAREADQPLRTYSTGLLGGAMENQDIAANYRDENSQLVAIVLRRLRELQLQEVALRQENKRPSPRKLSSEPLLPLDEEAVDMDYGDMAVDVVDGDQEEASGDMEISFHLDSGHKTSSRVNSTTKPEDGGLKKNKSAKQGDRENFRKAKQKLGFSSSDPDRMFVELSNSSWSEMSPWVIGTNYTLYPMTPAIEQRLILQYLTPLGEYQELLPIFMQLGSRELMMFYIDLKQTNDVLLTFEALKHLASLLLHNKFATEFVAHGGVQKLLEIPRPSMAATGVSMCLYYLSYNQDAMERVCMHPHNVLSDVVNYTLWLMECSHASGCCHATMFFSICFSFRAVLELFDRYDGLRRLVNLISTLEILNLEDQGALLSDDEIFASRQTGKHTCMALRKYFEAHLAIKLEQVKQSLQRTEGGILVHPQPPYKACSYTHEQIVEMMEFLIEYGPAQLYWEPAEVFLKLSCVQLLLQLISIACNWKTYYARNDTVRFALDVLAILTVVPKIQLQLAESVDVLDEAGSTVSTVGISIILGVAEGEFFIHDAEIQKSALQIIINCVCGPDNRISSIGKFISGTPRRKLPQNPKSSEHTLAKMWNVVQSNNGIKVLLSLLSIKMPITDADQIRALACKALVGLSRSSTVRQIISKLPLFSSCQIQQLMKEPVLQDKRSDHVKFCKYAAELIERVSGKPLLIGTDVSLARLQKADVVAQSRISFPEKELLLLIRNHLISKGLGETATVLTKEADLPMTAASHSSAFTPVTAAASPVSLPRTPRIANGIATRLGSHAAVGASAPSAPTAHPQPRPPQGPLALPGPSYAGNSPLIGRISFIRERPSPCNGRKIRVLRQKSDHGAYSQSPAIKKQLDRHLPSPPTLDSIITEYLREQHARCKNPVATCPPFSLFTPHQCPEPKQRRQAPINFTSRLNRRASFPKYGGVDGGCFDRHLIFSRFRPISVFREANEDESGFTCCAFSARERFLMLGTCTGQLKLYNVFSGQEEASYNCHNSAITHLEPSRDGSLLLTSATWSQPLSALWGMKSVFDMKHSFTEDHYVEFSKHSQDRVIGTKGDIAHIYDIQTGNKLLTLFNPDLANNYKRNCATFNPTDDLVLNDGVLWDVRSAQAIHKFDKFNMNISGVFHPNGLEVIINTEIWDLRTFHLLHTVPALDQCRVVFNHTGTVMYGAMLQADDEDDLMEERMKSPFGSSFRTFNATDYKPIATIDVKRNIFDLCTDTKDCYLAVIENQGSMDALNMDTVCRLYEVGRQRLAEDEDEEEDQEEEEQEEEDDDEDDDDTDDLDELDTDQLLEAELEEDDNNENAGEDGDNDFSPSDEELANLLEEGEDGEDEDSDADEEVELILGDTDSSDNSDLEDDIILSLNE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>P35659</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ADSST</t>
+          <t>Q8ND25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q969H0;O43791</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+          <t>MGGKQSTAARSRGPFPGVSTDDSAVPPPGGAPHFGHYRTGGGAMGLRSRSVSSVAGMGMDPSTAGGVPFGLYTPASRGTGDSERAPGGGGSASDSTYAHGNGYQETGGGHHRDGMLYLGSRASLADALPLHIAPRWFSSHSGFKCPICSKSVASDEMEMHFIMCLSKPRLSYNDDVLTKDAGECVICLEELLQGDTIARLPCLCIYHKSCIDSWFEVNRSCPEHPAD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P30304</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NKENE</t>
+          <t>Q9UNE7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UM11;Q9UKB1</t>
+          <t>LLPTPPLS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q9LMA8</t>
+          <t>Q9BXS6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IARRASLHRFLEKRKDRV</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>O04197</t>
+          <t>RRGLILA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MEDPDIKRCKLSCVATVDDVIEQVMTYITDPKDRDSASLVCRRWFKIDSETREHVTMALCYTATPDRLSRRFPNLRSLKLKGKPRAAMFNLIPENWGGYVTPWVTEISNNLRQLKSVHFRRMIVSDLDLDRLAKARADDLETLKLDKCSGFTTDGLLSIVTHCRKIKTLLMEESSFSEKDGKWLHELAQHNTSLEVLNFYMTEFAKISPKDLETIARNCRSLVSVKVGDFEILELVGFFKAAANLEEFCGGSLNEDIGMPEKYMNLVFPRKLCRLGLSYMGPNEMPILFPFAAQIRKLDLLYALLETEDHCTLIQKCPNLEVLETRNVIGDRGLEVLAQYCKQLKRLRIERGADEQGMEDEEGLVSQRGLIALAQGCQELEYMAVYVSDITNESLESIGTYLKNLCDFRLVLLDREERITDLPLDNGVRSLLIGCKKLRRFAFYLRQGGLTDLGLSYIGQYSPNVRWMLLGYVGESDEGLMEFSRGCPNLQKLEMRGCCFSERAIAAAVTKLPSLRYLWVQGYRASMTGQDLMQMARPYWNIELIPSRRVPEVNQQGEIREMEHPAHILAYYSLAGQRTDCPTTVRVLKEPI</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P25963</t>
+          <t>Q38825</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DSGLDS</t>
+          <t>Q570C0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q9Y297;Q13309;Q9UKB1;P10523;P49427;Q969Q1</t>
+          <t>QVVGWPPVRNYRK</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR;MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE;MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES;MDYKSSLIQDGNPMENLEKQLICPICLEMFTKPVVILPCQHNLCRKCANDIFQAANPYWTSRGSSVSMSGGRFRCPTCRHEVIMDRHGVYGLQRNLLVENIIDIYKQECSSRPLQKGSHPMCKEHEDEKINIYCLTCEVPTCSMCKVFGIHKACEVAPLQSVFQGQKTELNNCISMLVAGNDRVQTIITQLEDSRRVTKENSHQVKEELSQKFDTLYAILDEKKSELLQRITQEQEKKLSFIEALIQQYQEQLDKSTKLVETAIQSLDEPGGATFLLTAKQLIKSIVEASKGCQLGKTEQGFENMDFFTLDLEHIADALRAIDFGTDEEEEEFIEEEDQEEEESTEGKEEGHQ</t>
+          <t>MQKRIALSFPEEVLEHVFSFIQLDKDRNSVSLVCKSWYEIERWCRRKVFIGNCYAVSPATVIRRFPKVRSVELKGKPHFADFNLVPDGWGGYVYPWIEAMSSSYTWLEEIRLKRMVVTDDCLELIAKSFKNFKVLVLSSCEGFSTDGLAAIAATCRNLKELDLRESDVDDVSGHWLSHFPDTYTSLVSLNISCLASEVSFSALERLVTRCPNLKSLKLNRAVPLEKLATLLQRAPQLEELGTGGYTAEVRPDVYSGLSVALSGCKELRCLSGFWDAVPAYLPAVYSVCSRLTTLNLSYATVQSYDLVKLLCQCPKLQRLWVLDYIEDAGLEVLASTCKDLRELRVFPSEPFVMEPNVALTEQGLVSVSMGCPKLESVLYFCRQMTNAALITIARNRPNMTRFRLCIIEPKAPDYLTLEPLDIGFGAIVEHCKDLRRLSLSGLLTDKVFEYIGTYAKKMEMLSVAFAGDSDLGMHHVLSGCDSLRKLEIRDCPFGDKALLANASKLETMRSLWMSSCSVSFGACKLLGQKMPKLNVEVIDERGAPDSRPESCPVERVFIYRTVAGPRFDMPGFVWNMDQDSTMRFSRQIITTNGL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q27368</t>
+          <t>O15350</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NDITNYYKVKRRP</t>
+          <t>Q00987</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q24371;B7Z0L8</t>
+          <t>FEHLWSSL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MNIYNKLRAREHGYGNERTYDFALRRLSVAKEDSWRGIAPANYCPDFNPEPPIFSAKFANCDGYRHILAIANEDGKITLQDTTQRNHQPEEQSLVGPQCHFNAVFDLEWAPGQMRFVSASGDHTARLWEVAGSGIRGLNSYVGHTRSVKSAAFKRTDPAVFATGGRDGAILIWDIRANLNMDLTSRVDNCIYSGHTGGPGTPVSQRKQRTRTPKMAGGTTSSSITGLAFQDNDTLISCGAGDGVIKVWDLRRNYTAYKKEPLPRHKLPYAGSSTFRGFTNLIVDASGTRLYANCMDNTIYCYNLASYSQRPLACYKGLLNSTFYIKSCLSPDGKYLLSGSSDERAYIWNLDHAEEPLVALAGHTVEVTCVAWGSSHDCPIVTCSDDARHKIWRIGPDLDGLSEAERAEKYRGTASYVREFGKKAFGPSSGNHKYNLRDLESTPRSLKRLMDQNERTPGSVEKTTTKRSFLEMLGVAGQETEATEQPQKRAKPLESRGRRLFGPSSQETACRHIQLQSINEEDASPSKRQKENSAAEDVSPLHKLLSTPSHSPLSENVNHVYTSPPTTSAAAAAVAADALNPPPISAAIYSPTSNLPNYVLDGEAPHLGIMSPKRKAKEKVDWLTNIRKQKLMSGRAHVTLSEKISEEQQADVLASPRLQSLRQSECSPRIHASPRRRISHTDGGGGTPAGSSSHSHSQSQPKTPTSSRRNSETTLLRFFSIQRSSSVPAEETTTTNAAPSSSDPHPPAVTAPAATPLSMRTPTTAVGSD;MSLVPEASTSRAPKYCYFFKTLLVEELELETSYHNLHYGQCALIGRLAFKANQYRLENVRVKCLPKKYSLGEGTVSLLILGLTHDKVVENRVSTGRYCIVRGEVVLHNVQHPKGAKLTAGGVYDKINSLSNDPLAQKQYLSALLATYRPAIDLWYIQVIDRAEDLLTRRLEMRSLIEK</t>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>P42345</t>
+          <t>Q9HB71</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ITPFTS</t>
+          <t>Q9H4P4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>P22681;Q9Y4K3;Q969H0</t>
+          <t>KPAAVVAPI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+          <t>MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q9VHV8</t>
+          <t>Q15303</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PSSTS</t>
+          <t>O60260</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q9VFP2</t>
+          <t>RMKLPSP</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MFEPYVKIKKKRSVNEIYENENLEQQQHHLQQQQQQPATSDNCCCENGEPQNAPEVATATVAATSVAATSAAATVATGAAASSSSSGNCSRLQQLISTPPVLLRRSSLQQQQHQQQQHHPHTPAATATPPQQQQQQQAAPSVLQQHLGHLNYESGATAAAAATAAAAAATVATSRSGSATLAQHLATPSNILQAAFGSSNLQHILTRSAPSPSSSAISSNNCSSACAGNTHYNGGNSNSGSSSSNSNHHSNSIIASRLFGAASSSSSSSSSSASASSSSVAASSSSSSHHLHSHHSALTNSITNRINQSIRRHLNQQQHHHPLSASSSSASASPSASTSSSSSYQQSSVQQQHYNCAHPAQQQQHHHHHHSSSSSSSSSSSSSHHHHNSSSSSNSNNQQQPQQSPLCLVLLVKCPNSKEFCNAAANFCDKRLPVNECQASQTARVTSNLHASSSTMAVSRVPSPPLPEVNTPVAENWCYTQVKVVKFSYMWTINNFSFCREEMGEVLKSSTFSAGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCNKSEVRAKFKFSILNAKREETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPEDKLTIFCEVSVVADSVNISGQSNIVQFKVPECKLSEDLGNLFDNEKFSDVTLSVGGREFQAHKAILAARSDVFAAMFEHEMEERKLNRVAITDVDHEVLKEMLRFIYTGKAPNLEKMADDLLAAADKYALEKLKVMCEEALCVNLSVETAAETLILADLHSADQLKAQTIDFINTHATDVMETSGWQNMITTHSHLIAEAFRALATQQIPPIGPPRKRVKMS</t>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q12959</t>
+          <t>Q07820</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DSGLPS</t>
+          <t>Q9NX47</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1;Q05086;P03126;Q9P0N8</t>
+          <t>RKALETL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR;MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML;MHQKRTAMFQDPQERPRKLPQLCTELQTTIHDIILECVYCKQQLLRREVYDFAFRDLCIVYRDGNPYAVCDKCLKFYSKISEYRHYCYSLYGTTLEQQYNKPLCDLLIRCINCQKPLCPEEKQRHLDKKQRFHNIRGRWTGRCMSCCRSSRTRRETQL;MTTGDCCHLPGSLCDCSGSPAFSKVVEATGLGPPQYVAQVTSRDGRLLSTVIRALDTPSDGPFCRICHEGANGECLLSPCGCTGTLGAVHKSCLEKWLSSSNTSYCELCHTEFAVEKRPRPLTEWLKDPGPRTEKRTLCCDMVCFLFITPLAAISGWLCLRGAQDHLRLHSQLEAVGLIALTIALFTIYVLWTLVSFRYHCQLYSEWRKTNQKVRLKIREADSPEGPQHSPLAAGLLKKVAEETPV</t>
+          <t>MPDQALQQMLDRSCWVCFATDEDDRTAEWVRPCRCRGSTKWVHQACLQRWVDEKQRGNSTARVACPQCNAEYLIVFPKLGPVVYVLDLADRLISKACPFAAAGIMVGSIYWTAVTYGAVTVMQVVGHKEGLDVMERADPLFLLIGLPTIPVMLILGKMIRWEDYVLRLWRKYSNKLQILNSIFPGIGCPVPRIPAEANPLADHVSATRILCGALVFPTIATIVGKLMFSSVNSNLQRTILGGIAFVAIKGAFKVYFKQQQYLRQAHRKILNYPEQEEA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q9LVI4</t>
+          <t>O00429</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LARKASLARFLEKRKERV</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>O04197</t>
+          <t>RKRLPVT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MEDPDIKRCKLSCVATVDDVIEQVMTYITDPKDRDSASLVCRRWFKIDSETREHVTMALCYTATPDRLSRRFPNLRSLKLKGKPRAAMFNLIPENWGGYVTPWVTEISNNLRQLKSVHFRRMIVSDLDLDRLAKARADDLETLKLDKCSGFTTDGLLSIVTHCRKIKTLLMEESSFSEKDGKWLHELAQHNTSLEVLNFYMTEFAKISPKDLETIARNCRSLVSVKVGDFEILELVGFFKAAANLEEFCGGSLNEDIGMPEKYMNLVFPRKLCRLGLSYMGPNEMPILFPFAAQIRKLDLLYALLETEDHCTLIQKCPNLEVLETRNVIGDRGLEVLAQYCKQLKRLRIERGADEQGMEDEEGLVSQRGLIALAQGCQELEYMAVYVSDITNESLESIGTYLKNLCDFRLVLLDREERITDLPLDNGVRSLLIGCKKLRRFAFYLRQGGLTDLGLSYIGQYSPNVRWMLLGYVGESDEGLMEFSRGCPNLQKLEMRGCCFSERAIAAAVTKLPSLRYLWVQGYRASMTGQDLMQMARPYWNIELIPSRRVPEVNQQGEIREMEHPAHILAYYSLAGQRTDCPTTVRVLKEPI</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q15398</t>
+          <t>Q13501</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RKSLSQK</t>
+          <t>Q14145</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q9Y3I1</t>
+          <t>DPSTGE</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MRLRVRLLKRTWPLEVPETEPTLGHLRSHLRQSLLCTWGYSSNTRFTITLNYKDPLTGDEETLASYGIVSGDLICLILQDDIPAPNIPSSTDSEHSSLQNNEQPSLATSSNQTSMQDEQPSDSFQGQAAQSGVWNDDSMLGPSQNFEAESIQDNAHMAEGTGFYPSEPMLCSESVEGQVPHSLETLYQSADCSDANDALIVLIHLLMLESGYIPQGTEAKALSMPEKWKLSGVYKLQYMHPLCEGSSATLTCVPLGNLIVVNATLKINNEIRSVKRLQLLPESFICKEKLGENVANIYKDLQKLSRLFKDQLVYPLLAFTRQALNLPDVFGLVVLPLELKLRIFRLLDVRSVLSLSAVCRDLFTASNDPLLWRFLYLRDFRDNTVRVQDTDWKELYRKRHIQRKESPKGRFVMLLPSSTHTIPFYPNPLHPRPFPSSRLPPGIIGGEYDQRPTLPYVGDPISSLIPGPGETPSQFPPLRPRFDPVGPLPGPNPILPGRGGPNDRFPFRPSRGRPTDGRLSFM</t>
+          <t>MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>P19538</t>
+          <t>P03372</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PSSTS</t>
+          <t>P62877</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q9VFP2</t>
+          <t>AGSTS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MFEPYVKIKKKRSVNEIYENENLEQQQHHLQQQQQQPATSDNCCCENGEPQNAPEVATATVAATSVAATSAAATVATGAAASSSSSGNCSRLQQLISTPPVLLRRSSLQQQQHQQQQHHPHTPAATATPPQQQQQQQAAPSVLQQHLGHLNYESGATAAAAATAAAAAATVATSRSGSATLAQHLATPSNILQAAFGSSNLQHILTRSAPSPSSSAISSNNCSSACAGNTHYNGGNSNSGSSSSNSNHHSNSIIASRLFGAASSSSSSSSSSASASSSSVAASSSSSSHHLHSHHSALTNSITNRINQSIRRHLNQQQHHHPLSASSSSASASPSASTSSSSSYQQSSVQQQHYNCAHPAQQQQHHHHHHSSSSSSSSSSSSSHHHHNSSSSSNSNNQQQPQQSPLCLVLLVKCPNSKEFCNAAANFCDKRLPVNECQASQTARVTSNLHASSSTMAVSRVPSPPLPEVNTPVAENWCYTQVKVVKFSYMWTINNFSFCREEMGEVLKSSTFSAGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCNKSEVRAKFKFSILNAKREETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPEDKLTIFCEVSVVADSVNISGQSNIVQFKVPECKLSEDLGNLFDNEKFSDVTLSVGGREFQAHKAILAARSDVFAAMFEHEMEERKLNRVAITDVDHEVLKEMLRFIYTGKAPNLEKMADDLLAAADKYALEKLKVMCEEALCVNLSVETAAETLILADLHSADQLKAQTIDFINTHATDVMETSGWQNMITTHSHLIAEAFRALATQQIPPIGPPRKRVKMS</t>
+          <t>MAAAMDVDTPSGTNSGAGKKRFEVKKWNAVALWAWDIVVDNCAICRNHIMDLCIECQANQASATSEECTVAWGVCNHAFHFHCISRWLKTRQVCPLDNREWEFQKYGH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>P41161</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DEQFVPDF</t>
+          <t>Q9H0F5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q8NHY2</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+          <t>MACKISPGANSASLPGHPNKVICERVRLQSLFPLLPSDQNTTVQEDAHFKAFFQSEDSPSPKRQRLSHSVFDYTSASPAPSPPMRPWEMTSNRQPPSVRPSQHHFSGERCNTPARNRRSPPVRRQRGRRDRLSRHNSISQDENYHHLPYAQQQAIEEPRAFHPPNVSPRLLHPAAHPPQQNAVMVDIHDQLHQGTVPVSYTVTTVAPHGIPLCTGQHIPACSTQQVPGCSVVFSGQHLPVCSVPPPMLQACSVQHLPVPYAAFPPLISSDPFLIHPPHLSPHHPPHLPPPGQFVPFQTQQSRSPLQRIENEVELLGEHLPVGGFTYPPSAHPPTLPPSAPLQFLTHDPLHQEVSFGVPYPPFMPRRLTGRSRYRSQQPIPPPPYHPSLLPYVLSMLPVPPAVGPTFSFELDVEDGEVENYEALLNLAERLGEAKPRGLTKADIEQLPSYRFNPNNHQSEQTLCVVCMCDFESRQLLRVLPCNHEFHAKCVDKWLKANRTCPICRADASEVHRDSE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q15303</t>
+          <t>Q14494</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RMKLPSP</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q96J02;P46934;Q9H0M0;Q9H4P4;O60260</t>
+          <t>DGETGE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>P27895</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NKENA</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>P53197</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q14807</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EKENH</t>
+          <t>P63244</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q8IUQ4;Q96EP1</t>
+          <t>LAPAAGDTIISLDF</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC;MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN</t>
+          <t>MTEQMTLRGTLKGHNGWVTQIATTPQFPDMILSASRDKTIIMWKLTRDETNYGIPQRALRGHSHFVSDVVISSDGQFALSGSWDGTLRLWDLTTGTTTRRFVGHTKDVLSVAFSSDNRQIVSGSRDKTIKLWNTLGVCKYTVQDESHSEWVSCVRFSPNSSNPIIVSCGWDKLVKVWNLANCKLKTNHIGHTGYLNTVTVSPDGSLCASGGKDGQAMLWDLNEGKHLYTLDGGDIINALCFSPNRYWLCAATGPSIKIWDLEGKIIVDELKQEVISTSSKAEPPQCTSLAWSADGQTLFAGYTDNLVRVWQVTIGTR</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q9P2P5</t>
+          <t>Q53EL6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RGSLEGA</t>
+          <t>Q13309</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>DSGRGDS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q9H3D4</t>
+          <t>Q27368</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FQHIWDFL</t>
+          <t>B7Z0L8</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q96J02;Q9H0M0;Q969H0;Q96PM5;Q96PU5;Q96SW2</t>
+          <t>NDITNYYKVKRRP</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ;MATGLGEPVYGLSEDEGESRILRVKVVSGIDLAKKDIFGASDPYVKLSLYVADENRELALVQTKTIKKTLNPKWNEEFYFRVNPSNHRLLFEVFDENRLTRDDFLGQVDVPLSHLPTEDPTMERPYTFKDFLLRPRSHKSRVKGFLRLKMAYMPKNGGQDEENSDQRDDMEHGWEVVDSNDSASQHQEELPPPPLPPGWEEKVDNLGRTYYVNHNNRTTQWHRPSLMDVSSESDNNIRQINQEAAHRRFRSRRHISEDLEPEPSEGGDVPEPWETISEEVNIAGDSLGLALPPPPASPGSRTSPQELSEELSRRLQITPDSNGEQFSSLIQREPSSRLRSCSVTDAVAEQGHLPPPSAPAGRARSSTVTGGEEPTPSVAYVHTTPGLPSGWEERKDAKGRTYYVNHNNRTTTWTRPIMQLAEDGASGSATNSNNHLIEPQIRRPRSLSSPTVTLSAPLEGAKDSPVRRAVKDTLSNPQSPQPSPYNSPKPQHKVTQSFLPPGWEMRIAPNGRPFFIDHNTKTTTWEDPRLKFPVHMRSKTSLNPNDLGPLPPGWEERIHLDGRTFYIDHNSKITQWEDPRLQNPAITGPAVPYSREFKQKYDYFRKKLKKPADIPNRFEMKLHRNNIFEESYRRIMSVKRPDVLKARLWIEFESEKGLDYGGVAREWFFLLSKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFTFIGRVAGLAVFHGKLLDGFFIRPFYKMMLGKQITLNDMESVDSEYYNSLKWILENDPTELDLMFCIDEENFGQTYQVDLKPNGSEIMVTNENKREYIDLVIQWRFVNRVQKQMNAFLEGFTELLPIDLIKIFDENELELLMCGLGDVDVNDWRQHSIYKNGYCPNHPVIQWFWKAVLLMDAEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQLFTIEQWGSPEKLPRAHTCFNRLDLPPYETFEDLREKLLMAVENAQGFEGVD;MAGEGDQQDAAHNMGNHLPLLPAESEEEDEMEVEDQDSKEAKKPNIINFDTSLPTSHTYLGADMEEFHGRTLHDDDSCQVIPVLPQVMMILIPGQTLPLQLFHPQEVSMVRNLIQKDRTFAVLAYSNVQEREAQFGTTAEIYAYREEQDFGIEIVKVKAIGRQRFKVLELRTQSDGIQQAKVQILPECVLPSTMSAVQLESLNKCQIFPSKPVSREDQCSYKWWQKYQKRKFHCANLTSWPRWLYSLYDAETLMDRIKKQLREWDENLKDDSLPSNPIDFSYRVAACLPIDDVLRIQLLKIGSAIQRLRCELDIMNKCTSLCCKQCQETEITTKNEIFSLSLCGPMAAYVNPHGYVHETLTVYKACNLNLIGRPSTEHSWFPGYAWTVAQCKICASHIGWKFTATKKDMSPQKFWGLTRSALLPTIPDTEDEISPDKVILCL</t>
+          <t>MSLVPEASTSRAPKYCYFFKTLLVEELELETSYHNLHYGQCALIGRLAFKANQYRLENVRVKCLPKKYSLGEGTVSLLILGLTHDKVVENRVSTGRYCIVRGEVVLHNVQHPKGAKLTAGGVYDKINSLSNDPLAQKQYLSALLATYRPAIDLWYIQVIDRAEDLLTRRLEMRSLIEK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P41134</t>
+          <t>Q9HAW4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RAPLSTL</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q9HAU4;Q9UM11</t>
+          <t>DSGQGS</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q04912</t>
+          <t>P14635</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GDYRE</t>
+          <t>Q12834</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>P22681;Q9UNE7</t>
+          <t>PRTALGDIG</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>P12757</t>
+          <t>P04183</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RLCLPQV</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q9HAU4;Q9UM11;Q6ZNA4</t>
+          <t>NKENC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MSQWTPEYNELYTLKVDMKSEIPSDAPKTQESLKGILLHPEPIGAAKSFPAGVEMINSKVGNEFSHLCDDSQKQEKEMNGNQQEQEKSLVVRKKRKSQQAGPSYVQNCVKENQGILGLRQHLGTPSDEDNDSSFSDCLSSPSSSLHFGDSDTVTSDEDKEVSVRHSQTILNAKSRSHSARSHKWPRTETESVSGLLMKRPCLHGSSLRRLPCRKRFVKNNSSQRTQKQKERILMQRKKREVLARRKYALLPSSSSSSENDLSSESSSSSSTEGEEDLFVSASENHQNNPAVPSGSIDEDVVVIEASSTPQVTANEEINVTSTDSEVEIVTVGESYRSRSTLGHSRSHWSQGSSSHASRPQEPRNRSRISTVIQPLRQNAAEVVDLTVDEDEPTVVPTTSARMESQATSASINNSNPSTSEQASDTASAVTSSQPSTVSETSATLTSNSTTGTSIGDDSRRTTSSAVTETGPPAMPRLPSCCPQHSPCGGSSQNHHALGHPHTSCFQQHGHHFQHHHHHHHTPHPAVPVSPSFSDPACPVERPPQVQAPCGANSSSGTSYHEQQALPVDLSNSGIRSHGSGSFHGASAFDPCCPVSSSRAAIFGHQAAAAAPSQPLSSIDGYGSSMVAQPQPQPPPQPSLSSCRHYMPPPYASLTRPLHHQASACPHSHGNPPPQTQPPPQVDYVIPHPVHAFHSQISSHATSHPVAPPPPTHLASTAAPIPQHLPPTHQPISHHIPATAPPAQRLHPHEVMQRMEVQRRRMMQHPTRAHERPPPHPHRMHPNYGHGHHIHVPQTMSSHPRQAPERSAWELGIEAGVTAATYTPGALHPHLAHYHAPPRLHHLQLGALPLMVPDMAGYPHIRYISSGLDGTSFRGPFRGNFEELIHLEERLGNVNRGASQGTIERCTYPHKYKKVTTDWFSQRKLHCKQDGEEGTEEDTEEKCTICLSILEEGEDVRRLPCMHLFHQVCVDQWLITNKKCPICRVDIEAQLPSES</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q9UKT4</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RTPLASV</t>
+          <t>Q13049</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1</t>
+          <t>LLPTPPLS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>P42260</t>
+          <t>O75367</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>APVIV</t>
+          <t>Q8IWR1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q8K430</t>
+          <t>ADSTT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MQPRGERPAGRTQSPEHSSPGPGPEAPPPPQPPAPEAERARPRQARPAAPMEGAMQLLSREGHSVAHNSKRHYHDAFVAMSRMRQRGLLCDIVLHVAAKEIRAHKVVLASCSPYFHAMFTNEMSESRQTHVTLHDIDPQALDQLVQFAYTAEIVVGEGNVQTLLPAASLLQLNGVRDACCKFLLSQLDPSNCLGIRGFADTHSCSDLLKAAHRYVLQHFVDVAKTEEFMLLPLKQVLELVSSDSLNVPSEEDVYRAVLSWVKHDVDTRRQHVPRLMKCVRLPLLSRDFLLGHVDAESLVRHHPDCKDLLIEALKFHLLPEQRGVLGTSRTRPRRCEGAGPVLFAVGGGSLFAIHGDCEAYDTRTDRWHVVASMSTRRARVGVAAVGNRLYAVGGYDGTSDLATVESYDPVTNTWQPEVSMGTRRSCLGVAALHGLLYAAGGYDGASCLNSAERYDPLTGTWTSIAAMSTRRRYVRVATLDGNLYAVGGYDSSSHLATVEKYEPQVNSWTPVASMLSRRSSAGVAVLEGALYVAGGNDGTSCLNSVERYSTKAGAWESVAPMNIRRSTHDLVAMDGWLYAVGGNDGSSSLNSIEKYNPRTNKWVAASCMFTRRSSVGVAVLELLNFPPPSSPTLSVSSTSL</t>
+          <t>MHNFEEELTCPICYSIFEDPRVLPCSHTFCRNCLENILQASGNFYIWRPLRIPLKCPNCRSITEIAPTGIESLPVNFALRAIIEKYQQEDHPDIVTCPEHYRQPLNVYCLLDKKLVCGHCLTIGQHHGHPIDDLQSAYLKEKDTPQKLLEQLTDTHWTDLTHLIEKLKEQKSHSEKMIQGDKEAVLQYFKELNDTLEQKKKSFLTALCDVGNLINQEYTPQIERMKEIREQQLELMALTISLQEESPLKFLEKVDDVRQHVQILKQRPLPEVQPVEIYPRVSKILKEEWSRTEIGQIKNVLIPKMKISPKRMSCSWPGKDEKEVEFLKILNIVVVTLISVILMSILFFNQHIITFLSEITLIWFSEASLSVYQSLSNSLHKVKNILCHIFYLLKEFVWKIVSH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>P43268</t>
+          <t>O14920</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DEQFVPDF</t>
+          <t>P19474</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q8NHY2;P78317</t>
+          <t>NQETGE</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MSTRKRRGGAINSRQAQKRTREATSTPEISLEAEPIELVETAGDEIVDLTCESLEPVVVDLTHNDSVVIVDERRRPRRNARRLPQDHADSCVVSSDDEELSRDRDVYVTTHTPRNARDEGATGLRPSGTVSCPICMDGYSEIVQNGRLIVSTECGHVFCSQCLRDSLKNANTCPTCRKKINHKRYHPIYI</t>
+          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q9BYP7</t>
+          <t>P08138</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECEETEVDQH</t>
+          <t>Q9Y4K3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>O95198</t>
+          <t>KGDGGLYSSLPP</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL</t>
+          <t>MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>P16234</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SIFDNLYTTLSD</t>
+          <t>P03126</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>P22681;Q13191;Q9HCE7</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MANSMNGRNPGGRGGNPRKGRILGIIDAIQDAVGPPKQAAADRRTVEKTWKLMDKVVRLCQNPKLQLKNSPPYILDILPDTYQHLRLILSKYDDNQKLAQLSENEYFKIYIDSLMKKSKRAIRLFKEGKERMYEEQSQDRRNLTKLSLIFSHMLAEIKAIFPNGQFQGDNFRITKADAAEFWRKFFGDKTIVPWKVFRQCLHEVHQISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWGSILRNWNFLAVTHPGYMAFLTYDEVKARLQKYSTKPGSYIFRLSCTRLGQWAIGYVTGDGNILQTIPHNKPLFQALIDGSREGFYLYPDGRSYNPDLTGLCEPTPHDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTAWQESDGQGCPFCRCEIKGTEPIIVDPFDPRDEGSRCCSIIDPFGMPMLDLDDDDDREESLMMNRLANVRKCTDRQNSPVTSPGSSPLAQRRKPQPDPLQIPHLSLPPVPPRLDLIQKGIVRSPCGSPTGSPKSSPCMVRKQDKPLPAPPPPLRDPPPPPPERPPPIPPDNRLSRHIHHVESVPSRDPPMPLEAWCPRDVFGTNQLVGCRLLGEGSPKPGITASSNVNGRHSRVGSDPVLMRKHRRHDLPLEGAKVFSNGHLGSEEYDVPPRLSPPPPVTTLLPSIKCTGPLANSLSEKTRDPVEEDDDEYKIPSSHPVSLNSQPSHCHNVKPPVRSCDNGHCMLNGTHGPSSEKKSNIPDLSIYLKGDVFDSASDPVPLPPARPPTRDNPKHGSSLNRTPSDYDLLIPPLGEDAFDALPPSLPPPPPPARHSLIEHSKPPGSSSRPSSGQDLFLLPSDPFVDLASGQVPLPPARRLPGENVKTNRTSQDYDQLPSCSDGSQAPARPPKPRPRRTAPEIHHRKPHGPEAALENVDAKIAKLMGEGYAFEEVKRALEIAQNNVEVARSILREFAFPPPVSPRLNL;MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE</t>
+          <t>MHQKRTAMFQDPQERPRKLPQLCTELQTTIHDIILECVYCKQQLLRREVYDFAFRDLCIVYRDGNPYAVCDKCLKFYSKISEYRHYCYSLYGTTLEQQYNKPLCDLLIRCINCQKPLCPEEKQRHLDKKQRFHNIRGRWTGRCMSCCRSSRTRRETQL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>P10275</t>
+          <t>O75496</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ASSTT</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q9UNE7;P46934;O43255;Q00987;O43791;Q9Y252</t>
+          <t>RRTLKMI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MNQSRSRSDGGSEETLPQDHNHHENERRWQQERLHREEAYYQFINELNDEDYRLMRDHNLLGTPGEITSEELQQRLDGVKEQLASQPDLRDGTNYRDSEVPRESSHEDSLLEWLNTFRRTGNATRSGQNGNQTWRAVSRTNPNNGEFRFSLEIHVNHENRGFEIHGEDYTDIPLSDSNRDHTANRQQRSTSPVARRTRSQTSVNFNGSSSNIPRTRLASRGQNPAEGSFSTLGRLRNGIGGAAGIPRANASRTNFSSHTNQSGGSELRQREGQRFGAAHVWENGARSNVTVRNTNQRLEPIRLRSTSNSRSRSPIQRQSGTVYHNSQRESRPVQQTTRRSVRRRGRTRVFLEQDRERERRGTAYTPFSNSRLVSRITVEEGEESSRSSTAVRRHPTITLDLQVRRIRPGENRDRDSIANRTRSRVGLAENTVTIESNSGGFRRTISRLERSGIRTYVSTITVPLRRISENELVEPSSVALRSILRQIMTGFGELSSLMEADSESELQRNGQHLPDMHSELSNLGTDNNRSQHREGSSQDRQAQGDSTEMHGENETTQPHTRNSDSRGGRQLRNPNNLVETGTLPILRLAHFFLLNESDDDDRIRGLTKEQIDNLSTRHYEHNSIDSELGKICSVCISDYVTGNKLRQLPCMHEFHIHCIDRWLSENCTCPICRQPVLGSNIANNG</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q60795</t>
+          <t>P10275</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DEETGE</t>
+          <t>O43255</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q9Z2X8;Q9DBY1</t>
+          <t>ASSTT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MQPEPKLSGAPRSSQFLPLWSKCPEGAGDAVMYASTECKAEVTPSQDGNRTFSYTLEDHTKQAFGVMNELRLSQQLCDVTLQVKYEDIPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISVGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCTELHQRAREYIYMHFGEVAKQEEFFNLSHCQLATLISRDDLNVRCESEVFHACIDWVKYDCPQRRFYVQALLRAVRCHALTPRFLQTQLQKCEILQADARCKDYLVQIFQELTLHKPTQAVPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSNGSWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCASMSVPRNRIGVGVIDGHIYAVGGSHGCIHHSSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITPMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMRHHRSALGITVHQGKIYVLGGYDGHTFLDSVECYDPDSDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC;MFRTAVMMAASLALTGAVVAHAYYLKHQFYPTVVYLTKSSPSMAVLYIQAFVLVFLLGKVMGKVFFGQLRAAEMEHLLERSWYAVTETCLAFTVFRDDFSPRFVALFTLLLFLKCFHWLAEDRVDFMERSPNISWLFHCRIVSLMFLLGILDFLFVSHAYHSILTRGASVQLVFGFEYAILMTMVLTIFIKYVLHSVDLQSENPWDNKAVYMLYTELFTGFIKVLLYMAFMTIMIKVHTFPLFAIRPMYLAMRQFKKAVTDAIMSRRAIRNMNTLYPDATPEELQAVDNVCIICREEMVTGAKRLPCNHIFHTSCLRSWFQRQQTCPTCRMDVLRASLPAQSPPPPEPADQGPPPAPHPQPLLPQPPNFPQGLLPPFPPGMFPLWPPMGPFPPVPPPPSSGEAAAPPPTSTAVSRPSGAATTTAAGTSTSAPAPGSVPGPEAGPAPGFPFPPPWMGMPLPPPFAFPPMPVPPAGFAGLTPEELRALEGHERQHLEARLQSLRNIHTLLDAAMLQINQYLTVLASLGPPRPATSVNPTEETASTVVSAAPSTSAPSSEAPTPSPGASPPIPEAEKPPAPESVGIVEELPEDGEPDAAELRRRRLQKLESPVAH</t>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q9NQR1</t>
+          <t>P51955</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RKLTDFYPVRRS</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q9NZJ0;O76064</t>
+          <t>RKFLSLA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MGEPGFFVTGDRAGGRSWCLRRVGMSAGWLLLEDGCEVTVGRGFGVTYQLVSKICPLMISRNHCVLKQNPEGQWTIMDNKSLNGVWLNRARLEPLRVYSIHQGDYIQLGVPLENKENAEYEYEVTEEDWETIYPCLSPKNDQMIEKNKELRTKRKFSLDELAGPGAEGPSNLKSKINKVSCESGQPVKSQGKGEVASTPSDNLDPKLTALEPSKTTGAPIYPGFPKVTEVHHEQKASNSSASQRSLQMFKVTMSRILRLKIQMQEKHEAVMNVKKQTQKGNSKKVVQMEQELQDLQSQLCAEQAQQQARVEQLEKTFQEEEQHLQGLEIAQGEKDLKQQLAQALQEHWALMEELNRSKKDFEAIIQAKNKELEQTKEEKEKMQAQKEEVLSHMNDVLENELQCIICSEYFIEAVTLNCAHSFCSYCINEWMKRKIECPICRKDIKSKTYSLVLDNCINKMVNNLSSEVKERRIVLIRERKAKRLF</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>O00429</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RKRLPVT</t>
+          <t>Q8N531</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q9UM11;Q9NX47;Q969V5;O60260</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MPDQALQQMLDRSCWVCFATDEDDRTAEWVRPCRCRGSTKWVHQACLQRWVDEKQRGNSTARVACPQCNAEYLIVFPKLGPVVYVLDLADRLISKACPFAAAGIMVGSIYWTAVTYGAVTVMQVVGHKEGLDVMERADPLFLLIGLPTIPVMLILGKMIRWEDYVLRLWRKYSNKLQILNSIFPGIGCPVPRIPAEANPLADHVSATRILCGALVFPTIATIVGKLMFSSVNSNLQRTILGGIAFVAIKGAFKVYFKQQQYLRQAHRKILNYPEQEEA;MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+          <t>MAAPASRQVRRRARAAPRPRSAEDWWWDRLAPRGSGYHLLQSDSMLLVLSEPGPARPRAQRRASRRTPRQPPRGPSAAAKPKAGLRSEAAAAPAPAPAPTPTPEEGPDAGWGDRIPLEILVQIFGLLVAADGPMPFLGRAARVCRRWQEAASQPALWHTVTLSSPLVGRPAKGGVKAEKKLLASLEWLMPNRFSQLQRLTLIHWKSQVHPVLKLVGECCPRLTFLKLSGCHGVTADALVMLAKACCQLHSLDLQHSMVESTAVVSFLEEAGSRMRKLWLTYSSQTTAILGALLGSCCPQLQVLEVSTGINRNSIPLQLPVEALQKGCPQLQVLRLLNLMWLPKPPGRGVAPGPGFPSLEELCLASSTCNFVSNEVLGRLLHGSPNLRLLDLRGCARITPAGLQDLPCRELEQLHLGLYGTSDRLTLAKEGSPFLTQKWCHTLRELDLSGQGFSEKDLEQALAAFLSTPGGSHPALCSLNLRGTRVTPSTVSSVISGCPGLLYLNLESCRCLPRGLKRAYRGLEEVQWCLEQLLTSPSPS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>P34244</t>
+          <t>Q99728</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NKENE</t>
+          <t>P38398</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>P26309;P07834;P53197</t>
+          <t>RAALDRL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR;MGSFPLAEFPLRDIPVPYSYRVSGGIASSGSVTALVTAAGTHRNSSTAKTVETEDGEEDIDEYQRKRAAGSGESTPERSDFKRVKHDNHKTLHPVNLQNTGAASVDNDGLHNLTDISNDAEKLLMSVDDGSAAPSTLSVNMGVASHNVAAPTTVNAATITGSDVSNNVNSATINNPMEEGALPLSPTASSPGTTTPLAKTTKTINNNNNIADLIESKDSIISPEYLSDEIFSAINNNLPHAYFKNLLFRLVANMDRSELSDLGTLIKDNLKRDLITSLPFEISLKIFNYLQFEDIINSLGVSQNWNKIIRKSTSLWKKLLISENFVSPKGFNSLNLKLSQKYPKLSQQDRLRLSFLENIFILKNWYNPKFVPQRTTLRGHMTSVITCLQFEDNYVITGADDKMIRVYDSINKKFLLQLSGHDGGVWALKYAHGGILVSGSTDRTVRVWDIKKGCCTHVFKGHNSTVRCLDIVEYKNIKYIVTGSRDNTLHVWKLPKESSVPDHGEEHDYPLVFHTPEENPYFVGVLRGHMASVRTVSGHGNIVVSGSYDNTLIVWDVAQMKCLYILSGHTDRIYSTIYDHERKRCISASMDTTIRIWDLENIWNNGECSYATNSASPCAKILGAMYTLQGHTALVGLLRLSDKFLVSAAADGSIRGWDANDYSRKFSYHHTNLSAITTFYVSDNILVSGSENQFNIYNLRSGKLVHANILKDADQIWSVNFKGKTLVAAVEKDGQSFLEILDFSKASKINYVSNPVNSSSSSLESISTSLGLTRTTIIP;MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>P04637</t>
+          <t>P04198</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FSDLWKLL</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q9BV68;Q9UNE7;Q9Y297;O43255;Q9H0M0;Q00987;Q13309;Q969V5;Q969H0;Q7Z6Z7;O95155;Q9NZJ0;Q8NEZ5;O15151;Q9UHC7;Q8NHY2;Q7L5Y6;Q96PM5;Q96M02;Q8IX12;Q66K89;Q09472;Q8N531;Q86XK2;Q6P3S6;Q9H000;Q9HCI7;Q96PU5;Q9NS91;Q8WZ73;Q6PCD5;Q96EQ8;Q8TEB7;Q9NV58;Q969K3;Q9H0F5;Q86TM6;Q9NS56;Q6Q0C0;P36406;O15164;Q13263;O75382;Q9HCM9;Q96LD4;Q8IWR1;Q86WT6;Q05086;Q96T88;Q9NVW2;P08393;P03126</t>
+          <t>PTPPLS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS;MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP;MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA;MEELSADEIRRRRLARLAGGQTSQPTTPLTSPQRENPPGPPIAASAPGPSQSLGLNVHNMTPATSPIGASGVAHRSQSSEGVSSLSSSPSNSLETQSQSLSRSQSMDIDGVSCEKSMSQVDVDSGIENMEVDENDRREKRSLSDKEPSSGPEVSEEQALQLVCKIFRVSWKDRDRDVIFLSSLSAQFKQNPKEVFSDFKDLIGQILMEVLMMSTQTRDENPFASLTATSQPIAAAARSPDRNLLLNTGSNPGTSPMFCSVASFGASSLSSLYESSPAPTPSFWSSVPVMGPSLASPSRAASQLAVPSTPLSPHSAASGTAAGSQPSSPRYRPYTVTHPWASSGVSILSSSPSPPALASSPQAVPASSSRQRPSSTGPPLPPASPSATSRRPSSLRISPSLGASGGASNWDSYSDHFTIETCKETDMLNYLIECFDRVGIEEKKAPKMCSQPAVSQLLSNIRSQCISHTALVLQGSLTQPRSLQQPSFLVPYMLCRNLPYGFIQELVRTTHQDEEVFKQIFIPILQGLALAAKECSLDSDYFKYPLMALGELCETKFGKTHPVCNLVASLRLWLPKSLSPGCGRELQRLSYLGAFFSFSVFAEDDVKVVEKYFSGPAITLENTRVVSQSLQHYLELGRQELFKILHSILLNGETREAALSYMAAVVNANMKKAQMQTDDRLVSTDGFMLNFLWVLQQLSTKIKLETVDPTYIFHPRCRITLPNDETRVNATMEDVNDWLTELYGDQPPFSEPKFPTECFFLTLHAHHLSILPSCRRYIRRLRAIRELNRTVEDLKNNESQWKDSPLATRHREMLKRCKTQLKKLVRCKACADAGLLDESFLRRCLNFYGLLIQLLLRILDPAYPDITLPLNSDVPKVFAALPEFYVEDVAEFLFFIVQYSPQALYEPCTQDIVMFLVVMLCNQNYIRNPYLVAKLVEVMFMTNPAVQPRTQKFFEMIENHPLSTKLLVPSLMKFYTDVEHTGATSEFYDKFTIRYHISTIFKSLWQNIAHHGTFMEEFNSGKQFVRYINMLINDTTFLLDESLESLKRIHEVQEEMKNKEQWDQLPRDQQQARQSQLAQDERVSRSYLALATETVDMFHILTKQVQKPFLRPELGPRLAAMLNFNLQQLCGPKCRDLKVENPEKYGFEPKKLLDQLTDIYLQLDCARFAKAIADDQRSYSKELFEEVISKMRKAGIKSTIAIEKFKLLAEKVEEIVAKNARAEIDYSDAPDEFRDPLMDTLMTDPVRLPSGTIMDRSIILRHLLNSPTDPFNRQTLTESMLEPVPELKEQIQAWMREKQNSDH;MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK;MTSFSTSAQCSTSDSACRISPGQINQVRPKLPLLKILHAAGAQGEMFTVKEVMHYLGQYIMVKQLYDQQEQHMVYCGGDLLGELLGRQSFSVKDPSPLYDMLRKNLVTLATATTDAAQTLALAQDHSMDIPSQDQLKQSAEESSTSRKRTTEDDIPTLPTSEHKCIHSREDEDLIENLAQDETSRLDLGFEEWDVAGLPWWFLGNLRSNYTPRSNGSTDLQTNQDVGTAIVSDTTDDLWFLNESVSEQLGVGIKVEAADTEQTSEEVGKVSDKKVIEVGKNDDLEDSKSLSDDTDVEVTSEDEWQCTECKKFNSPSKRYCFRCWALRKDWYSDCSKLTHSLSTSDITAIPEKENEGNDVPDCRRTISAPVVRPKDAYIKKENSKLFDPCNSVEFLDLAHSSESQETISSMGEQLDNLSEQRTDTENMEDCQNLLKPCSLCEKRPRDGNIIHGRTGHLVTCFHCARRLKKAGASCPICKKEIQLVIKVFIA;MAEAATPGTTATTSGAGAAAATAAAASPTPIPTVTAPSLGAGGGGGGSDGSGGGWTKQVTCRYFMHGVCKEGDNCRYSHDLSDSPYSVVCKYFQRGYCIYGDRCRYEHSKPLKQEEATATELTTKSSLAASSSLSSIVGPLVEMNTGEAESRNSNFATVGAGSEDWVNAIEFVPGQPYCGRTAPSCTEAPLQGSVTKEESEKEQTAVETKKQLCPYAAVGECRYGENCVYLHGDSCDMCGLQVLHPMDAAQRSQHIKSCIEAHEKDMELSFAVQRSKDMVCGICMEVVYEKANPSERRFGILSNCNHTYCLKCIRKWRSAKQFESKIIKSCPECRITSNFVIPSEYWVEEKEEKQKLILKYKEAMSNKACRYFDEGRGSCPFGGNCFYKHAYPDGRREEPQRQKVGTSSRYRAQRRNHFWELIEERENSNPFDNDEEEVVTFELGEMLLMLLAAGGDDELTDSEDEWDLFHDELEDFYDLDL;MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV;MDHHVSTIKPRRIQNQNVIHRLERRRISSGKAGTHWHQVRVFHQNVFPNFTVVNVEKPPCFLRKFSPDGRYFIAFSSDQTSLEIYEYQGCQAAEDLLQGYEGEILSNGNDQRSVNIRGRLFERFFVLLHITNVAANGEHLNRECSLFTDDCRCVIVGSAAYLPDEPHPPFFEVYRNSESVTPNPRSPLEDYSLHIIDLHTGRLCDTRTFKCDKVVLSHNQGLYLYKNILAILSVQQQTIHVFQVTPEGTFIDVRTIGRFCYEDDLLTVSAVFPEVQRDSQTGMANPFRDPFINSLKHRLLVYLWRRAEQDGSAMAKRRFFQYFDQLRQLRMWKMQLLDENHLFIKYTSEDVVTLRVTDPSQASFFVVYNMVTTEVIAVFENTSDELLELFENFCDLFRNATLHSEVQFPCSASSNNFARQIQRRFKDTIINAKYGGHTEAVRRLLGQLPISAQSYSGSPYLDLSLFSYDDKWVSVMERPKTCGDHPIRFYARDSGLLKFEIQAGLLGRPINHTVRRLVAFTFHPFEPFAISVQRTNAEYVVNFHMRHCCT;MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ;MLKLSGEGLRDSYHSRRDQIALKNLQSDVTEAKSDFTKETLASQNTKMISSIVISQMIDENKSRENRASLPLPCAIAQSRAHHAKQSLANRSGVNIHRAFALLPGRLGIPAPSDERGPEAELPPKEERPCGGPRRGFASITITARRVGPPARALVWGTAGDSLCPKCRAEDTLFQAPPALANGAHPGRHQRSFACTEFSRNSSVVRLKVPEAHTGLCERRKYWVTHADDKETSFSPDTPLSGKSPLVFSSCVHLRVSQQCPDSIYYVDKSLSVPIEPPQIASPKMHRSVLSLNLNCSSHRLTADGVDGLVNREPISEALKQELLEGDQDLVGQRWNPGLQESHLKETPSLRRVHLGTGACPWSGSFPLENTELANVGANQVTVRKGEKDHTTHCHASDHANQLSIHIPGWSYRAVHTKVFSGSSKRQQGEVCMTVSAPPVEQKPTRHFLPIGDSSPSDDCLSRDLSEPTERRHQSFLKPRILFPGFLCPLQDVCASLQEDNGVQIESKFPKGDYTCCDLVVKIKECKKSEDPTTPEPSPAAPSPAPRDGAGSPGLSEDCSESQQTPARSLTLQEALEVRKPQFISRSQERLKKLEHMVQQRKAQRKEDLRQKQSLLPIRTSKKQFTIPHPLSDNLFKPKERCISEKEMHMRSKRIYDNLPEVKKKKEEQRKRVILQSNRLRAEVFKKQLLDQLLQRNAV;MAQFGGQKNPPWATQFTATAVSQPAALGVQQPSLLGASPTIYTQQTALAAAGLTTQTPANYQLTQTAALQQQAAAAAAALQQQYSQPQQALYSVQQQLQQPQQTLLTQPAVALPTSLSLSTPQPTAQITVSYPTPRSSQQQTQPQKQRVFTGVVTKLHDTFGFVDEDVFFQLSAVKGKTPQVGDRVLVEATYNPNMPFKWNAQRIQTLPNQNQSQTQPLLKTPPAVLQPIAPQTTFGVQTQPQPQSLLQAQISAASITPLLQTQPQPLLQQPQQKAGLLQPPVRIVSQPQPARRLDPPSRFSGRNDRGDQVPNRKDDRSRERERERRRSRERSPQRKRSRERSPRRERERSPRRVRRVVPRYTVQFSKFSLDCPSCDMMELRRRYQNLYIPSDFFDAQFTWVDAFPLSRPFQLGNYCNFYVMHREVESLEKNMAILDPPDADHLYSAKVMLMASPSMEDLYHKSCALAEDPQELRDGFQHPARLVKFLVGMKGKDEAMAIGGHWSPSLDGPDPEKDPSVLIKTAIRCCKALTGIDLSVCTQWYRFAEIRYHRPEETHKGRTVPAHVETVVLFFPDVWHCLPTRSEWETLSRGYKQQLVEKLQGERKEADGEQDEEEKDDGEAKEISTPTHWSKLDPKTMKVNDLRKELESRALSSKGLKSQLIARLTKQLKVEEQKEEQKELEKSEKEEDEDDDRKSEDDKEEEERKRQEEIERQRRERRYILPDEPAIIVHPNWAAKSGKFDCSIMSLSVLLDYRLEDNKEHSFEVSLFAELFNEMLQRDFGVRIYKSLLSLPEKEDKKEKDKKSKKDERKDKKEERDDETDEPKPKRRKSGDDKDKKEDRDERKKEDKRKDDSKDDDETEEDNNQDEYDPMEAEEAEDEEDDRDEEEMTKRDDKRDINRYCKERPSKDKEKEKTQMITINRDLLMAFVYFDQSHCGYLLEKDLEEILYTLGLHLSRAQVKKLLNKVVLRESCFYRKLTDTSKDEENHEESESLQEDMLGNRLLLPTPTVKQESKDVEENVGLIVYNGAMVDVGSLLQKLEKSEKVRAEVEQKLQLLEEKTDEDEKTILNLENSNKSLSGELREVKKDLSQLQENLKISENMNLQFENQMNKTIRNLSTVMDEIHTVLKKDNVKNEDKDQKSKENGASV;MEGAMAVRVTAAHTAEAQAEAGREAGEGAVAAVAAALAPSGFLGLPAPFSEEDEDDVHRCGRCQAEFTALEDFVQHKIQKACQRAPPEALPATPATTALLGQEVVPAAPGPEEPITVAHIVVEAASLAADISHASDLVGGGHIKEVIVAAEAELGDGEMAEAPGSPRQQGLGLAGEGEQAQVKLLVNKDGRYVCALCHKTFKTGSILKAHMVTHSSRKDHECKLCGASFRTKGSLIRHHRRHTDERPYKCSKCGKSFRESGALTRHLKSLTPCTEKIRFSVSKDVVVSKEDARAGSGAGAAGLGTATSSVTGEPIETSPVIHLVTDAKGTVIHEVHVQMQELSLGMKALAPEPPVSQELPCSSEGSRENLLHQAMQNSGIVLERAAGEEGALEPAPAAGSSPQPLAVAAPQLPVLEVQPLETQVASEASAVPRTHPCPQCSETFPTAATLEAHKRGHTGPRPFACAQCGKAFPKAYLLKKHQEVHVRERRFRCGDCGKLYKTIAHVRGHRRVHSDERPYPCPKCGKRYKTKNAQQVHFRTHLEEKPHVCQFCSRGFREKGSLVRHVRHHTGEKPFKCYKCGRGFAEHGTLNRHLRTKGGCLLEVEELLVSEDSPAAATTVLTEDPHTVLVEFSSVVADTQEYIIEATADDAETSEATEIIEGTQTEVDSHIMKVVQQIVHQASAGHQIIVQNVTMDEETALGPEAAAADTITIATPESLTEQVAMTLASAISEGTVLAARAGTSGTEQATVTMVSSEDIEILEHAGELVIASPEGQLEVQTVIV;MAENVVEPGPPSAKRPKLSSPALSASASDGTDFGSLFDLEHDLPDELINSTELGLTNGGDINQLQTSLGMVQDAASKHKQLSELLRSGSSPNLNMGVGGPGQVMASQAQQSSPGLGLINSMVKSPMTQAGLTSPNMGMGTSGPNQGPTQSTGMMNSPVNQPAMGMNTGMNAGMNPGMLAAGNGQGIMPNQVMNGSIGAGRGRQNMQYPNPGMGSAGNLLTEPLQQGSPQMGGQTGLRGPQPLKMGMMNNPNPYGSPYTQNPGQQIGASGLGLQIQTKTVLSNNLSPFAMDKKAVPGGGMPNMGQQPAPQVQQPGLVTPVAQGMGSGAHTADPEKRKLIQQQLVLLLHAHKCQRREQANGEVRQCNLPHCRTMKNVLNHMTHCQSGKSCQVAHCASSRQIISHWKNCTRHDCPVCLPLKNAGDKRNQQPILTGAPVGLGNPSSLGVGQQSAPNLSTVSQIDPSSIERAYAALGLPYQVNQMPTQPQVQAKNQQNQQPGQSPQGMRPMSNMSASPMGVNGGVGVQTPSLLSDSMLHSAINSQNPMMSENASVPSLGPMPTAAQPSTTGIRKQWHEDITQDLRNHLVHKLVQAIFPTPDPAALKDRRMENLVAYARKVEGDMYESANNRAEYYHLLAEKIYKIQKELEEKRRTRLQKQNMLPNAAGMVPVSMNPGPNMGQPQPGMTSNGPLPDPSMIRGSVPNQMMPRITPQSGLNQFGQMSMAQPPIVPRQTPPLQHHGQLAQPGALNPPMGYGPRMQQPSNQGQFLPQTQFPSQGMNVTNIPLAPSSGQAPVSQAQMSSSSCPVNSPIMPPGSQGSHIHCPQLPQPALHQNSPSPVPSRTPTPHHTPPSIGAQQPPATTIPAPVPTPPAMPPGPQSQALHPPPRQTPTPPTTQLPQQVQPSLPAAPSADQPQQQPRSQQSTAASVPTPTAPLLPPQPATPLSQPAVSIEGQVSNPPSTSSTEVNSQAIAEKQPSQEVKMEAKMEVDQPEPADTQPEDISESKVEDCKMESTETEERSTELKTEIKEEEDQPSTSATQSSPAPGQSKKKIFKPEELRQALMPTLEALYRQDPESLPFRQPVDPQLLGIPDYFDIVKSPMDLSTIKRKLDTGQYQEPWQYVDDIWLMFNNAWLYNRKTSRVYKYCSKLSEVFEQEIDPVMQSLGYCCGRKLEFSPQTLCCYGKQLCTIPRDATYYSYQNRYHFCEKCFNEIQGESVSLGDDPSQPQTTINKEQFSKRKNDTLDPELFVECTECGRKMHQICVLHHEIIWPAGFVCDGCLKKSARTRKENKFSAKRLPSTRLGTFLENRVNDFLRRQNHPESGEVTVRVVHASDKTVEVKPGMKARFVDSGEMAESFPYRTKALFAFEEIDGVDLCFFGMHVQEYGSDCPPPNQRRVYISYLDSVHFFRPKCLRTAVYHEILIGYLEYVKKLGYTTGHIWACPPSEGDDYIFHCHPPDQKIPKPKRLQEWYKKMLDKAVSERIVHDYKDIFKQATEDRLTSAKELPYFEGDFWPNVLEESIKELEQEEEERKREENTSNESTDVTKGDSKNAKKKNNKKTSKNKSSLSRGNKKKPGMPNVSNDLSQKLYATMEKHKEVFFVIRLIAGPAANSLPPIVDPDPLIPCDLMDGRDAFLTLARDKHLEFSSLRRAQWSTMCMLVELHTQSQDRFVYTCNECKHHVETRWHCTVCEDYDLCITCYNTKNHDHKMEKLGLGLDDESNNQQAAATQSPGDSRRLSIQRCIQSLVHACQCRNANCSLPSCQKMKRVVQHTKGCKRKTNGGCPICKQLIALCCYHAKHCQENKCPVPFCLNIKQKLRQQQLQHRLQQAQMLRRRMASMQRTGVVGQQQGLPSPTPATPTTPTGQQPTTPQTPQPTSQPQPTPPNSMPPYLPRTQAAGPVSQGKAAGQVTPPTPPQTAQPPLPGPPPAAVEMAMQIQRAAETQRQMAHVQIFQRPIQHQMPPMTPMAPMGMNPPPMTRGPSGHLEPGMGPTGMQQQPPWSQGGLPQPQQLQSGMPRPAMMSVAQHGQPLNMAPQPGLGQVGISPLKPGTVSQQALQNLLRTLRSPSSPLQQQQVLSILHANPQLLAAFIKQRAAKYANSNPQPIPGQPGMPQGQPGLQPPTMPGQQGVHSNPAMQNMNPMQAGVQRAGLPQQQPQQQLQPPMGGMSPQAQQMNMNHNTMPSQFRDILRRQQMMQQQQQQGAGPGIGPGMANHNQFQQPQGVGYPPQQQQRMQHHMQQMQQGNMGQIGQLPQALGAEAGASLQAYQQRLLQQQMGSPVQPNPMSPQQHMLPNQAQSPHLQGQQIPNSLSNQVRSPQPVPSPRPQSQPPHSSPSPRMQPQPSPHHVSPQTSSPHPGLVAAQANPMEQGHFASPDQNSMLSQLASNPGMANLHGASATDLGLSTDNSDLNSNLSQSTLDIH;MAAPASRQVRRRARAAPRPRSAEDWWWDRLAPRGSGYHLLQSDSMLLVLSEPGPARPRAQRRASRRTPRQPPRGPSAAAKPKAGLRSEAAAAPAPAPAPTPTPEEGPDAGWGDRIPLEILVQIFGLLVAADGPMPFLGRAARVCRRWQEAASQPALWHTVTLSSPLVGRPAKGGVKAEKKLLASLEWLMPNRFSQLQRLTLIHWKSQVHPVLKLVGECCPRLTFLKLSGCHGVTADALVMLAKACCQLHSLDLQHSMVESTAVVSFLEEAGSRMRKLWLTYSSQTTAILGALLGSCCPQLQVLEVSTGINRNSIPLQLPVEALQKGCPQLQVLRLLNLMWLPKPPGRGVAPGPGFPSLEELCLASSTCNFVSNEVLGRLLHGSPNLRLLDLRGCARITPAGLQDLPCRELEQLHLGLYGTSDRLTLAKEGSPFLTQKWCHTLRELDLSGQGFSEKDLEQALAAFLSTPGGSHPALCSLNLRGTRVTPSTVSSVISGCPGLLYLNLESCRCLPRGLKRAYRGLEEVQWCLEQLLTSPSPS;MNSVRAANRRPRRVSRPRPVQQQQQQPPQQPPPQPPQQQPPQQQPPPPPQQQQQQQPPPPPPPPPPLPQERNNVGERDDDVPADMVAEESGPGAQNSPYQLRRKTLLPKRTACPTKNSMEGASTSTTENFGHRAKRARVSGKSQDLSAAPAEQYLQEKLPDEVVLKIFSYLLEQDLCRAACVCKRFSELANDPILWKRLYMEVFEYTRPMMHPEPGKFYQINPEEYEHPNPWKESFQQLYKGAHVKPGFAEHFYSNPARYKGRENMLYYDTIEDALGGVQEAHFDGLIFVHSGIYTDEWIYIESPITMIGAAPGKVADKVIIENTRDSTFVFMEGSEDAYVGYMTIRFNPDDKSAQHHNAHHCLEITVNCSPIIDHCIIRSTCTVGSAVCVSGQGACPTIKHCNISDCENVGLYITDHAQGIYEDNEISNNALAGIWVKNHGNPIIRRNHIHHGRDVGVFTFDHGMGYFESCNIHRNRIAGFEVKAYANPTVVRCEIHHGQTGGIYVHEKGRGQFIENKIYANNFAGVWITSNSDPTIRGNSIFNGNQGGVYIFGDGRGLIEGNDIYGNALAGIQIRTNSCPIVRHNKIHDGQHGGIYVHEKGQGVIEENEVYSNTLAGVWVTTGSTPVLRRNRIHSGKQVGVYFYDNGHGVLEDNDIYNHMYSGVQIRTGSNPKIRRNKIWGGQNGGILVYNSGLGCIEDNEIFDNAMAGVWIKTDSNPTLRRNKIHDGRDGGICIFNGGRGLLEENDIFRNAQAGVLISTNSHPILRKNRIFDGFAAGIEITNHATATLEGNQIFNNRFGGLFLASGVNVTMKDNKIMNNQDAIEKAVSRGQCLYKISSYTSYPMHDFYRCHTCNTTDRNAICVNCIKKCHQGHDVEFIRHDRFFCDCGAGTLSNPCTLAGEPTHDTDTLYDSAPPIESNTLQHN;MASSSDSEDDSFMAVDQEETVLEGTMDQDEEPHPVLEAEETRHNRSMSELPEEVLEYILSFLSPYQEHKTAALVCKQWYRLIKGVAHQCYHGFMKAVQEGNIQWESRTYPYPGTPITQRFSHSACYYDANQSMYVFGGCTQSSCNAAFNDLWRLDLNSKEWIRPLASGSYPSPKAGATLVVYKDLLVLFGGWTRPSPYPLHQPERFFDEIHTYSPSKNWWNCIVTTHGPPPMAGHSSCVIDDKMIVFGGSLGSRQMSNDVWVLDLEQWAWSKPNISGPSPHPRGGQSQIVIDDATILILGGCGGPNALFKDAWLLHMHSGPWAWQPLKVENEEHGAPELWCHPACRVGQCVVVFSQAPSGRAPLSPSLNSRPSPISATPPALVPETREYRSQSPVRSMDEAPCVNGRWGTLRPRAQRQTPSGSREGSLSPARGDGSPILNGGSLSPGTAAVGGSSLDSPVQAISPSTPSAPEGYDLKIGLSLAPRRGSLPDQKDLRLGSIDLNWDLKPASSSNPMDGMDNRTVGGSMRHPPEQTNGVHTPPHVASALAGAVSPGALRRSLEAIKAMSSKGPSASAALSPPLGSSPGSPGSQSLSSGETVPIPRPGPAQGDGHSLPPIARRLGHHPPQSLNVGKPLYQSMNCKPMQMYVLDIKDTKEKGRVKWKVFNSSSVVGPPETSLHTVVQGRGELIIFGGLMDKKQNVKYYPKTNALYFVRAKR;MSTKQITCRYFMHGVCREGSQCLFSHDLANSKPSTICKYYQKGYCAYGTRCRYDHTRPSAAAGGAVGTMAHSVPSPAFHSPHPPSEVTASIVKTNSHEPGKREKRTLVLRDRNLSGMAERKTQPSMVSNPGSCSDPQPSPEMKPHSYLDAIRSGLDDVEASSSYSNEQQLCPYAAAGECRFGDACVYLHGEVCEICRLQVLHPFDPEQRKAHEKICMLTFEHEMEKAFAFQASQDKVCSICMEVILEKASASERRFGILSNCNHTYCLSCIRQWRCAKQFENPIIKSCPECRVISEFVIPSVYWVEDQNKKNELIEAFKQGMGKKACKYFEQGKGTCPFGSKCLYRHAYPDGRLAEPEKPRKQLSSQGTVRFFNSVRLWDFIENRESRHVPNNEDVDMTELGDLFMHLSGVESSEP;MNPVNATALYISASRLVLNYDPGDPKAFTEINRLLPYFRQSLSCCVCGHLLQDPIAPTNSTCQHYVCKTCKGKKMMMKPSCSWCKDYEQFEENKQLSILVNCYKKLCEYITQTTLARDIIEAVDCSSDILALLNDGSLFCEETEKPSDSSFTLCLTHSPLPSTSEPTTDPQASLSPMSESTLSIAIGSSVINGLPTYNGLSIDRFGINIPSPEHSNTIDVCNTVDIKTEDLSDSLPPVCDTVATDLCSTGIDICSFSEDIKPGDSLLLSVEEVLRSLETVSNTEVCCPNLQPNLEATVSNGPFLQLSSQSLSHNVFMSTSPALHGLSCTAATPKIAKLNRKRSRSESDSEKVQPLPISTIIRGPTLGASAPVTVKRESKISLQPIATVPNGGTTPKISKTVLLSTKSMKKSHEHGSKKSHSKTKPGILKKDKAVKEKIPSHHFMPGSPTKTVYKKPQEKKGCKCGRATQNPSVLTCRGQRCPCYSNRKACLDCICRGCQNSYMANGEKKLEAFAVPEKALEQTRLTLGINVTSIAVRNASTSTSVINVTGSPVTTFLAASTHDDKSLDEAIDMRFDC;MATGLGEPVYGLSEDEGESRILRVKVVSGIDLAKKDIFGASDPYVKLSLYVADENRELALVQTKTIKKTLNPKWNEEFYFRVNPSNHRLLFEVFDENRLTRDDFLGQVDVPLSHLPTEDPTMERPYTFKDFLLRPRSHKSRVKGFLRLKMAYMPKNGGQDEENSDQRDDMEHGWEVVDSNDSASQHQEELPPPPLPPGWEEKVDNLGRTYYVNHNNRTTQWHRPSLMDVSSESDNNIRQINQEAAHRRFRSRRHISEDLEPEPSEGGDVPEPWETISEEVNIAGDSLGLALPPPPASPGSRTSPQELSEELSRRLQITPDSNGEQFSSLIQREPSSRLRSCSVTDAVAEQGHLPPPSAPAGRARSSTVTGGEEPTPSVAYVHTTPGLPSGWEERKDAKGRTYYVNHNNRTTTWTRPIMQLAEDGASGSATNSNNHLIEPQIRRPRSLSSPTVTLSAPLEGAKDSPVRRAVKDTLSNPQSPQPSPYNSPKPQHKVTQSFLPPGWEMRIAPNGRPFFIDHNTKTTTWEDPRLKFPVHMRSKTSLNPNDLGPLPPGWEERIHLDGRTFYIDHNSKITQWEDPRLQNPAITGPAVPYSREFKQKYDYFRKKLKKPADIPNRFEMKLHRNNIFEESYRRIMSVKRPDVLKARLWIEFESEKGLDYGGVAREWFFLLSKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFTFIGRVAGLAVFHGKLLDGFFIRPFYKMMLGKQITLNDMESVDSEYYNSLKWILENDPTELDLMFCIDEENFGQTYQVDLKPNGSEIMVTNENKREYIDLVIQWRFVNRVQKQMNAFLEGFTELLPIDLIKIFDENELELLMCGLGDVDVNDWRQHSIYKNGYCPNHPVIQWFWKAVLLMDAEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQLFTIEQWGSPEKLPRAHTCFNRLDLPPYETFEDLREKLLMAVENAQGFEGVD;MDSLAESRWPPGLAVMKTIDDLLRCGICFEYFNIAMIIPQCSHNYCSLCIRKFLSYKTQCPTCCVTVTEPDLKNNRILDELVKSLNFARNHLLQFALESPAKSPASSSSKNLAVKVYTPVASRQSLKQGSRLMDNFLIREMSGSTSELLIKENKSKFSPQKEASPAAKTKETRSVEEIAPDPSEAKRPEPPSTSTLKQVTKVDCPVCGVNIPESHINKHLDSCLSREEKKESLRSSVHKRKPLPKTVYNLLSDRDLKKKLKEHGLSIQGNKQQLIKRHQEFVHMYNAQCDALHPKSAAEIVREIENIEKTRMRLEASKLNESVMVFTKDQTEKEIDEIHSKYRKKHKSEFQLLVDQARKGYKKIAGMSQKTVTITKEDESTEKLSSVCMGQEDNMTSVTNHFSQSKLDSPEELEPDREEDSSSCIDIQEVLSSSESDSCNSSSSDIIRDLLEEEEAWEASHKNDLQDTEISPRQNRRTRAAESAEIEPRNKRNRN;MWATCCNWFCLDGQPEEVPPPQGARMQAYSNPGYSSFPSPTGLEPSCKSCGAHFANTARKQTCLDCKKNFCMTCSSQVGNGPRLCLLCQRFRATAFQREELMKMKVKDLRDYLSLHDISTEMCREKEELVLLVLGQQPVISQEDRTRASTLSPDFPEQQAFLTQPHSSMVPPTSPNLPSSSAQATSVPPAQVQENQQANGHVSQDQEEPVYLESVARVPAEDETQSIDSEDSFVPGRRASLSDLTDLEDIEGLTVRQLKEILARNFVNYKGCCEKWELMERVTRLYKDQKGLQHLVSGAEDQNGGAVPSGLEENLCKICMDSPIDCVLLECGHMVTCTKCGKRMNECPICRQYVIRAVHVFRS;MAHEAMEYDVQVQLNHAEQQPAPAGMASSQGGPALLQPVPADVVSSQGVPSILQPAPAEVISSQATPPLLQPAPQLSVDLTEVEVLGEDTVENINPRTSEQHRQGSDGNHTIPASSLHSMTNFISGLQRLHGMLEFLRPSSSNHSVGPMRTRRRVSASRRARAGGSQRTDSARLRAPLDAYFQVSRTQPDLPATTYDSETRNPVSEELQVSSSSDSDSDSSAEYGGVVDQAEESGAVILEEQLAGVSAEQEVTCIDGGKTLPKQPSPQKSEPLLPSASMDEEEGDTCTICLEQWTNAGDHRLSALRCGHLFGYRCISTWLKGQVRKCPQCNKKARHSDIVVLYARTLRALDTSEQERMKSSLLKEQMLRKQAELESAQCRLQLQVLTDKCTRLQRRVQDLQKLTSHQSQNLQQPRGSQAWVLSCSPSSQGQHKHKYHFQKTFTVSQAGNCRIMAYCDALSCLVISQPSPQASFLPGFGVKMLSTANMKSSQYIPMHGKQIRGLAFSSYLRGLLLSASLDNTIKLTSLETNTVVQTYNAGRPVWSCCWCLDEANYIYAGLANGSILVYDVRNTSSHVQELVAQKARCPLVSLSYMPRAASAAFPYGGVLAGTLEDASFWEQKMDFSHWPHVLPLEPGGCIDFQTENSSRHCLVTYRPDKNHTTIRSVLMEMSYRLDDTGNPICSCQPVHTFFGGPTCKLLTKNAIFQSPENDGNILVCTGDEAANSALLWDAASGSLLQDLQTDQPVLDICPFEVNRNSYLATLTEKMVHIYKWE;MGSVLSTDSGKSAPASATARALERRRDPELPVTSFDCAVCLEVLHQPVRTRCGHVFCRSCIATSLKNNKWTCPYCRAYLPSEGVPATDVAKRMKSEYKNCAECDTLVCLSEMRAHIRTCQKYIDKYGPLQELEETAARCVCPFCQRELYEDSLLDHCITHHRSERRPVFCPLCRLIPDENPSSFSGSLIRHLQVSHTLFYDDFIDFNIIEEALIRRVLDRSLLEYVNHSNTT;MGPPPGAGVSCRGGCGFSRLLAWCFLLALSPQAPGSRGAEAVWTAYLNVSWRVPHTGVNRTVWELSEEGVYGQDSPLEPVAGVLVPPDGPGALNACNPHTNFTVPTVWGSTVQVSWLALIQRGGGCTFADKIHLAYERGASGAVIFNFPGTRNEVIPMSHPGAVDIVAIMIGNLKGTKILQSIQRGIQVTMVIEVGKKHGPWVNHYSIFFVSVSFFIITAATVGYFIFYSARRLRNARAQSRKQRQLKADAKKAIGRLQLRTLKQGDKEIGPDGDSCAVCIELYKPNDLVRILTCNHIFHKTCVDPWLLEHRTCPMCKCDILKALGIEVDVEDGSVSLQVPVSNEISNSASSHEEDNRSETASSGYASVQGTDEPPLEEHVQSTNESLQLVNHEANSVAVDVIPHVDNPTFEEDETPNQETAVREIKS;MQEQEIGFISKYNEGLCVNTDPVSILTSILDMSLHRQMGSDRDLQSSASSVSLPSVKKAPKKRRISIGSLFRRKKDNKRKSRELNGGVDGIASIESIHSEMCTDKNSIFSTNTSSDNGLTSISKQIGDFIECPLCLLRHSKDRFPDIMTCHHRSCVDCLRQYLRIEISESRVNISCPECTERFNPHDIRLILSDDVLMEKYEEFMLRRWLVADPDCRWCPAPDCGYAVIAFGCASCPKLTCGREGCGTEFCYHCKQIWHPNQTCDAARQERAQSLRLRTIRSSSISYSQESGAAADDIKPCPRCAAYIIKMNDGSCNHMTCAVCGCEFCWLCMKEISDLHYLSPSGCTFWGKKPWSRKKKILWQLGTLVGAPVGIALIAGIAIPAMIIGIPVYVGRKIHNRYEGKDVSKHKRNLAIAGGVTLSVIVSPVVAAVTVGIGVPIMLAYVYGVVPISLCRSGGCGVSAGNGKGVRIEFDDENDINVGGTNTAVDTTSVAEARHNPSIGEGSVGGLTGSLSASGSHMDRIGAIRDNLSETASTMALAGASITGSLSGSAMVNCFNRLEVQADVQKERYSLSGESGTVSLGTVSDNASTKAMAGSILNSYIPLDKEGNSMEVQVDIESKPSKFRHNSGSSSVDDGSATRSHAGGSSSGLPEGKSSATKWSKEATAGKKSKSGKLRKKGNMKINETREDMDAQLLEQQSTNSSEFEAPSLSDSMPSVADSHSSHFSEFSCSDLESMKTSCSHGSSDYHTRFATVNILPEVENDRLENSPHQCSISVVTQTASCSEVSQLNHIAEEHGNNGIKPNVDLYFGDALKETNNNHSHQTMELKVAIQTEI;MKAGATSMWASCCGLLNEVMGTGAVRGQQSAFAGATGPFRFTPNPEFSTYPPAATEGPNIVCKACGLSFSVFRKKHVCCDCKKDFCSVCSVLQENLRRCSTCHLLQETAFQRPQLMRLKVKDLRQYLILRNIPIDTCREKEDLVDLVLCHHGLGSEDDMDTSSLNSSRSQTSSFFTRSFFSNYTAPSATMSSFQGELMDGDQTSRSGVPAQVQSEITSANTEDDDDDDDEDDDDEEENAEDRNPGLSKERVRASLSDLSSLDDVEGMSVRQLKEILARNFVNYSGCCEKWELVEKVNRLYKENEENQKSYGERLQLQDEEDDSLCRICMDAVIDCVLLECGHMVTCTKCGKRMSECPICRQYVVRAVHVFKS;MACKISPGANSASLPGHPNKVICERVRLQSLFPLLPSDQNTTVQEDAHFKAFFQSEDSPSPKRQRLSHSVFDYTSASPAPSPPMRPWEMTSNRQPPSVRPSQHHFSGERCNTPARNRRSPPVRRQRGRRDRLSRHNSISQDENYHHLPYAQQQAIEEPRAFHPPNVSPRLLHPAAHPPQQNAVMVDIHDQLHQGTVPVSYTVTTVAPHGIPLCTGQHIPACSTQQVPGCSVVFSGQHLPVCSVPPPMLQACSVQHLPVPYAAFPPLISSDPFLIHPPHLSPHHPPHLPPPGQFVPFQTQQSRSPLQRIENEVELLGEHLPVGGFTYPPSAHPPTLPPSAPLQFLTHDPLHQEVSFGVPYPPFMPRRLTGRSRYRSQQPIPPPPYHPSLLPYVLSMLPVPPAVGPTFSFELDVEDGEVENYEALLNLAERLGEAKPRGLTKADIEQLPSYRFNPNNHQSEQTLCVVCMCDFESRQLLRVLPCNHEFHAKCVDKWLKANRTCPICRADASEVHRDSE;MFRTAVMMAASLALTGAVVAHAYYLKHQFYPTVVYLTKSSPSMAVLYIQAFVLVFLLGKVMGKVFFGQLRAAEMEHLLERSWYAVTETCLAFTVFRDDFSPRFVALFTLLLFLKCFHWLAEDRVDFMERSPNISWLFHCRIVSLMFLLGILDFLFVSHAYHSILTRGASVQLVFGFEYAILMTMVLTIFIKYVLHSVDLQSENPWDNKAVYMLYTELFTGFIKVLLYMAFMTIMIKVHTFPLFAIRPMYLAMRQFKKAVTDAIMSRRAIRNMNTLYPDATPEELQAMDNVCIICREEMVTGAKRLPCNHIFHTSCLRSWFQRQQTCPTCRMDVLRASLPAQSPPPPEPADQGPPPAPHPPPLLPQPPNFPQGLLPPFPPGMFPLWPPMGPFPPVPPPPSSGEAVAPPSTSAAALSRPSGAATTTAAGTSATAASATASGPGSGSAPEAGPAPGFPFPPPWMGMPLPPPFAFPPMPVPPAGFAGLTPEELRALEGHERQHLEARLQSLRNIHTLLDAAMLQINQYLTVLASLGPPRPATSVNSTEETATTVVAAASSTSIPSSEATTPTPGASPPAPEMERPPAPESVGTEEMPEDGEPDAAELRRRRLQKLESPVAH;MGSQPPLGSPLSREEGEAPPPAPASEGRRRSRRVRLRGSCRHRPSFLGCRELAASAPARPAPASSEIMASAAKEFKMDNFSPKAGTSKLQQTVPADASPDSKCPICLDRFDNVSYLDRCLHKFCFRCVQEWSKNKAECPLCKQPFDSIFHSVRAEDDFKEYVLRPSYNGSFVTPDRRFRYRTTLTRERNASVYSPSGPVNRRTTTPPDSGVLFEGLGISTRPRDVEIPQFMRQIAVRRPTTADERSLRKIQEQDIINFRRTLYRAGARVRNIEDGGRYRDISAEFFRRNPACLHRLVPWLKRELTVLFGAHGSLVNIVQHIIMSNVTRYDLESQAFVSDLRPFLLNRTEHFIHEFISFARSPFNMAAFDQHANYDCPAPSYEEGSHSDSSVITISPDEAETQELDINVATVSQAPWDDETPGPSYSSSEQVHVTMSSLLNTSDSSDEELVTGGATSQIQGVQTNDDLNNDSDDSSDNCVIVGFVKPLAERTPELVELSSDSEDLGSYEKMETVKTQEQEQSYSSGDSDVSRCSSPHSVLGKDEQINKGHCDSSTRIKSKKEEKRSTSLSSPRNLNSSVRGDRVYSPYNHRHRKRGRSRSSDSRSQSRSGHDQKNHRKHHGKKRMKSKRSRSRESSRPRGRRDKKRSRTRDSSWSRRSQTLSLSSESTSRSRSRSSDHGKRRSRSRNRDRYYLRNNYGSRYKWEYTYYSRNKDRDGYESSYRRRTLSRAHYSRQSSSPEFRVQSFSERTNARKKNNHSERKYYYYERHRSRSLSSNRSRTASTGTDRVRNEKPGGKRKYKTRHLEGTNEVAQPSREFASKAKDSHYQKSSSKLDGNYKNESDTFSDSRSSDRETKHKRRKRKTRSLSVEIVYEGKATDTTKHHKKKKKKHKKKHKKHHGDNASRSPVVITIDSDSDKDSEVKEDTECDNSGPQDPLQNEFLAPSLEPFETKDVVTIEAEFGVLDKECDIATLSNNLNNANKTVDNIPPLAASVEQTLDVREESTFVSDLENQPSNIVSLQTEPSRQLPSPRTSLMSVCLGRDCDMS;MSSGKSARYNRFSGGPSNLPTPDVTTGTRMETTFGPAFSAVTTITKADGTSTYKQHCRTPSSSSTLAYSPRDEEDSMPPISTPRRSDSAISVRSLHSESSMSLRSTFSLPEEEEEPEPLVFAEQPSVKLCCQLCCSVFKDPVITTCGHTFCRRCALKSEKCPVDNVKLTVVVNNIAVAEQIGELFIHCRHGCRVAGSGKPPIFEVDPRGCPFTIKLSARKDHEGSCDYRPVRCPNNPSCPPLLRMNLEAHLKECEHIKCPHSKYGCTFIGNQDTYETHLETCRFEGLKEFLQQTDDRFHEMHVALAQKDQEIAFLRSMLGKLSEKIDQLEKSLELKFDVLDENQSKLSEDLMEFRRDASMLNDELSHINARLNMGILGSYDPQQIFKCKGTFVGHQGPVWCLCVYSMGDLLFSGSSDKTIKVWDTCTTYKCQKTLEGHDGIVLALCIQGCKLYSGSADCTIIVWDIQNLQKVNTIRAHDNPVCTLVSSHNVLFSGSLKAIKVWDIVGTELKLKKELTGLNHWVRALVAAQSYLYSGSYQTIKIWDIRTLDCIHVLQTSGGSVYSIAVTNHHIVCGTYENLIHVWDIESKEQVRTLTGHVGTVYALAVISTPDQTKVFSASYDRSLRVWSMDNMICTQTLLRHQGSVTALAVSRGRLFSGAVDSTVKVWTC;MATLVVNKLGAGVDSGRQGSRGTAVVKVLECGVCEDVFSLQGDKVPRLLLCGHTVCHDCLTRLPLHGRAIRCPFDRQVTDLGDSGVWGLKKNFALLELLERLQNGPIGQYGAAEESIGISGESIIRCDEDEAHLASVYCTVCATHLCSECSQVTHSTKTLAKHRRVPLADKPHEKTMCSQHQVHAIEFVCLEEGCQTSPLMCCVCKEYGKHQGHKHSVLEPEANQIRASILDMAHCIRTFTEEISDYSRKLVGIVQHIEGGEQIVEDGIGMAHTEHVPGTAENARSCIRAYFYDLHETLCRQEEMALSVVDAHVREKLIWLRQQQEDMTILLSEVSAACLHCEKTLQQDDCRVVLAKQEITRLLETLQKQQQQFTEVADHIQLDASIPVTFTKDNRVHIGPKMEIRVVTLGLDGAGKTTILFKLKQDEFMQPIPTIGFNVETVEYKNLKFTIWDVGGKHKLRPLWKHYYLNTQAVVFVVDSSHRDRISEAHSELAKLLTEKELRDALLLIFANKQDVAGALSVEEITELLSLHKLCCGRSWYIQGCDARSGMGLYEGLDWLSRQLVAAGVLDVA;MEVAVEKAVAAAAAASAAASGGPSAAPSGENEAESRQGPDSERGGEAARLNLLDTCAVCHQNIQSRAPKLLPCLHSFCQRCLPAPQRYLMLPAPMLGSAETPPPVPAPGSPVSGSSPFATQVGVIRCPVCSQECAERHIIDNFFVKDTTEVPSSTVEKSNQVCTSCEDNAEANGFCVECVEWLCKTCIRAHQRVKFTKDHTVRQKEEVSPEAVGVTSQRPVFCPFHKKEQLKLYCETCDKLTCRDCQLLEHKEHRYQFIEEAFQNQKVIIDTLITKLMEKTKYIKFTGNQIQNRIIEVNQNQKQVEQDIKVAIFTLMVEINKKGKALLHQLESLAKDHRMKLMQQQQEVAGLSKQLEHVMHFSKWAVSSGSSTALLYSKRLITYRLRHLLRARCDASPVTNNTIQFHCDPSFWAQNIINLGSLVIEDKESQPQMPKQNPVVEQNSQPPSGLSSNQLSKFPTQISLAQLRLQHMQQQVMAQRQQVQRRPAPVGLPNPRMQGPIQQPSISHQQPPPRLINFQNHSPKPNGPVLPPHPQQLRYPPNQNIPRQAIKPNPLQMAFLAQQAIKQWQISSGQGTPSTTNSTSSTPSSPTITSAAGYDGKAFGSPMIDLSSPVGGSYNLPSLPDIDCSSTIMLDNIVRKDTNIDHGQPRPPSNRTVQSPNSSVPSPGLAGPVTMTSVHPPIRSPSASSVGSRGSSGSSSKPAGADSTHKVPVVMLEPIRIKQENSGPPENYDFPVVIVKQESDEESRPQNANYPRSILTSLLLNSSQSSTSEETVLRSDAPDSTGDQPGLHQDNSSNGKSEWLDPSQKSPLHVGETRKEDDPNEDWCAVCQNGGELLCCEKCPKVFHLSCHVPTLTNFPSGEWICTFCRDLSKPEVEYDCDAPSHNSEKKKTEGLVKLTPIDKRKCERLLLFLYCHEMSLAFQDPVPLTVPDYYKIIKNPMDLSTIKKRLQEDYSMYSKPEDFVADFRLIFQNCAEFNEPDSEVANAGIKLENYFEELLKNLYPEKRFPKPEFRNESEDNKFSDDSDDDFVQPRKKRLKSIEERQLLK;MAASAAAASAAAASAASGSPGPGEGSAGGEKRSTAPSAAASASASAAASSPAGGGAEALELLEHCGVCRERLRPEREPRLLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCKQQCFSKDIVENYFMRDSGSKAATDAQDANQCCTSCEDNAPATSYCVECSEPLCETCVEAHQRVKYTKDHTVRSTGPAKSRDGERTVYCNVHKHEPLVLFCESCDTLTCRDCQLNAHKDHQYQFLEDAVRNQRKLLASLVKRLGDKHATLQKSTKEVRSSIRQVSDVQKRVQVDVKMAILQIMKELNKRGRVLVNDAQKVTEGQQERLERQHWTMTKIQKHQEHILRFASWALESDNNTALLLSKKLIYFQLHRALKMIVDPVEPHGEMKFQWDLNAWTKSAEAFGKIVAERPGTNSTGPAPMAPPRAPGPLSKQGSGSSQPMEVQEGYGFGSGDDPYSSAEPHVSGVKRSRSGEGEVSGLMRKVPRVSLERLDLDLTADSQPPVFKVFPGSTTEDYNLIVIERGAAAAATGQPGTAPAGTPGAPPLAGMAIVKEEETEAAIGAPPTATEGPETKPVLMALAEGPGAEGPRLASPSGSTSSGLEVVAPEGTSAPGGGPGTLDDSATICRVCQKPGDLVMCNQCEFCFHLDCHLPALQDVPGEEWSCSLCHVLPDLKEEDGSLSLDGADSTGVVAKLSPANQRKCERVLLALFCHEPCRPLHQLATDSTFSLDQPGGTLDLTLIRARLQEKLSPPYSSPQEFAQDVGRMFKQFNKLTEDKADVQSIIGLQRFFETRMNEAFGDTKFSAVLVEPPPMSLPGAGLSSQELSGGPGDGP;MAKREDSPGPEVQPMDKQFLVCSICLDRYQCPKVLPCLHTFCERCLQNYIPAQSLTLSCPVCRQTSILPEQGVSALQNNFFISSLMEAMQQAPDGAHDPEDPHPLSVVAGRPLSCPNHEGKTMEFYCEACETAMCGECRAGEHREHGTVLLRDVVEQHKAALQRQLEAVRGRLPQLSAAIALVGGISQQLQERKAEALAQISAAFEDLEQALQQRKQALVSDLETICGAKQKVLQSQLDTLRQGQEHIGSSCSFAEQALRLGSAPEVLLVRKHMRERLAALAAQAFPERPHENAQLELVLEVDGLRRSVLNLGALLTTSATAHETVATGEGLRQALVGQPASLTVTTKDKDGRLVRTGSAELRAEITGPDGTRLPVPVVDHKNGTYELVYTARTEGELLLSVLLYGQPVRGSPFRVRALRPGDLPPSPDDVKRRVKSPGGPGSHVRQKAVRRPSSMYSTGGKRKDNPIEDELVFRVGSRGREKGEFTNLQGVSAASSGRIVVADSNNQCIQVFSNEGQFKFRFGVRGRSPGQLQRPTGVAVDTNGDIIVADYDNRWVSIFSPEGKFKTKIGAGRLMGPKGVAVDRNGHIIVVDNKSCCVFTFQPNGKLVGRFGGRGATDRHFAGPHFVAVNNKNEIVVTDFHNHSVKVYSADGEFLFKFGSHGEGNGQFNAPTGVAVDSNGNIIVADWGNSRIQVFDSSGSFLSYINTSAEPLYGPQGLALTSDGHVVVADAGNHCFKAYRYLQ;MAETSLLEAGASAASTAAALENLQVEASCSVCLEYLKEPVIIECGHNFCKACITRWWEDLERDFPCPVCRKTSRYRSLRPNRQLGSMVEIAKQLQAVKRKIRDESLCPQHHEALSLFCYEDQEAVCLICAISHTHRAHTVVPLDDATQEYKEKLQKCLEPLEQKLQEITRCKSSEEKKPGELKRLVESRRQQILREFEELHRRLDEEQQVLL</t>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>O14920</t>
+          <t>Q9HB71</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NQETGE</t>
+          <t>Q8IUQ4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>P19474;Q9UKB1;Q14145</t>
+          <t>KPAAVVAPI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR;MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>P06241</t>
+          <t>Q8WWK9</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LIEDNEYTARQG</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>P22681;Q96J02</t>
+          <t>DKENM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q38830</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>QVVGWPPIGLHRM</t>
+          <t>Q8NEZ5</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q570C0</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>MQKRIALSFPEEVLEHVFSFIQLDKDRNSVSLVCKSWYEIERWCRRKVFIGNCYAVSPATVIRRFPKVRSVELKGKPHFADFNLVPDGWGGYVYPWIEAMSSSYTWLEEIRLKRMVVTDDCLELIAKSFKNFKVLVLSSCEGFSTDGLAAIAATCRNLKELDLRESDVDDVSGHWLSHFPDTYTSLVSLNISCLASEVSFSALERLVTRCPNLKSLKLNRAVPLEKLATLLQRAPQLEELGTGGYTAEVRPDVYSGLSVALSGCKELRCLSGFWDAVPAYLPAVYSVCSRLTTLNLSYATVQSYDLVKLLCQCPKLQRLWVLDYIEDAGLEVLASTCKDLRELRVFPSEPFVMEPNVALTEQGLVSVSMGCPKLESVLYFCRQMTNAALITIARNRPNMTRFRLCIIEPKAPDYLTLEPLDIGFGAIVEHCKDLRRLSLSGLLTDKVFEYIGTYAKKMEMLSVAFAGDSDLGMHHVLSGCDSLRKLEIRDCPFGDKALLANASKLETMRSLWMSSCSVSFGACKLLGQKMPKLNVEVIDERGAPDSRPESCPVERVFIYRTVAGPRFDMPGFVWNMDQDSTMRFSRQIITTNGL</t>
+          <t>MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q24306</t>
+          <t>P04198</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VDNNTN</t>
+          <t>Q7Z6Z7</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q24306;Q24307</t>
+          <t>PTPPLS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>MASVVADLPSYGPIAFDQVDNNTNATQLFKNNINKTRMNDLNREETRLKTFTDWPLDWLDKRQLAQTGMYFTHAGDKVKCFFCGVEIGCWEQEDQPVPEHQRWSPNCPLLRRRTTNNVPINAEALDRILPPISYDICGANDSTLEMREHAYAEGVIPMSQLIQSIGMNAVNAAGSVTGTAAPQPRVTVATHASTATQATGDVQPETCRPSAASGNYFPQYPEYAIETARLRTFEAWPRNLKQKPHQLAEAGFFYTGVGDRVRCFSCGGGLMDWNDNDEPWEQHALWLSQCRFVKLMKGQLYIDTVAAKPVLAEEKEESSSIGGVAVASTQASEEEQQTSLSSEEAVSGDVAPSVAPTAATRIFNKIVEATAVATPSTNSSGSTSIPEEKLCKICYGAEYNTAFLPCGHVVACAKCASSVTKCPLCRKPFTDVMRVYFS;MTELGMELESVRLATFGEWPLNAPVSAEDLVANGFFATGNWLEAECHFCHVRIDRWEYGDQVAERHRRSSPICSMVLAPNHCGNVPRSQESDNEGNSVVDSPESCSCPDLLLEANRLVTFKDWPNPNITPQALAKAGFYYLNRLDHVKCVWCNGVIAKWEKNDNAFEEHKRFFPQCPRVQMGPLIEFATGKNLDELGIQPTTLPLRPKYACVDARLRTFTDWPISNIQPASALAQAGLYYQKIGDQVRCFHCNIGLRSWQKEDEPWFEHAKWSPKCQFVLLAKGPAYVSEVLATTAANASSQPATAPAPTLQADVLMDEAPAKEALALGIDGGVVRNAIQRKLLSSGCAFSTLDELLHDIFDDAGAGAALEVREPPEPSAPFIEPCQATTSKAASVPIPVADSIPAKPQAAEAVANISKITDEIQKMSVATPNGNLSLEEENRQLKDARLCKVCLDEEVGVVFLPCGHLATCNQCAPSVANCPMCRADIKGFVRTFLS</t>
+          <t>MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q96GD4</t>
+          <t>P12830</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RLPLAQV</t>
+          <t>Q75N03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q9UM11;Q969H0;Q9UKC9;Q9P2N7;Q9UJP4;Q9P2J3</t>
+          <t>RDNVYYYDEEG</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MVFSNNDEGLINKKLPKELLLRIFSFLDIVTLCRCAQISKAWNILALDGSNWQRIDLFNFQTDVEGRVVENISKRCGGFLRKLSLRGCIGVGDSSLKTFAQNCRNIEHLNLNGCTKITDSTCYSLSRFCSKLKHLDLTSCVSITNSSLKGISEGCRNLEYLNLSWCDQITKDGIEALVRGCRGLKALLLRGCTQLEDEALKHIQNYCHELVSLNLQSCSRITDEGVVQICRGCHRLQALCLSGCSNLTDASLTALGLNCPRLQILEAARCSHLTDAGFTLLARNCHELEKMDLEECILITDSTLIQLSIHCPKLQALSLSHCELITDDGILHLSNSTCGHERLRVLELDNCLLITDVALEHLENCRGLERLELYDCQQVTRAGIKRMRAQLPHVKVHAYFAPVTPPTAVAGSGQRLCRCCVIL;MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP;MERPAPLAVLPFSDPAHALSLLRGLSQLRAERKFLDVTLEAAGGRDFPAHRAVLAAASPYFRAMFAGQLRESRAERVRLHGVPPDMLQLLLDFSYTGRVAVSGDNAEPLLRAADLLQFPAVKEACGAFLQQQLDLANCLDMQDFAEAFSCSGLASAAQRFILRHVGELGAEQLERLPLARLLRYLRDDGLCVPKEEAAYQLALRWVRADPPRRAAHWPQLLEAVRLPFVRRFYLLAHVEAEPLVARCPPCLRLLREARDFQAARYDRHDRGPCPRMRPRPSTGLAEILVLVGGCDQDCDELVTVDCYNPQTGQWRYLAEFPDHLGGGYSIVALGNDIYVTGGSDGSRLYDCVWRYNSSVNEWAEVAPMLKAREYHSSSVLDGLLYVVAADSTERYDHTTDSWEALQPMTYPMDNCSTTACRGRLYAIGSLAGKETMVMQCYDPDTDLWSLVDCGQLPPWSFAPKTATLNGLMYFVRDDSAEVDVYNPTRNEWDKIPSMNQVHVGGSLAVLGGKLYVSGGYDNTFELSDVVEAYDPETRAWSVVGRLPEPTFWHGSVSIFRQFMPQTFSGGRGFELDSGSDDMDPGRPRPPRDPDELH;MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS</t>
+          <t>MDHTDNELQGTNSSGSLGGLDVRRRIPIKLISKQANKAKPAPRTQRTINRMPAKAPPGDEEGFDYNEEERYDCKGGELFANQRRFPGHLFWDFQINILGEKDDTPVHFCDKCGLPIKIYGRMIPCKHVFCYDCAILHEKKGDKMCPGCSDPVQRIEQCTRGSLFMCSIVQGCKRTYLSQRDLQAHINHRHMRAGKPVTRASLENVHPPIAPPPTEIPERFIMPPDKHHMSHIPPKQHIMMPPPPLQHVPHEHYNQPHEDIRAPPAELSMAPPPPRSVSQETFRISTRKHSNLITVPIQDDSNSGAREPPPPAPAPAHHHPEYQGQPVVSHPHHIMPPQQHYAPPPPPPPPISHPMPHPPQAAGTPHLVYSQAPPPPMTSAPPPITPPPGHIIAQMPPYMNHPPPGPPPPQHGGPPVTAPPPHHYNPNSLPQFTEDQGTLSPPFTQPGGMSPGIWPAPRGPPPPPRLQGPPSQTPLPGPHHPDQTRYRPYYQ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q14494</t>
+          <t>P50549</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DGETGE</t>
+          <t>Q8NHY2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q9Y297;Q969H0</t>
+          <t>DEQFVPDY</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q02363</t>
+          <t>Q60795</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SRTPLTTLN</t>
+          <t>Q9DBY1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q9UM11;Q9Y574</t>
+          <t>DEETGE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MDGTTAPVTKSGAAKLVKRNFLEALKSNDFGKLKAILIQRQIDVDTVFEVEDENMVLASYKQGYWLPSYKLKSSWATGLHLSVLFGHVECLLVLLDHNATINCRPNGKTPLHVACEMANVDCVKILCDRGAKLNCYSLSGHTALHFCTTPSSILCAKQLVWRGANVNMKTNNQDEETPLHTAAHFGLSELVAFYVEHGAIVDSVNAHMETPLAIAAYWALRFKEQEYSTEHHLVCRMLLDYKAEVNARDDDFKSPLHKAAWNCDHVLMHMMLEAGAEANLMDINGCAAIQYVLKVTSVRPAAQPEICYQLLLNHGAARIYPPQFHKVIQACHSCPKAIEVVVNAYEHIRWNTKWRRAIPDDDLEKYWDFYHSLFTVCCNSPRTLMHLSRCAIRRTLHNRCHRAIPLLSLPLSLKKYLLLEPEGIIY</t>
+          <t>MFRTAVMMAASLALTGAVVAHAYYLKHQFYPTVVYLTKSSPSMAVLYIQAFVLVFLLGKVMGKVFFGQLRAAEMEHLLERSWYAVTETCLAFTVFRDDFSPRFVALFTLLLFLKCFHWLAEDRVDFMERSPNISWLFHCRIVSLMFLLGILDFLFVSHAYHSILTRGASVQLVFGFEYAILMTMVLTIFIKYVLHSVDLQSENPWDNKAVYMLYTELFTGFIKVLLYMAFMTIMIKVHTFPLFAIRPMYLAMRQFKKAVTDAIMSRRAIRNMNTLYPDATPEELQAVDNVCIICREEMVTGAKRLPCNHIFHTSCLRSWFQRQQTCPTCRMDVLRASLPAQSPPPPEPADQGPPPAPHPQPLLPQPPNFPQGLLPPFPPGMFPLWPPMGPFPPVPPPPSSGEAAAPPPTSTAVSRPSGAATTTAAGTSTSAPAPGSVPGPEAGPAPGFPFPPPWMGMPLPPPFAFPPMPVPPAGFAGLTPEELRALEGHERQHLEARLQSLRNIHTLLDAAMLQINQYLTVLASLGPPRPATSVNPTEETASTVVSAAPSTSAPSSEAPTPSPGASPPIPEAEKPPAPESVGIVEELPEDGEPDAAELRRRRLQKLESPVAH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q99814</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LAPTPGDAIISLDF</t>
+          <t>Q8TEL6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>P40337;P78317</t>
+          <t>LLPTPPLS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD;MSTRKRRGGAINSRQAQKRTREATSTPEISLEAEPIELVETAGDEIVDLTCESLEPVVVDLTHNDSVVIVDERRRPRRNARRLPQDHADSCVVSSDDEELSRDRDVYVTTHTPRNARDEGATGLRPSGTVSCPICMDGYSEIVQNGRLIVSTECGHVFCSQCLRDSLKNANTCPTCRKKINHKRYHPIYI</t>
+          <t>MAAAPVAAGSGAGRGRRSAATVAAWGGWGGRPRPGNILLQLRQGQLTGRGLVRAVQFTETFLTERDKQSKWSGIPQLLLKLHTTSHLHSDFVECQNILKEISPLLSMEAMAFVTEERKLTQETTYPNTYIFDLFGGVDLLVEILMRPTISIRGQKLKISDEMSKDCLSILYNTCVCTEGVTKRLAEKNDFVIFLFTLMTSKKTFLQTATLIEDILGVKKEMIRLDEVPNLSSLVSNFDQQQLANFCRILAVTISEMDTGNDDKHTLLAKNAQQKKSLSLGPSAAEINQAALLSIPGFVERLCKLATRKVSESTGTASFLQELEEWYTWLDNALVLDALMRVANEESEHNQASIVFPPPGASEENGLPHTSARTQLPQSMKIMHEIMYKLEVLYVLCVLLMGRQRNQVHRMIAEFKLIPGLNNLFDKLIWRKHSASALVLHGHNQNCDCSPDITLKIQFLRLLQSFSDHHENKYLLLNNQELNELSAISLKANIPEVEAVLNTDRSLVCDGKRGLLTRLLQVMKKEPAESSFRFWQARAVESFLRGTTSYADQMFLLKRGLLEHILYCIVDSECKSRDVLQSYFDLLGELMKFNVDAFKRFNKYINTDAKFQVFLKQINSSLVDSNMLVRCVTLSLDRFENQVDMKVAEVLSECRLLAYISQVPTQMSFLFRLINIIHVQTLTQENVSCLNTSLVILMLARRKERLPLYLRLLQRMEHSKKYPGFLLNNFHNLLRFWQQHYLHKDKDSTCLENSSCISFSYWKETVSILLNPDRQSPSALVSYIEEPYMDIDRDFTEE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q9Y6Q9</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ADVSST</t>
+          <t>Q00987</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q9UNE7;Q969H0;O43791;Q05086</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS;MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>P04198</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PTPPLS</t>
+          <t>P36406</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>P46934;Q969H0;Q7Z6Z7;Q13049</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK;MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA;MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP</t>
+          <t>MATLVVNKLGAGVDSGRQGSRGTAVVKVLECGVCEDVFSLQGDKVPRLLLCGHTVCHDCLTRLPLHGRAIRCPFDRQVTDLGDSGVWGLKKNFALLELLERLQNGPIGQYGAAEESIGISGESIIRCDEDEAHLASVYCTVCATHLCSECSQVTHSTKTLAKHRRVPLADKPHEKTMCSQHQVHAIEFVCLEEGCQTSPLMCCVCKEYGKHQGHKHSVLEPEANQIRASILDMAHCIRTFTEEISDYSRKLVGIVQHIEGGEQIVEDGIGMAHTEHVPGTAENARSCIRAYFYDLHETLCRQEEMALSVVDAHVREKLIWLRQQQEDMTILLSEVSAACLHCEKTLQQDDCRVVLAKQEITRLLETLQKQQQQFTEVADHIQLDASIPVTFTKDNRVHIGPKMEIRVVTLGLDGAGKTTILFKLKQDEFMQPIPTIGFNVETVEYKNLKFTIWDVGGKHKLRPLWKHYYLNTQAVVFVVDSSHRDRISEAHSELAKLLTEKELRDALLLIFANKQDVAGALSVEEITELLSLHKLCCGRSWYIQGCDARSGMGLYEGLDWLSRQLVAAGVLDVA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>P51955</t>
+          <t>P30304</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RKFLSLA</t>
+          <t>Q9UKB1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q9HCE7;Q9UM11;O60260;Q12834</t>
+          <t>NKENE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MSNPGTRRNGSSIKIRLTVLCAKNLAKKDFFRLPDPFAKIVVDGSGQCHSTDTVKNTLDPKWNQHYDLYVGKTDSITISVWNHKKIHKKQGAGFLGCVRLLSNAISRLKDTGYQRLDLCKLNPSDTDAVRGQIVVSLQTRDRIGTGGSVVDCRGLLENEGTVYEDSGPGRPLSCFMEEPAPYTDSTGAAAGGGNCRFVESPSQDQRLQAQRLRNPDVRGSLQTPQNRPHGHQSPELPEGYEQRTTVQGQVYFLHTQTGVSTWHDPRIPSPSGTIPGGDAAFLYEFLLQGHTSEPRDLNSVNCDELGPLPPGWEVRSTVSGRIYFVDHNNRTTQFTDPRLHHIMNHQCQLKEPSQPLPLPSEGSLEDEELPAQRYERDLVQKLKVLRHELSLQQPQAGHCRIEVSREEIFEESYRQIMKMRPKDLKKRLMVKFRGEEGLDYGGVAREWLYLLCHEMLNPYYGLFQYSTDNIYMLQINPDSSINPDHLSYFHFVGRIMGLAVFHGHYINGGFTVPFYKQLLGKPIQLSDLESVDPELHKSLVWILENDITPVLDHTFCVEHNAFGRILQHELKPNGRNVPVTEENKKEYVRLYVNWRFMRGIEAQFLALQKGFNELIPQHLLKPFDQKELELIIGGLDKIDLNDWKSNTRLKHCVADSNIVRWFWQAVETFDEERRARLLQFVTGSTRVPLQGFKALQGSTGAAGPRLFTIHLIDANTDNLPKAHTCFNRIDIPPYESYEKLYEKLLTAVEETCGFAVE;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q5JSP0</t>
+          <t>Q9H211</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DSGIDS</t>
+          <t>Q9NZJ0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Q9Y297</t>
+          <t>RRVTDFFARRRP</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>O95997</t>
+          <t>P05412</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RKALGTV</t>
+          <t>Q13233</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UM11;Q9NYG5;Q12834;Q9UJX6;O95155</t>
+          <t>EEPQTVPEM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE;MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR;MAAAVVVAEGDSDSRPGQELLVAWNTVSTGLVPPAALGLVSSRTSGAVPPKEEELRAAVEVLRGHGLHSVLEEWFVEVLQNDLQANISPEFWNAISQCENSADEPQCLLLLLDAFGLLESRLDPYLRSLELLEKWTRLGLLMGTGAQGLREEVHTMLRGVLFFSTPRTFQEMIQRLYGCFLRVYMQSKRKGEGGTDPELEGELDSRYARRRYYRLLQSPLCAGCSSDKQQCWCRQALEQFHQLSQVLHRLSLLERVSAEAVTTTLHQVTRERMEDRCRGEYERSFLREFHKWIERVVGWLGKVFLQDGPARPASPEAGNTLRRWRCHVQRFFYRIYASLRIEELFSIVRDFPDSRPAIEDLKYCLERTDQRQQLLVSLKAALETRLLHPGVNTCDIITLYISAIKALRVLDPSMVILEVACEPIRRYLRTREDTVRQIVAGLTGDSDGTGDLAVELSKTDPASLETGQDSEDDSGEPEDWVPDPVDADPGKSSSKRRSSDIISLLVSIYGSKDLFINEYRSLLADRLLHQFSFSPEREIRNVELLKLRFGEAPMHFCEVMLKDMADSRRINANIREEDEKRPAEEQPPFGVYAVILSSEFWPPFKDEKLEVPEDIRAALEAYCKKYEQLKAMRTLSWKHTLGLVTMDVELADRTLSVAVTPVQAVILLYFQDQASWTLEELSKAVKMPVALLRRRMSVWLQQGVLREEPPGTFSVIEEERPQDRDNMVLIDSDDESDSGMASQADQKEEELLLFWTYIQAMLTNLESLSLDRIYNMLRMFVVTGPALAEIDLQELQGYLQKKVRDQQLVYSAGVYRLPKNCS;MEELSADEIRRRRLARLAGGQTSQPTTPLTSPQRENPPGPPIAASAPGPSQSLGLNVHNMTPATSPIGASGVAHRSQSSEGVSSLSSSPSNSLETQSQSLSRSQSMDIDGVSCEKSMSQVDVDSGIENMEVDENDRREKRSLSDKEPSSGPEVSEEQALQLVCKIFRVSWKDRDRDVIFLSSLSAQFKQNPKEVFSDFKDLIGQILMEVLMMSTQTRDENPFASLTATSQPIAAAARSPDRNLLLNTGSNPGTSPMFCSVASFGASSLSSLYESSPAPTPSFWSSVPVMGPSLASPSRAASQLAVPSTPLSPHSAASGTAAGSQPSSPRYRPYTVTHPWASSGVSILSSSPSPPALASSPQAVPASSSRQRPSSTGPPLPPASPSATSRRPSSLRISPSLGASGGASNWDSYSDHFTIETCKETDMLNYLIECFDRVGIEEKKAPKMCSQPAVSQLLSNIRSQCISHTALVLQGSLTQPRSLQQPSFLVPYMLCRNLPYGFIQELVRTTHQDEEVFKQIFIPILQGLALAAKECSLDSDYFKYPLMALGELCETKFGKTHPVCNLVASLRLWLPKSLSPGCGRELQRLSYLGAFFSFSVFAEDDVKVVEKYFSGPAITLENTRVVSQSLQHYLELGRQELFKILHSILLNGETREAALSYMAAVVNANMKKAQMQTDDRLVSTDGFMLNFLWVLQQLSTKIKLETVDPTYIFHPRCRITLPNDETRVNATMEDVNDWLTELYGDQPPFSEPKFPTECFFLTLHAHHLSILPSCRRYIRRLRAIRELNRTVEDLKNNESQWKDSPLATRHREMLKRCKTQLKKLVRCKACADAGLLDESFLRRCLNFYGLLIQLLLRILDPAYPDITLPLNSDVPKVFAALPEFYVEDVAEFLFFIVQYSPQALYEPCTQDIVMFLVVMLCNQNYIRNPYLVAKLVEVMFMTNPAVQPRTQKFFEMIENHPLSTKLLVPSLMKFYTDVEHTGATSEFYDKFTIRYHISTIFKSLWQNIAHHGTFMEEFNSGKQFVRYINMLINDTTFLLDESLESLKRIHEVQEEMKNKEQWDQLPRDQQQARQSQLAQDERVSRSYLALATETVDMFHILTKQVQKPFLRPELGPRLAAMLNFNLQQLCGPKCRDLKVENPEKYGFEPKKLLDQLTDIYLQLDCARFAKAIADDQRSYSKELFEEVISKMRKAGIKSTIAIEKFKLLAEKVEEIVAKNARAEIDYSDAPDEFRDPLMDTLMTDPVRLPSGTIMDRSIILRHLLNSPTDPFNRQTLTESMLEPVPELKEQIQAWMREKQNSDH</t>
+          <t>MAAAAGNRASSSGFPGARATSPEAGGGGGALKASSAPAAAAGLLREAGSGGRERADWRRRQLRKVRSVELDQLPEQPLFLAASPPASSTSPSPEPADAAGSGTGFQPVAVPPPHGAASRGGAHLTESVAAPDSGASSPAAAEPGEKRAPAAEPSPAAAPAGREMENKETLKGLHKMDDRPEERMIREKLKATCMPAWKHEWLERRNRRGPVVVKPIPVKGDGSEMNHLAAESPGEVQASAASPASKGRRSPSPGNSPSGRTVKSESPGVRRKRVSPVPFQSGRITPPRRAPSPDGFSPYSPEETNRRVNKVMRARLYLLQQIGPNSFLIGGDSPDNKYRVFIGPQNCSCARGTFCIHLLFVMLRVFQLEPSDPMLWRKTLKNFEVESLFQKYHSRRSSRIKAPSRNTIQKFVSRMSNSHTLSSSSTSTSSSENSIKDEEEQMCPICLLGMLDEESLTVCEDGCRNKLHHHCMSIWAEECRRNREPLICPLCRSKWRSHDFYSHELSSPVDSPSSLRAAQQQTVQQQPLAGSRRNQESNFNLTHYGTQQIPPAYKDLAEPWIQVFGMELVGCLFSRNWNVREMALRRLSHDVSGALLLANGESTGNSGGSSGSSPSGGATSGSSQTSISGDVVEACCSVLSMVCADPVYKVYVAALKTLRAMLVYTPCHSLAERIKLQRLLQPVVDTILVKCADANSRTSQLSISTLLELCKGQAGELAVGREILKAGSIGIGGVDYVLNCILGNQTESNNWQELLGRLCLIDRLLLEFPAEFYPHIVSTDVSQAEPVEIRYKKLLSLLTFALQSIDNSHSMVGKLSRRIYLSSARMVTTVPHVFSKLLEMLSVSSSTHFTRMRRRLMAIADEVEIAEAIQLGVEDTLDGQQDSFLQASVPNNYLETTENSSPECTVHLEKTGKGLCATKLSASSEDISERLASISVGPSSSTTTTTTTTEQPKPMVQTKGRPHSQCLNSSPLSHHSQLMFPALSTPSSSTPSVPAGTATDVSKHRLQGFIPCRIPSASPQTQRKFSLQFHRNCPENKDSDKLSPVFTQSRPLPSSNIHRPKPSRPTPGNTSKQGDPSKNSMTLDLNSSSKCDDSFGCSSNSSNAVIPSDETVFTPVEEKCRLDVNTELNSSIEDLLEASMPSSDTTVTFKSEVAVLSPEKAENDDTYKDDVNHNQKCKEKMEAEEEEALAIAMAMSASQDALPIVPQLQVENGEDIIIIQQDTPETLPGHTKAKQPYREDTEWLKGQQIGLGAFSSCYQAQDVGTGTLMAVKQVTYVRNTSSEQEEVVEALREEIRMMSHLNHPNIIRMLGATCEKSNYNLFIEWMAGGSVAHLLSKYGAFKESVVINYTEQLLRGLSYLHENQIIHRDVKGANLLIDSTGQRLRIADFGAAARLASKGTGAGEFQGQLLGTIAFMAPEVLRGQQYGRSCDVWSVGCAIIEMACAKPPWNAEKHSNHLALIFKIASATTAPSIPSHLSPGLRDVALRCLELQPQDRPPSRELLKHPVFRTTW</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q15468</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>EKENE</t>
+          <t>Q09472</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MAENVVEPGPPSAKRPKLSSPALSASASDGTDFGSLFDLEHDLPDELINSTELGLTNGGDINQLQTSLGMVQDAASKHKQLSELLRSGSSPNLNMGVGGPGQVMASQAQQSSPGLGLINSMVKSPMTQAGLTSPNMGMGTSGPNQGPTQSTGMMNSPVNQPAMGMNTGMNAGMNPGMLAAGNGQGIMPNQVMNGSIGAGRGRQNMQYPNPGMGSAGNLLTEPLQQGSPQMGGQTGLRGPQPLKMGMMNNPNPYGSPYTQNPGQQIGASGLGLQIQTKTVLSNNLSPFAMDKKAVPGGGMPNMGQQPAPQVQQPGLVTPVAQGMGSGAHTADPEKRKLIQQQLVLLLHAHKCQRREQANGEVRQCNLPHCRTMKNVLNHMTHCQSGKSCQVAHCASSRQIISHWKNCTRHDCPVCLPLKNAGDKRNQQPILTGAPVGLGNPSSLGVGQQSAPNLSTVSQIDPSSIERAYAALGLPYQVNQMPTQPQVQAKNQQNQQPGQSPQGMRPMSNMSASPMGVNGGVGVQTPSLLSDSMLHSAINSQNPMMSENASVPSLGPMPTAAQPSTTGIRKQWHEDITQDLRNHLVHKLVQAIFPTPDPAALKDRRMENLVAYARKVEGDMYESANNRAEYYHLLAEKIYKIQKELEEKRRTRLQKQNMLPNAAGMVPVSMNPGPNMGQPQPGMTSNGPLPDPSMIRGSVPNQMMPRITPQSGLNQFGQMSMAQPPIVPRQTPPLQHHGQLAQPGALNPPMGYGPRMQQPSNQGQFLPQTQFPSQGMNVTNIPLAPSSGQAPVSQAQMSSSSCPVNSPIMPPGSQGSHIHCPQLPQPALHQNSPSPVPSRTPTPHHTPPSIGAQQPPATTIPAPVPTPPAMPPGPQSQALHPPPRQTPTPPTTQLPQQVQPSLPAAPSADQPQQQPRSQQSTAASVPTPTAPLLPPQPATPLSQPAVSIEGQVSNPPSTSSTEVNSQAIAEKQPSQEVKMEAKMEVDQPEPADTQPEDISESKVEDCKMESTETEERSTELKTEIKEEEDQPSTSATQSSPAPGQSKKKIFKPEELRQALMPTLEALYRQDPESLPFRQPVDPQLLGIPDYFDIVKSPMDLSTIKRKLDTGQYQEPWQYVDDIWLMFNNAWLYNRKTSRVYKYCSKLSEVFEQEIDPVMQSLGYCCGRKLEFSPQTLCCYGKQLCTIPRDATYYSYQNRYHFCEKCFNEIQGESVSLGDDPSQPQTTINKEQFSKRKNDTLDPELFVECTECGRKMHQICVLHHEIIWPAGFVCDGCLKKSARTRKENKFSAKRLPSTRLGTFLENRVNDFLRRQNHPESGEVTVRVVHASDKTVEVKPGMKARFVDSGEMAESFPYRTKALFAFEEIDGVDLCFFGMHVQEYGSDCPPPNQRRVYISYLDSVHFFRPKCLRTAVYHEILIGYLEYVKKLGYTTGHIWACPPSEGDDYIFHCHPPDQKIPKPKRLQEWYKKMLDKAVSERIVHDYKDIFKQATEDRLTSAKELPYFEGDFWPNVLEESIKELEQEEEERKREENTSNESTDVTKGDSKNAKKKNNKKTSKNKSSLSRGNKKKPGMPNVSNDLSQKLYATMEKHKEVFFVIRLIAGPAANSLPPIVDPDPLIPCDLMDGRDAFLTLARDKHLEFSSLRRAQWSTMCMLVELHTQSQDRFVYTCNECKHHVETRWHCTVCEDYDLCITCYNTKNHDHKMEKLGLGLDDESNNQQAAATQSPGDSRRLSIQRCIQSLVHACQCRNANCSLPSCQKMKRVVQHTKGCKRKTNGGCPICKQLIALCCYHAKHCQENKCPVPFCLNIKQKLRQQQLQHRLQQAQMLRRRMASMQRTGVVGQQQGLPSPTPATPTTPTGQQPTTPQTPQPTSQPQPTPPNSMPPYLPRTQAAGPVSQGKAAGQVTPPTPPQTAQPPLPGPPPAAVEMAMQIQRAAETQRQMAHVQIFQRPIQHQMPPMTPMAPMGMNPPPMTRGPSGHLEPGMGPTGMQQQPPWSQGGLPQPQQLQSGMPRPAMMSVAQHGQPLNMAPQPGLGQVGISPLKPGTVSQQALQNLLRTLRSPSSPLQQQQVLSILHANPQLLAAFIKQRAAKYANSNPQPIPGQPGMPQGQPGLQPPTMPGQQGVHSNPAMQNMNPMQAGVQRAGLPQQQPQQQLQPPMGGMSPQAQQMNMNHNTMPSQFRDILRRQQMMQQQQQQGAGPGIGPGMANHNQFQQPQGVGYPPQQQQRMQHHMQQMQQGNMGQIGQLPQALGAEAGASLQAYQQRLLQQQMGSPVQPNPMSPQQHMLPNQAQSPHLQGQQIPNSLSNQVRSPQPVPSPRPQSQPPHSSPSPRMQPQPSPHHVSPQTSSPHPGLVAAQANPMEQGHFASPDQNSMLSQLASNPGMANLHGASATDLGLSTDNSDLNSNLSQSTLDIH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q38825</t>
+          <t>P04198</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>QVVGWPPVRNYRK</t>
+          <t>Q969H0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>PTPPLS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Q9NQR1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Q9NZJ0</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>RKLTDFYPVRRS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Q7Z6Z7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Q96J92</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>O95198</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>EPEEPEADQH</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Q96GD4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Q9P2N7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>RLPLAQV</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>O75382</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MAKREDSPGPEVQPMDKQFLVCSICLDRYQCPKVLPCLHTFCERCLQNYIPAQSLTLSCPVCRQTSILPEQGVSALQNNFFISSLMEAMQQAPDGAHDPEDPHPLSVVAGRPLSCPNHEGKTMEFYCEACETAMCGECRAGEHREHGTVLLRDVVEQHKAALQRQLEAVRGRLPQLSAAIALVGGISQQLQERKAEALAQISAAFEDLEQALQQRKQALVSDLETICGAKQKVLQSQLDTLRQGQEHIGSSCSFAEQALRLGSAPEVLLVRKHMRERLAALAAQAFPERPHENAQLELVLEVDGLRRSVLNLGALLTTSATAHETVATGEGLRQALVGQPASLTVTTKDKDGRLVRTGSAELRAEITGPDGTRLPVPVVDHKNGTYELVYTARTEGELLLSVLLYGQPVRGSPFRVRALRPGDLPPSPDDVKRRVKSPGGPGSHVRQKAVRRPSSMYSTGGKRKDNPIEDELVFRVGSRGREKGEFTNLQGVSAASSGRIVVADSNNQCIQVFSNEGQFKFRFGVRGRSPGQLQRPTGVAVDTNGDIIVADYDNRWVSIFSPEGKFKTKIGAGRLMGPKGVAVDRNGHIIVVDNKSCCVFTFQPNGKLVGRFGGRGATDRHFAGPHFVAVNNKNEIVVTDFHNHSVKVYSADGEFLFKFGSHGEGNGQFNAPTGVAVDSNGNIIVADWGNSRIQVFDSSGSFLSYINTSAEPLYGPQGLALTSDGHVVVADAGNHCFKAYRYLQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Q16633</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>APTAVVLPH</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>P40337</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>HRKHLQEIP</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>P25963</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DSGLDS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Q9Y4K3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MSLLNCENSCGSSQSESDCCVAMASSCSAVTKDDSVGGTASTGNLSSSFMEEIQGYDVEFDPPLESKYECPICLMALREAVQTPCGHRFCKACIIKSIRDAGHKCPVDNEILLENQLFPDNFAKREILSLMVKCPNEGCLHKMELRHLEDHQAHCEFALMDCPQCQRPFQKFHINIHILKDCPRRQVSCDNCAASMAFEDKEIHDQNCPLANVICEYCNTILIREQMPNHYDLDCPTAPIPCTFSTFGCHEKMQRNHLARHLQENTQSHMRMLAQAVHSLSVIPDSGYISEVRNFQETIHQLEGRLVRQDHQIRELTAKMETQSMYVSELKRTIRTLEDKVAEIEAQQCNGIYIWKIGNFGMHLKCQEEEKPVVIHSPGFYTGKPGYKLCMRLHLQLPTAQRCANYISLFVHTMQGEYDSHLPWPFQGTIRLTILDQSEAPVRQNHEEIMDAKPELLAFQRPTIPRNPKGFGYVTFMHLEALRQRTFIKDDTLLVRCEVSTRFDMGSLRREGFQPRSTDAGV</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>O15151</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MTSFSTSAQCSTSDSACRISPGQINQVRPKLPLLKILHAAGAQGEMFTVKEVMHYLGQYIMVKQLYDQQEQHMVYCGGDLLGELLGRQSFSVKDPSPLYDMLRKNLVTLATATTDAAQTLALAQDHSMDIPSQDQLKQSAEESSTSRKRTTEDDIPTLPTSEHKCIHSREDEDLIENLAQDETSRLDLGFEEWDVAGLPWWFLGNLRSNYTPRSNGSTDLQTNQDVGTAIVSDTTDDLWFLNESVSEQLGVGIKVEAADTEQTSEEVGKVSDKKVIEVGKNDDLEDSKSLSDDTDVEVTSEDEWQCTECKKFNSPSKRYCFRCWALRKDWYSDCSKLTHSLSTSDITAIPEKENEGNDVPDCRRTISAPVVRPKDAYIKKENSKLFDPCNSVEFLDLAHSSESQETISSMGEQLDNLSEQRTDTENMEDCQNLLKPCSLCEKRPRDGNIIHGRTGHLVTCFHCARRLKKAGASCPICKKEIQLVIKVFIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Q9H211</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P19474</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>RRVTDFFARRRP</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Q04912</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>GDYRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Q5XUX0</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MAVCARLCGVGPSRGCRRRQQRRGPAETAAADSEPDTDPEEERIEASAGVGGGLCAGPSPPPPRCSLLELPPELLVEIFASLPGTDLPSLAQVCTKFRRILHTDTIWRRRCREEYGVCENLRKLEITGVSCRDVYAKLLHRYRHILGLWQPDIGPYGGLLNVVVDGLFIIGWMYLPPHDPHVDDPMRFKPLFRIHLMERKAATVECMYGHKGPHHGHIQIVKKDEFSTKCNQTDHHRMSGGRQEEFRTWLREEWGRTLEDIFHEHMQELILMKFIYTSQYDNCLTYRRIYLPPSRPDDLIKPGLFKGTYGSHGLEIVMLSFHGRRARGTKITGDPNIPAGQQTVEIDLRHRIQLPDLENQRNFNELSRIVLEVRERVRQEQQEGGHEAGEGRGRQGPRESQPSPAQPRAEAPSKGPDGTPGEDGGEPGDAVAAAEQPAQCGQGQPFVLPVGVSSRNEDYPRTCRMCFYGTGLIAGHGFTSPERTPGVFILFDEDRFGFVWLELKSFSLYSRVQATFRNADAPSPQAFDEMLKNIQSLTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>O24646</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Q9SPL2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>EEIRRVPEF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MSDAPSSSPDATASHWCYHCNKRVVVETLDDFVVCCECNKGFVESIQPTPAAYSSPAPPQPLSPDLNVEDSSIGSHFLQMLRLLAHAPSQRSPPRHLDVLSYEDDFFRLELNSRNEIDDDEDEDEDDGDEEEEDEEENLTVNDEEDEEDDLRRRNRFPLTTTQSRTGRNRILDWAEILMGIEDNSIEFRMESDRYAGNPADYIDDAAGYEALLQNLAEGDGGGGGGRRGAPPAAKSAIEALETFEVSSSEGEMVMVCAVCKDGMVMGETGKKLPCGHCYHGDCIVPWLGTRNSCPVCRFQLETDDAEYEEERKKRTSTVSDSAAASSSSSTSRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>P10275</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ASSTT</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Q9NQW6</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>RENLQRK</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>O60566</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>RSTLAEL</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>O00429</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Q969V5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>RKRLPVT</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Q9H3D4</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Q96PM5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FQHIWDFL</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Q13501</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>O60260</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DPSTGE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>P30307</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>P38398</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NKEND</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>P43403</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>TLNSDGYTPEPA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Q60795</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Q9Z2X8</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MQPEPKLSGAPRSSQFLPLWSKCPEGAGDAVMYASTECKAEVTPSQDGNRTFSYTLEDHTKQAFGVMNELRLSQQLCDVTLQVKYEDIPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISVGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCTELHQRAREYIYMHFGEVAKQEEFFNLSHCQLATLISRDDLNVRCESEVFHACIDWVKYDCPQRRFYVQALLRAVRCHALTPRFLQTQLQKCEILQADARCKDYLVQIFQELTLHKPTQAVPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSNGSWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCASMSVPRNRIGVGVIDGHIYAVGGSHGCIHHSSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITPMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMRHHRSALGITVHQGKIYVLGGYDGHTFLDSVECYDPDSDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Q15303</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Q9H0M0</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>RMKLPSP</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Q13501</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DPSTGE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>P53350</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Q96EP1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NRKPLTVLN</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Q9HAW4</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DSGQGS</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Q9UKA1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MAPFPEEVDVFTAPHWRMKQLVGLYCDKLSKTNFSNNNDFRALLQSLYATFKEFKMHEQIENEYIIGLLQQRSQTIYNVHSDNKLSEMLSLFEKGLKNVKNEYEQLNYAKQLKERLEAFTRDFLPHMKEEEEVFQPMLMEYFTYEELKDIKKKVIAQHCSQKDTAELLRGLSLWNHAEERQKFFKYSVDEKSDKEAEVSEHSTGITHLPPEVMLSIFSYLNPQELCRCSQVSMKWSQLTKTGSLWKHLYPVHWARGDWYSGPATELDTEPDDEWVKNRKDESRAFHEWDEDADIDESEESAEESIAISIAQMEKRLLHGLIHNVLPYVGTSVKTLVLAYSSAVSSKMVRQILELCPNLEHLDLTQTDISDSAFDSWSWLGCCQSLRHLDLSGCEKITDVALEKISRALGILTSHQSGFLKTSTSKITSTAWKNKDITMQSTKQYACLHDLTNKGIGEEIDNEHPWTKPVSSENFTSPYVWMLDAEDLADIEDTVEWRHRNVESLCVMETASNFSCSTSGCFSKDIVGLRTSVCWQQHCASPAFAYCGHSFCCTGTALRTMSSLPESSAMCRKAARTRLPRGKDLIYFGSEKSDQETGRVLLFLSLSGCYQITDHGLRVLTLGGGLPYLEHLNLSGCLTITGAGLQDLVSACPSLNDEYFYYCDNINGPHADTASGCQNLQCGFRACCRSGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Q6PJ21</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>MARRPRNSRAWHFVLSAARRDADARAVALAGSTNWGYDSDGQHSDSDSDPEYSTLPPSIPSAVPVTGESFCDCAGQSEASFCSSLHSAHRGRDCRCGEEDEYFDWVWDDLNKSSATLLSCDNRKVSFHMEYSCGTAAIRGTKELGEGQHFWEIKMTSPVYGTDMMVGIGTSDVDLDKYRHTFCSLLGRDEDSWGLSYTGLLHHKGDKTSFSSRFGQGSIIGVHLDTWHGTLTFFKNRKCIGVAATKLQNKRFYPMVCSTAARSSMKVTRSCASATSLQYLCCHRLRQLRPDSGDTLEGLPLPPGLKQVLHNKLGWVLSMSCSRRKAPVSDPQAATSAHPSSREPRPCQRKRCRRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>P25963</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DSGLDS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>O95997</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>RKALGTV</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Q9HAW4</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DSGQGS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Q6UVJ0</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Q969U6</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DKENG</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MDEGGTPLLPDSLVYQIFLSLGPADVLAAGLVCRQWQAVSRDEFLWREQFYRYYQVARDVPRHPAAMSWYEEFQRLYDTVPCVEVQTLREHTDQVLHLSFSHSGYQFASCSKDCTVKIWSNDLTISLLHSADMRPYNWSYTQFSQFNKDDSLLLASGVFLGPHNSSSGEIAVISLDSFALLSRVRNKPYDVFGCWLTETSLISGNLHRIGDITSCSVLWLNNAFQDVESENVNVVKRLFKIQNLNASTVRTVMVADCSRFDSPDLLLEAGDPATSPCRIFDLGSDNEEVVAGPAPAHAKEGLRHFLDRVLEGRAQPQLSERMLETKVAELLAQGHTKPPERSATGAKSKYLIFTTGCLTYSPHQIGIKQILPHQMTTAGPVLGEGRGSDAFFDALDHVIDIHGHIIGMGLSPDNRYLYVNSRAWPNGAVVADPMQPPPIAEEIDLLVFDLKTMREVRRALRAHRAYTPNDECFFIFLDVSRDFVASGAEDRHGYIWDRHYNICLARLRHEDVVNSVVFSPQEQELLLTASDDATIKAWRSPRTMRVLQAPRPRPRTFFSWLASQRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Q8N1E6</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>METHISCLFPELLAMIFGYLDVRDKGRAAQVCTAWRDAAYHKSVWRGVEAKLHLRRANPSLFPSLQARGIRRVQILSLRRSLSYVIQGMANIESLNLSGCYNLTDNGLGHAFVQEIGSLRALNLSLCKQITDSSLGRIAQYLKGLEVLELGGCSNITNTGLLLIAWGLQRLKSLNLRSCRHLSDVGIGHLAGMTRSAAEGCLGLEQLTLQDCQKLTDLSLKHISRGLTGLRLLNLSFCGGISDAGLLHLSHMGSLRSLNLRSCDNISDTGIMHLAMGSLRLSGLDVSFCDKVGDQSLAYIAQGLDGLKSLSLCSCHISDDGINRMVRQMHGLRTLNIGQCVRITDKGLELIAEHLSQLTGIDLYGCTRITKRGLERITQLPCLKVLNLGLWQMTDSEKEARGDFSPLFTVRTRGSSRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>P12757</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Q6ZNA4</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>RLCLPQV</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>MSQWTPEYNELYTLKVDMKSEIPSDAPKTQESLKGILLHPEPIGAAKSFPAGVEMINSKVGNEFSHLCDDSQKQEKEMNGNQQEQEKSLVVRKKRKSQQAGPSYVQNCVKENQGILGLRQHLGTPSDEDNDSSFSDCLSSPSSSLHFGDSDTVTSDEDKEVSVRHSQTILNAKSRSHSARSHKWPRTETESVSGLLMKRPCLHGSSLRRLPCRKRFVKNNSSQRTQKQKERILMQRKKREVLARRKYALLPSSSSSSENDLSSESSSSSSTEGEEDLFVSASENHQNNPAVPSGSIDEDVVVIEASSTPQVTANEEINVTSTDSEVEIVTVGESYRSRSTLGHSRSHWSQGSSSHASRPQEPRNRSRISTVIQPLRQNAAEVVDLTVDEDEPTVVPTTSARMESQATSASINNSNPSTSEQASDTASAVTSSQPSTVSETSATLTSNSTTGTSIGDDSRRTTSSAVTETGPPAMPRLPSCCPQHSPCGGSSQNHHALGHPHTSCFQQHGHHFQHHHHHHHTPHPAVPVSPSFSDPACPVERPPQVQAPCGANSSSGTSYHEQQALPVDLSNSGIRSHGSGSFHGASAFDPCCPVSSSRAAIFGHQAAAAAPSQPLSSIDGYGSSMVAQPQPQPPPQPSLSSCRHYMPPPYASLTRPLHHQASACPHSHGNPPPQTQPPPQVDYVIPHPVHAFHSQISSHATSHPVAPPPPTHLASTAAPIPQHLPPTHQPISHHIPATAPPAQRLHPHEVMQRMEVQRRRMMQHPTRAHERPPPHPHRMHPNYGHGHHIHVPQTMSSHPRQAPERSAWELGIEAGVTAATYTPGALHPHLAHYHAPPRLHHLQLGALPLMVPDMAGYPHIRYISSGLDGTSFRGPFRGNFEELIHLEERLGNVNRGASQGTIERCTYPHKYKKVTTDWFSQRKLHCKQDGEEGTEEDTEEKCTICLSILEEGEDVRRLPCMHLFHQVCVDQWLITNKKCPICRVDIEAQLPSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>P12757</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>RLCLPQV</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>O43683</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DKENV</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>P25963</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Q969Q1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DSGLDS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MDYKSSLIQDGNPMENLEKQLICPICLEMFTKPVVILPCQHNLCRKCANDIFQAANPYWTSRGSSVSMSGGRFRCPTCRHEVIMDRHGVYGLQRNLLVENIIDIYKQECSSRPLQKGSHPMCKEHEDEKINIYCLTCEVPTCSMCKVFGIHKACEVAPLQSVFQGQKTELNNCISMLVAGNDRVQTIITQLEDSRRVTKENSHQVKEELSQKFDTLYAILDEKKSELLQRITQEQEKKLSFIEALIQQYQEQLDKSTKLVETAIQSLDEPGGATFLLTAKQLIKSIVEASKGCQLGKTEQGFENMDFFTLDLEHIADALRAIDFGTDEEEEEFIEEEDQEEEESTEGKEEGHQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Q13263</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MAASAAAASAAAASAASGSPGPGEGSAGGEKRSTAPSAAASASASAAASSPAGGGAEALELLEHCGVCRERLRPEREPRLLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCKQQCFSKDIVENYFMRDSGSKAATDAQDANQCCTSCEDNAPATSYCVECSEPLCETCVEAHQRVKYTKDHTVRSTGPAKSRDGERTVYCNVHKHEPLVLFCESCDTLTCRDCQLNAHKDHQYQFLEDAVRNQRKLLASLVKRLGDKHATLQKSTKEVRSSIRQVSDVQKRVQVDVKMAILQIMKELNKRGRVLVNDAQKVTEGQQERLERQHWTMTKIQKHQEHILRFASWALESDNNTALLLSKKLIYFQLHRALKMIVDPVEPHGEMKFQWDLNAWTKSAEAFGKIVAERPGTNSTGPAPMAPPRAPGPLSKQGSGSSQPMEVQEGYGFGSGDDPYSSAEPHVSGVKRSRSGEGEVSGLMRKVPRVSLERLDLDLTADSQPPVFKVFPGSTTEDYNLIVIERGAAAAATGQPGTAPAGTPGAPPLAGMAIVKEEETEAAIGAPPTATEGPETKPVLMALAEGPGAEGPRLASPSGSTSSGLEVVAPEGTSAPGGGPGTLDDSATICRVCQKPGDLVMCNQCEFCFHLDCHLPALQDVPGEEWSCSLCHVLPDLKEEDGSLSLDGADSTGVVAKLSPANQRKCERVLLALFCHEPCRPLHQLATDSTFSLDQPGGTLDLTLIRARLQEKLSPPYSSPQEFAQDVGRMFKQFNKLTEDKADVQSIIGLQRFFETRMNEAFGDTKFSAVLVEPPPMSLPGAGLSSQELSGGPGDGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>P41134</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>RAPLSTL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Q99741</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>O60784</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>RKRLGDD</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>MDFLLGNPFSSPVGQRIEKATDGSLQSEDWALNMEICDIINETEEGPKDALRAVKKRIVGNKNFHEVMLALTVLETCVKNCGHRFHVLVASQDFVESVLVRTILPKNNPPTIVHDKVLNLIQSWADAFRSSPDLTGVVTIYEDLRRKGLEFPMTDLDMLSPIHTPQRTVFNSETQSGQDSVGTDSSQQEDSGQHAAPLPAPPILSGDTPIAPTPEQIGKLRSELEMVSGNVRVMSEMLTELVPTQAEPADLELLQELNRTCRAMQQRVLELIPQIANEQLTEELLIVNDNLNNVFLRHERFERFRTGQTTKAPSEAEPAADLIDMGPDPAATGNLSSQLAGMNLGSSSVRAGLQSLEASGRLEDEFDMFALTRGSSLADQRKEVKYEAPQATDGLAGALDARQQSTGAIPVTQACLMEDIEQWLSTDVGNDAEEPKGVTSEEFDKFLEERAKAADRLPNLSSPSAEGPPGPPSGPAPRKKTQEKDDDMLFAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>P46531</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PFLTPSPE</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>O95071</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>MTSIHFVVHPLPGTEDQLNDRLREVSEKLNKYNLNSHPPLNVLEQATIKQCVVGPNHAAFLLEDGRVCRIGFSVQPDRLELGKPDNNDGSKLNSNSGAGRTSRPGRTSDSPWFLSGSETLGRLAGNTLGSRWSSGVGGSGGGSSGRSSAGARDSRRQTRVIRTGRDRGSGLLGSQPQPVIPASVIPEELISQAQVVLQGKSRSVIIRELQRTNLDVNLAVNNLLSRDDEDGDDGDDTASESYLPGEDLMSLLDADIHSAHPSVIIDADAMFSEDISYFGYPSFRRSSLSRLGSSRVLLLPLERDSELLRERESVLRLRERRWLDGASFDNERGSTSKEGEPNLDKKNTPVQSPVSLGEDLQWWPDKDGTKFICIGALYSELLAVSSKGELYQWKWSESEPYRNAQNPSLHHPRATFLGLTNEKIVLLSANSIRATVATENNKVATWVDETLSSVASKLEHTAQTYSELQGERIVSLHCCALYTCAQLENSLYWWGVVPFSQRKKMLEKARAKNKKPKSSAGISSMPNITVGTQVCLRNNPLYHAGAVAFSISAGIPKVGVLMESVWNMNDSCRFQLRSPESLKNMEKASKTTEAKPESKQEPVKTEMGPPPSPASTCSDASSIASSASMPYKRRRSTPAPKEEEKVNEEQWSLREVVFVEDVKNVPVGKVLKVDGAYVAVKFPGTSSNTNCQNSSGPDADPSSLLQDCRLLRIDELQVVKTGGTPKVPDCFQRTPKKLCIPEKTEILAVNVDSKGVHAVLKTGNWVRYCIFDLATGKAEQENNFPTSSIAFLGQNERNVAIFTAGQESPIILRDGNGTIYPMAKDCMGGIRDPDWLDLPPISSLGMGVHSLINLPANSTIKKKAAVIIMAVEKQTLMQHILRCDYEACRQYLMNLEQAVVLEQNLQMLQTFISHRCDGNRNILHACVSVCFPTSNKETKEEEEAERSERNTFAERLSAVEAIANAISVVSSNGPGNRAGSSSSRSLRLREMMRRSLRAAGLGRHEAGASSSDHQDPVSPPIAPPSWVPDPPAMDPDGDIDFILAPAVGSLTTAATGTGQGPSTSTIPGPSTEPSVVESKDRKANAHFILKLLCDSVVLQPYLRELLSAKDARGMTPFMSAVSGRAYPAAITILETAQKIAKAEISSSEKEEDVFMGMVCPSGTNPDDSPLYVLCCNDTCSFTWTGAEHINQDIFECRTCGLLESLCCCTECARVCHKGHDCKLKRTSPTAYCDCWEKCKCKTLIAGQKSARLDLLYRLLTATNLVTLPNSRGEHLLLFLVQTVARQTVEHCQYRPPRIREDRNRKTASPEDSDMPDHDLEPPRFAQLALERVLQDWNALKSMIMFGSQENKDPLSASSRIGHLLPEEQVYLNQQSGTIRLDCFTHCLIVKCTADILLLDTLLGTLVKELQNKYTPGRREEAIAVTMRFLRSVARVFVILSVEMASSKKKNNFIPQPIGKCKRVFQALLPYAVEELCNVAESLIVPVRMGIARPTAPFTLASTSIDAMQGSEELFSVEPLPPRPSSDQSSSSSQSQSSYIIRNPQQRRISQSQPVRGRDEEQDDIVSADVEEVEVVEGVAGEEDHHDEQEEHGEENAEAEGQHDEHDEDGSDMELDLLAAAETESDSESNHSNQDNASGRRSVVTAATAGSEAGASSVPAFFSEDDSQSNDSSDSDSSSSQSDDIEQETFMLDEPLERTTNSSHANGAAQAPRSMQWAVRNTQHQRAASTAPSSTSTPAASSAGLIYIDPSNLRRSGTISTSAAAAAAALEASNASSYLTSASSLARAYSIVIRQISDLMGLIPKYNHLVYSQIPAAVKLTYQDAVNLQNYVEEKLIPTWNWMVSIMDSTEAQLRYGSALASAGDPGHPNHPLHASQNSARRERMTAREEASLRTLEGRRRATLLSARQGMMSARGDFLNYALSLMRSHNDEHSDVLPVLDVCSLKHVAYVFQALIYWIKAMNQQTTLDTPQLERKRTRELLELGIDNEDSEHENDDDTNQSATLNDKDDDSLPAETGQNHPFFRRSDSMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNARKEDLFGRPSQGLYSSSASSGKCLMEVTVDRNCLEVLPTKMSYAANLKNVMNMQNRQKKEGEEQPVLPEETESSKPGPSAHDLAAQLKSSLLAEIGLTESEGPPLTSFRPQCSFMGMVISHDMLLGRWRLSLELFGRVFMEDVGAEPGSILTELGGFEVKESKFRREMEKLRNQQSRDLSLEVDRDRDLLIQQTMRQLNNHFGRRCATTPMAVHRVKVTFKDEPGEGSGVARSFYTAIAQAFLSNEKLPNLECIQNANKGTHTSLMQRLRNRGERDREREREREMRRSSGLRAGSRRDRDRDFRRQLSIDTRPFRPASEGNPSDDPEPLPAHRQALGERLYPRVQAMQPAFASKITGMLLELSPAQLLLLLASEDSLRARVDEAMELIIAHGRENGADSILDLGLVDSSEKVQQENRKRHGSSRSVVDMDLDDTDDGDDNAPLFYQPGKRGFYTPRPGKNTEARLNCFRNIGRILGLCLLQNELCPITLNRHVIKVLLGRKVNWHDFAFFDPVMYESLRQLILASQSSDADAVFSAMDLAFAIDLCKEEGGGQVELIPNGVNIPVTPQNVYEYVRKYAEHRMLVVAEQPLHAMRKGLLDVLPKNSLEDLTAEDFRLLVNGCGEVNVQMLISFTSFNDESGENAEKLLQFKRWFWSIVEKMSMTERQDLVYFWTSSPSLPASEEGFQPMPSITIRPPDDQHLPTANTCISRLYVPLYSSKQILKQKLLLAIKTKNFGFV</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>P00533</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Q9HAU4</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DSFLQRYSSDP</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Q14807</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>EKENH</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Q9HCI7</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>MNPVNATALYISASRLVLNYDPGDPKAFTEINRLLPYFRQSLSCCVCGHLLQDPIAPTNSTCQHYVCKTCKGKKMMMKPSCSWCKDYEQFEENKQLSILVNCYKKLCEYITQTTLARDIIEAVDCSSDILALLNDGSLFCEETEKPSDSSFTLCLTHSPLPSTSEPTTDPQASLSPMSESTLSIAIGSSVINGLPTYNGLSIDRFGINIPSPEHSNTIDVCNTVDIKTEDLSDSLPPVCDTVATDLCSTGIDICSFSEDIKPGDSLLLSVEEVLRSLETVSNTEVCCPNLQPNLEATVSNGPFLQLSSQSLSHNVFMSTSPALHGLSCTAATPKIAKLNRKRSRSESDSEKVQPLPISTIIRGPTLGASAPVTVKRESKISLQPIATVPNGGTTPKISKTVLLSTKSMKKSHEHGSKKSHSKTKPGILKKDKAVKEKIPSHHFMPGSPTKTVYKKPQEKKGCKCGRATQNPSVLTCRGQRCPCYSNRKACLDCICRGCQNSYMANGEKKLEAFAVPEKALEQTRLTLGINVTSIAVRNASTSTSVINVTGSPVTTFLAASTHDDKSLDEAIDMRFDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>P12757</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Q9HAU4</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>RLCLPQV</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Q9NVW2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>MENSDSNDKGSGDQSAAQRRSQMDRLDREEAFYQFVNNLSEEDYRLMRDNNLLGTPGESTEEELLRRLQQIKEGPPPQNSDENRGGDSSDDVSNGDSIIDWLNSVRQTGNTTRSGQRGNQSWRAVSRTNPNSGDFRFSLEINVNRNNGSQNSENENEPSARRSSGENVENNSQRQVENPRSESTSARPSRSERNSTEALTEVPPTRGQRRARSRSPDHRRTRARAERSRSPLHPMSEIPRRSHHSISSQTFEHPLVNETEGSSRTRHHVTLRQQISGPELLSRGLFAASGTRNASQGAGSSDTAASGESTGSGQRPPTIVLDLQVRRVRPGEYRQRDSIASRTRSRSQTPNNTVTYESERGGFRRTFSRSERAGVRTYVSTIRIPIRRILNTGLSETTSVAIQTMLRQIMTGFGELSYFMYSDSDSEPTGSVSNRNMERAESRSGRGGSGGGSSSGSSSSSSSSSSSSSSSSSSSSPSSSSGGESSETSSDLFEGSNEGSSSSGSSGARREGRHRAPVTFDESGSLPFLSLAQFFLLNEDDDDQPRGLTKEQIDNLAMRSFGENDALKTCSVCITEYTEGNKLRKLPCSHEYHVHCIDRWLSENSTCPICRRAVLASGNRESVV</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>O60260</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>P51955</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>RKFLSLA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Q9NZJ0</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Q86XK2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>MNSVRAANRRPRRVSRPRPVQQQQQQPPQQPPPQPPQQQPPQQQPPPPPQQQQQQQPPPPPPPPPPLPQERNNVGERDDDVPADMVAEESGPGAQNSPYQLRRKTLLPKRTACPTKNSMEGASTSTTENFGHRAKRARVSGKSQDLSAAPAEQYLQEKLPDEVVLKIFSYLLEQDLCRAACVCKRFSELANDPILWKRLYMEVFEYTRPMMHPEPGKFYQINPEEYEHPNPWKESFQQLYKGAHVKPGFAEHFYSNPARYKGRENMLYYDTIEDALGGVQEAHFDGLIFVHSGIYTDEWIYIESPITMIGAAPGKVADKVIIENTRDSTFVFMEGSEDAYVGYMTIRFNPDDKSAQHHNAHHCLEITVNCSPIIDHCIIRSTCTVGSAVCVSGQGACPTIKHCNISDCENVGLYITDHAQGIYEDNEISNNALAGIWVKNHGNPIIRRNHIHHGRDVGVFTFDHGMGYFESCNIHRNRIAGFEVKAYANPTVVRCEIHHGQTGGIYVHEKGRGQFIENKIYANNFAGVWITSNSDPTIRGNSIFNGNQGGVYIFGDGRGLIEGNDIYGNALAGIQIRTNSCPIVRHNKIHDGQHGGIYVHEKGQGVIEENEVYSNTLAGVWVTTGSTPVLRRNRIHSGKQVGVYFYDNGHGVLEDNDIYNHMYSGVQIRTGSNPKIRRNKIWGGQNGGILVYNSGLGCIEDNEIFDNAMAGVWIKTDSNPTLRRNKIHDGRDGGICIFNGGRGLLEENDIFRNAQAGVLISTNSHPILRKNRIFDGFAAGIEITNHATATLEGNQIFNNRFGGLFLASGVNVTMKDNKIMNNQDAIEKAVSRGQCLYKISSYTSYPMHDFYRCHTCNTTDRNAICVNCIKKCHQGHDVEFIRHDRFFCDCGAGTLSNPCTLAGEPTHDTDTLYDSAPPIESNTLQHN</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Q99814</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>P78317</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>LAPTPGDAIISLDF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>MSTRKRRGGAINSRQAQKRTREATSTPEISLEAEPIELVETAGDEIVDLTCESLEPVVVDLTHNDSVVIVDERRRPRRNARRLPQDHADSCVVSSDDEELSRDRDVYVTTHTPRNARDEGATGLRPSGTVSCPICMDGYSEIVQNGRLIVSTECGHVFCSQCLRDSLKNANTCPTCRKKINHKRYHPIYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Q9NPC3</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>MSLCEDMLLCNYRKCRIKLSGYAWVTACSHIFCDQHGSGEFSRSPAICPACNSTLSGKLDIVRTELSPSEEYKAMVLAGLRPEIVLDISSRALAFWTYQVHQERLYQEYNFSKAEGHLKQMEKIYTQQIQSKDVELTSMKGEVTSMKKVLEEYKKKFSDISEKLMERNRQYQKLQGLYDSLRLRNITIANHEGTLEPSMIAQSGVLGFPLGNNSKFPLDNTPVRNRGDGDGDFQFRPFFAGSPTAPEPSNSFFSFVSPSRELEQQQVSSRAFKVKRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>O00308</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>MASASSSRAGVALPFEKSQLTLKVVSAKPKVHNRQPRINSYVEVAVDGLPSETKKTGKRIGSSELLWNEIIILNVTAQSHLDLKVWSCHTLRNELLGTASVNLSNVLKNNGGKMENMQLTLNLQTENKGSVVSGGELTIFLDGPTVDLGNVPNGSALTDGSQLPSRDSSGTAVAPENRHQPPSTNCFGGRSRTHRHSGASARTTPATGEQSPGARSRHRQPVKNSGHSGLANGTVNDEPTTATDPEEPSVVGVTSPPAAPLSVTPNPNTTSLPAPATPAEGEEPSTSGTQQLPAAAQAPDALPAGWEQRELPNGRVYYVDHNTKTTTWERPLPPGWEKRTDPRGRFYYVDHNTRTTTWQRPTAEYVRNYEQWQSQRNQLQGAMQHFSQRFLYQSSSASTDHDPLGPLPPGWEKRQDNGRVYYVNHNTRTTQWEDPRTQGMIQEPALPPGWEMKYTSEGVRYFVDHNTRTTTFKDPRPGFESGTKQGSPGAYDRSFRWKYHQFRFLCHSNALPSHVKISVSRQTLFEDSFQQIMNMKPYDLRRRLYIIMRGEEGLDYGGIAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASSINPDHLTYFRFIGRFIAMALYHGKFIDTGFTLPFYKRMLNKRPTLKDLESIDPEFYNSIVWIKENNLEECGLELYFIQDMEILGKVTTHELKEGGESIRVTEENKEEYIMLLTDWRFTRGVEEQTKAFLDGFNEVAPLEWLRYFDEKELELMLCGMQEIDMSDWQKSTIYRHYTKNSKQIQWFWQVVKEMDNEKRIRLLQFVTGTCRLPVGGFAELIGSNGPQKFCIDKVGKETWLPRSHTCFNRLDLPPYKSYEQLREKLLYAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Q9HAW4</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>P38398</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>DSGQGS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>P10275</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ASSTT</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Q9NVR0</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MAAAAVAAAAAAAAAASLQVLEMESMETAAAGSAGLAAEVRGSGTVDFGPGPGISAMEASGGDPGPEAEDFECSSHCSELSWRQNEQRRQGLFCDITLCFGGAGGREFRAHRSVLAAATEYFTPLLSGQFSESRSGRVEMRKWSSEPGPEPDTVEAVIEYMYTGRIRVSTGSVHEVLELADRFLLIRLKEFCGEFLKKKLHLSNCVAIHSLAHMYTLSQLALKAADMIRRNFHKVIQDEEFYTLPFHLIRDWLSDLEITVDSEEVLFETVLKWVQRNAEERERYFEELFKLLRLSQMKPTYLTRHVKPERLVANNEVCVKLVADAVERHALRAENIQSGTCQHPTSHVSLLPRYGQNMDVIMVIGGVSEGGDYLSECVGYFVDEDRWVNLPHIHNHLDGHAVAVTESYVYVAGSMEPGFAKTVERYNPNLNTWEHVCSLMTRKHSFGLTEVKGKLYSIGGHGNFSPGFKDVTVYNPELDKWHNLESAPKILRDVKALAIEDRFVYIAARTPVDRDTEDGLKAVITCYDTETRQWQDVESLPLIDNYCFFQMSVVNSNFYQTASCCPKSYCLENEEAVRKIASQVSDEILESLPPEVLSIEGAAICYYKDDVFIIGGWKNSDDIDKQYRKEAYRYCAERKRWMLLPPMPQPRCRATACHVRIPYRYLHGTQRYPMPQNLMWQKDRIRQMQEIHRHALNMRRVPSSQIEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Q9Y6Q9</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ADVSST</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>O97143</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>O44382</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>DSGIIT</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>MMKMETDKIMDETNSNAQAFTTTMLYDPVRKKDSSPTYQTERELCFQYFTQWSESGQVDFVEHLLSRMCHYQHGQINAYLKPMLQRDFITLLPIKGLDHIGENILSYLDAESLKSSELVCKEWLRVISEGMLWKKLIERKVRTDSLWRGLAERRNWMQYLFKPRPGQTQRPHSFHRELFPKIMNDIDSIENNWRTGRHMLRRINCRSENSKGVYCLQYDDGKIVSGLRDNTIKIWDRTDLQCVKTLMGHTGSVLCLQYDDKVIISGSSDSTVRVWDVNTGEMVNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMTSPSEITLRRVLVGHRAAVNVVDFDEKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNSIRLWDIECGACLRVLEGHEELVRCIRFDTKRIVSGAYDGKIKVWDLVAALDPRAASNTLCLNTLVEHTGRVFRLQFDEFQIVSSSHDDTILIWDFLNFTPNENKTGRTPSPALMEH</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>P46531</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PFLTPSPE</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>O15164</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>MEVAVEKAVAAAAAASAAASGGPSAAPSGENEAESRQGPDSERGGEAARLNLLDTCAVCHQNIQSRAPKLLPCLHSFCQRCLPAPQRYLMLPAPMLGSAETPPPVPAPGSPVSGSSPFATQVGVIRCPVCSQECAERHIIDNFFVKDTTEVPSSTVEKSNQVCTSCEDNAEANGFCVECVEWLCKTCIRAHQRVKFTKDHTVRQKEEVSPEAVGVTSQRPVFCPFHKKEQLKLYCETCDKLTCRDCQLLEHKEHRYQFIEEAFQNQKVIIDTLITKLMEKTKYIKFTGNQIQNRIIEVNQNQKQVEQDIKVAIFTLMVEINKKGKALLHQLESLAKDHRMKLMQQQQEVAGLSKQLEHVMHFSKWAVSSGSSTALLYSKRLITYRLRHLLRARCDASPVTNNTIQFHCDPSFWAQNIINLGSLVIEDKESQPQMPKQNPVVEQNSQPPSGLSSNQLSKFPTQISLAQLRLQHMQQQVMAQRQQVQRRPAPVGLPNPRMQGPIQQPSISHQQPPPRLINFQNHSPKPNGPVLPPHPQQLRYPPNQNIPRQAIKPNPLQMAFLAQQAIKQWQISSGQGTPSTTNSTSSTPSSPTITSAAGYDGKAFGSPMIDLSSPVGGSYNLPSLPDIDCSSTIMLDNIVRKDTNIDHGQPRPPSNRTVQSPNSSVPSPGLAGPVTMTSVHPPIRSPSASSVGSRGSSGSSSKPAGADSTHKVPVVMLEPIRIKQENSGPPENYDFPVVIVKQESDEESRPQNANYPRSILTSLLLNSSQSSTSEETVLRSDAPDSTGDQPGLHQDNSSNGKSEWLDPSQKSPLHVGETRKEDDPNEDWCAVCQNGGELLCCEKCPKVFHLSCHVPTLTNFPSGEWICTFCRDLSKPEVEYDCDAPSHNSEKKKTEGLVKLTPIDKRKCERLLLFLYCHEMSLAFQDPVPLTVPDYYKIIKNPMDLSTIKKRLQEDYSMYSKPEDFVADFRLIFQNCAEFNEPDSEVANAGIKLENYFEELLKNLYPEKRFPKPEFRNESEDNKFSDDSDDDFVQPRKKRLKSIEERQLLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>O14920</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NQETGE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>P34244</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>P53197</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NKENE</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>P04198</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Q13049</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>PTPPLS</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Q13501</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Q13049</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>DPSTGE</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>MAAAAASHLNLDALREVLECPICMESFTEEQLRPKLLHCGHTICRQCLEKLLASSINGVRCPFCSKITRITSLTQLTDNLTVLKIIDTAGLSEAVGLLMCRSCGRRLPRQFCRSCGLVLCEPCREADHQPPGHCTLPVKEAAEERRRDFGEKLTRLRELMGELQRRKAALEGVSKDLQARYKAVLQEYGHEERRVQDELARSRKFFTGSLAEVEKSNSQVVEEQSYLLNIAEVQAVSRCDYFLAKIKQADVALLEETADEEEPELTASLPRELTLQDVELLKVGHVGPLQIGQAVKKPRTVNVEDSWAMEATASAASTSVTFREMDMSPEEVVASPRASPAKQRGPEAASNIQQCLFLKKMGAKGSTPGMFNLPVSLYVTSQGEVLVADRGNYRIQVFTRKGFLKEIRRSPSGIDSFVLSFLGADLPNLTPLSVAMNCQGLIGVTDSYDNSLKVYTLDGHCVACHRSQLSKPWGITALPSGQFVVTDVEGGKLWCFTVDRGSGVVKYSCLCSAVRPKFVTCDAEGTVYFTQGLGLNLENRQNEHHLEGGFSIGSVGPDGQLGRQISHFFSENEDFRCIAGMCVDARGDLIVADSSRKEILHFPKGGGYSVLIREGLTCPVGIALTPKGQLLVLDCWDHCIKIYSYHLRRYSTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Q9H3D4</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Q96PU5</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FQHIWDFL</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>MATGLGEPVYGLSEDEGESRILRVKVVSGIDLAKKDIFGASDPYVKLSLYVADENRELALVQTKTIKKTLNPKWNEEFYFRVNPSNHRLLFEVFDENRLTRDDFLGQVDVPLSHLPTEDPTMERPYTFKDFLLRPRSHKSRVKGFLRLKMAYMPKNGGQDEENSDQRDDMEHGWEVVDSNDSASQHQEELPPPPLPPGWEEKVDNLGRTYYVNHNNRTTQWHRPSLMDVSSESDNNIRQINQEAAHRRFRSRRHISEDLEPEPSEGGDVPEPWETISEEVNIAGDSLGLALPPPPASPGSRTSPQELSEELSRRLQITPDSNGEQFSSLIQREPSSRLRSCSVTDAVAEQGHLPPPSAPAGRARSSTVTGGEEPTPSVAYVHTTPGLPSGWEERKDAKGRTYYVNHNNRTTTWTRPIMQLAEDGASGSATNSNNHLIEPQIRRPRSLSSPTVTLSAPLEGAKDSPVRRAVKDTLSNPQSPQPSPYNSPKPQHKVTQSFLPPGWEMRIAPNGRPFFIDHNTKTTTWEDPRLKFPVHMRSKTSLNPNDLGPLPPGWEERIHLDGRTFYIDHNSKITQWEDPRLQNPAITGPAVPYSREFKQKYDYFRKKLKKPADIPNRFEMKLHRNNIFEESYRRIMSVKRPDVLKARLWIEFESEKGLDYGGVAREWFFLLSKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFTFIGRVAGLAVFHGKLLDGFFIRPFYKMMLGKQITLNDMESVDSEYYNSLKWILENDPTELDLMFCIDEENFGQTYQVDLKPNGSEIMVTNENKREYIDLVIQWRFVNRVQKQMNAFLEGFTELLPIDLIKIFDENELELLMCGLGDVDVNDWRQHSIYKNGYCPNHPVIQWFWKAVLLMDAEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQLFTIEQWGSPEKLPRAHTCFNRLDLPPYETFEDLREKLLMAVENAQGFEGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>P42260</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Q8K430</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>APVIV</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>MQPRGERPAGRTQSPEHSSPGPGPEAPPPPQPPAPEAERARPRQARPAAPMEGAMQLLSREGHSVAHNSKRHYHDAFVAMSRMRQRGLLCDIVLHVAAKEIRAHKVVLASCSPYFHAMFTNEMSESRQTHVTLHDIDPQALDQLVQFAYTAEIVVGEGNVQTLLPAASLLQLNGVRDACCKFLLSQLDPSNCLGIRGFADTHSCSDLLKAAHRYVLQHFVDVAKTEEFMLLPLKQVLELVSSDSLNVPSEEDVYRAVLSWVKHDVDTRRQHVPRLMKCVRLPLLSRDFLLGHVDAESLVRHHPDCKDLLIEALKFHLLPEQRGVLGTSRTRPRRCEGAGPVLFAVGGGSLFAIHGDCEAYDTRTDRWHVVASMSTRRARVGVAAVGNRLYAVGGYDGTSDLATVESYDPVTNTWQPEVSMGTRRSCLGVAALHGLLYAAGGYDGASCLNSAERYDPLTGTWTSIAAMSTRRRYVRVATLDGNLYAVGGYDSSSHLATVEKYEPQVNSWTPVASMLSRRSSAGVAVLEGALYVAGGNDGTSCLNSVERYSTKAGAWESVAPMNIRRSTHDLVAMDGWLYAVGGNDGSSSLNSIEKYNPRTNKWVAASCMFTRRSSVGVAVLELLNFPPPSSPTLSVSSTSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>O75367</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ADSTT</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>P43403</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Q9H4P4</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>TLNSDGYTPEPA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>MGYDVTRFQGDVDEDLICPICSGVLEEPVQAPHCEHAFCNACITQWFSQQQTCPVDRSVVTVAHLRPVPRIMRNMLSKLQIACDNAVFGCSAVVRLDNLMSHLSDCEHNPKRPVTCEQGCGLEMPKDELPNHNCIKHLRSVVQQQQTRIAELEKTSAEHKHQLAEQKRDIQLLKAYMRAIRSVNPNLQNLEETIEYNEILEWVNSLQPARVTRWGGMISTPDAVLQAVIKRSLVESGCPASIVNELIENAHERSWPQGLATLETRQMNRRYYENYVAKRIPGKQAVVVMACENQHMGDDMVQEPGLVMIFAHGVEEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Q969V5</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>P43268</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DEQFVPDF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>P10071</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ALSSS</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Q9H4A3</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>O95198</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>EPEEPEADQH</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Q9UPN9</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>MAENKGGGEAESGGGGSGSAPVTAGAAGPAAQEAEPPLTAVLVEEEEEEGGRAGAEGGAAGPDDGGVAAASSGSAQAASSPAASVGTGVAGGAVSTPAPAPASAPAPGPSAGPPPGPPASLLDTCAVCQQSLQSRREAEPKLLPCLHSFCLRCLPEPERQLSVPIPGGSNGDIQQVGVIRCPVCRQECRQIDLVDNYFVKDTSEAPSSSDEKSEQVCTSCEDNASAVGFCVECGEWLCKTCIEAHQRVKFTKDHLIRKKEDVSESVGASGQRPVFCPVHKQEQLKLFCETCDRLTCRDCQLLEHKEHRYQFLEEAFQNQKGAIENLLAKLLEKKNYVHFAATQVQNRIKEVNETNKRVEQEIKVAIFTLINEINKKGKSLLQQLENVTKERQMKLLQQQNDITGLSRQVKHVMNFTNWAIASGSSTALLYSKRLITFQLRHILKARCDPVPAANGAIRFHCDPTFWAKNVVNLGNLVIESKPAPGYTPNVVVGQVPPGTNHISKTPGQINLAQLRLQHMQQQVYAQKHQQLQQMRMQQPPAPVPTTTTTTQQHPRQAAPQMLQQQPPRLISVQTMQRGNMNCGAFQAHQMRLAQNAARIPGIPRHSGPQYSMMQPHLQRQHSNPGHAGPFPVVSVHNTTINPTSPTTATMANANRGPTSPSVTAIELIPSVTNPENLPSLPDIPPIQLEDAGSSSLDNLLSRYISGSHLPPQPTSTMNPSPGPSALSPGSSGLSNSHTPVRPPSTSSTGSRGSCGSSGRTAEKTSLSFKSDQVKVKQEPGTEDEICSFSGGVKQEKTEDGRRSACMLSSPESSLTPPLSTNLHLESELDALASLENHVKIEPADMNESCKQSGLSSLVNGKSPIRSLMHRSARIGGDGNNKDDDPNEDWCAVCQNGGDLLCCEKCPKVFHLTCHVPTLLSFPSGDWICTFCRDIGKPEVEYDCDNLQHSKKGKTAQGLSPVDQRKCERLLLYLYCHELSIEFQEPVPASIPNYYKIIKKPMDLSTVKKKLQKKHSQHYQIPDDFVADVRLIFKNCERFNEMMKVVQVYADTQEINLKADSEVAQAGKAVALYFEDKLTEIYSDRTFAPLPEFEQEEDDGEVTEDSDEDFIQPRRKRLKSDERPVHIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Q9H211</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Q5XUX0</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>RRVTDFFARRRP</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>MAVCARLCGVGPSRGCRRRQQRRGPAETAAADSEPDTDPEEERIEASAGVGGGLCAGPSPPPPRCSLLELPPELLVEIFASLPGTDLPSLAQVCTKFRRILHTDTIWRRRCREEYGVCENLRKLEITGVSCRDVYAKLLHRYRHILGLWQPDIGPYGGLLNVVVDGLFIIGWMYLPPHDPHVDDPMRFKPLFRIHLMERKAATVECMYGHKGPHHGHIQIVKKDEFSTKCNQTDHHRMSGGRQEEFRTWLREEWGRTLEDIFHEHMQELILMKFIYTSQYDNCLTYRRIYLPPSRPDDLIKPGLFKGTYGSHGLEIVMLSFHGRRARGTKITGDPNIPAGQQTVEIDLRHRIQLPDLENQRNFNELSRIVLEVRERVRQEQQEGGHEAGEGRGRQGPRESQPSPAQPRAEAPSKGPDGTPGEDGGEPGDAVAAAEQPAQCGQGQPFVLPVGVSSRNEDYPRTCRMCFYGTGLIAGHGFTSPERTPGVFILFDEDRFGFVWLELKSFSLYSRVQATFRNADAPSPQAFDEMLKNIQSLTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Q9NW38</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>MAVTEASLLRQCPLLLPQNRSKTVYEGFISAQGRDFHLRIVLPEDLQLKNARLLCSWQLRTILSGYHRIVQQRMQHSPDLMSFMMELKMLLEVALKNRQELYALPPPPQFYSSLIEEIGTLGWDKLVYADTCFSTIKLKAEDASGREHLITLKLKAKYPAESPDYFVDFPVPFCASWTPQSSLISIYSQFLAAIESLKAFWDVMDEIDEKTWVLEPEKPPRSATARRIALGNNVSINIEVDPRHPTMLPECFFLGADHVVKPLGIKLSRNIHLWDPENSVLQNLKDVLEIDFPARAILEKSDFTMDCGICYAYQLDGTIPDQVCDNSQCGQPFHQICLYEWLRGLLTSRQSFNIIFGECPYCSKPITLKMSGRKH</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Q15468</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>EKENE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Q15784</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>RNFLTEQ</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Q9UHC7</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>MAEAATPGTTATTSGAGAAAATAAAASPTPIPTVTAPSLGAGGGGGGSDGSGGGWTKQVTCRYFMHGVCKEGDNCRYSHDLSDSPYSVVCKYFQRGYCIYGDRCRYEHSKPLKQEEATATELTTKSSLAASSSLSSIVGPLVEMNTGEAESRNSNFATVGAGSEDWVNAIEFVPGQPYCGRTAPSCTEAPLQGSVTKEESEKEQTAVETKKQLCPYAAVGECRYGENCVYLHGDSCDMCGLQVLHPMDAAQRSQHIKSCIEAHEKDMELSFAVQRSKDMVCGICMEVVYEKANPSERRFGILSNCNHTYCLKCIRKWRSAKQFESKIIKSCPECRITSNFVIPSEYWVEEKEEKQKLILKYKEAMSNKACRYFDEGRGSCPFGGNCFYKHAYPDGRREEPQRQKVGTSSRYRAQRRNHFWELIEERENSNPFDNDEEEVVTFELGEMLLMLLAAGGDDELTDSEDEWDLFHDELEDFYDLDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>P49757</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FEAQWAAL</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>P12830</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Q5T0T0</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>RDNVYYYDEEG</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>MSMPLHQISAIPSQDAISARVYRSKTKEKEREEQNEKTLGHFMSHSSNISKAGSPPSASAPAPVSSFSRTSITPSSQDICRICHCEGDDESPLITPCHCTGSLHFVHQACLQQWIKSSDTRCCELCKYEFIMETKLKPLRKWEKLQMTSSERRKIMCSVTFHVIAITCVVWSLYVLIDRTAEEIKQGQATGILEWPFWTKLVVVAIGFTGGLLFMYVQCKVYVQLWKRLKAYNRVIYVQNCPETSKKNIFEKSPLTEPNFENKHGYGICHSDTNSSCCTEPEDTGAEIIHV</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>P49757</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>FEAQWAAL</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Q9Y6Q9</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Q05086</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ADVSST</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Q86XK2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>MNSVRAANRRPRRVSRPRPVQQQQQQPPQQPPPQPPQQQPPQQQPPPPPQQQQQQQPPPPPPPPPPLPQERNNVGERDDDVPADMVAEESGPGAQNSPYQLRRKTLLPKRTACPTKNSMEGASTSTTENFGHRAKRARVSGKSQDLSAAPAEQYLQEKLPDEVVLKIFSYLLEQDLCRAACVCKRFSELANDPILWKRLYMEVFEYTRPMMHPEPGKFYQINPEEYEHPNPWKESFQQLYKGAHVKPGFAEHFYSNPARYKGRENMLYYDTIEDALGGVQEAHFDGLIFVHSGIYTDEWIYIESPITMIGAAPGKVADKVIIENTRDSTFVFMEGSEDAYVGYMTIRFNPDDKSAQHHNAHHCLEITVNCSPIIDHCIIRSTCTVGSAVCVSGQGACPTIKHCNISDCENVGLYITDHAQGIYEDNEISNNALAGIWVKNHGNPIIRRNHIHHGRDVGVFTFDHGMGYFESCNIHRNRIAGFEVKAYANPTVVRCEIHHGQTGGIYVHEKGRGQFIENKIYANNFAGVWITSNSDPTIRGNSIFNGNQGGVYIFGDGRGLIEGNDIYGNALAGIQIRTNSCPIVRHNKIHDGQHGGIYVHEKGQGVIEENEVYSNTLAGVWVTTGSTPVLRRNRIHSGKQVGVYFYDNGHGVLEDNDIYNHMYSGVQIRTGSNPKIRRNKIWGGQNGGILVYNSGLGCIEDNEIFDNAMAGVWIKTDSNPTLRRNKIHDGRDGGICIFNGGRGLLEENDIFRNAQAGVLISTNSHPILRKNRIFDGFAAGIEITNHATATLEGNQIFNNRFGGLFLASGVNVTMKDNKIMNNQDAIEKAVSRGQCLYKISSYTSYPMHDFYRCHTCNTTDRNAICVNCIKKCHQGHDVEFIRHDRFFCDCGAGTLSNPCTLAGEPTHDTDTLYDSAPPIESNTLQHN</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>P12830</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>RDNVYYYDEEG</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Q9UKT4</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>RTPLASV</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Q96EQ8</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>MGSVLSTDSGKSAPASATARALERRRDPELPVTSFDCAVCLEVLHQPVRTRCGHVFCRSCIATSLKNNKWTCPYCRAYLPSEGVPATDVAKRMKSEYKNCAECDTLVCLSEMRAHIRTCQKYIDKYGPLQELEETAARCVCPFCQRELYEDSLLDHCITHHRSERRPVFCPLCRLIPDENPSSFSGSLIRHLQVSHTLFYDDFIDFNIIEEALIRRVLDRSLLEYVNHSNTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Q9H0M0</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Q86YC2</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Q14145</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>P24869</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>P26309</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DKENQ</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>P49918</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Q9NXK8</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>PLISDFFAKRKRS</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>MATLVELPDSVLLEIFSYLPVRDRIRISRVCHRWKRLVDDRWLWRHVDLTLYTMRPKVMWHLLRRYMASRLHSLRMGGYLFSGSQAPQLSPALLRALGQKCPNLKRLCLHVADLSMVPITSLPSTLRTLELHSCEISMAWLHKQQDPTVLPLLECIVLDRVPAFRDEHLQGLTRFRALRSLVLGGTYRVTETGLDAGLQELSYLQRLEVLGCTLSADSTLLAISRHLRDVRKIRLTVRGLSAPGLAVLEGMPALESLCLQGPLVTPEMPSPTEILSSCLTMPKLRVLELQGLGWEGQEAEKILCKGLPHCMVIVRACPKESMDWWM</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>O95997</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>RKALGTV</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>P49427</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Q53EL6</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DSGRGDS</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Q99741</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>P41002</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>RKRLGDD</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>MGSGGVVHCRCAKCFCYPTKRRIRRRPRNLTILSLPEDVLFHILKWLSVEDILAVRAVHSQLKDLVDNHASVWACASFQELWPSPGNLKLFERAAEKGNFEAAVKLGIAYLYNEGLSVSDEARAEVNGLKASRFFSLAERLNVGAAPFIWLFIRPPWSVSGSCCKAVVHESLRAECQLQRTHKASILHCLGRVLSLFEDEEKQQQAHDLFEEAAHQGCLTSSYLLWESDRRTDVSDPGRCLHSFRKLRDYAAKGCWEAQLSLAKACANANQLGLEVRASSEIVCQLFQASQAVSKQQVFSVQKGLNDTMRYILIDWLVEVATMKDFTSLCLHLTVECVDRYLRRRLVPRYRLQLLGIACMVICTRFISKEILTIREAVWLTDNTYKYEDLVRMMGEIVSALEGKIRVPTVVDYKEVLLTLVPVELRTQHLCSFLCELSLLHTSLSAYAPARLAAAALLLARLTHGQTQPWTTQLWDLTGFSYEDLIPCVLSLHKKCFHDDAPKDYRQVSLTAVKQRFEDKRYGEISQEEVLSYSQLCAALGVTQDSPDPPTFLSTGEIHAFLSSPSGRRTKRKRENSLQEDRGSFVTTPTAELSSQEETLLGSFLDWSLDCCSGYEGDQESEGEKEGDVTAPSGILDVTVVYLNPEQHCCQESSDEEACPEDKGPQDPQALALDTQIPATPGPKPLVRTSREPGKDVTTSGYSSVSTASPTSSVDGGLGALPQPTSVLSLDSDSHTQPCHHQARKSCLQCRPPSPPESSVPQQQVKRINLCIHSEEEDMNLGLVRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>P10275</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ASSTT</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>O95155</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>MEELSADEIRRRRLARLAGGQTSQPTTPLTSPQRENPPGPPIAASAPGPSQSLGLNVHNMTPATSPIGASGVAHRSQSSEGVSSLSSSPSNSLETQSQSLSRSQSMDIDGVSCEKSMSQVDVDSGIENMEVDENDRREKRSLSDKEPSSGPEVSEEQALQLVCKIFRVSWKDRDRDVIFLSSLSAQFKQNPKEVFSDFKDLIGQILMEVLMMSTQTRDENPFASLTATSQPIAAAARSPDRNLLLNTGSNPGTSPMFCSVASFGASSLSSLYESSPAPTPSFWSSVPVMGPSLASPSRAASQLAVPSTPLSPHSAASGTAAGSQPSSPRYRPYTVTHPWASSGVSILSSSPSPPALASSPQAVPASSSRQRPSSTGPPLPPASPSATSRRPSSLRISPSLGASGGASNWDSYSDHFTIETCKETDMLNYLIECFDRVGIEEKKAPKMCSQPAVSQLLSNIRSQCISHTALVLQGSLTQPRSLQQPSFLVPYMLCRNLPYGFIQELVRTTHQDEEVFKQIFIPILQGLALAAKECSLDSDYFKYPLMALGELCETKFGKTHPVCNLVASLRLWLPKSLSPGCGRELQRLSYLGAFFSFSVFAEDDVKVVEKYFSGPAITLENTRVVSQSLQHYLELGRQELFKILHSILLNGETREAALSYMAAVVNANMKKAQMQTDDRLVSTDGFMLNFLWVLQQLSTKIKLETVDPTYIFHPRCRITLPNDETRVNATMEDVNDWLTELYGDQPPFSEPKFPTECFFLTLHAHHLSILPSCRRYIRRLRAIRELNRTVEDLKNNESQWKDSPLATRHREMLKRCKTQLKKLVRCKACADAGLLDESFLRRCLNFYGLLIQLLLRILDPAYPDITLPLNSDVPKVFAALPEFYVEDVAEFLFFIVQYSPQALYEPCTQDIVMFLVVMLCNQNYIRNPYLVAKLVEVMFMTNPAVQPRTQKFFEMIENHPLSTKLLVPSLMKFYTDVEHTGATSEFYDKFTIRYHISTIFKSLWQNIAHHGTFMEEFNSGKQFVRYINMLINDTTFLLDESLESLKRIHEVQEEMKNKEQWDQLPRDQQQARQSQLAQDERVSRSYLALATETVDMFHILTKQVQKPFLRPELGPRLAAMLNFNLQQLCGPKCRDLKVENPEKYGFEPKKLLDQLTDIYLQLDCARFAKAIADDQRSYSKELFEEVISKMRKAGIKSTIAIEKFKLLAEKVEEIVAKNARAEIDYSDAPDEFRDPLMDTLMTDPVRLPSGTIMDRSIILRHLLNSPTDPFNRQTLTESMLEPVPELKEQIQAWMREKQNSDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>O60260</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>P42345</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ITPFTS</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>P08581</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Q9Y4L5</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>NESVDYRATFP</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>MAEASAAGADSGAAVAAHRFFCHFCKGEVSPKLPEYICPRCESGFIEEVTDDSSFLGGGGSRIDNTTTTHFAELWGHLDHTMFFQDFRPFLSSSPLDQDNRANERGHQTHTDFWGARPPRLPLGRRYRSRGSSRPDRSPAIEGILQHIFAGFFANSAIPGSPHPFSWSGMLHSNPGDYAWGQTGLDAIVTQLLGQLENTGPPPADKEKITSLPTVTVTQEQVDMGLECPVCKEDYTVEEEVRQLPCNHFFHSSCIVPWLELHDTCPVCRKSLNGEDSTRQSQSTEASASNRFSNDSQLHDRWTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Q15004</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>EKENQ</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Q6PGQ7</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DSGYNT</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Q66K89</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>MEGAMAVRVTAAHTAEAQAEAGREAGEGAVAAVAAALAPSGFLGLPAPFSEEDEDDVHRCGRCQAEFTALEDFVQHKIQKACQRAPPEALPATPATTALLGQEVVPAAPGPEEPITVAHIVVEAASLAADISHASDLVGGGHIKEVIVAAEAELGDGEMAEAPGSPRQQGLGLAGEGEQAQVKLLVNKDGRYVCALCHKTFKTGSILKAHMVTHSSRKDHECKLCGASFRTKGSLIRHHRRHTDERPYKCSKCGKSFRESGALTRHLKSLTPCTEKIRFSVSKDVVVSKEDARAGSGAGAAGLGTATSSVTGEPIETSPVIHLVTDAKGTVIHEVHVQMQELSLGMKALAPEPPVSQELPCSSEGSRENLLHQAMQNSGIVLERAAGEEGALEPAPAAGSSPQPLAVAAPQLPVLEVQPLETQVASEASAVPRTHPCPQCSETFPTAATLEAHKRGHTGPRPFACAQCGKAFPKAYLLKKHQEVHVRERRFRCGDCGKLYKTIAHVRGHRRVHSDERPYPCPKCGKRYKTKNAQQVHFRTHLEEKPHVCQFCSRGFREKGSLVRHVRHHTGEKPFKCYKCGRGFAEHGTLNRHLRTKGGCLLEVEELLVSEDSPAAATTVLTEDPHTVLVEFSSVVADTQEYIIEATADDAETSEATEIIEGTQTEVDSHIMKVVQQIVHQASAGHQIIVQNVTMDEETALGPEAAAADTITIATPESLTEQVAMTLASAISEGTVLAARAGTSGTEQATVTMVSSEDIEILEHAGELVIASPEGQLEVQTVIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>P35659</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ADSST</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Q13118</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>IPCAAVSPN</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>P00533</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>P50876</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DSFLQRYSSDP</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>MTTTRYRPTWDLALDPLVSCKLCLGEYPVEQMTTIAQCQCIFCTLCLKQYVELLIKEGLETAISCPDAACPKQGHLQENEIECMVAAEIMQRYKKLQFEREVLFDPCRTWCPASTCQAVCQLQDVGLQTPQPVQCKACRMEFCSTCKASWHPGQGCPETMPITFLPGETSAAFKMEEDDAPIKRCPKCKVYIERDEGCAQMMCKNCKHAFCWYCLESLDDDFLLIHYDKGPCRNKLGHSRASVIWHRTQVVGIFAGFGLLLLVASPFLLLATPFVLCCKCKCSKGDDDPLPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>O95997</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Q9UJX6</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>RKALGTV</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>MAAAVVVAEGDSDSRPGQELLVAWNTVSTGLVPPAALGLVSSRTSGAVPPKEEELRAAVEVLRGHGLHSVLEEWFVEVLQNDLQANISPEFWNAISQCENSADEPQCLLLLLDAFGLLESRLDPYLRSLELLEKWTRLGLLMGTGAQGLREEVHTMLRGVLFFSTPRTFQEMIQRLYGCFLRVYMQSKRKGEGGTDPELEGELDSRYARRRYYRLLQSPLCAGCSSDKQQCWCRQALEQFHQLSQVLHRLSLLERVSAEAVTTTLHQVTRERMEDRCRGEYERSFLREFHKWIERVVGWLGKVFLQDGPARPASPEAGNTLRRWRCHVQRFFYRIYASLRIEELFSIVRDFPDSRPAIEDLKYCLERTDQRQQLLVSLKAALETRLLHPGVNTCDIITLYISAIKALRVLDPSMVILEVACEPIRRYLRTREDTVRQIVAGLTGDSDGTGDLAVELSKTDPASLETGQDSEDDSGEPEDWVPDPVDADPGKSSSKRRSSDIISLLVSIYGSKDLFINEYRSLLADRLLHQFSFSPEREIRNVELLKLRFGEAPMHFCEVMLKDMADSRRINANIREEDEKRPAEEQPPFGVYAVILSSEFWPPFKDEKLEVPEDIRAALEAYCKKYEQLKAMRTLSWKHTLGLVTMDVELADRTLSVAVTPVQAVILLYFQDQASWTLEELSKAVKMPVALLRRRMSVWLQQGVLREEPPGTFSVIEEERPQDRDNMVLIDSDDESDSGMASQADQKEEELLLFWTYIQAMLTNLESLSLDRIYNMLRMFVVTGPALAEIDLQELQGYLQKKVRDQQLVYSAGVYRLPKNCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Q13501</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Q8TDB6</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DPSTGE</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>MASHLRPPSPLLVRVYKSGPRVRRKLESYFQSSKSSGGGECTVSTQEHEAPGTFRVEFSERAAKERVLKKGEHQILVDEKPVPIFLVPTENSIKKNTRPQISSLTQSQAETPSGDMHQHEGHIPNAVDSCLQKIFLTVTADLNCNLFSKEQRAYITTLCPSIRKMEGHDGIEKVCGDFQDIERIHQFLSEQFLESEQKQQFSPSMTERKPLSQQERDSCISPSEPETKAEQKSNYFEVPLPYFEYFKYICPDKINSIEKRFGVNIEIQESSPNMVCLDFTSSRSGDLEAARESFASEFQKNTEPLKQECVSLADSKQANKFKQELNHQFTKLLIKEKGGELTLLGTQDDISAAKQKISEAFVKIPVKLFAANYMMNVIEVDSAHYKLLETELLQEISEIEKRYDICSKVSEKGQKTCILFESKDRQVDLSVHAYASFIDAFQHASCQLMREVLLLKSLGKERKHLHQTKFADDFRKRHPNVHFVLNQESMTLTGLPNHLAKAKQYVLKGGGMSSLAGKKLKEGHETPMDIDSDDSKAASPPLKGSVSSEASELDKKEKGICVICMDTISNKKVLPKCKHEFCAPCINKAMSYKPICPTCQTSYGIQKGNQPEGSMVFTVSRDSLPGYESFGTIVITYSMKAGIQTEEHPNPGKRYPGIQRTAYLPDNKEGRKVLKLLYRAFDQKLIFTVGYSRVLGVSDVITWNDIHHKTSRFGGPEMYGYPDPSYLKRVKEELKAKGIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>P62877</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>MAAAMDVDTPSGTNSGAGKKRFEVKKWNAVALWAWDIVVDNCAICRNHIMDLCIECQANQASATSEECTVAWGVCNHAFHFHCISRWLKTRQVCPLDNREWEFQKYGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Q969V5</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Q14247</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ADYRE</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Q16531</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>MSYNYVVTAQKPTAVNGCVTGHFTSAEDLNLLIAKNTRLEIYVVTAEGLRPVKEVGMYGKIAVMELFRPKGESKDLLFILTAKYNACILEYKQSGESIDIITRAHGNVQDRIGRPSETGIIGIIDPECRMIGLRLYDGLFKVIPLDRDNKELKAFNIRLEELHVIDVKFLYGCQAPTICFVYQDPQGRHVKTYEVSLREKEFNKGPWKQENVEAEASMVIAVPEPFGGAIIIGQESITYHNGDKYLAIAPPIIKQSTIVCHNRVDPNGSRYLLGDMEGRLFMLLLEKEEQMDGTVTLKDLRVELLGETSIAECLTYLDNGVVFVGSRLGDSQLVKLNVDSNEQGSYVVAMETFTNLGPIVDMCVVDLERQGQGQLVTCSGAFKEGSLRIIRNGIGIHEHASIDLPGIKGLWPLRSDPNRETDDTLVLSFVGQTRVLMLNGEEVEETELMGFVDDQQTFFCGNVAHQQLIQITSASVRLVSQEPKALVSEWKEPQAKNISVASCNSSQVVVAVGRALYYLQIHPQELRQISHTEMEHEVACLDITPLGDSNGLSPLCAIGLWTDISARILKLPSFELLHKEMLGGEIIPRSILMTTFESSHYLLCALGDGALFYFGLNIETGLLSDRKKVTLGTQPTVLRTFRSLSTTNVFACSDRPTVIYSSNHKLVFSNVNLKEVNYMCPLNSDGYPDSLALANNSTLTIGTIDEIQKLHIRTVPLYESPRKICYQEVSQCFGVLSSRIEVQDTSGGTTALRPSASTQALSSSVSSSKLFSSSTAPHETSFGEEVEVHNLLIIDQHTFEVLHAHQFLQNEYALSLVSCKLGKDPNTYFIVGTAMVYPEEAEPKQGRIVVFQYSDGKLQTVAEKEVKGAVYSMVEFNGKLLASINSTVRLYEWTTEKELRTECNHYNNIMALYLKTKGDFILVGDLMRSVLLLAYKPMEGNFEEIARDFNPNWMSAVEILDDDNFLGAENAFNLFVCQKDSAATTDEERQHLQEVGLFHLGEFVNVFCHGSLVMQNLGETSTPTQGSVLFGTVNGMIGLVTSLSESWYNLLLDMQNRLNKVIKSVGKIEHSFWRSFHTERKTEPATGFIDGDLIESFLDISRPKMQEVVANLQYDDGSGMKREATADDLIKVVEELTRIH</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>P38398</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Q8NEZ5</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Q8TEB7</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>MGPPPGAGVSCRGGCGFSRLLAWCFLLALSPQAPGSRGAEAVWTAYLNVSWRVPHTGVNRTVWELSEEGVYGQDSPLEPVAGVLVPPDGPGALNACNPHTNFTVPTVWGSTVQVSWLALIQRGGGCTFADKIHLAYERGASGAVIFNFPGTRNEVIPMSHPGAVDIVAIMIGNLKGTKILQSIQRGIQVTMVIEVGKKHGPWVNHYSIFFVSVSFFIITAATVGYFIFYSARRLRNARAQSRKQRQLKADAKKAIGRLQLRTLKQGDKEIGPDGDSCAVCIELYKPNDLVRILTCNHIFHKTCVDPWLLEHRTCPMCKCDILKALGIEVDVEDGSVSLQVPVSNEISNSASSHEEDNRSETASSGYASVQGTDEPPLEEHVQSTNESLQLVNHEANSVAVDVIPHVDNPTFEEDETPNQETAVREIKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>P10721</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>INGNNYVYIDP</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>O15151</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>MTSFSTSAQCSTSDSACRISPGQINQVRPKLPLLKILHAAGAQGEMFTVKEVMHYLGQYIMVKQLYDQQEQHMVYCGGDLLGELLGRQSFSVKDPSPLYDMLRKNLVTLATATTDAAQTLALAQDHSMDIPSQDQLKQSAEESSTSRKRTTEDDIPTLPTSEHKCIHSREDEDLIENLAQDETSRLDLGFEEWDVAGLPWWFLGNLRSNYTPRSNGSTDLQTNQDVGTAIVSDTTDDLWFLNESVSEQLGVGIKVEAADTEQTSEEVGKVSDKKVIEVGKNDDLEDSKSLSDDTDVEVTSEDEWQCTECKKFNSPSKRYCFRCWALRKDWYSDCSKLTHSLSTSDITAIPEKENEGNDVPDCRRTISAPVVRPKDAYIKKENSKLFDPCNSVEFLDLAHSSESQETISSMGEQLDNLSEQRTDTENMEDCQNLLKPCSLCEKRPRDGNIIHGRTGHLVTCFHCARRLKKAGASCPICKKEIQLVIKVFIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Q969P5</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>MPFLGQDWRSPGQNWVKTADGWKRFLDEKSGSFVSDLSSYCNKEVYNKENLFNSLNYDVAAKKRKKDMLNSKTKTQYFHQEKWIYVHKGSTKERHGYCTLGEAFNRLDFSTAILDSRRFNYVVRLLELIAKSQLTSLSGIAQKNFMNILEKVVLKVLEDQQNIRLIRELLQTLYTSLCTLVQRVGKSVLVGNINMWVYRMETILHWQQQLNNIQITRPAFKGLTFTDLPLCLQLNIMQRLSDGRDLVSLGQAAPDLHVLSEDRLLWKKLCQYHFSERQIRKRLILSDKGQLDWKKMYFKLVRCYPRKEQYGDTLQLCKHCHILSWKGTDHPCTANNPESCSVSLSPQDFINLFKF</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Q9HAU4</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Q99741</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Q7Z6Z7</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>RKRLGDD</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Q86WT6</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>MEVSTNPSSNIDPGDYVEMNDSITHLPSKVVIQDITMELHCPLCNDWFRDPLMLSCGHNFCEACIQDFWRLQAKETFCPECKMLCQYNNCTFNPVLDKLVEKIKKLPLLKGHPQCPEHGENLKLFSKPDGKLICFQCKDARLSVGQSKEFLQISDAVHFFTEELAIQQGQLETTLKELQTLRNMQKEAIAAHKENKLHLQQHVSMEFLKLHQFLHSKEKDILTELREEGKALNEEMELNLSQLQEQCLLAKDMLVSIQAKTEQQNSFDFLKDITTLLHSLEQGMKVLATRELISRKLNLGQYKGPIQYMVWREMQDTLCPGLSPLTLDPKTAHPNLVLSKSQTSVWHGDIKKIMPDDPERFDSSVAVLGSRGFTSGKWYWEVEVAKKTKWTVGVVRESIIRKGSCPLTPEQGFWLLRLRNQTDLKALDLPSFSLTLTNNLDKVGIYLDYEGGQLSFYNAKTMTHIYTFSNTFMEKLYPYFCPCLNDGGENKEPLHILHPQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Q16875</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>AKEND</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>P41134</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Q9HAU4</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>RAPLSTL</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Q12959</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DSGLPS</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>P42345</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ITPFTS</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>P98174</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>DSGIDS</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>FTRIR</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Q9BV68</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Q96PU4</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>MWIQVRTIDGSKTCTIEDVSRKATIEELRERVWALFDVRPECQRLFYRGKQLENGYTLFDYDVGLNDIIQLLVRPDPDHLPGTSTQIEAKPCSNSPPKVKKAPRVGPSNQPSTSARARLIDPGFGIYKVNELVDARDVGLGAWFEAHIHSVTRASDGQSRGKTPLKNGSSCKRTNGNIKHKSKENTNKLDSVPSTSNSDCVAADEDVIYHIQYDEYPESGTLEMNVKDLRPRARTILKWNELNVGDVVMVNYNVESPGQRGFWFDAEITTLKTISRTKKELRVKIFLGGSEGTLNDCKIISVDEIFKIERPGAHPLSFADGKFLRRNDPECDLCGGDPEKKCHSCSCRVCGGKHEPNMQLLCDECNVAYHIYCLNPPLDKVPEEEYWYCPSCKTDSSEVVKAGERLKMSKKKAKMPSASTESRRDWGRGMACVGRTRECTIVPSNHYGPIPGIPVGSTWRFRVQVSEAGVHRPHVGGIHGRSNDGAYSLVLAGGFADEVDRGDEFTYTGSGGKNLAGNKRIGAPSADQTLTNMNRALALNCDAPLDDKIGAESRNWRAGKPVRVIRSFKGRKISKYAPEEGNRYDGIYKVVKYWPEISSSHGFLVWRYLLRRDDVEPAPWTSEGIERSRRLCLRLQYPAGYPSDKEGKKPKGQSKKQPSGTTKRPISDDDCPSASKVYKASDSAEAIEAFQLTPQQQHLIREDCQNQKLWDEVLSHLVEGPNFLKKLEQSFMCVCCQELVYQPVTTECFHNVCKDCLQRSFKAQVFSCPACRHDLGQNYIMIPNEILQTLLDLFFPGYSKGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>P27895</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>P53197</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>NKENA</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>P20248</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>RAALAVL</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Q9LMA8</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>O04197</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>IARRASLHRFLEKRKDRV</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>MEDPDIKRCKLSCVATVDDVIEQVMTYITDPKDRDSASLVCRRWFKIDSETREHVTMALCYTATPDRLSRRFPNLRSLKLKGKPRAAMFNLIPENWGGYVTPWVTEISNNLRQLKSVHFRRMIVSDLDLDRLAKARADDLETLKLDKCSGFTTDGLLSIVTHCRKIKTLLMEESSFSEKDGKWLHELAQHNTSLEVLNFYMTEFAKISPKDLETIARNCRSLVSVKVGDFEILELVGFFKAAANLEEFCGGSLNEDIGMPEKYMNLVFPRKLCRLGLSYMGPNEMPILFPFAAQIRKLDLLYALLETEDHCTLIQKCPNLEVLETRNVIGDRGLEVLAQYCKQLKRLRIERGADEQGMEDEEGLVSQRGLIALAQGCQELEYMAVYVSDITNESLESIGTYLKNLCDFRLVLLDREERITDLPLDNGVRSLLIGCKKLRRFAFYLRQGGLTDLGLSYIGQYSPNVRWMLLGYVGESDEGLMEFSRGCPNLQKLEMRGCCFSERAIAAAVTKLPSLRYLWVQGYRASMTGQDLMQMARPYWNIELIPSRRVPEVNQQGEIREMEHPAHILAYYSLAGQRTDCPTTVRVLKEPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>P10721</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>O14544</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>INGNNYVYIDP</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>MKKISLKTLRKSFNLNKSKEETDFMVVQQPSLASDFGKDDSLFGSCYGKDMASCDINGEDEKGGKNRSKSESLMGTLKRRLSAKQKSKGKAGTPSGSSADEDTFSSSSAPIVFKDVRAQRPIRSTSLRSHHYSPAPWPLRPTNSEETCIKMEVRVKALVHSSSPSPALNGVRKDFHDLQSETTCQEQANSLKSSASHNGDLHLHLDEHVPVVIGLMPQDYIQYTVPLDEGMYPLEGSRSYCLDSSSPMEVSAVPPQVGGRAFPEDESQVDQDLVVAPEIFVDQSVNGLLIGTTGVMLQSPRAGHDDVPPLSPLLPPMQNNQIQRNFSGLTGTEAHVAESMRCHLNFDPNSAPGVARVYDSVQSSGPMVVTSLTEELKKLAKQGWYWGPITRWEAEGKLANVPDGSFLVRDSSDDRYLLSLSFRSHGKTLHTRIEHSNGRFSFYEQPDVEGHTSIVDLIEHSIRDSENGAFCYSRSRLPGSATYPVRLTNPVSRFMQVRSLQYLCRFVIRQYTRIDLIQKLPLPNKMKDYLQEKHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>P0C2W1</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>MAAPAPGAGAASGGAGCSGGGAGAGAGSGSGAAGAGGRLPSRVLELVFSYLELSELRSCALVCKHWYRCLHGDENSEVWRSLCARSLAEEALRTDILCNLPSYKAKIRAFQHAFSTNDCSRNVYIKKNGFTLHRNPIAQSTDGARTKIGFSEGRHAWEVWWEGPLGTVAVIGIATKRAPMQCQGYVALLGSDDQSWGWNLVDNNLLHNGEVNGSFPQCNNAPKYQIGERIRVILDMEDKTLAFERGYEFLGVAFRGLPKVCLYPAVSAVYGNTEVTLVYLGKPLDG</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Q9Y577</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>MEAVELARKLQEEATCSICLDYFTDPVMTTCGHNFCRACIQLSWEKARGKKGRRKRKGSFPCPECREMSPQRNLLPNRLLTKVAEMAQQHPGLQKQDLCQEHHEPLKLFCQKDQSPICVVCRESREHRLHRVLPAEEAVQGYKLKLEEDMEYLREQITRTGNLQAREEQSLAEWQGKVKERRERIVLEFEKMNLYLVEEEQRLLQALETEEEETASRLRESVACLDRQGHSLELLLLQLEERSTQGPLQMLQDMKEPLSRKNNVSVQCPEVAPPTRPRTVCRVPGQIEVLRGFLEDVVPDATSAYPYLLLYESRQRRYLGSSPEGSGFCSKDRFVAYPCAVGQTAFSSGRHYWEVGMNITGDALWALGVCRDNVSRKDRVPKCPENGFWVVQLSKGTKYLSTFSALTPVMLMEPPSHMGIFLDFEAGEVSFYSVSDGSHLHTYSQATFPGPLQPFFCLGAPKSGQMVISTVTMWVKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>P19474</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>P17181</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>DSGNYS</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>HRKHLQEIP</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Q8IWR1</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>MHNFEEELTCPICYSIFEDPRVLPCSHTFCRNCLENILQASGNFYIWRPLRIPLKCPNCRSITEIAPTGIESLPVNFALRAIIEKYQQEDHPDIVTCPEHYRQPLNVYCLLDKKLVCGHCLTIGQHHGHPIDDLQSAYLKEKDTPQKLLEQLTDTHWTDLTHLIEKLKEQKSHSEKMIQGDKEAVLQYFKELNDTLEQKKKSFLTALCDVGNLINQEYTPQIERMKEIREQQLELMALTISLQEESPLKFLEKVDDVRQHVQILKQRPLPEVQPVEIYPRVSKILKEEWSRTEIGQIKNVLIPKMKISPKRMSCSWPGKDEKEVEFLKILNIVVVTLISVILMSILFFNQHIITFLSEITLIWFSEASLSVYQSLSNSLHKVKNILCHIFYLLKEFVWKIVSH</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>P25963</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>DSGLDS</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Q5JSP0</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>DSGIDS</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>P20248</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>RAALAVL</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>P19838</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Q8IYM9</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>DSGVETS</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>MDFSVKVDIEKEVTCPICLELLTEPLSLDCGHSFCQACITAKIKESVIISRGESSCPVCQTRFQPGNLRPNRHLANIVERVKEVKMSPQEGQKRDVCEHHGKKLQIFCKEDGKVICWVCELSQEHQGHQTFRINEVVKECQEKLQVALQRLIKEDQEAEKLEDDIRQERTAWKNYIQIERQKILKGFNEMRVILDNEEQRELQKLEEGEVNVLDNLAAATDQLVQQRQDASTLISDLQRRLRGSSVEMLQDVIDVMKRSESWTLKKPKSVSKKLKSVFRVPDLSGMLQVLKELTDVQYYWVDVMLNPGSATSNVAISVDQRQVKTVRTCTFKNSNPCDFSAFGVFGCQYFSSGKYYWEVDVSGKIAWILGVHSKISSLNKRKSSGFAFDPSVNYSKVYSRYRPQYGYWVIGLQNTCEYNAFEDSSSSDPKVLTLFMAVPPCRIGVFLDYEAGIVSFFNVTNHGALIYKFSGCRFSRPAYPYFNPWNCLVPMTVCPPSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>P00533</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>DSFLQRYSSDP</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>P24869</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>P53197</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>DKENQ</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>P49919</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Q9EPX5</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>AVEQTPRK</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>MATLFDLPDLVLLEIFSYLPVRDRIRISRVCHRWKRLVDDRWLWRHVDLTLYTMRPKVMWHLLRRYMASRLYSLRMGGYLFSGSQAPQLSPALMRALGQKCPNLKRLCLHVADLSMVPITSLPSTLRTLELHSCEISMIWLQKEQDPTVLPLLECIVLDRVPAFRDEHLQGLTRFRALRSLVLGGTYRVTETGLDASLQELSYLQRLEVLGCTLSADSTLLAISRHLRDVRKIRLTVGGLSAQGLVFLEGMPVLESLCFQGPLITPDMPTPTQIVSSCLTMPKLRVLEVQGLGWEGQEAEKILCKGLPHCIVIVRACPKESMDWWM</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Q15653</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>DSGLGS</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Q53G59</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>MGGIMAPKDIMTNTHAKSILNSMNSLRKSNTLCDVTLRVEQKDFPAHRIVLAACSDYFCAMFTSELSEKGKPYVDIQGLTASTMEILLDFVYTETVHVTVENVQELLPAACLLQLKGVKQACCEFLESQLDPSNCLGIRDFAETHNCVDLMQAAEVFSQKHFPEVVQHEEFILLSQGEVEKLIKCDEIQVDSEEPVFEAVINWVKHAKKEREESLPNLLQYVRMPLLTPRYITDVIDAEPFIRCSLQCRDLVDEAKKFHLRPELRSQMQGPRTRARLGANEVLLVVGGFGSQQSPIDVVEKYDPKTQEWSFLPSITRKRRYVASVSLHDRIYVIGGYDGRSRLSSVECLDYTADEDGVWYSVAPMNVRRGLAGATTLGDMIYVSGGFDGSRRHTSMERYDPNIDQWSMLGDMQTAREGAGLVVASGVIYCLGGYDGLNILNSVEKYDPHTGHWTNVTPMATKRSGAGVALLNDHIYVVGGFDGTAHLSSVEAYNIRTDSWTTVTSMTTPRCYVGATVLRGRLYAIAGYDGNSLLSSIECYDPIIDSWEVVTSMGTQRCDAGVCVLREK</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>P06241</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>LIEDNEYTARQG</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Q99741</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>RKRLGDD</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Q9Y6Q9</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ADVSST</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Q9BYP7</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>O95198</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>ECEETEVDQH</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>METPPLPPACTKQGHQKPLDSKDDNTEKHCPVTVNPWHMKKAFKVMNELRSQNLLCDVTIVAEDMEISAHRVVLAACSPYFHAMFTGEMSESRAKRVRIKEVDGWTLRMLIDYVYTAEIQVTEENVQVLLPAAGLLQLQDVKKTCCEFLESQLHPVNCLGIRAFADMHACTDLLNKANTYAEQHFADVVLSEEFLNLGIEQVCSLISSDKLTISSEEKVFEAVIAWVNHDKDVRQEFMARLMEHVRLPLLPREYLVQRVEEEALVKNSSACKDYLIEAMKYHLLPTEQRILMKSVRTRLRTPMNLPKLMVVVGGQAPKAIRSVECYDFKEERWHQVAELPSRRCRAGMVYMAGLVFAVGGFNGSLRVRTVDSYDPVKDQWTSVANMRDRRSTLGAAVLNGLLYAVGGFDGSTGLSSVEAYNIKSNEWFHVAPMNTRRSSVGVGVVGGLLYAVGGYDGASRQCLSTVECYNATTNEWTYIAEMSTRRSGAGVGVLNNLLYAVGGHDGPLVRKSVEVYDPTTNAWRQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPTTDKWTVVSSCMSTGRSYAGVTVIDKPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>P25963</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>P49427</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DSGLDS</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Q6P3S6</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>MASSSDSEDDSFMAVDQEETVLEGTMDQDEEPHPVLEAEETRHNRSMSELPEEVLEYILSFLSPYQEHKTAALVCKQWYRLIKGVAHQCYHGFMKAVQEGNIQWESRTYPYPGTPITQRFSHSACYYDANQSMYVFGGCTQSSCNAAFNDLWRLDLNSKEWIRPLASGSYPSPKAGATLVVYKDLLVLFGGWTRPSPYPLHQPERFFDEIHTYSPSKNWWNCIVTTHGPPPMAGHSSCVIDDKMIVFGGSLGSRQMSNDVWVLDLEQWAWSKPNISGPSPHPRGGQSQIVIDDATILILGGCGGPNALFKDAWLLHMHSGPWAWQPLKVENEEHGAPELWCHPACRVGQCVVVFSQAPSGRAPLSPSLNSRPSPISATPPALVPETREYRSQSPVRSMDEAPCVNGRWGTLRPRAQRQTPSGSREGSLSPARGDGSPILNGGSLSPGTAAVGGSSLDSPVQAISPSTPSAPEGYDLKIGLSLAPRRGSLPDQKDLRLGSIDLNWDLKPASSSNPMDGMDNRTVGGSMRHPPEQTNGVHTPPHVASALAGAVSPGALRRSLEAIKAMSSKGPSASAALSPPLGSSPGSPGSQSLSSGETVPIPRPGPAQGDGHSLPPIARRLGHHPPQSLNVGKPLYQSMNCKPMQMYVLDIKDTKEKGRVKWKVFNSSSVVGPPETSLHTVVQGRGELIIFGGLMDKKQNVKYYPKTNALYFVRAKR</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>P38398</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Q96T88</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>MWIQVRTMDGRQTHTVDSLSRLTKVEELRRKIQELFHVEPGLQRLFYRGKQMEDGHTLFDYEVRLNDTIQLLVRQSLVLPHSTKERDSELSDTDSGCCLGQSESDKSSTHGEAAAETDSRPADEDMWDETELGLYKVNEYVDARDTNMGAWFEAQVVRVTRKAPSRDEPCSSTSRPALEEDVIYHVKYDDYPENGVVQMNSRDVRARARTIIKWQDLEVGQVVMLNYNPDNPKERGFWYDAEISRKRETRTARELYANVVLGDDSLNDCRIIFVDEVFKIERPGEGSPMVDNPMRRKSGPSCKHCKDDVNRLCRVCACHLCGGRQDPDKQLMCDECDMAFHIYCLDPPLSSVPSEDEWYCPECRNDASEVVLAGERLRESKKKAKMASATSSSQRDWGKGMACVGRTKECTIVPSNHYGPIPGIPVGTMWRFRVQVSESGVHRPHVAGIHGRSNDGAYSLVLAGGYEDDVDHGNFFTYTGSGGRDLSGNKRTAEQSCDQKLTNTNRALALNCFAPINDQEGAEAKDWRSGKPVRVVRNVKGGKNSKYAPAEGNRYDGIYKVVKYWPEKGKSGFLVWRYLLRRDDDEPGPWTKEGKDRIKKLGLTMQYPEGYLEALANREREKENSKREEEEQQEGGFASPRTGKGKWKRKSAGGGPSRAGSPRRTSKKTKVEPYSLTAQQSSLIREDKSNAKLWNEVLASLKDRPASGSPFQLFLSKVEETFQCICCQELVFRPITTVCQHNVCKDCLDRSFRAQVFSCPACRYDLGRSYAMQVNQPLQTVLNQLFPGYGNGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Q05086</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>P11308</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ASSSS</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Q13118</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>IPCAAVSPN</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Q96GD4</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>RLPLAQV</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Q13127</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SEGSDDSGL</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Q14258</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>MAELCPLAEELSCSICLEPFKEPVTTPCGHNFCGSCLNETWAVQGSPYLCPQCRAVYQARPQLHKNTVLCNVVEQFLQADLAREPPADVWTPPARASAPSPNAQVACDHCLKEAAVKTCLVCMASFCQEHLQPHFDSPAFQDHPLQPPVRDLLRRKCSQHNRLREFFCPEHSECICHICLVEHKTCSPASLSQASADLEATLRHKLTVMYSQINGASRALDDVRNRQQDVRMTANRKVEQLQQEYTEMKALLDASETTSTRKIKEEEKRVNSKFDTIYQILLKKKSEIQTLKEEIEQSLTKRDEFEFLEKASKLRGISTKPVYIPEVELNHKLIKGIHQSTIDLKNELKQCIGRLQEPTPSSGDPGEHDPASTHKSTRPVKKVSKEEKKSKKPPPVPALPSKLPTFGAPEQLVDLKQAGLEAAAKATSSHPNSTSLKAKVLETFLAKSRPELLEYYIKVILDYNTAHNKVALSECYTVASVAEMPQNYRPHPQRFTYCSQVLGLHCYKKGIHYWEVELQKNNFCGVGICYGSMNRQGPESRLGRNSASWCVEWFNTKISAWHNNVEKTLPSTKATRVGVLLNCDHGFVIFFAVADKVHLMYKFRVDFTEALYPAFWVFSAGATLSICSPK</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Q53EL6</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Q9NZJ0</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DSGRGDS</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Q99728</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>MPDNRQPRNRQPRIRSGNEPRSAPAMEPDGRGAWAHSRAALDRLEKLLRCSRCTNILREPVCLGGCEHIFCSNCVSDCIGTGCPVCYTPAWIQDLKINRQLDSMIQLCSKLRNLLHDNELSDLKEDKPRKSLFNDAGNKKNSIKMWFSPRSKKVRYVVSKASVQTQPAIKKDASAQQDSYEFVSPSPPADVSERAKKASARSGKKQKKKTLAEINQKWNLEAEKEDGEFDSKEESKQKLVSFCSQPSVISSPQINGEIDLLASGSLTESECFGSLTEVSLPLAEQIESPDTKSRNEVVTPEKVCKNYLTSKKSLPLENNGKRGHHNRLSSPISKRCRTSILSTSGDFVKQTVPSENIPLPECSSPPSCKRKVGGTSGRKNSNMSDEFISLSPGTPPSTLSSSSYRRVMSSPSAMKLLPNMAVKRNHRGETLLHIASIKGDIPSVEYLLQNGSDPNVKDHAGWTPLHEACNHGHLKVVELLLQHKALVNTTGYQNDSPLHDAAKNGHVDIVKLLLSYGASRNAVNIFGLRPVDYTDDESMKSLLLLPEKNESSSASHCSVMNTGQRRDGPLVLIGSGLSSEQQKMLSELAVILKAKKYTEFDSTVTHVVVPGDAVQSTLKCMLGILNGCWILKFEWVKACLRRKVCEQEEKYEIPEGPRRSRLNREQLLPKLFDGCYFYLWGTFKHHPKDNLIKLVTAGGGQILSRKPKPDSDVTQTINTVAYHARPDSDQRFCTQYIIYEDLCNYHPERVRQGKVWKAPSSWFIDCVMSFELLPLDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>P49427</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>MARPLVPSSQKALLLELKGLQEEPVEGFRVTLVDEGDLYNWEVAIFGPPNTYYEGGYFKARLKFPIDYPYSPPAFRFLTKMWHPNIYETGDVCISILHPPVDDPQSGELPSERWNPTQNVRTILLSVISLLNEPNTFSPANVDASVMYRKWKESKGKDREYTDIIRKQVLGTKVDAERDGVKVPTTLAEYCVKTKAPAPDEGSDLFYDDYYEDGEVEEEADSCFGDDEDDSGTEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>P41161</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DEQFVPDF</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>P05412</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>P10523</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>EEPQTVPEM</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>MAASGKTSKSEPNHVIFKKISRDKSVTIYLGNRDYIDHVSQVQPVDGVVLVDPDLVKGKKVYVTLTCAFRYGQEDIDVIGLTFRRDLYFSRVQVYPPVGAASTPTKLQESLLKKLGSNTYPFLLTFPDYLPCSVMLQPAPQDSGKSCGVDFEVKAFATDSTDAEEDKIPKKSSVRLLIRKVQHAPLEMGPQPRAEAAWQFFMSDKPLHLAVSLNKEIYFHGEPIPVTVTVTNNTEKTVKKIKAFVEQVANVVLYSSDYYVKPVAMEEAQEKVPPNSTLTKTLTLLPLLANNRERRGIALDGKIKHEDTNLASSTIIKEGIDRTVLGILVSYQIKVKLTVSGFLGELTSSEVATEVPFRLMHPQPEDPAKESYQDANLVFEEFARHNLKDAGEAEEGKRDKNDVDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Q96GD4</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Q9UKC9</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>RLPLAQV</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>MVFSNNDEGLINKKLPKELLLRIFSFLDIVTLCRCAQISKAWNILALDGSNWQRIDLFNFQTDVEGRVVENISKRCGGFLRKLSLRGCIGVGDSSLKTFAQNCRNIEHLNLNGCTKITDSTCYSLSRFCSKLKHLDLTSCVSITNSSLKGISEGCRNLEYLNLSWCDQITKDGIEALVRGCRGLKALLLRGCTQLEDEALKHIQNYCHELVSLNLQSCSRITDEGVVQICRGCHRLQALCLSGCSNLTDASLTALGLNCPRLQILEAARCSHLTDAGFTLLARNCHELEKMDLEECILITDSTLIQLSIHCPKLQALSLSHCELITDDGILHLSNSTCGHERLRVLELDNCLLITDVALEHLENCRGLERLELYDCQQVTRAGIKRMRAQLPHVKVHAYFAPVTPPTAVAGSGQRLCRCCVIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Q02363</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SRTPLTTLN</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Q13887</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>FPPSPPSS</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Q96PU5</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>MATGLGEPVYGLSEDEGESRILRVKVVSGIDLAKKDIFGASDPYVKLSLYVADENRELALVQTKTIKKTLNPKWNEEFYFRVNPSNHRLLFEVFDENRLTRDDFLGQVDVPLSHLPTEDPTMERPYTFKDFLLRPRSHKSRVKGFLRLKMAYMPKNGGQDEENSDQRDDMEHGWEVVDSNDSASQHQEELPPPPLPPGWEEKVDNLGRTYYVNHNNRTTQWHRPSLMDVSSESDNNIRQINQEAAHRRFRSRRHISEDLEPEPSEGGDVPEPWETISEEVNIAGDSLGLALPPPPASPGSRTSPQELSEELSRRLQITPDSNGEQFSSLIQREPSSRLRSCSVTDAVAEQGHLPPPSAPAGRARSSTVTGGEEPTPSVAYVHTTPGLPSGWEERKDAKGRTYYVNHNNRTTTWTRPIMQLAEDGASGSATNSNNHLIEPQIRRPRSLSSPTVTLSAPLEGAKDSPVRRAVKDTLSNPQSPQPSPYNSPKPQHKVTQSFLPPGWEMRIAPNGRPFFIDHNTKTTTWEDPRLKFPVHMRSKTSLNPNDLGPLPPGWEERIHLDGRTFYIDHNSKITQWEDPRLQNPAITGPAVPYSREFKQKYDYFRKKLKKPADIPNRFEMKLHRNNIFEESYRRIMSVKRPDVLKARLWIEFESEKGLDYGGVAREWFFLLSKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFTFIGRVAGLAVFHGKLLDGFFIRPFYKMMLGKQITLNDMESVDSEYYNSLKWILENDPTELDLMFCIDEENFGQTYQVDLKPNGSEIMVTNENKREYIDLVIQWRFVNRVQKQMNAFLEGFTELLPIDLIKIFDENELELLMCGLGDVDVNDWRQHSIYKNGYCPNHPVIQWFWKAVLLMDAEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQLFTIEQWGSPEKLPRAHTCFNRLDLPPYETFEDLREKLLMAVENAQGFEGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Q9NQW6</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Q9NYG5</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>RENLQRK</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Q7Z419</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>MGSAGRLHYLAMTAENPTPGDLAPAPLITCKLCLCEQSLDKMTTLQECQCIFCTACLKQYMQLAIREGCGSPITCPDMVCLNHGTLQEAEIACLVPVDQFQLYQRLKFEREVHLDPYRTWCPVADCQTVCPVASSDPGQPVLVECPSCHLKFCSCCKDAWHAEVSCRDSQPIVLPTEHRALFGTDAEAPIKQCPVCRVYIERNEGCAQMMCKNCKHTFCWYCLQNLDNDIFLRHYDKGPCRNKLGHSRASVMWNRTQVVGILVGLGIIALVTSPLLLLASPCIICCVCKSCRGKKKKHDPSTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Q9H3D4</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Q9H0M0</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>FQHIWDFL</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>O00221</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>DSGIES</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Q96PM5</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>P09619</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SIFNSLYTTLSD</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>P12830</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>MGPWSRSLSALLLLLQVSSWLCQEPEPCHPGFDAESYTFTVPRRHLERGRVLGRVNFEDCTGRQRTAYFSLDTRFKVGTDGVITVKRPLRFHNPQIHFLVYAWDSTYRKFSTKVTLNTVGHHHRPPPHQASVSGIQAELLTFPNSSPGLRRQKRDWVIPPISCPENEKGPFPKNLVQIKSNKDKEGKVFYSITGQGADTPPVGVFIIERETGWLKVTEPLDRERIATYTLFSHAVSSNGNAVEDPMEILITVTDQNDNKPEFTQEVFKGSVMEGALPGTSVMEVTATDADDDVNTYNAAIAYTILSQDPELPDKNMFTINRNTGVISVVTTGLDRESFPTYTLVVQAADLQGEGLSTTATAVITVTDTNDNPPIFNPTTYKGQVPENEANVVITTLKVTDADAPNTPAWEAVYTILNDDGGQFVVTTNPVNNDGILKTAKGLDFEAKQQYILHVAVTNVVPFEVSLTTSTATVTVDVLDVNEAPIFVPPEKRVEVSEDFGVGQEITSYTAQEPDTFMEQKITYRIWRDTANWLEINPDTGAISTRAELDREDFEHVKNSTYTALIIATDNGSPVATGTGTLLLILSDVNDNAPIPEPRTIFFCERNPKPQVINIIDADLPPNTSPFTAELTHGASANWTIQYNDPTQESIILKPKMALEVGDYKINLKLMDNQNKDQVTTLEVSVCDCEGAAGVCRKAQPVEAGLQIPAILGILGGILALLILILLLLLFLRRRAVVKEPLLPPEDDTRDNVYYYDEEGGGEEDQDFDLSQLHRGLDARPEVTRNDVAPTLMSVPRYLPRPANPDEIGNFIDENLKAADTDPTAPPYDSLLVFDYEGSGSEAASLSSLNSSESDKDQDYDYLNEWGNRFKKLADMYGGGEDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Q12959</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Q9P0N8</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DSGLPS</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>MTTGDCCHLPGSLCDCSGSPAFSKVVEATGLGPPQYVAQVTSRDGRLLSTVIRALDTPSDGPFCRICHEGANGECLLSPCGCTGTLGAVHKSCLEKWLSSSNTSYCELCHTEFAVEKRPRPLTEWLKDPGPRTEKRTLCCDMVCFLFITPLAAISGWLCLRGAQDHLRLHSQLEAVGLIALTIALFTIYVLWTLVSFRYHCQLYSEWRKTNQKVRLKIREADSPEGPQHSPLAAGLLKKVAEETPV</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Q96LD4</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>MDGSGPFSCPICLEPLREPVTLPCGHNFCLACLGALWPHRGASGAGGPGGAARCPLCQEPFPDGLQLRKNHTLSELLQLRQGSGPGSGPGPAPALAPEPSAPSALPSVPEPSAPCAPEPWPAGEEPVRCDACPEGAALPAALSCLSCLASFCPAHLGPHERSPALRGHRLVPPLRRLEESLCPRHLRPLERYCRAERVCLCEACAAQEHRGHELVPLEQERALQEAEQSKVLSAVEDRMDELGAGIAQSRRTVALIKSAAVAERERVSRLFADAAAALQGFQTQVLGFIEEGEAAMLGRSQGDLRRQEEQRSRLSRARQNLSQVPEADSVSFLQELLALRLALEDGCGPGPGPPRELSFTKSSQAVRAVRDMLAVACVNQWEQLRGPGGNEDGPQKLDSEADAEPQDLESTNLLESEAPRDYFLKFAYIVDLDSDTADKFLQLFGTKGVKRVLCPINYPLSPTRFTHCEQVLGEGALDRGTYYWEVEIIEGWVSMGVMAEDFSPQEPYDRGRLGRNAHSCCLQWNGRSFSVWFHGLEAPLPHPFSPTVGVCLEYADRALAFYAVRDGKMSLLRRLKASRPRRGGIPASPIDPFQSRLDSHFAGLFTHRLKPAFFLESVDAHLQIGPLKKSCISVLKRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>P42261</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>RFALSQL</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Q9UKT5</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>MAGSEPRSGTNSPPPPFSDWGRLEAAILSGWKTFWQSVSKERVARTTSREEVDEAASTLTRLPIDVQLYILSFLSPHDLCQLGSTNHYWNETVRDPILWRYFLLRDLPSWSSVDWKSLPDLEILKKPISEVTDGAFFDYMAVYRMCCPYTRRASKSSRPMYGAVTSFLHSLIIQNEPRFAMFGPGLEELNTSLVLSLMSSEELCPTAGLPQRQIDGIGSGVNFQLNNQHKFNILILYSTTRKERDRAREEHTSAVNKMFSRHNEGDDQQGSRYSVIPQIQKVCEVVDGFIYVANAEAHKRHEWQDEFSHIMAMTDPAFGSSGRPLLVLSCISQGDVKRMPCFYLAHELHLNLLNHPWLVQDTEAETLTGFLNGIEWILEEVESKRAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Q04912</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>GDYRE</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>P19474</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Q14145</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Q16633</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>APTAVVLPH</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Q9UER7</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ADSST</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Q13356</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>MGKRQHQKDKMYITCAEYTHFYGGKKPDLPQTNFRRLPFDHCSLSLQPFVYPVCTPDGIVFDLLNIVPWLKKYGTNPSNGEKLDGRSLIKLNFSKNSEGKYHCPVLFTVFTNNTHIVAVRTTGNVYAYEAVEQLNIKAKNFRDLLTDEPFSRQDIITLQDPTNLDKFNVSNFYHVKNNMKIIDPDEEKAKQDPSYYLKNTNAETRETLQELYKEFKGDEILAATMKAPEKKKVDKLNAAHYSTGKVSASFTSTAMVPETTHEAAAIDEDVLRYQFVKKKGYVRLHTNKGDLNLELHCDLTPKTCENFIRLCKKHYYDGTIFHRSIRNFVIQGGDPTGTGTGGESYWGKPFKDEFRPNLSHTGRGILSMANSGPNSNRSQFFITFRSCAYLDKKHTIFGRVVGGFDVLTAMENVESDPKTDRPKEEIRIDATTVFVDPYEEADAQIAQERKTQLKVAPETKVKSSQPQAGSQGPQTFRQGVGKYINPAATKRAAEEEPSTSATVPMSKKKPSRGFGDFSSW</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>P43268</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>P78317</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DEQFVPDF</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>MSTRKRRGGAINSRQAQKRTREATSTPEISLEAEPIELVETAGDEIVDLTCESLEPVVVDLTHNDSVVIVDERRRPRRNARRLPQDHADSCVVSSDDEELSRDRDVYVTTHTPRNARDEGATGLRPSGTVSCPICMDGYSEIVQNGRLIVSTECGHVFCSQCLRDSLKNANTCPTCRKKINHKRYHPIYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>P19474</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>MASAARLTMMWEEVTCPICLDPFVEPVSIECGHSFCQECISQVGKGGGSVCPVCRQRFLLKNLRPNRQLANMVNNLKEISQEAREGTQGERCAVHGERLHLFCEKDGKALCWVCAQSRKHRDHAMVPLEEAAQEYQEKLQVALGELRRKQELAEKLEVEIAIKRADWKKTVETQKSRIHAEFVQQKNFLVEEEQRQLQELEKDEREQLRILGEKEAKLAQQSQALQELISELDRRCHSSALELLQEVIIVLERSESWNLKDLDITSPELRSVCHVPGLKKMLRTCAVHITLDPDTANPWLILSEDRRQVRLGDTQQSIPGNEERFDSYPMVLGAQHFHSGKHYWEVDVTGKEAWDLGVCRDSVRRKGHFLLSSKSGFWTIWLWNKQKYEAGTYPQTPLHLQVPPCQVGIFLDYEAGMVSFYNITDHGSLIYSFSECAFTGPLRPFFSPGFNDGGKNTAPLTLCPLNIGSQGSTDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>O95997</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>O95155</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>RKALGTV</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>MEELSADEIRRRRLARLAGGQTSQPTTPLTSPQRENPPGPPIAASAPGPSQSLGLNVHNMTPATSPIGASGVAHRSQSSEGVSSLSSSPSNSLETQSQSLSRSQSMDIDGVSCEKSMSQVDVDSGIENMEVDENDRREKRSLSDKEPSSGPEVSEEQALQLVCKIFRVSWKDRDRDVIFLSSLSAQFKQNPKEVFSDFKDLIGQILMEVLMMSTQTRDENPFASLTATSQPIAAAARSPDRNLLLNTGSNPGTSPMFCSVASFGASSLSSLYESSPAPTPSFWSSVPVMGPSLASPSRAASQLAVPSTPLSPHSAASGTAAGSQPSSPRYRPYTVTHPWASSGVSILSSSPSPPALASSPQAVPASSSRQRPSSTGPPLPPASPSATSRRPSSLRISPSLGASGGASNWDSYSDHFTIETCKETDMLNYLIECFDRVGIEEKKAPKMCSQPAVSQLLSNIRSQCISHTALVLQGSLTQPRSLQQPSFLVPYMLCRNLPYGFIQELVRTTHQDEEVFKQIFIPILQGLALAAKECSLDSDYFKYPLMALGELCETKFGKTHPVCNLVASLRLWLPKSLSPGCGRELQRLSYLGAFFSFSVFAEDDVKVVEKYFSGPAITLENTRVVSQSLQHYLELGRQELFKILHSILLNGETREAALSYMAAVVNANMKKAQMQTDDRLVSTDGFMLNFLWVLQQLSTKIKLETVDPTYIFHPRCRITLPNDETRVNATMEDVNDWLTELYGDQPPFSEPKFPTECFFLTLHAHHLSILPSCRRYIRRLRAIRELNRTVEDLKNNESQWKDSPLATRHREMLKRCKTQLKKLVRCKACADAGLLDESFLRRCLNFYGLLIQLLLRILDPAYPDITLPLNSDVPKVFAALPEFYVEDVAEFLFFIVQYSPQALYEPCTQDIVMFLVVMLCNQNYIRNPYLVAKLVEVMFMTNPAVQPRTQKFFEMIENHPLSTKLLVPSLMKFYTDVEHTGATSEFYDKFTIRYHISTIFKSLWQNIAHHGTFMEEFNSGKQFVRYINMLINDTTFLLDESLESLKRIHEVQEEMKNKEQWDQLPRDQQQARQSQLAQDERVSRSYLALATETVDMFHILTKQVQKPFLRPELGPRLAAMLNFNLQQLCGPKCRDLKVENPEKYGFEPKKLLDQLTDIYLQLDCARFAKAIADDQRSYSKELFEEVISKMRKAGIKSTIAIEKFKLLAEKVEEIVAKNARAEIDYSDAPDEFRDPLMDTLMTDPVRLPSGTIMDRSIILRHLLNSPTDPFNRQTLTESMLEPVPELKEQIQAWMREKQNSDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Q02363</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Q9Y574</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>SRTPLTTLN</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>MDGTTAPVTKSGAAKLVKRNFLEALKSNDFGKLKAILIQRQIDVDTVFEVEDENMVLASYKQGYWLPSYKLKSSWATGLHLSVLFGHVECLLVLLDHNATINCRPNGKTPLHVACEMANVDCVKILCDRGAKLNCYSLSGHTALHFCTTPSSILCAKQLVWRGANVNMKTNNQDEETPLHTAAHFGLSELVAFYVEHGAIVDSVNAHMETPLAIAAYWALRFKEQEYSTEHHLVCRMLLDYKAEVNARDDDFKSPLHKAAWNCDHVLMHMMLEAGAEANLMDINGCAAIQYVLKVTSVRPAAQPEICYQLLLNHGAARIYPPQFHKVIQACHSCPKAIEVVVNAYEHIRWNTKWRRAIPDDDLEKYWDFYHSLFTVCCNSPRTLMHLSRCAIRRTLHNRCHRAIPLLSLPLSLKKYLLLEPEGIIY</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Q96PM5</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Q6PGQ7</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Q9P2N7</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DSGYNT</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SKENQ</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Q08981</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>P53197</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>VKENL</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>P10275</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Q9Y252</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ASSTT</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>MNQSRSRSDGGSEETLPQDHNHHENERRWQQERLHREEAYYQFINELNDEDYRLMRDHNLLGTPGEITSEELQQRLDGVKEQLASQPDLRDGTNYRDSEVPRESSHEDSLLEWLNTFRRTGNATRSGQNGNQTWRAVSRTNPNNGEFRFSLEIHVNHENRGFEIHGEDYTDIPLSDSNRDHTANRQQRSTSPVARRTRSQTSVNFNGSSSNIPRTRLASRGQNPAEGSFSTLGRLRNGIGGAAGIPRANASRTNFSSHTNQSGGSELRQREGQRFGAAHVWENGARSNVTVRNTNQRLEPIRLRSTSNSRSRSPIQRQSGTVYHNSQRESRPVQQTTRRSVRRRGRTRVFLEQDRERERRGTAYTPFSNSRLVSRITVEEGEESSRSSTAVRRHPTITLDLQVRRIRPGENRDRDSIANRTRSRVGLAENTVTIESNSGGFRRTISRLERSGIRTYVSTITVPLRRISENELVEPSSVALRSILRQIMTGFGELSSLMEADSESELQRNGQHLPDMHSELSNLGTDNNRSQHREGSSQDRQAQGDSTEMHGENETTQPHTRNSDSRGGRQLRNPNNLVETGTLPILRLAHFFLLNESDDDDRIRGLTKEQIDNLSTRHYEHNSIDSELGKICSVCISDYVTGNKLRQLPCMHEFHIHCIDRWLSENCTCPICRQPVLGSNIANNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>P05412</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>EEPQTVPEM</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>O60907</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>MTELAGASSSCCHRPAGRGAMQSVLHHFQRLRGREGGSHFINTSSPRGEAKMSITSDEVNFLVYRYLQESGFSHSAFTFGIESHISQSNINGTLVPPAALISILQKGLQYVEAEISINEDGTVFDGRPIESLSLIDAVMPDVVQTRQQAFREKLAQQQASAAAAAAAATAAATAATTTSAGVSHQNPSKNREATVNGEENRAHSVNNHAKPMEIDGEVEIPSSKATVLRGHESEVFICAWNPVSDLLASGSGDSTARIWNLNENSNGGSTQLVLRHCIREGGHDVPSNKDVTSLDWNTNGTLLATGSYDGFARIWTEDGNLASTLGQHKGPIFALKWNRKGNYILSAGVDKTTIIWDAHTGEAKQQFPFHSAPALDVDWQNNTTFASCSTDMCIHVCRLGCDRPVKTFQGHTNEVNAIKWDPSGMLLASCSDDMTLKIWSMKQEVCIHDLQAHNKEIYTIKWSPTGPATSNPNSNIMLASASFDSTVRLWDIERGVCTHTLTKHQEPVYSVAFSPDGKYLASGSFDKCVHIWNTQSGNLVHSYRGTGGIFEVCWNARGDKVGASASDGSVCVLDLRK</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Q99814</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>P40337</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>LAPTPGDAIISLDF</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>O43521</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Q9NSE2</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>RSPLFIF</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>MVLCVQGPRPLLAVERTGQRPLWAPSLELPKPVMQPLPAGAFLEEVAEGTPAQTESEPKVLDPEEDLLCIAKTFSYLRESGWYWGSITASEARQHLQKMPEGTFLVRDSTHPSYLFTLSVKTTRGPTNVRIEYADSSFRLDSNCLSRPRILAFPDVVSLVQHYVASCTADTRSDSPDPAPTPALPMPKEDAPSDPALPAPPPATAVHLKLVQPFVRRSSARSLQHLCRLVINRLVADVDCLPLPRRMADYLRQYPFQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>O14920</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Q14145</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>NQETGE</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Q13887</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Q14258</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>FPPSPPSS</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>MAELCPLAEELSCSICLEPFKEPVTTPCGHNFCGSCLNETWAVQGSPYLCPQCRAVYQARPQLHKNTVLCNVVEQFLQADLAREPPADVWTPPARASAPSPNAQVACDHCLKEAAVKTCLVCMASFCQEHLQPHFDSPAFQDHPLQPPVRDLLRRKCSQHNRLREFFCPEHSECICHICLVEHKTCSPASLSQASADLEATLRHKLTVMYSQINGASRALDDVRNRQQDVRMTANRKVEQLQQEYTEMKALLDASETTSTRKIKEEEKRVNSKFDTIYQILLKKKSEIQTLKEEIEQSLTKRDEFEFLEKASKLRGISTKPVYIPEVELNHKLIKGIHQSTIDLKNELKQCIGRLQEPTPSSGDPGEHDPASTHKSTRPVKKVSKEEKKSKKPPPVPALPSKLPTFGAPEQLVDLKQAGLEAAAKATSSHPNSTSLKAKVLETFLAKSRPELLEYYIKVILDYNTAHNKVALSECYTVASVAEMPQNYRPHPQRFTYCSQVLGLHCYKKGIHYWEVELQKNNFCGVGICYGSMNRQGPESRLGRNSASWCVEWFNTKISAWHNNVEKTLPSTKATRVGVLLNCDHGFVIFFAVADKVHLMYKFRVDFTEALYPAFWVFSAGATLSICSPK</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>P19838</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Q8TEL6</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>DSGVETS</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>MAAAPVAAGSGAGRGRRSAATVAAWGGWGGRPRPGNILLQLRQGQLTGRGLVRAVQFTETFLTERDKQSKWSGIPQLLLKLHTTSHLHSDFVECQNILKEISPLLSMEAMAFVTEERKLTQETTYPNTYIFDLFGGVDLLVEILMRPTISIRGQKLKISDEMSKDCLSILYNTCVCTEGVTKRLAEKNDFVIFLFTLMTSKKTFLQTATLIEDILGVKKEMIRLDEVPNLSSLVSNFDQQQLANFCRILAVTISEMDTGNDDKHTLLAKNAQQKKSLSLGPSAAEINQAALLSIPGFVERLCKLATRKVSESTGTASFLQELEEWYTWLDNALVLDALMRVANEESEHNQASIVFPPPGASEENGLPHTSARTQLPQSMKIMHEIMYKLEVLYVLCVLLMGRQRNQVHRMIAEFKLIPGLNNLFDKLIWRKHSASALVLHGHNQNCDCSPDITLKIQFLRLLQSFSDHHENKYLLLNNQELNELSAISLKANIPEVEAVLNTDRSLVCDGKRGLLTRLLQVMKKEPAESSFRFWQARAVESFLRGTTSYADQMFLLKRGLLEHILYCIVDSECKSRDVLQSYFDLLGELMKFNVDAFKRFNKYINTDAKFQVFLKQINSSLVDSNMLVRCVTLSLDRFENQVDMKVAEVLSECRLLAYISQVPTQMSFLFRLINIIHVQTLTQENVSCLNTSLVILMLARRKERLPLYLRLLQRMEHSKKYPGFLLNNFHNLLRFWQQHYLHKDKDSTCLENSSCISFSYWKETVSILLNPDRQSPSALVSYIEEPYMDIDRDFTEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>O95997</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Q9NYG5</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>RKALGTV</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Q16875</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Q9Y2K7</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>AKEND</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>MEPEEERIRYSQRLRGTMRRRYEDDGISDDEIEGKRTFDLEEKLHTNKYNANFVTFMEGKDFNVEYIQRGGLRDPLIFKNSDGLGIKMPDPDFTVNDVKMCVGSRRMVDVMDVNTQKGIEMTMAQWTRYYETPEEEREKLYNVISLEFSHTRLENMVQRPSTVDFIDWVDNMWPRHLKESQTESTNAILEMQYPKVQKYCLMSVRGCYTDFHVDFGGTSVWYHIHQGGKVFWLIPPTAHNLELYENWLLSGKQGDIFLGDRVSDCQRIELKQGYTFVIPSGWIHAVYTPTDTLVFGGNFLHSFNIPMQLKIYNIEDRTRVPNKFRYPFYYEMCWYVLERYVYCITNRSHLTKEFQKESLSMDLELNGLESGNGDEEAVDREPRRLSSRRSVLTSPVANGVNLDYDGLGKTCRSLPSLKKTLAGDSSSDCSRGSHNGQVWDPQCAPRKDRQVHLTHFELEGLRCLVDKLESLPLHKKCVPTGIEDEDALIADVKILLEELANSDPKLALTGVPIVQWPKRDKLKFPTRPKVRVPTIPITKPHTMKPAPRLTPVRPAAASPIVSGARRRRVRCRKCKACVQGECGVCHYCRDMKKFGGPGRMKQSCVLRQCLAPRLPHSVTCSLCGEVDQNEETQDFEKKLMECCICNEIVHPGCLQMDGEGLLNEELPNCWECPKCYQEDSSEKAQKRKMEESDEEAVQAKVLRPLRSCDEPLTPPPHSPTSMLQLIHDPVSPRGMVTRSSPGAGPSDHHSASRDERFKRRQLLRLQATERTMVREKENNPSGKKELSEVEKAKIRGSYLTVTLQRPTKELHGTSIVPKLQAITASSANLRHSPRVLVQHCPARTPQRGDEEGLGGEEEEEEEEEEEDDSAEEGGAARLNGRGSWAQDGDESWMQREVWMSVFRYLSRRELCECMRVCKTWYKWCCDKRLWTKIDLSRCKAIVPQALSGIIKRQPVSLDLSWTNISKKQLTWLVNRLPGLKDLLLAGCSWSAVSALSTSSCPLLRTLDLRWAVGIKDPQIRDLLTPPADKPGQDNRSKLRNMTDFRLAGLDITDATLRLIIRHMPLLSRLDLSHCSHLTDQSSNLLTAVGSSTRYSLTELNMAGCNKLTDQTLIYLRRIANVTLIDLRGCKQITRKACEHFISDLSINSLYCLSDEKLIQKIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>O60260</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>P30304</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>NKENE</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>P19838</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>DSGVETS</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Q14494</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>DGETGE</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>P14921</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Q8N2W9</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>SFNSLQRVPSY</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>MAAELVEAKNMVMSFRVSDLQMLLGFVGRSKSGLKHELVTRALQLVQFDCSPELFKKIKELYETRYAKKNSEPAPQPHRPLDPLTMHSTYDRAGAVPRTPLAGPNIDYPVLYGKYLNGLGRLPAKTLKPEVRLVKLPFFNMLDELLKPTELVPQNNEKLQESPCIFALTPRQVELIRNSRELQPGVKAVQVVLRICYSDTSCPQEDQYPPNIAVKVNHSYCSVPGYYPSNKPGVEPKRPCRPINLTHLMYLSSATNRITVTWGNYGKSYSVALYLVRQLTSSELLQRLKTIGVKHPELCKALVKEKLRLDPDSEIATTGVRVSLICPLVKMRLSVPCRAETCAHLQCFDAVFYLQMNEKKPTWMCPVCDKPAPYDQLIIDGLLSKILSECEDADEIEYLVDGSWCPIRAEKERSCSPQGAILVLGPSDANGLLPAPSVNGSGALGSTGGGGPVGSMENGKPGADVVDLTLDSSSSSEDEEEEEEEEEDEDEEGPRPKRRCPFQKGLVPAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>P43146</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>IPTACVRPT</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Q8NEZ5</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>MEPVGCCGECRGSSVDPRSTFVLSNLAEVVERVLTFLPAKALLRVACVCRLWRECVRRVLRTHRSVTWISAGLAEAGHLEGHCLVRVVAEELENVRILPHTVLYMADSETFISLEECRGHKRARKRTSMETALALEKLFPKQCQVLGIVTPGIVVTPMGSGSNRPQEIEIGESGFALLFPQIEGIKIQPFHFIKDPKNLTLERHQLTEVGLLDNPELRVVLVFGYNCCKVGASNYLQQVVSTFSDMNIILAGGQVDNLSSLTSEKNPLDIDASGVVGLSFSGHRIQSATVLLNEDVSDEKTAEAAMQRLKAANIPEHNTIGFMFACVGRGFQYYRAKGNVEADAFRKFFPSVPLFGFFGNGEIGCDRIVTGNFILRKCNEVKDDDLFHSYTTIMALIHLGSSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Q13118</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>IPCAAVSPN</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Q96EP1</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Q38822</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
           <t>Q570C0</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>QIVGWPPVRSYRK</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
         <is>
           <t>MQKRIALSFPEEVLEHVFSFIQLDKDRNSVSLVCKSWYEIERWCRRKVFIGNCYAVSPATVIRRFPKVRSVELKGKPHFADFNLVPDGWGGYVYPWIEAMSSSYTWLEEIRLKRMVVTDDCLELIAKSFKNFKVLVLSSCEGFSTDGLAAIAATCRNLKELDLRESDVDDVSGHWLSHFPDTYTSLVSLNISCLASEVSFSALERLVTRCPNLKSLKLNRAVPLEKLATLLQRAPQLEELGTGGYTAEVRPDVYSGLSVALSGCKELRCLSGFWDAVPAYLPAVYSVCSRLTTLNLSYATVQSYDLVKLLCQCPKLQRLWVLDYIEDAGLEVLASTCKDLRELRVFPSEPFVMEPNVALTEQGLVSVSMGCPKLESVLYFCRQMTNAALITIARNRPNMTRFRLCIIEPKAPDYLTLEPLDIGFGAIVEHCKDLRRLSLSGLLTDKVFEYIGTYAKKMEMLSVAFAGDSDLGMHHVLSGCDSLRKLEIRDCPFGDKALLANASKLETMRSLWMSSCSVSFGACKLLGQKMPKLNVEVIDERGAPDSRPESCPVERVFIYRTVAGPRFDMPGFVWNMDQDSTMRFSRQIITTNGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>P53350</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>NRKPLTVLN</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Q9P2J3</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Q9NRD0</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>MGQGLWRVVRNQQLQQEGYSEQGYLTREQSRRMAASNISNTNHRKQVQGGIDIYHLLKARKSKEQEGFINLEMLPPELSFTILSYLNATDLCLASCVWQDLANDELLWQGLCKSTWGHCSIYNKNPPLGFSFRKLYMQLDEGSLTFNANPDEGVNYFMSKGILDDSPKEIAKFIFCTRTLNWKKLRIYLDERRDVLDDLVTLHNFRNQFLPNALREFFRHIHAPEERGEYLETLITKFSHRFCACNPDLMRELGLSPDAVYVLCYSLILLSIDLTSPHVKNKMSKREFIRNTRRAAQNISEDFVGHLYDNIYLIGHVAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Q9NYG5</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Q9P2P5</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>MASSAREHLLFVRRRNPQMRYTLSPENLQSLAAQSSMPENMTLQRANSDTDLVTSESRSSLTASMYEYTLGQAQNLIIFWDIKEEVDPSDWIGLYHIDENSPANFWDSKNRGVTGTQKGQIVWRIEPGPYFMEPEIKICFKYYHGISGALRATTPCITVKNPAVMMGAEGMEGGASGNLHSRKLVSFTLSDLRAVGLKKGMFFNPDPYLKMSIQPGKKSSFPTCAHHGQERRSTIISNTTNPIWHREKYSFFALLTDVLEIEIKDKFAKSRPIIKRFLGKLTIPVQRLLERQAIGDQMLSYNLGRRLPADHVSGYLQFKVEVTSSVHEDASPEAVGTILGVNSVNGDLGSPSDDEDMPGSHHDSQVCSNGPVSEDSAADGTPKHSFRTSSTLEIDTEELTSTSSRTSPPRGRQDSLNDYLDAIEHNGHSRPGTATCSERSMGASPKLRSSFPTDTRLNAMLHIDSDEEDHEFQQDLGYPSSLEEEGGLIMFSRASRADDGSLTSQTKLEDNPVENEEASTHEAASFEDKPENLPELAESSLPAGPAPEEGEGGPEPQPSADQGSAELCGSQEVDQPTSGADTGTSDASGGSRRAVSETESLDQGSEPSQVSSETEPSDPARTESVSEASTRPEGESDLECADSSCNESVTTQLSSVDTRCSSLESARFPETPAFSSQEEEDGACAAEPTSSGPAEGSQESVCTAGSLPVVQVPSGEDEGPGAESATVPDQEELGEVWQRRGSLEGAAAAAESPPQEEGSAGEAQGTCEGATAQEEGATGGSQANGHQPLRSLPSVRQDVSRYQRVDEALPPNWEARIDSHGRIFYVDHVNRTTTWQRPTAPPAPQVLQRSNSIQQMEQLNRRYQSIRRTMTNERPEENTNAIDGAGEEADFHQASADFRRENILPHSTSRSRITLLLQSPPVKFLISPEFFTVLHSNPSAYRMFTNNTCLKHMITKVRRDTHHFERYQHNRDLVGFLNMFANKQLELPRGWEMKHDHQGKAFFVDHNSRTTTFIDPRLPLQSSRPTSALVHRQHLTRQRSHSAGEVGEDSRHAGPPVLPRPSSTFNTVSRPQYQDMVPVAYNDKIVAFLRQPNIFEILQERQPDLTRNHSLREKIQFIRTEGTPGLVRLSSDADLVMLLSLFEEEIMSYVPPHALLHPSYCQSPRGSPVSSPQNSPGTQRANARAPAPYKRDFEAKLRNFYRKLETKGYGQGPGKLKLIIRRDHLLEDAFNQIMGYSRKDLQRNKLYVTFVGEEGLDYSGPSREFFFLVSRELFNPYYGLFEYSANDTYTVQISPMSAFVDNHHEWFRFSGRILGLALIHQYLLDAFFTRPFYKALLRILCDLSDLEYLDEEFHQSLQWMKDNDIHDILDLTFTVNEEVFGQITERELKPGGANIPVTEKNKKEYIERMVKWRIERGVVQQTESLVRGFYEVVDARLVSVFDARELELVIAGTAEIDLSDWRNNTEYRGGYHDNHIVIRWFWAAVERFNNEQRLRLLQFVTGTSSIPYEGFASLRGSNGPRRFCVEKWGKITALPRAHTCFNRLDLPPYPSFSMLYEKLLTAVEETSTFGLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Q53EL6</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Q9UKB1</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>DSGRGDS</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Q6Q0C0</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>MSSGKSARYNRFSGGPSNLPTPDVTTGTRMETTFGPAFSAVTTITKADGTSTYKQHCRTPSSSSTLAYSPRDEEDSMPPISTPRRSDSAISVRSLHSESSMSLRSTFSLPEEEEEPEPLVFAEQPSVKLCCQLCCSVFKDPVITTCGHTFCRRCALKSEKCPVDNVKLTVVVNNIAVAEQIGELFIHCRHGCRVAGSGKPPIFEVDPRGCPFTIKLSARKDHEGSCDYRPVRCPNNPSCPPLLRMNLEAHLKECEHIKCPHSKYGCTFIGNQDTYETHLETCRFEGLKEFLQQTDDRFHEMHVALAQKDQEIAFLRSMLGKLSEKIDQLEKSLELKFDVLDENQSKLSEDLMEFRRDASMLNDELSHINARLNMGILGSYDPQQIFKCKGTFVGHQGPVWCLCVYSMGDLLFSGSSDKTIKVWDTCTTYKCQKTLEGHDGIVLALCIQGCKLYSGSADCTIIVWDIQNLQKVNTIRAHDNPVCTLVSSHNVLFSGSLKAIKVWDIVGTELKLKKELTGLNHWVRALVAAQSYLYSGSYQTIKIWDIRTLDCIHVLQTSGGSVYSIAVTNHHIVCGTYENLIHVWDIESKEQVRTLTGHVGTVYALAVISTPDQTKVFSASYDRSLRVWSMDNMICTQTLLRHQGSVTALAVSRGRLFSGAVDSTVKVWTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Q8W191</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>P43254</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>EELLMVPDM</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>MEEISTDPVVPAVKPDPRTSSVGEGANRHENDDGGSGGSEIGAPDLDKDLLCPICMQIIKDAFLTACGHSFCYMCIITHLRNKSDCPCCSQHLTNNQLYPNFLLDKLLKKTSARHVSKTASPLDQFREALQRGCDVSIKEVDNLLTLLAERKRKMEQEEAERNMQILLDFLHCLRKQKVDELNEVQTDLQYIKEDINAVERHRIDLYRARDRYSVKLRMLGDDPSTRNAWPHEKNQIGFNSNSLSIRGGNFVGNYQNKKVEGKAQGSSHGLPKKDALSGSDSQSLNQSTVSMARKKRIHAQFNDLQECYLQKRRQLADQPNSKQENDKSVVRREGYSNGLADFQSVLTTFTRYSRLRVIAEIRHGDIFHSANIVSSIEFDRDDELFATAGVSRCIKVFDFSSVVNEPADMQCPIVEMSTRSKLSCLSWNKHEKNHIASSDYEGIVTVWDVTTRQSLMEYEEHEKRAWSVDFSRTEPSMLVSGSDDCKVKVWCTRQEASVINIDMKANICCVKYNPGSSNYIAVGSADHHIHYYDLRNISQPLHVFSGHKKAVSYVKFLSNNELASASTDSTLRLWDVKDNLPVRTFRGHTNEKNFVGLTVNSEYLACGSETNEVYVYHKEITRPVTSHRFGSPDMDDAEEEAGSYFISAVCWKSDSPTMLTANSQGTIKVLVLAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Q9UHC7</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>MAEAATPGTTATTSGAGAAAATAAAASPTPIPTVTAPSLGAGGGGGGSDGSGGGWTKQVTCRYFMHGVCKEGDNCRYSHDLSDSPYSVVCKYFQRGYCIYGDRCRYEHSKPLKQEEATATELTTKSSLAASSSLSSIVGPLVEMNTGEAESRNSNFATVGAGSEDWVNAIEFVPGQPYCGRTAPSCTEAPLQGSVTKEESEKEQTAVETKKQLCPYAAVGECRYGENCVYLHGDSCDMCGLQVLHPMDAAQRSQHIKSCIEAHEKDMELSFAVQRSKDMVCGICMEVVYEKANPSERRFGILSNCNHTYCLKCIRKWRSAKQFESKIIKSCPECRITSNFVIPSEYWVEEKEEKQKLILKYKEAMSNKACRYFDEGRGSCPFGGNCFYKHAYPDGRREEPQRQKVGTSSRYRAQRRNHFWELIEERENSNPFDNDEEEVVTFELGEMLLMLLAAGGDDELTDSEDEWDLFHDELEDFYDLDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>P46527</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Q8NHY2</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>SVEQTPKK</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>MSGSRQAGSGSAGTSPGSSAASSVTSASSSLSSSPSPPSVAVSAAALVSGGVAQAAGSGGLGGPVRPVLVAPAVSGSGGGAVSTGLSRHSCAARPSAGVGGSSSSLGSGSRKRPLLAPLCNGLINSYEDKSNDFVCPICFDMIEEAYMTKCGHSFCYKCIHQSLEDNNRCPKCNYVVDNIDHLYPNFLVNELILKQKQRFEEKRFKLDHSVSSTNGHRWQIFQDWLGTDQDNLDLANVNLMLELLVQKKKQLEAESHAAQLQILMEFLKVARRNKREQLEQIQKELSVLEEDIKRVEEMSGLYSPVSEDSTVPQFEAPSPSHSSIIDSTEYSQPPGFSGSSQTKKQPWYNSTLASRRKRLTAHFEDLEQCYFSTRMSRISDDSRTASQLDEFQECLSKFTRYNSVRPLATLSYASDLYNGSSIVSSIEFDRDCDYFAIAGVTKKIKVYEYDTVIQDAVDIHYPENEMTCNSKISCISWSSYHKNLLASSDYEGTVILWDGFTGQRSKVYQEHEKRCWSVDFNLMDPKLLASGSDDAKVKLWSTNLDNSVASIEAKANVCCVKFSPSSRYHLAFGCADHCVHYYDLRNTKQPIMVFKGHRKAVSYAKFVSGEEIVSASTDSQLKLWNVGKPYCLRSFKGHINEKNFVGLASNGDYIACGSENNSLYLYYKGLSKTLLTFKFDTVKSVLDKDRKEDDTNEFVSAVCWRALPDGESNVLIAANSQGTIKVLELV</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Q9P2P5</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>RGSLEGA</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>HRKHLQEIP</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>P20248</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>RAALAVL</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Q27368</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Q24371</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>NDITNYYKVKRRP</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>MNIYNKLRAREHGYGNERTYDFALRRLSVAKEDSWRGIAPANYCPDFNPEPPIFSAKFANCDGYRHILAIANEDGKITLQDTTQRNHQPEEQSLVGPQCHFNAVFDLEWAPGQMRFVSASGDHTARLWEVAGSGIRGLNSYVGHTRSVKSAAFKRTDPAVFATGGRDGAILIWDIRANLNMDLTSRVDNCIYSGHTGGPGTPVSQRKQRTRTPKMAGGTTSSSITGLAFQDNDTLISCGAGDGVIKVWDLRRNYTAYKKEPLPRHKLPYAGSSTFRGFTNLIVDASGTRLYANCMDNTIYCYNLASYSQRPLACYKGLLNSTFYIKSCLSPDGKYLLSGSSDERAYIWNLDHAEEPLVALAGHTVEVTCVAWGSSHDCPIVTCSDDARHKIWRIGPDLDGLSEAERAEKYRGTASYVREFGKKAFGPSSGNHKYNLRDLESTPRSLKRLMDQNERTPGSVEKTTTKRSFLEMLGVAGQETEATEQPQKRAKPLESRGRRLFGPSSQETACRHIQLQSINEEDASPSKRQKENSAAEDVSPLHKLLSTPSHSPLSENVNHVYTSPPTTSAAAAAVAADALNPPPISAAIYSPTSNLPNYVLDGEAPHLGIMSPKRKAKEKVDWLTNIRKQKLMSGRAHVTLSEKISEEQQADVLASPRLQSLRQSECSPRIHASPRRRISHTDGGGGTPAGSSSHSHSQSQPKTPTSSRRNSETTLLRFFSIQRSSSVPAEETTTTNAAPSSSDPHPPAVTAPAATPLSMRTPTTAVGSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Q13887</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Q9HAU4</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>FPPSPPSS</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>MSNPGGRRNGPVKLRLTVLCAKNLVKKDFFRLPDPFAKVVVDGSGQCHSTDTVKNTLDPKWNQHYDLYIGKSDSVTISVWNHKKIHKKQGAGFLGCVRLLSNAINRLKDTGYQRLDLCKLGPNDNDTVRGQIVVSLQSRDRIGTGGQVVDCSRLFDNDLPDGWEERRTASGRIQYLNHITRTTQWERPTRPASEYSSPGRPLSCFVDENTPISGTNGATCGQSSDPRLAERRVRSQRHRNYMSRTHLHTPPDLPEGYEQRTTQQGQVYFLHTQTGVSTWHDPRVPRDLSNINCEELGPLPPGWEIRNTATGRVYFVDHNNRTTQFTDPRLSANLHLVLNRQNQLKDQQQQQVVSLCPDDTECLTVPRYKRDLVQKLKILRQELSQQQPQAGHCRIEVSREEIFEESYRQVMKMRPKDLWKRLMIKFRGEEGLDYGGVAREWLYLLSHEMLNPYYGLFQYSRDDIYTLQINPDSAVNPEHLSYFHFVGRIMGMAVFHGHYIDGGFTLPFYKQLLGKSITLDDMELVDPDLHNSLVWILENDITGVLDHTFCVEHNAYGEIIQHELKPNGKSIPVNEENKKEYVRLYVNWRFLRGIEAQFLALQKGFNEVIPQHLLKTFDEKELELIICGLGKIDVNDWKVNTRLKHCTPDSNIVKWFWKAVEFFDEERRARLLQFVTGSSRVPLQGFKALQGAAGPRLFTIHQIDACTNNLPKAHTCFNRIDIPPYESYEKLYEKLLTAIEETCGFAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Q8TEB1</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>MGSRNSSSAGSGSGDPSEGLPRRGAGLRRSEEEEEEDEDVDLAQVLAYLLRRGQVRLVQGGGAANLQFIQALLDSEEENDRAWDGRLGDRYNPPVDATPDTRELEFNEIKTQVELATGQLGLRRAAQKHSFPRMLHQRERGLCHRGSFSLGEQSRVISHFLPNDLGFTDSYSQKAFCGIYSKDGQIFMSACQDQTIRLYDCRYGRFRKFKSIKARDVGWSVLDVAFTPDGNHFLYSSWSDYIHICNIYGEGDTHTALDLRPDERRFAVFSIAVSSDGREVLGGANDGCLYVFDREQNRRTLQIESHEDDVNAVAFADISSQILFSGGDDAICKVWDRRTMREDDPKPVGALAGHQDGITFIDSKGDARYLISNSKDQTIKLWDIRRFSSREGMEASRQAATQQNWDYRWQQVPKKAWRKLKLPGDSSLMTYRGHGVLHTLIRCRFSPIHSTGQQFIYSGCSTGKVVVYDLLSGHIVKKLTNHKACVRDVSWHPFEEKIVSSSWDGNLRLWQYRQAEYFQDDMPESEECASAPAPVPQSSTPFSSPQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>P49919</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Q9Z0Z3</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>AVEQTPRK</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDQSGNVTTSFTWGWDSSKTSELLSGMGVSALEKEEVDSENIPHGLLSNLGHPQSPPRKRVKGKGSDKDFVIIRRPKLSRENFPGVSWDSLPDELLLGIFSCLCLPELLRVSGVCKRWYRLSLDESLWQSLDLAGKNLHPDVTVRLLSRGVVAFRCPRSFMEQPLGESFSSFRVQHMDLSNSVINVSNLHKILSECSKLQNLSLEGLQLSDPIVKTLAQNENLVRLNLCGCSGFSESAVATLLSSCSRLDELNLSWCFDFTEKHVQAAVAHLPNTITQLNLSGYRKNLQKTDLCTIIKRCPNLIRLDLSDSIMLKNDCFPEFFQLNYLQHLSLSRCYDIIPDTLLELGEIPTLKTLQVFGIVPEGTLQLLREALPRLQINCAYFTTIARPTMDSKKNLEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Q12834</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>O43791</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>SKENQ</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>P36956</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>LTPPPS</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Q9ULT8</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>MADVDPDTLLEWLQMGQGDERDMQLIALEQLCMLLLMSDNVDRCFETCPPRTFLPALCKIFLDESAPDNVLEVTARAITYYLDVSAECTRRIVGVDGAIKALCNRLVVVELNNRTSRDLAEQCVKVLELICTRESGAVFEAGGLNCVLTFIRDSGHLVHKDTLHSAMAVVSRLCGKMEPQDSSLEICVESLSSLLKHEDHQVSDGALRCFASLADRFTRRGVDPAPLAKHGLTEELLSRMAAAGGTVSGPSSACKPGRSTTGAPSTTADSKLSNQVSTIVSLLSTLCRGSPVVTHDLLRSELPDSIESALQGDERCVLDTMRLVDLLLVLLFEGRKALPKSSAGSTGRIPGLRRLDSSGERSHRQLIDCIRSKDTDALIDAIDTGAFEVNFMDDVGQTLLNWASAFGTQEMVEFLCERGADVNRGQRSSSLHYAACFGRPQVAKTLLRHGANPDLRDEDGKTPLDKARERGHSEVVAILQSPGDWMCPVNKGDDKKKKDTNKDEEECNEPKGDPEMAPIYLKRLLPVFAQTFQQTMLPSIRKASLALIRKMIHFCSEALLKEVCDSDVGHNLPTILVEITATVLDQEDDDDGHLLALQIIRDLVDKGGDIFLDQLARLGVISKVSTLAGPSSDDENEEESKPEKEDEPQEDAKELQQGKPYHWRDWSIIRGRDCLYIWSDAAALELSNGSNGWFRFILDGKLATMYSSGSPEGGSDSSESRSEFLEKLQRARGQVKPSTSSQPILSAPGPTKLTVGNWSLTCLKEGEIAIHNSDGQQATILKEDLPGFVFESNRGTKHSFTAETSLGSEFVTGWTGKRGRKLKSKLEKTKQKVRTMARDLYDDHFKAVESMPRGVVVTLRNIATQLESSWELHTNRQCIESENTWRDLMKTALENLIVLLKDENTISPYEMCSSGLVQALLTVLNNSMDLDMKQDCSQLVERINVFKTAFSENEDDESRPAVALIRKLIAVLESIERLPLHLYDTPGSTYNLQILTRRLRFRLERAPGETALIDRTGRMLKMEPLATVESLEQYLLKMVAKQWYDFDRSSFVFVRKLREGQNFIFRHQHDFDENGIIYWIGTNAKTAYEWVNPAAYGLVVVTSSEGRNLPYGRLEDILSRDNSALNCHSNDDKNAWFAIDLGLWVIPSAYTLRHARGYGRSALRNWVFQVSKDGQNWTSLYTHVDDCSLNEPGSTATWPLDPPKDEKQGWRHVRIKQMGKNASGQTHYLSLSGFELYGTVNGVCEDQLGKAAKEAEANLRRQRRLVRSQVLKYMVPGARVIRGLDWKWRDQDGSPQGEGTVTGELHNGWIDVTWDAGGSNSYRMGAEGKFDLKLAPGYDPDTVASPKPVSSTVSGTTQSWSSLVKNNCPDKTSAAAGSSSRKGSSSSVCSVASSSDISLGSTKTERRSEIVMEHSIVSGADVHEPIVVLSSAENVPQTEVGSSSSASTSTLTAETGSENAERKLGPDSSVRTPGESSAISMGIVSVSSPDVSSVSELTNKEAASQRPLSSSASNRLSVSSLLAAGAPMSSSASVPNLSSRETSSLESFVRRVANIARTNATNNMNLSRSSSDNNTNTLGRNVMSTATSPLMGAQSFPNLTTPGTTSTVTMSTSSVTSSSNVATATTVLSVGQSLSNTLTTSLTSTSSESDTGQEAEYSLYDFLDSCRASTLLAELDDDEDLPEPDEEDDENEDDNQEDQEYEEVMILRRPSLQRRAGSRSDVTHHAVTSQLPQVPAGAGSRPIGEQEEEEYETKGGRRRTWDDDYVLKRQFSALVPAFDPRPGRTNVQQTTDLEIPPPGTPHSELLEEVECTPSPRLALTLKVTGLGTTREVELPLTNFRSTIFYYVQKLLQLSCNGNVKSDKLRRIWEPTYTIMYREMKDSDKEKENGKMGCWSIEHVEQYLGTDELPKNDLITYLQKNADAAFLRHWKLTGTNKSIRKNRNCSQLIAAYKDFCEHGTKSGLNQGAISTLQSSDILNLTKEQPQAKAGNGQNSCGVEDVLQLLRILYIVASDPYSRISQEDGDEQPQFTFPPDEFTSKKITTKILQQIEEPLALASGALPDWCEQLTSKCPFLIPFETRQLYFTCTAFGASRAIVWLQNRREATVERTRTTSSVRRDDPGEFRVGRLKHERVKVPRGESLMEWAENVMQIHADRKSVLEVEFLGEEGTGLGPTLEFYALVAAEFQRTDLGAWLCDDNFPDDESRHVDLGGGLKPPGYYVQRSCGLFTAPFPQDSDELERITKLFHFLGIFLAKCIQDNRLVDLPISKPFFKLMCMGDIKSNMSKLIYESRGDRDLHCTESQSEASTEEGHDSLSVGSFEEDSKSEFILDPPKPKPPAWFNGILTWEDFELVNPHRARFLKEIKDLAIKRRQILSNKGLSEDEKNTKLQELVLKNPSGSGPPLSIEDLGLNFQFCPSSRIYGFTAVDLKPSGEDEMITMDNAEEYVDLMFDFCMHTGIQKQMEAFRDGFNKVFPMEKLSSFSHEEVQMILCGNQSPSWAAEDIINYTEPKLGYTRDSPGFLRFVRVLCGMSSDERKAFLQFTTGCSTLPPGGLANLHPRLTVVRKVDATDASYPSVNTCVHYLKLPEYSSEEIMRERLLAATMEKGFHLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>O94889</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>MVEDGAEELEDLVHFSVSELPSRGYGVMEEIRRQGKLCDVTLKIGDHKFSAHRIVLAASIPYFHAMFTNDMMECKQDEIVMQGMDPSALEALINFAYNGNLAIDQQNVQSLLMGASFLQLQSIKDACCTFLRERLHPKNCLGVRQFAETMMCAVLYDAANSFIHQHFVEVSMSEEFLALPLEDVLELVSRDELNVKSEEQVFEAALAWVRYDREQRGPYLPELLSNIRLPLCRPQFLSDRVQQDDLVRCCHKCRDLVDEAKDYHLMPERRPHLPAFRTRPRCCTSIAGLIYAVGGLNSAGDSLNVVEVFDPIANCWERCRPMTTARSRVGVAVVNGLLYAIGGYDGQLRLSTVEAYNPETDTWTRVGSMNSKRSAMGTVVLDGQIYVCGGYDGNSSLSSVETYSPETDKWTVVTSMSSNRSAAGVTVFEGRIYVSGGHDGLQIFSSVEHYNHHTATWHPAAGMLNKRCRHGAASLGSKMFVCGGYDGSGFLSIAEMYSSVADQWCLIVPMHTRRSRVSLVASCGRLYAVGGYDGQSNLSSVEMYDPETDCWTFMAPMACHEGGVGVGCIPLLTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>P46531</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>PFLTPSPE</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>O75496</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Q9NYG5</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>RRTLKMI</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Q16875</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>AKEND</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Q13887</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Q9H0M0</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>FPPSPPSS</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>P30281</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Q9UKC9</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>PTDVTAIHL</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>MVFSNNDEGLINKKLPKELLLRIFSFLDIVTLCRCAQISKAWNILALDGSNWQRIDLFNFQTDVEGRVVENISKRCGGFLRKLSLRGCIGVGDSSLKTFAQNCRNIEHLNLNGCTKITDSTCYSLSRFCSKLKHLDLTSCVSITNSSLKGISEGCRNLEYLNLSWCDQITKDGIEALVRGCRGLKALLLRGCTQLEDEALKHIQNYCHELVSLNLQSCSRITDEGVVQICRGCHRLQALCLSGCSNLTDASLTALGLNCPRLQILEAARCSHLTDAGFTLLARNCHELEKMDLEECILITDSTLIQLSIHCPKLQALSLSHCELITDDGILHLSNSTCGHERLRVLELDNCLLITDVALEHLENCRGLERLELYDCQQVTRAGIKRMRAQLPHVKVHAYFAPVTPPTAVAGSGQRLCRCCVIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Q7L5Y6</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>MDHHVSTIKPRRIQNQNVIHRLERRRISSGKAGTHWHQVRVFHQNVFPNFTVVNVEKPPCFLRKFSPDGRYFIAFSSDQTSLEIYEYQGCQAAEDLLQGYEGEILSNGNDQRSVNIRGRLFERFFVLLHITNVAANGEHLNRECSLFTDDCRCVIVGSAAYLPDEPHPPFFEVYRNSESVTPNPRSPLEDYSLHIIDLHTGRLCDTRTFKCDKVVLSHNQGLYLYKNILAILSVQQQTIHVFQVTPEGTFIDVRTIGRFCYEDDLLTVSAVFPEVQRDSQTGMANPFRDPFINSLKHRLLVYLWRRAEQDGSAMAKRRFFQYFDQLRQLRMWKMQLLDENHLFIKYTSEDVVTLRVTDPSQASFFVVYNMVTTEVIAVFENTSDELLELFENFCDLFRNATLHSEVQFPCSASSNNFARQIQRRFKDTIINAKYGGHTEAVRRLLGQLPISAQSYSGSPYLDLSLFSYDDKWVSVMERPKTCGDHPIRFYARDSGLLKFEIQAGLLGRPINHTVRRLVAFTFHPFEPFAISVQRTNAEYVVNFHMRHCCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Q9H3D4</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Q96SW2</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>FQHIWDFL</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>MAGEGDQQDAAHNMGNHLPLLPAESEEEDEMEVEDQDSKEAKKPNIINFDTSLPTSHTYLGADMEEFHGRTLHDDDSCQVIPVLPQVMMILIPGQTLPLQLFHPQEVSMVRNLIQKDRTFAVLAYSNVQEREAQFGTTAEIYAYREEQDFGIEIVKVKAIGRQRFKVLELRTQSDGIQQAKVQILPECVLPSTMSAVQLESLNKCQIFPSKPVSREDQCSYKWWQKYQKRKFHCANLTSWPRWLYSLYDAETLMDRIKKQLREWDENLKDDSLPSNPIDFSYRVAACLPIDDVLRIQLLKIGSAIQRLRCELDIMNKCTSLCCKQCQETEITTKNEIFSLSLCGPMAAYVNPHGYVHETLTVYKACNLNLIGRPSTEHSWFPGYAWTVAQCKICASHIGWKFTATKKDMSPQKFWGLTRSALLPTIPDTEDEISPDKVILCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>P00533</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Q9H0M0</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>DSFLQRYSSDP</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
         </is>
       </c>
     </row>
